--- a/models/trv_scenario2.xlsx
+++ b/models/trv_scenario2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ug.kth.se\dfs\home\a\e\aengholm\appdata\xp.V2\Desktop\EMA_testing\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aengholm\OneDrive - KTH\MUST\Repository\climate_scenarios_EMA\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="400">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -2308,9 +2308,6 @@
   </si>
   <si>
     <t>Beslutad politik</t>
-  </si>
-  <si>
-    <t>2. Mer ambitös politik</t>
   </si>
   <si>
     <t>Totalt - Lätta fordon och lastbilar</t>
@@ -2604,6 +2601,12 @@
   </si>
   <si>
     <t>Global truck electrification share 2030</t>
+  </si>
+  <si>
+    <t>1 Beslutad politik</t>
+  </si>
+  <si>
+    <t>2 Mer ambitios politik</t>
   </si>
 </sst>
 </file>
@@ -5215,6 +5218,39 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5230,44 +5266,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5275,30 +5302,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5311,45 +5314,45 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5359,6 +5362,36 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5368,41 +5401,11 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -5495,6 +5498,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5615,13 +5619,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16043102663443456</c:v>
+                  <c:v>0.14544221527965362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.710102670583772E-2</c:v>
+                  <c:v>8.6704861723968976E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14346025708900673</c:v>
+                  <c:v>0.14323211720544521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,13 +5676,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13372072886924891</c:v>
+                  <c:v>7.7805661635711121E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6334383167790523E-2</c:v>
+                  <c:v>7.5866085395529914E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6334383167790523E-2</c:v>
+                  <c:v>7.5866085395529914E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5800,6 +5804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5990,6 +5995,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6113,10 +6119,10 @@
                   <c:v>18.846304382759293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.659926180053853</c:v>
+                  <c:v>10.643757443598441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.787993697043081</c:v>
+                  <c:v>18.77868618001569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,13 +6173,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.462424372705144</c:v>
+                  <c:v>21.462424372705147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.75747943737116</c:v>
+                  <c:v>21.72869536516707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.75747943737116</c:v>
+                  <c:v>21.72869536516707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6295,6 +6301,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6485,6 +6492,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6605,13 +6613,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.8222848467547585</c:v>
+                  <c:v>8.9048257979185692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3353378371329088</c:v>
+                  <c:v>5.3109507560418923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7834111868409348</c:v>
+                  <c:v>8.7693673765721289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6662,13 +6670,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.331070923366525</c:v>
+                  <c:v>3.7646074767324453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6970964182809305</c:v>
+                  <c:v>3.668057945615451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6970964182809305</c:v>
+                  <c:v>3.668057945615451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6790,6 +6798,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6980,6 +6989,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7100,13 +7110,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.21232171264937</c:v>
+                  <c:v>10.211223738407657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0002099137727312</c:v>
+                  <c:v>5.9601646698294068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6424832121928095</c:v>
+                  <c:v>5.629954020820974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,13 +7167,13 @@
                 <c:formatCode>#\ ##0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.2826821776793018</c:v>
+                  <c:v>5.0289545083564882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9062348715434425</c:v>
+                  <c:v>1.8896846691580746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9062348715434425</c:v>
+                  <c:v>1.8896846691580746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7285,6 +7295,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10328,13 +10339,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="126" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="584" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" s="584"/>
       <c r="C3" s="584"/>
@@ -10367,10 +10378,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="299" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="300" t="s">
         <v>346</v>
-      </c>
-      <c r="B7" s="300" t="s">
-        <v>347</v>
       </c>
       <c r="C7" s="40"/>
     </row>
@@ -10385,10 +10396,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="299" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="300" t="s">
         <v>374</v>
-      </c>
-      <c r="B9" s="300" t="s">
-        <v>375</v>
       </c>
       <c r="C9" s="40"/>
     </row>
@@ -10430,37 +10441,37 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="382" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="217"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="217" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="217"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="217" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" s="217"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="217" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B18" s="217"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19" s="217"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="217" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" s="217"/>
     </row>
@@ -10540,87 +10551,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="638" t="s">
+      <c r="A3" s="633" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="644" t="s">
+      <c r="B3" s="635" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="645"/>
-      <c r="D3" s="638" t="s">
+      <c r="C3" s="636"/>
+      <c r="D3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="637"/>
-      <c r="F3" s="638" t="s">
+      <c r="E3" s="646"/>
+      <c r="F3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="637"/>
-      <c r="H3" s="636" t="s">
+      <c r="G3" s="646"/>
+      <c r="H3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="637"/>
-      <c r="K3" s="638" t="s">
+      <c r="I3" s="646"/>
+      <c r="K3" s="633" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="644" t="s">
+      <c r="L3" s="635" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="645"/>
-      <c r="N3" s="638" t="s">
+      <c r="M3" s="636"/>
+      <c r="N3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="637"/>
-      <c r="P3" s="638" t="s">
+      <c r="O3" s="646"/>
+      <c r="P3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="636" t="s">
+      <c r="Q3" s="646"/>
+      <c r="R3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="637"/>
-      <c r="U3" s="638" t="s">
+      <c r="S3" s="646"/>
+      <c r="U3" s="633" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="644" t="s">
+      <c r="V3" s="635" t="s">
         <v>241</v>
       </c>
-      <c r="W3" s="645"/>
-      <c r="X3" s="638" t="s">
+      <c r="W3" s="636"/>
+      <c r="X3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="637"/>
-      <c r="Z3" s="638" t="s">
+      <c r="Y3" s="646"/>
+      <c r="Z3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="637"/>
-      <c r="AB3" s="636" t="s">
+      <c r="AA3" s="646"/>
+      <c r="AB3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="637"/>
-      <c r="AE3" s="638" t="s">
+      <c r="AC3" s="646"/>
+      <c r="AE3" s="633" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="644" t="s">
+      <c r="AF3" s="635" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="645"/>
-      <c r="AH3" s="638" t="s">
+      <c r="AG3" s="636"/>
+      <c r="AH3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="637"/>
-      <c r="AJ3" s="638" t="s">
+      <c r="AI3" s="646"/>
+      <c r="AJ3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="637"/>
-      <c r="AL3" s="636" t="s">
+      <c r="AK3" s="646"/>
+      <c r="AL3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="637"/>
+      <c r="AM3" s="646"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="643"/>
-      <c r="B4" s="646"/>
-      <c r="C4" s="647"/>
+      <c r="A4" s="634"/>
+      <c r="B4" s="637"/>
+      <c r="C4" s="638"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -10639,9 +10650,9 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="643"/>
-      <c r="L4" s="646"/>
-      <c r="M4" s="647"/>
+      <c r="K4" s="634"/>
+      <c r="L4" s="637"/>
+      <c r="M4" s="638"/>
       <c r="N4" s="265">
         <v>2030</v>
       </c>
@@ -10660,9 +10671,9 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="643"/>
-      <c r="V4" s="646"/>
-      <c r="W4" s="647"/>
+      <c r="U4" s="634"/>
+      <c r="V4" s="637"/>
+      <c r="W4" s="638"/>
       <c r="X4" s="265">
         <v>2030</v>
       </c>
@@ -10681,9 +10692,9 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="643"/>
-      <c r="AF4" s="646"/>
-      <c r="AG4" s="647"/>
+      <c r="AE4" s="634"/>
+      <c r="AF4" s="637"/>
+      <c r="AG4" s="638"/>
       <c r="AH4" s="265">
         <v>2030</v>
       </c>
@@ -10744,7 +10755,7 @@
       <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="633" t="s">
+      <c r="A6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -10777,7 +10788,7 @@
         <f>Indata!I54</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="K6" s="633" t="s">
+      <c r="K6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -10810,7 +10821,7 @@
         <f>'Modell - Drivmedelpriser'!J57</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="U6" s="633" t="s">
+      <c r="U6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -10843,7 +10854,7 @@
         <f t="shared" ref="AC6:AC7" si="4">S6</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="AE6" s="633" t="s">
+      <c r="AE6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -10878,7 +10889,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="634"/>
+      <c r="A7" s="644"/>
       <c r="B7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10909,7 +10920,7 @@
         <f>Indata!I55</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="634"/>
+      <c r="K7" s="644"/>
       <c r="L7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10940,7 +10951,7 @@
         <f>'Modell - Drivmedelpriser'!J83</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="634"/>
+      <c r="U7" s="644"/>
       <c r="V7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10971,7 +10982,7 @@
         <f t="shared" si="4"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="634"/>
+      <c r="AE7" s="644"/>
       <c r="AF7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11004,7 +11015,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="635"/>
+      <c r="A8" s="645"/>
       <c r="B8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11029,7 +11040,7 @@
       <c r="I8" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="635"/>
+      <c r="K8" s="645"/>
       <c r="L8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11060,7 +11071,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="635"/>
+      <c r="U8" s="645"/>
       <c r="V8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11091,7 +11102,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="635"/>
+      <c r="AE8" s="645"/>
       <c r="AF8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11696,11 +11707,11 @@
       </c>
       <c r="D15" s="277">
         <f>SUMPRODUCT(D11:D14,D36:D39)/D40</f>
-        <v>2.635417410126252</v>
+        <v>2.6756106899982623</v>
       </c>
       <c r="E15" s="278">
         <f t="shared" ref="E15:I15" si="27">SUMPRODUCT(E11:E14,E36:E39)/E40</f>
-        <v>2.104120696313331</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="F15" s="277">
         <f t="shared" si="27"/>
@@ -11727,11 +11738,11 @@
       </c>
       <c r="N15" s="277">
         <f t="shared" ref="N15:S15" si="28">SUMPRODUCT(N11:N14,N36:N39)/N40</f>
-        <v>2.635417410126252</v>
+        <v>2.6756106899982623</v>
       </c>
       <c r="O15" s="278">
         <f t="shared" si="28"/>
-        <v>2.104120696313331</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="P15" s="277">
         <f t="shared" si="28"/>
@@ -11758,15 +11769,15 @@
       </c>
       <c r="X15" s="277">
         <f t="shared" ref="X15:AC15" si="29">SUMPRODUCT(X11:X14,X36:X39)/X40</f>
-        <v>2.635417410126252</v>
+        <v>2.6756106899982623</v>
       </c>
       <c r="Y15" s="278">
         <f t="shared" si="29"/>
-        <v>2.104120696313331</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="Z15" s="277">
         <f t="shared" si="29"/>
-        <v>2.619116556182119</v>
+        <v>2.6191165561821195</v>
       </c>
       <c r="AA15" s="279">
         <f t="shared" si="29"/>
@@ -11789,27 +11800,27 @@
       </c>
       <c r="AH15" s="277">
         <f t="shared" ref="AH15:AM15" si="30">SUMPRODUCT(AH11:AH14,AH36:AH39)/AH40</f>
-        <v>2.635417410126252</v>
+        <v>2.6756106899982623</v>
       </c>
       <c r="AI15" s="278">
         <f t="shared" si="30"/>
-        <v>2.1041206963133314</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="AJ15" s="277">
         <f t="shared" si="30"/>
-        <v>2.619116556182119</v>
+        <v>2.6191165561821199</v>
       </c>
       <c r="AK15" s="279">
         <f>SUMPRODUCT(AK11:AK14,AK36:AK39)/AK40</f>
-        <v>2.127495351626326</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="AL15" s="280">
         <f t="shared" si="30"/>
-        <v>2.6756106899982623</v>
+        <v>2.6756106899982628</v>
       </c>
       <c r="AM15" s="279">
         <f t="shared" si="30"/>
-        <v>2.127495351626326</v>
+        <v>2.1274953516263264</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -12326,11 +12337,11 @@
       </c>
       <c r="D20" s="208">
         <f>SUMPRODUCT(D16:D19,D41:D44)/D45</f>
-        <v>11.094254818293248</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="E20" s="209">
         <f t="shared" ref="E20:I20" si="43">SUMPRODUCT(E16:E19,E41:E44)/E45</f>
-        <v>11.094254818293246</v>
+        <v>12.957606815551204</v>
       </c>
       <c r="F20" s="208">
         <f t="shared" si="43"/>
@@ -12357,11 +12368,11 @@
       </c>
       <c r="N20" s="208">
         <f>SUMPRODUCT(N16:N19,N41:N44)/N45</f>
-        <v>11.094254818293248</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="O20" s="209">
         <f t="shared" ref="O20:S20" si="44">SUMPRODUCT(O16:O19,O41:O44)/O45</f>
-        <v>11.094254818293246</v>
+        <v>12.957606815551204</v>
       </c>
       <c r="P20" s="208">
         <f t="shared" si="44"/>
@@ -12388,27 +12399,27 @@
       </c>
       <c r="X20" s="208">
         <f t="shared" ref="X20:AC20" si="45">SUMPRODUCT(X16:X19,X41:X44)/X45</f>
-        <v>11.094254818293248</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="Y20" s="209">
         <f t="shared" si="45"/>
-        <v>11.094254818293246</v>
+        <v>12.957606815551204</v>
       </c>
       <c r="Z20" s="208">
         <f t="shared" si="45"/>
-        <v>14.069098336087093</v>
+        <v>14.069098336087091</v>
       </c>
       <c r="AA20" s="210">
         <f t="shared" si="45"/>
-        <v>12.957606815551204</v>
+        <v>12.957606815551202</v>
       </c>
       <c r="AB20" s="211">
         <f t="shared" si="45"/>
-        <v>11.691294775621914</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="AC20" s="210">
         <f t="shared" si="45"/>
-        <v>12.957606815551204</v>
+        <v>12.957606815551202</v>
       </c>
       <c r="AE20" s="632"/>
       <c r="AF20" s="189" t="s">
@@ -12419,11 +12430,11 @@
       </c>
       <c r="AH20" s="208">
         <f t="shared" ref="AH20:AM20" si="46">SUMPRODUCT(AH16:AH19,AH41:AH44)/AH45</f>
-        <v>11.094254818293248</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="AI20" s="209">
         <f t="shared" si="46"/>
-        <v>11.094254818293246</v>
+        <v>12.957606815551204</v>
       </c>
       <c r="AJ20" s="208">
         <f t="shared" si="46"/>
@@ -12431,15 +12442,15 @@
       </c>
       <c r="AK20" s="210">
         <f t="shared" si="46"/>
-        <v>12.957606815551204</v>
+        <v>12.957606815551205</v>
       </c>
       <c r="AL20" s="211">
         <f t="shared" si="46"/>
-        <v>11.691294775621914</v>
+        <v>11.691294775621911</v>
       </c>
       <c r="AM20" s="210">
         <f t="shared" si="46"/>
-        <v>12.957606815551204</v>
+        <v>12.957606815551205</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -12523,11 +12534,11 @@
       </c>
       <c r="D23" s="233">
         <f>Indata!D42</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="233">
         <f>Indata!E42</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F23" s="233">
         <f>Indata!F42</f>
@@ -12556,11 +12567,11 @@
       </c>
       <c r="N23" s="233">
         <f>D23</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="O23" s="234">
         <f t="shared" ref="O23:O26" si="47">E23</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P23" s="233">
         <f t="shared" ref="P23:P26" si="48">F23</f>
@@ -12589,11 +12600,11 @@
       </c>
       <c r="X23" s="233">
         <f>N23</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="Y23" s="234">
         <f>O23</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="Z23" s="233">
         <f t="shared" ref="Y23:AC26" si="52">P23</f>
@@ -12622,11 +12633,11 @@
       </c>
       <c r="AH23" s="233">
         <f>X23</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="AI23" s="234">
         <f>Y23</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AJ23" s="233">
         <f t="shared" ref="AJ23:AJ26" si="53">Z23</f>
@@ -12655,11 +12666,11 @@
       </c>
       <c r="D24" s="233">
         <f>Indata!D43</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="233">
         <f>Indata!E43</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F24" s="233">
         <f>Indata!F43</f>
@@ -12686,11 +12697,11 @@
       </c>
       <c r="N24" s="237">
         <f t="shared" ref="N24:N26" si="57">D24</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="238">
         <f t="shared" si="47"/>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P24" s="237">
         <f t="shared" si="48"/>
@@ -12717,11 +12728,11 @@
       </c>
       <c r="X24" s="237">
         <f t="shared" ref="X24" si="58">N24</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" s="238">
         <f t="shared" si="52"/>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="Z24" s="237">
         <f t="shared" si="52"/>
@@ -12748,11 +12759,11 @@
       </c>
       <c r="AH24" s="237">
         <f t="shared" ref="AH24" si="59">X24</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="AI24" s="238">
         <f t="shared" ref="AI24:AI25" si="60">Y24</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AJ24" s="237">
         <f t="shared" si="53"/>
@@ -12781,11 +12792,11 @@
       </c>
       <c r="D25" s="233">
         <f>Indata!D44</f>
-        <v>4.0427955013328291E-2</v>
+        <v>0.14936945604265053</v>
       </c>
       <c r="E25" s="233">
         <f>Indata!E44</f>
-        <v>0.16171182005331317</v>
+        <v>0.36423060055908874</v>
       </c>
       <c r="F25" s="233">
         <f>Indata!F44</f>
@@ -12812,11 +12823,11 @@
       </c>
       <c r="N25" s="237">
         <f t="shared" si="57"/>
-        <v>4.0427955013328291E-2</v>
+        <v>0.14936945604265053</v>
       </c>
       <c r="O25" s="238">
         <f t="shared" si="47"/>
-        <v>0.16171182005331317</v>
+        <v>0.36423060055908874</v>
       </c>
       <c r="P25" s="237">
         <f t="shared" si="48"/>
@@ -12843,11 +12854,11 @@
       </c>
       <c r="X25" s="237">
         <f>N25</f>
-        <v>4.0427955013328291E-2</v>
+        <v>0.14936945604265053</v>
       </c>
       <c r="Y25" s="238">
         <f t="shared" si="52"/>
-        <v>0.16171182005331317</v>
+        <v>0.36423060055908874</v>
       </c>
       <c r="Z25" s="237">
         <f t="shared" si="52"/>
@@ -12874,11 +12885,11 @@
       </c>
       <c r="AH25" s="237">
         <f>X25</f>
-        <v>4.0427955013328291E-2</v>
+        <v>0.14936945604265053</v>
       </c>
       <c r="AI25" s="238">
         <f t="shared" si="60"/>
-        <v>0.16171182005331317</v>
+        <v>0.36423060055908874</v>
       </c>
       <c r="AJ25" s="237">
         <f t="shared" si="53"/>
@@ -12907,11 +12918,11 @@
       </c>
       <c r="D26" s="233">
         <f>Indata!D45</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E26" s="233">
         <f>Indata!E45</f>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="F26" s="233">
         <f>Indata!F45</f>
@@ -12938,11 +12949,11 @@
       </c>
       <c r="N26" s="241">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O26" s="242">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="P26" s="241">
         <f t="shared" si="48"/>
@@ -12969,11 +12980,11 @@
       </c>
       <c r="X26" s="241">
         <f>N26</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Y26" s="242">
         <f>O26</f>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="Z26" s="241">
         <f t="shared" si="52"/>
@@ -13000,11 +13011,11 @@
       </c>
       <c r="AH26" s="241">
         <f>X26</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AI26" s="242">
         <f>Y26</f>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="AJ26" s="241">
         <f t="shared" si="53"/>
@@ -13093,7 +13104,7 @@
       <c r="AM28" s="77"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="633" t="s">
+      <c r="A29" s="643" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -13126,7 +13137,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="633" t="s">
+      <c r="K29" s="643" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -13159,7 +13170,7 @@
         <f t="shared" ref="S29:S32" si="65">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="633" t="s">
+      <c r="U29" s="643" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -13192,7 +13203,7 @@
         <f t="shared" ref="AC29:AC32" si="70">S29</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="633" t="s">
+      <c r="AE29" s="643" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -13227,7 +13238,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="634"/>
+      <c r="A30" s="644"/>
       <c r="B30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13258,7 +13269,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="634"/>
+      <c r="K30" s="644"/>
       <c r="L30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13289,7 +13300,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U30" s="634"/>
+      <c r="U30" s="644"/>
       <c r="V30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13320,7 +13331,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="634"/>
+      <c r="AE30" s="644"/>
       <c r="AF30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13353,7 +13364,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="634"/>
+      <c r="A31" s="644"/>
       <c r="B31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13384,7 +13395,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="634"/>
+      <c r="K31" s="644"/>
       <c r="L31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13415,7 +13426,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U31" s="634"/>
+      <c r="U31" s="644"/>
       <c r="V31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13446,7 +13457,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="634"/>
+      <c r="AE31" s="644"/>
       <c r="AF31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13479,7 +13490,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="635"/>
+      <c r="A32" s="645"/>
       <c r="B32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13510,7 +13521,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="635"/>
+      <c r="K32" s="645"/>
       <c r="L32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13541,7 +13552,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U32" s="635"/>
+      <c r="U32" s="645"/>
       <c r="V32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13572,7 +13583,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="635"/>
+      <c r="AE32" s="645"/>
       <c r="AF32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13696,11 +13707,11 @@
       </c>
       <c r="D36" s="273">
         <f>Indata!D57*(1+Indata!D$61)*(1-D23)</f>
-        <v>0.18780957349145666</v>
+        <v>0.11047621970085686</v>
       </c>
       <c r="E36" s="246">
         <f>Indata!E57*(1+Indata!E$61)*(1-E23)</f>
-        <v>0.10422540965954981</v>
+        <v>3.908452862233118E-2</v>
       </c>
       <c r="F36" s="245">
         <f>Indata!F57*(1+Indata!F$61)*(1-F23)</f>
@@ -13729,11 +13740,11 @@
       </c>
       <c r="N36" s="273">
         <f>D36</f>
-        <v>0.18780957349145666</v>
+        <v>0.11047621970085686</v>
       </c>
       <c r="O36" s="246">
         <f t="shared" ref="O36:O39" si="79">E36</f>
-        <v>0.10422540965954981</v>
+        <v>3.908452862233118E-2</v>
       </c>
       <c r="P36" s="422">
         <f t="shared" ref="P36:P39" si="80">F36</f>
@@ -13762,27 +13773,27 @@
       </c>
       <c r="X36" s="273">
         <f>N36/N$50*X$50</f>
-        <v>0.18780957349145669</v>
+        <v>0.11047621970085687</v>
       </c>
       <c r="Y36" s="273">
         <f t="shared" ref="Y36:AC49" si="84">O36/O$50*Y$50</f>
-        <v>0.10422540965954981</v>
+        <v>3.908452862233118E-2</v>
       </c>
       <c r="Z36" s="273">
         <f t="shared" si="84"/>
-        <v>0.15998574052919889</v>
+        <v>0.15729620670259176</v>
       </c>
       <c r="AA36" s="273">
         <f t="shared" si="84"/>
-        <v>3.8669733233062824E-2</v>
+        <v>3.7871735029617534E-2</v>
       </c>
       <c r="AB36" s="273">
         <f t="shared" si="84"/>
-        <v>0.10835868664584032</v>
+        <v>0.10749856027528668</v>
       </c>
       <c r="AC36" s="273">
         <f t="shared" si="84"/>
-        <v>3.8669733233062824E-2</v>
+        <v>3.7871735029617534E-2</v>
       </c>
       <c r="AE36" s="630" t="s">
         <v>17</v>
@@ -13795,27 +13806,27 @@
       </c>
       <c r="AH36" s="273">
         <f>X36*(1-Indata!D$22)</f>
-        <v>0.18780957349145669</v>
+        <v>0.11047621970085687</v>
       </c>
       <c r="AI36" s="246">
         <f>Y36*(1-Indata!E$22)</f>
-        <v>0.10422540965954981</v>
+        <v>3.908452862233118E-2</v>
       </c>
       <c r="AJ36" s="245">
         <f>Z36*(1-Indata!F$22)</f>
-        <v>0.15998574052919889</v>
+        <v>0.15729620670259176</v>
       </c>
       <c r="AK36" s="246">
         <f>AA36*(1-Indata!G$22)</f>
-        <v>3.8669733233062824E-2</v>
+        <v>3.7871735029617534E-2</v>
       </c>
       <c r="AL36" s="247">
         <f>AB36*(1-Indata!H$22)</f>
-        <v>0.10835868664584032</v>
+        <v>0.10749856027528668</v>
       </c>
       <c r="AM36" s="246">
         <f>AC36*(1-Indata!I$22)</f>
-        <v>3.8669733233062824E-2</v>
+        <v>3.7871735029617534E-2</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13828,11 +13839,11 @@
       </c>
       <c r="D37" s="248">
         <f>Indata!D58*(1+Indata!D$61)*(1-D24)</f>
-        <v>0.20441406642615551</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="E37" s="249">
         <f>Indata!E58*(1+Indata!E$61)*(1-E24)</f>
-        <v>0.11344011605675491</v>
+        <v>4.2540043521283093E-2</v>
       </c>
       <c r="F37" s="248">
         <f>Indata!F58*(1+Indata!F$61)*(1-F24)</f>
@@ -13859,11 +13870,11 @@
       </c>
       <c r="N37" s="248">
         <f t="shared" ref="N37:N39" si="85">D37</f>
-        <v>0.20441406642615551</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="O37" s="249">
         <f t="shared" si="79"/>
-        <v>0.11344011605675491</v>
+        <v>4.2540043521283093E-2</v>
       </c>
       <c r="P37" s="248">
         <f t="shared" si="80"/>
@@ -13890,27 +13901,27 @@
       </c>
       <c r="X37" s="273">
         <f t="shared" ref="X37:X49" si="86">N37/N$50*X$50</f>
-        <v>0.20441406642615551</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="Y37" s="273">
         <f t="shared" si="84"/>
-        <v>0.11344011605675491</v>
+        <v>4.2540043521283093E-2</v>
       </c>
       <c r="Z37" s="273">
         <f t="shared" si="84"/>
-        <v>0.17413029157036555</v>
+        <v>0.17120297249888874</v>
       </c>
       <c r="AA37" s="273">
         <f t="shared" si="84"/>
-        <v>4.2088575522720065E-2</v>
+        <v>4.1220025242058048E-2</v>
       </c>
       <c r="AB37" s="273">
         <f t="shared" si="84"/>
-        <v>0.11793882153127494</v>
+        <v>0.1170026502500317</v>
       </c>
       <c r="AC37" s="273">
         <f t="shared" si="84"/>
-        <v>4.2088575522720065E-2</v>
+        <v>4.1220025242058048E-2</v>
       </c>
       <c r="AE37" s="631"/>
       <c r="AF37" s="136" t="s">
@@ -13921,27 +13932,27 @@
       </c>
       <c r="AH37" s="248">
         <f>X37*(1-Indata!D$22)</f>
-        <v>0.20441406642615551</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="AI37" s="249">
         <f>Y37*(1-Indata!E$22)</f>
-        <v>0.11344011605675491</v>
+        <v>4.2540043521283093E-2</v>
       </c>
       <c r="AJ37" s="248">
         <f>Z37*(1-Indata!F$22)</f>
-        <v>0.17413029157036555</v>
+        <v>0.17120297249888874</v>
       </c>
       <c r="AK37" s="249">
         <f>AA37*(1-Indata!G$22)</f>
-        <v>4.2088575522720065E-2</v>
+        <v>4.1220025242058048E-2</v>
       </c>
       <c r="AL37" s="250">
         <f>AB37*(1-Indata!H$22)</f>
-        <v>0.11793882153127494</v>
+        <v>0.1170026502500317</v>
       </c>
       <c r="AM37" s="249">
         <f>AC37*(1-Indata!I$22)</f>
-        <v>4.2088575522720065E-2</v>
+        <v>4.1220025242058048E-2</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13954,11 +13965,11 @@
       </c>
       <c r="D38" s="248">
         <f>Indata!D59*(1+Indata!D$61)*(1-D25)</f>
-        <v>1.888631464847943</v>
+        <v>1.6742126020364483</v>
       </c>
       <c r="E38" s="249">
         <f>Indata!E59*(1+Indata!E$61)*(1-E25)</f>
-        <v>1.9457085838135497</v>
+        <v>1.4756524157323059</v>
       </c>
       <c r="F38" s="248">
         <f>Indata!F59*(1+Indata!F$61)*(1-F25)</f>
@@ -13985,11 +13996,11 @@
       </c>
       <c r="N38" s="248">
         <f t="shared" si="85"/>
-        <v>1.888631464847943</v>
+        <v>1.6742126020364483</v>
       </c>
       <c r="O38" s="249">
         <f t="shared" si="79"/>
-        <v>1.9457085838135497</v>
+        <v>1.4756524157323059</v>
       </c>
       <c r="P38" s="248">
         <f t="shared" si="80"/>
@@ -14016,27 +14027,27 @@
       </c>
       <c r="X38" s="273">
         <f t="shared" si="86"/>
-        <v>1.888631464847943</v>
+        <v>1.6742126020364483</v>
       </c>
       <c r="Y38" s="273">
         <f t="shared" si="84"/>
-        <v>1.9457085838135495</v>
+        <v>1.4756524157323059</v>
       </c>
       <c r="Z38" s="273">
         <f t="shared" si="84"/>
-        <v>1.4251222108465926</v>
+        <v>1.4011643607254343</v>
       </c>
       <c r="AA38" s="273">
         <f t="shared" si="84"/>
-        <v>1.4599916456070461</v>
+        <v>1.4298628959925177</v>
       </c>
       <c r="AB38" s="273">
         <f t="shared" si="84"/>
-        <v>1.6421224333509432</v>
+        <v>1.6290876425803675</v>
       </c>
       <c r="AC38" s="273">
         <f t="shared" si="84"/>
-        <v>1.4599916456070461</v>
+        <v>1.4298628959925177</v>
       </c>
       <c r="AE38" s="631"/>
       <c r="AF38" s="136" t="s">
@@ -14047,27 +14058,27 @@
       </c>
       <c r="AH38" s="248">
         <f>X38*(1-Indata!D$22)</f>
-        <v>1.888631464847943</v>
+        <v>1.6742126020364483</v>
       </c>
       <c r="AI38" s="249">
         <f>Y38*(1-Indata!E$22)</f>
-        <v>1.9457085838135495</v>
+        <v>1.4756524157323059</v>
       </c>
       <c r="AJ38" s="248">
         <f>Z38*(1-Indata!F$22)</f>
-        <v>1.4251222108465926</v>
+        <v>1.4011643607254343</v>
       </c>
       <c r="AK38" s="249">
         <f>AA38*(1-Indata!G$22)</f>
-        <v>1.4599916456070461</v>
+        <v>1.4298628959925177</v>
       </c>
       <c r="AL38" s="250">
         <f>AB38*(1-Indata!H$22)</f>
-        <v>1.6421224333509432</v>
+        <v>1.6290876425803675</v>
       </c>
       <c r="AM38" s="249">
         <f>AC38*(1-Indata!I$22)</f>
-        <v>1.4599916456070461</v>
+        <v>1.4298628959925177</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14080,11 +14091,11 @@
       </c>
       <c r="D39" s="274">
         <f>Indata!D60*(1+Indata!D$61)*(1-D26)</f>
-        <v>3.5477319739661044</v>
+        <v>3.4767773344867821</v>
       </c>
       <c r="E39" s="275">
         <f>Indata!E60*(1+Indata!E$61)*(1-E26)</f>
-        <v>4.1837489931106022</v>
+        <v>3.4097554293851404</v>
       </c>
       <c r="F39" s="274">
         <f>Indata!F60*(1+Indata!F$61)*(1-F26)</f>
@@ -14111,11 +14122,11 @@
       </c>
       <c r="N39" s="274">
         <f t="shared" si="85"/>
-        <v>3.5477319739661044</v>
+        <v>3.4767773344867821</v>
       </c>
       <c r="O39" s="275">
         <f t="shared" si="79"/>
-        <v>4.1837489931106022</v>
+        <v>3.4097554293851404</v>
       </c>
       <c r="P39" s="274">
         <f t="shared" si="80"/>
@@ -14142,27 +14153,27 @@
       </c>
       <c r="X39" s="273">
         <f t="shared" si="86"/>
-        <v>3.5477319739661044</v>
+        <v>3.4767773344867821</v>
       </c>
       <c r="Y39" s="273">
         <f t="shared" si="84"/>
-        <v>4.1837489931106022</v>
+        <v>3.4097554293851404</v>
       </c>
       <c r="Z39" s="273">
         <f t="shared" si="84"/>
-        <v>2.5688176541113199</v>
+        <v>2.5256330430812071</v>
       </c>
       <c r="AA39" s="273">
         <f t="shared" si="84"/>
-        <v>3.3735684551399507</v>
+        <v>3.3039506599983066</v>
       </c>
       <c r="AB39" s="273">
         <f t="shared" si="84"/>
-        <v>3.4101368307598885</v>
+        <v>3.383067947718517</v>
       </c>
       <c r="AC39" s="273">
         <f t="shared" si="84"/>
-        <v>3.3735684551399507</v>
+        <v>3.3039506599983066</v>
       </c>
       <c r="AE39" s="631"/>
       <c r="AF39" s="136" t="s">
@@ -14173,27 +14184,27 @@
       </c>
       <c r="AH39" s="274">
         <f>X39*(1-Indata!D$22)</f>
-        <v>3.5477319739661044</v>
+        <v>3.4767773344867821</v>
       </c>
       <c r="AI39" s="275">
         <f>Y39*(1-Indata!E$22)</f>
-        <v>4.1837489931106022</v>
+        <v>3.4097554293851404</v>
       </c>
       <c r="AJ39" s="274">
         <f>Z39*(1-Indata!F$22)</f>
-        <v>2.5688176541113199</v>
+        <v>2.5256330430812071</v>
       </c>
       <c r="AK39" s="275">
         <f>AA39*(1-Indata!G$22)</f>
-        <v>3.3735684551399507</v>
+        <v>3.3039506599983066</v>
       </c>
       <c r="AL39" s="276">
         <f>AB39*(1-Indata!H$22)</f>
-        <v>3.4101368307598885</v>
+        <v>3.383067947718517</v>
       </c>
       <c r="AM39" s="275">
         <f>AC39*(1-Indata!I$22)</f>
-        <v>3.3735684551399507</v>
+        <v>3.3039506599983066</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14206,11 +14217,11 @@
       </c>
       <c r="D40" s="270">
         <f>SUM(D36:D39)</f>
-        <v>5.82858707873166</v>
+        <v>5.3817097247100616</v>
       </c>
       <c r="E40" s="271">
         <f t="shared" ref="E40:I40" si="87">SUM(E36:E39)</f>
-        <v>6.3471231026404569</v>
+        <v>4.9670324172610609</v>
       </c>
       <c r="F40" s="270">
         <f t="shared" si="87"/>
@@ -14237,11 +14248,11 @@
       </c>
       <c r="N40" s="270">
         <f>SUM(N36:N39)</f>
-        <v>5.82858707873166</v>
+        <v>5.3817097247100616</v>
       </c>
       <c r="O40" s="271">
         <f t="shared" ref="O40" si="88">SUM(O36:O39)</f>
-        <v>6.3471231026404569</v>
+        <v>4.9670324172610609</v>
       </c>
       <c r="P40" s="270">
         <f t="shared" ref="P40" si="89">SUM(P36:P39)</f>
@@ -14268,27 +14279,27 @@
       </c>
       <c r="X40" s="273">
         <f t="shared" si="86"/>
-        <v>5.82858707873166</v>
+        <v>5.3817097247100616</v>
       </c>
       <c r="Y40" s="273">
         <f t="shared" si="84"/>
-        <v>6.3471231026404569</v>
+        <v>4.9670324172610609</v>
       </c>
       <c r="Z40" s="273">
         <f t="shared" si="84"/>
-        <v>4.3280558970574772</v>
+        <v>4.2552965830081222</v>
       </c>
       <c r="AA40" s="273">
         <f t="shared" si="84"/>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162625004</v>
       </c>
       <c r="AB40" s="273">
         <f t="shared" si="84"/>
-        <v>5.2785567722879474</v>
+        <v>5.2366568008242043</v>
       </c>
       <c r="AC40" s="273">
         <f t="shared" si="84"/>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162625004</v>
       </c>
       <c r="AE40" s="631"/>
       <c r="AF40" s="187" t="s">
@@ -14299,27 +14310,27 @@
       </c>
       <c r="AH40" s="270">
         <f>SUM(AH36:AH39)</f>
-        <v>5.82858707873166</v>
+        <v>5.3817097247100616</v>
       </c>
       <c r="AI40" s="271">
         <f>SUM(AI36:AI39)</f>
-        <v>6.347123102640456</v>
+        <v>4.9670324172610609</v>
       </c>
       <c r="AJ40" s="270">
         <f>SUM(AJ36:AJ39)</f>
-        <v>4.3280558970574772</v>
+        <v>4.2552965830081213</v>
       </c>
       <c r="AK40" s="271">
         <f t="shared" ref="AK40" si="93">SUM(AK36:AK39)</f>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162624995</v>
       </c>
       <c r="AL40" s="272">
         <f t="shared" ref="AL40" si="94">SUM(AL36:AL39)</f>
-        <v>5.2785567722879474</v>
+        <v>5.2366568008242034</v>
       </c>
       <c r="AM40" s="271">
         <f t="shared" ref="AM40" si="95">SUM(AM36:AM39)</f>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162624995</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14332,11 +14343,11 @@
       </c>
       <c r="D41" s="274">
         <f>Indata!D57*(1+Indata!D$61)*(D23)</f>
-        <v>3.3142865910257058E-2</v>
+        <v>0.11047621970085686</v>
       </c>
       <c r="E41" s="275">
         <f>Indata!E57*(1+Indata!E$61)*(E23)</f>
-        <v>0.15633811448932469</v>
+        <v>0.22147899552654332</v>
       </c>
       <c r="F41" s="274">
         <f>Indata!F57*(1+Indata!F$61)*(F23)</f>
@@ -14363,11 +14374,11 @@
       </c>
       <c r="N41" s="274">
         <f>D41</f>
-        <v>3.3142865910257058E-2</v>
+        <v>0.11047621970085686</v>
       </c>
       <c r="O41" s="275">
         <f t="shared" ref="O41:O44" si="96">E41</f>
-        <v>0.15633811448932469</v>
+        <v>0.22147899552654332</v>
       </c>
       <c r="P41" s="423">
         <f t="shared" ref="P41:P44" si="97">F41</f>
@@ -14394,27 +14405,27 @@
       </c>
       <c r="X41" s="273">
         <f t="shared" si="86"/>
-        <v>3.3142865910257058E-2</v>
+        <v>0.11047621970085687</v>
       </c>
       <c r="Y41" s="273">
         <f t="shared" si="84"/>
-        <v>0.15633811448932469</v>
+        <v>0.22147899552654329</v>
       </c>
       <c r="Z41" s="273">
         <f t="shared" si="84"/>
-        <v>1.777619339213321E-2</v>
+        <v>1.7477356300287971E-2</v>
       </c>
       <c r="AA41" s="273">
         <f t="shared" si="84"/>
-        <v>0.21912848832068932</v>
+        <v>0.21460649850116598</v>
       </c>
       <c r="AB41" s="273">
         <f t="shared" si="84"/>
-        <v>0.10835868664584032</v>
+        <v>0.10749856027528668</v>
       </c>
       <c r="AC41" s="273">
         <f t="shared" si="84"/>
-        <v>0.21912848832068932</v>
+        <v>0.21460649850116598</v>
       </c>
       <c r="AE41" s="631"/>
       <c r="AF41" s="136" t="s">
@@ -14425,27 +14436,27 @@
       </c>
       <c r="AH41" s="274">
         <f>X41*(1-Indata!D$22)</f>
-        <v>3.3142865910257058E-2</v>
+        <v>0.11047621970085687</v>
       </c>
       <c r="AI41" s="275">
         <f>Y41*(1-Indata!E$22)</f>
-        <v>0.15633811448932469</v>
+        <v>0.22147899552654329</v>
       </c>
       <c r="AJ41" s="274">
         <f>Z41*(1-Indata!F$22)</f>
-        <v>1.777619339213321E-2</v>
+        <v>1.7477356300287971E-2</v>
       </c>
       <c r="AK41" s="275">
         <f>AA41*(1-Indata!G$22)</f>
-        <v>0.21912848832068932</v>
+        <v>0.21460649850116598</v>
       </c>
       <c r="AL41" s="276">
         <f>AB41*(1-Indata!H$22)</f>
-        <v>0.10835868664584032</v>
+        <v>0.10749856027528668</v>
       </c>
       <c r="AM41" s="275">
         <f>AC41*(1-Indata!I$22)</f>
-        <v>0.21912848832068932</v>
+        <v>0.21460649850116598</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14458,11 +14469,11 @@
       </c>
       <c r="D42" s="274">
         <f>Indata!D58*(1+Indata!D$61)*(D24)</f>
-        <v>3.6073070545792146E-2</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="E42" s="275">
         <f>Indata!E58*(1+Indata!E$61)*(E24)</f>
-        <v>0.17016017408513234</v>
+        <v>0.24106024662060416</v>
       </c>
       <c r="F42" s="274">
         <f>Indata!F58*(1+Indata!F$61)*(F24)</f>
@@ -14489,11 +14500,11 @@
       </c>
       <c r="N42" s="274">
         <f t="shared" ref="N42:N44" si="101">D42</f>
-        <v>3.6073070545792146E-2</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="O42" s="275">
         <f t="shared" si="96"/>
-        <v>0.17016017408513234</v>
+        <v>0.24106024662060416</v>
       </c>
       <c r="P42" s="274">
         <f t="shared" si="97"/>
@@ -14520,27 +14531,27 @@
       </c>
       <c r="X42" s="273">
         <f t="shared" si="86"/>
-        <v>3.6073070545792146E-2</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="Y42" s="273">
         <f t="shared" si="84"/>
-        <v>0.17016017408513234</v>
+        <v>0.24106024662060416</v>
       </c>
       <c r="Z42" s="273">
         <f t="shared" si="84"/>
-        <v>1.9347810174485062E-2</v>
+        <v>1.9022552499876527E-2</v>
       </c>
       <c r="AA42" s="273">
         <f t="shared" si="84"/>
-        <v>0.23850192796208033</v>
+        <v>0.23358014303832889</v>
       </c>
       <c r="AB42" s="273">
         <f t="shared" si="84"/>
-        <v>0.11793882153127494</v>
+        <v>0.1170026502500317</v>
       </c>
       <c r="AC42" s="273">
         <f t="shared" si="84"/>
-        <v>0.23850192796208033</v>
+        <v>0.23358014303832889</v>
       </c>
       <c r="AE42" s="631"/>
       <c r="AF42" s="136" t="s">
@@ -14551,27 +14562,27 @@
       </c>
       <c r="AH42" s="274">
         <f>X42*(1-Indata!D$22)</f>
-        <v>3.6073070545792146E-2</v>
+        <v>0.12024356848597383</v>
       </c>
       <c r="AI42" s="275">
         <f>Y42*(1-Indata!E$22)</f>
-        <v>0.17016017408513234</v>
+        <v>0.24106024662060416</v>
       </c>
       <c r="AJ42" s="274">
         <f>Z42*(1-Indata!F$22)</f>
-        <v>1.9347810174485062E-2</v>
+        <v>1.9022552499876527E-2</v>
       </c>
       <c r="AK42" s="275">
         <f>AA42*(1-Indata!G$22)</f>
-        <v>0.23850192796208033</v>
+        <v>0.23358014303832889</v>
       </c>
       <c r="AL42" s="276">
         <f>AB42*(1-Indata!H$22)</f>
-        <v>0.11793882153127494</v>
+        <v>0.1170026502500317</v>
       </c>
       <c r="AM42" s="275">
         <f>AC42*(1-Indata!I$22)</f>
-        <v>0.23850192796208033</v>
+        <v>0.23358014303832889</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14584,11 +14595,11 @@
       </c>
       <c r="D43" s="274">
         <f>Indata!D59*(1+Indata!D$61)*(D25)</f>
-        <v>7.9570375456998105E-2</v>
+        <v>0.29398923826849277</v>
       </c>
       <c r="E43" s="275">
         <f>Indata!E59*(1+Indata!E$61)*(E25)</f>
-        <v>0.3753411820763764</v>
+        <v>0.84539735015762008</v>
       </c>
       <c r="F43" s="274">
         <f>Indata!F59*(1+Indata!F$61)*(F25)</f>
@@ -14615,11 +14626,11 @@
       </c>
       <c r="N43" s="274">
         <f t="shared" si="101"/>
-        <v>7.9570375456998105E-2</v>
+        <v>0.29398923826849277</v>
       </c>
       <c r="O43" s="275">
         <f t="shared" si="96"/>
-        <v>0.3753411820763764</v>
+        <v>0.84539735015762008</v>
       </c>
       <c r="P43" s="274">
         <f t="shared" si="97"/>
@@ -14646,27 +14657,27 @@
       </c>
       <c r="X43" s="273">
         <f t="shared" si="86"/>
-        <v>7.9570375456998105E-2</v>
+        <v>0.29398923826849277</v>
       </c>
       <c r="Y43" s="273">
         <f t="shared" si="84"/>
-        <v>0.3753411820763764</v>
+        <v>0.84539735015762008</v>
       </c>
       <c r="Z43" s="273">
         <f t="shared" si="84"/>
-        <v>0.15834691231628809</v>
+        <v>0.15568492896949274</v>
       </c>
       <c r="AA43" s="273">
         <f t="shared" si="84"/>
-        <v>0.83642533654237317</v>
+        <v>0.81916465589960497</v>
       </c>
       <c r="AB43" s="273">
         <f t="shared" si="84"/>
-        <v>0.28835425246305579</v>
+        <v>0.28606536262614413</v>
       </c>
       <c r="AC43" s="273">
         <f t="shared" si="84"/>
-        <v>0.83642533654237317</v>
+        <v>0.81916465589960497</v>
       </c>
       <c r="AE43" s="631"/>
       <c r="AF43" s="136" t="s">
@@ -14677,27 +14688,27 @@
       </c>
       <c r="AH43" s="274">
         <f>X43*(1-Indata!D$22)</f>
-        <v>7.9570375456998105E-2</v>
+        <v>0.29398923826849277</v>
       </c>
       <c r="AI43" s="275">
         <f>Y43*(1-Indata!E$22)</f>
-        <v>0.3753411820763764</v>
+        <v>0.84539735015762008</v>
       </c>
       <c r="AJ43" s="274">
         <f>Z43*(1-Indata!F$22)</f>
-        <v>0.15834691231628809</v>
+        <v>0.15568492896949274</v>
       </c>
       <c r="AK43" s="275">
         <f>AA43*(1-Indata!G$22)</f>
-        <v>0.83642533654237317</v>
+        <v>0.81916465589960497</v>
       </c>
       <c r="AL43" s="276">
         <f>AB43*(1-Indata!H$22)</f>
-        <v>0.28835425246305579</v>
+        <v>0.28606536262614413</v>
       </c>
       <c r="AM43" s="275">
         <f>AC43*(1-Indata!I$22)</f>
-        <v>0.83642533654237317</v>
+        <v>0.81916465589960497</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14710,11 +14721,11 @@
       </c>
       <c r="D44" s="274">
         <f>Indata!D60*(1+Indata!D$61)*(D26)</f>
-        <v>0</v>
+        <v>7.0954639479322096E-2</v>
       </c>
       <c r="E44" s="275">
         <f>Indata!E60*(1+Indata!E$61)*(E26)</f>
-        <v>0</v>
+        <v>0.77399356372546135</v>
       </c>
       <c r="F44" s="274">
         <f>Indata!F60*(1+Indata!F$61)*(F26)</f>
@@ -14741,11 +14752,11 @@
       </c>
       <c r="N44" s="274">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>7.0954639479322096E-2</v>
       </c>
       <c r="O44" s="275">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>0.77399356372546135</v>
       </c>
       <c r="P44" s="274">
         <f t="shared" si="97"/>
@@ -14772,27 +14783,27 @@
       </c>
       <c r="X44" s="273">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>7.0954639479322096E-2</v>
       </c>
       <c r="Y44" s="273">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>0.77399356372546135</v>
       </c>
       <c r="Z44" s="273">
         <f t="shared" si="84"/>
-        <v>0.28542418379014672</v>
+        <v>0.28062589367568969</v>
       </c>
       <c r="AA44" s="273">
         <f t="shared" si="84"/>
-        <v>0.76577934257778013</v>
+        <v>0.74997653018366472</v>
       </c>
       <c r="AB44" s="273">
         <f t="shared" si="84"/>
-        <v>6.9594629199181413E-2</v>
+        <v>6.9042203014663628E-2</v>
       </c>
       <c r="AC44" s="273">
         <f t="shared" si="84"/>
-        <v>0.76577934257778013</v>
+        <v>0.74997653018366472</v>
       </c>
       <c r="AE44" s="631"/>
       <c r="AF44" s="136" t="s">
@@ -14803,27 +14814,27 @@
       </c>
       <c r="AH44" s="274">
         <f>X44*(1-Indata!D$22)</f>
-        <v>0</v>
+        <v>7.0954639479322096E-2</v>
       </c>
       <c r="AI44" s="275">
         <f>Y44*(1-Indata!E$22)</f>
-        <v>0</v>
+        <v>0.77399356372546135</v>
       </c>
       <c r="AJ44" s="274">
         <f>Z44*(1-Indata!F$22)</f>
-        <v>0.28542418379014672</v>
+        <v>0.28062589367568969</v>
       </c>
       <c r="AK44" s="275">
         <f>AA44*(1-Indata!G$22)</f>
-        <v>0.76577934257778013</v>
+        <v>0.74997653018366472</v>
       </c>
       <c r="AL44" s="276">
         <f>AB44*(1-Indata!H$22)</f>
-        <v>6.9594629199181413E-2</v>
+        <v>6.9042203014663628E-2</v>
       </c>
       <c r="AM44" s="275">
         <f>AC44*(1-Indata!I$22)</f>
-        <v>0.76577934257778013</v>
+        <v>0.74997653018366472</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14836,11 +14847,11 @@
       </c>
       <c r="D45" s="270">
         <f>SUM(D41:D44)</f>
-        <v>0.14878631191304731</v>
+        <v>0.59566366593464559</v>
       </c>
       <c r="E45" s="271">
         <f t="shared" ref="E45:I45" si="102">SUM(E41:E44)</f>
-        <v>0.70183947065083352</v>
+        <v>2.081930156030229</v>
       </c>
       <c r="F45" s="270">
         <f t="shared" si="102"/>
@@ -14867,11 +14878,11 @@
       </c>
       <c r="N45" s="270">
         <f>SUM(N41:N44)</f>
-        <v>0.14878631191304731</v>
+        <v>0.59566366593464559</v>
       </c>
       <c r="O45" s="271">
         <f t="shared" ref="O45" si="103">SUM(O41:O44)</f>
-        <v>0.70183947065083352</v>
+        <v>2.081930156030229</v>
       </c>
       <c r="P45" s="270">
         <f t="shared" ref="P45" si="104">SUM(P41:P44)</f>
@@ -14898,27 +14909,27 @@
       </c>
       <c r="X45" s="273">
         <f t="shared" si="86"/>
-        <v>0.14878631191304731</v>
+        <v>0.59566366593464559</v>
       </c>
       <c r="Y45" s="273">
         <f t="shared" si="84"/>
-        <v>0.70183947065083352</v>
+        <v>2.081930156030229</v>
       </c>
       <c r="Z45" s="273">
         <f t="shared" si="84"/>
-        <v>0.48089509967305305</v>
+        <v>0.47281073144534691</v>
       </c>
       <c r="AA45" s="273">
         <f t="shared" si="84"/>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227649</v>
       </c>
       <c r="AB45" s="273">
         <f t="shared" si="84"/>
-        <v>0.5842463898393524</v>
+        <v>0.57960877616612616</v>
       </c>
       <c r="AC45" s="273">
         <f t="shared" si="84"/>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227649</v>
       </c>
       <c r="AE45" s="631"/>
       <c r="AF45" s="187" t="s">
@@ -14929,27 +14940,27 @@
       </c>
       <c r="AH45" s="270">
         <f>SUM(AH41:AH44)</f>
-        <v>0.14878631191304731</v>
+        <v>0.59566366593464559</v>
       </c>
       <c r="AI45" s="271">
         <f>SUM(AI41:AI44)</f>
-        <v>0.70183947065083352</v>
+        <v>2.081930156030229</v>
       </c>
       <c r="AJ45" s="270">
         <f t="shared" ref="AJ45" si="108">SUM(AJ41:AJ44)</f>
-        <v>0.48089509967305311</v>
+        <v>0.47281073144534691</v>
       </c>
       <c r="AK45" s="271">
         <f t="shared" ref="AK45" si="109">SUM(AK41:AK44)</f>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227644</v>
       </c>
       <c r="AL45" s="272">
         <f t="shared" ref="AL45" si="110">SUM(AL41:AL44)</f>
-        <v>0.5842463898393524</v>
+        <v>0.57960877616612616</v>
       </c>
       <c r="AM45" s="271">
         <f t="shared" ref="AM45" si="111">SUM(AM41:AM44)</f>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227644</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15024,7 +15035,7 @@
       </c>
       <c r="X46" s="273">
         <f t="shared" si="86"/>
-        <v>0.22095243940171372</v>
+        <v>0.22095243940171375</v>
       </c>
       <c r="Y46" s="273">
         <f t="shared" si="84"/>
@@ -15032,19 +15043,19 @@
       </c>
       <c r="Z46" s="273">
         <f t="shared" si="84"/>
-        <v>0.17776193392133213</v>
+        <v>0.17477356300287974</v>
       </c>
       <c r="AA46" s="273">
         <f t="shared" si="84"/>
-        <v>0.25779822155375215</v>
+        <v>0.25247823353078352</v>
       </c>
       <c r="AB46" s="273">
         <f t="shared" si="84"/>
-        <v>0.21671737329168064</v>
+        <v>0.21499712055057335</v>
       </c>
       <c r="AC46" s="273">
         <f t="shared" si="84"/>
-        <v>0.25779822155375215</v>
+        <v>0.25247823353078352</v>
       </c>
       <c r="AE46" s="631"/>
       <c r="AF46" s="136" t="s">
@@ -15059,23 +15070,23 @@
       </c>
       <c r="AI46" s="275">
         <f t="shared" ref="AI46:AM46" si="114">AI36+AI41</f>
-        <v>0.26056352414887451</v>
+        <v>0.26056352414887446</v>
       </c>
       <c r="AJ46" s="274">
         <f t="shared" si="114"/>
-        <v>0.1777619339213321</v>
+        <v>0.17477356300287972</v>
       </c>
       <c r="AK46" s="275">
         <f t="shared" si="114"/>
-        <v>0.25779822155375215</v>
+        <v>0.25247823353078352</v>
       </c>
       <c r="AL46" s="276">
         <f t="shared" si="114"/>
-        <v>0.21671737329168064</v>
+        <v>0.21499712055057335</v>
       </c>
       <c r="AM46" s="275">
         <f t="shared" si="114"/>
-        <v>0.25779822155375215</v>
+        <v>0.25247823353078352</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15158,19 +15169,19 @@
       </c>
       <c r="Z47" s="273">
         <f t="shared" si="84"/>
-        <v>0.19347810174485061</v>
+        <v>0.19022552499876527</v>
       </c>
       <c r="AA47" s="273">
         <f t="shared" si="84"/>
-        <v>0.28059050348480041</v>
+        <v>0.27480016828038695</v>
       </c>
       <c r="AB47" s="273">
         <f t="shared" si="84"/>
-        <v>0.23587764306254988</v>
+        <v>0.23400530050006341</v>
       </c>
       <c r="AC47" s="273">
         <f t="shared" si="84"/>
-        <v>0.28059050348480041</v>
+        <v>0.27480016828038695</v>
       </c>
       <c r="AE47" s="631"/>
       <c r="AF47" s="136" t="s">
@@ -15189,19 +15200,19 @@
       </c>
       <c r="AJ47" s="248">
         <f t="shared" si="117"/>
-        <v>0.19347810174485061</v>
+        <v>0.19022552499876527</v>
       </c>
       <c r="AK47" s="249">
         <f t="shared" si="117"/>
-        <v>0.28059050348480041</v>
+        <v>0.27480016828038695</v>
       </c>
       <c r="AL47" s="250">
         <f t="shared" si="117"/>
-        <v>0.23587764306254988</v>
+        <v>0.23400530050006341</v>
       </c>
       <c r="AM47" s="249">
         <f t="shared" si="117"/>
-        <v>0.28059050348480041</v>
+        <v>0.27480016828038695</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15284,19 +15295,19 @@
       </c>
       <c r="Z48" s="273">
         <f t="shared" si="84"/>
-        <v>1.5834691231628808</v>
+        <v>1.5568492896949271</v>
       </c>
       <c r="AA48" s="273">
         <f t="shared" si="84"/>
-        <v>2.2964169821494194</v>
+        <v>2.249027551892123</v>
       </c>
       <c r="AB48" s="273">
         <f t="shared" si="84"/>
-        <v>1.9304766858139988</v>
+        <v>1.9151530052065118</v>
       </c>
       <c r="AC48" s="273">
         <f t="shared" si="84"/>
-        <v>2.2964169821494194</v>
+        <v>2.249027551892123</v>
       </c>
       <c r="AE48" s="631"/>
       <c r="AF48" s="136" t="s">
@@ -15315,19 +15326,19 @@
       </c>
       <c r="AJ48" s="248">
         <f t="shared" si="120"/>
-        <v>1.5834691231628808</v>
+        <v>1.5568492896949271</v>
       </c>
       <c r="AK48" s="249">
         <f t="shared" si="120"/>
-        <v>2.2964169821494194</v>
+        <v>2.2490275518921226</v>
       </c>
       <c r="AL48" s="250">
         <f t="shared" si="120"/>
-        <v>1.930476685813999</v>
+        <v>1.9151530052065118</v>
       </c>
       <c r="AM48" s="249">
         <f t="shared" si="120"/>
-        <v>2.2964169821494194</v>
+        <v>2.2490275518921226</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -15340,11 +15351,11 @@
       </c>
       <c r="D49" s="274">
         <f t="shared" ref="D49:I49" si="121">D39+D44</f>
-        <v>3.5477319739661044</v>
+        <v>3.547731973966104</v>
       </c>
       <c r="E49" s="275">
         <f t="shared" si="121"/>
-        <v>4.1837489931106022</v>
+        <v>4.1837489931106013</v>
       </c>
       <c r="F49" s="274">
         <f t="shared" si="121"/>
@@ -15371,11 +15382,11 @@
       </c>
       <c r="N49" s="274">
         <f t="shared" ref="N49:S49" si="122">N39+N44</f>
-        <v>3.5477319739661044</v>
+        <v>3.547731973966104</v>
       </c>
       <c r="O49" s="275">
         <f t="shared" si="122"/>
-        <v>4.1837489931106022</v>
+        <v>4.1837489931106013</v>
       </c>
       <c r="P49" s="274">
         <f t="shared" si="122"/>
@@ -15402,27 +15413,27 @@
       </c>
       <c r="X49" s="273">
         <f t="shared" si="86"/>
-        <v>3.5477319739661044</v>
+        <v>3.547731973966104</v>
       </c>
       <c r="Y49" s="273">
         <f t="shared" si="84"/>
-        <v>4.1837489931106022</v>
+        <v>4.1837489931106013</v>
       </c>
       <c r="Z49" s="273">
         <f t="shared" si="84"/>
-        <v>2.8542418379014669</v>
+        <v>2.8062589367568971</v>
       </c>
       <c r="AA49" s="273">
         <f t="shared" si="84"/>
-        <v>4.13934779771773</v>
+        <v>4.0539271901819705</v>
       </c>
       <c r="AB49" s="273">
         <f t="shared" si="84"/>
-        <v>3.4797314599590696</v>
+        <v>3.4521101507331808</v>
       </c>
       <c r="AC49" s="273">
         <f t="shared" si="84"/>
-        <v>4.13934779771773</v>
+        <v>4.0539271901819705</v>
       </c>
       <c r="AE49" s="631"/>
       <c r="AF49" s="136" t="s">
@@ -15433,27 +15444,27 @@
       </c>
       <c r="AH49" s="274">
         <f t="shared" ref="AH49:AM49" si="123">AH39+AH44</f>
-        <v>3.5477319739661044</v>
+        <v>3.547731973966104</v>
       </c>
       <c r="AI49" s="275">
         <f t="shared" si="123"/>
-        <v>4.1837489931106022</v>
+        <v>4.1837489931106013</v>
       </c>
       <c r="AJ49" s="274">
         <f t="shared" si="123"/>
-        <v>2.8542418379014665</v>
+        <v>2.8062589367568966</v>
       </c>
       <c r="AK49" s="275">
         <f t="shared" si="123"/>
-        <v>4.1393477977177309</v>
+        <v>4.0539271901819713</v>
       </c>
       <c r="AL49" s="276">
         <f t="shared" si="123"/>
-        <v>3.4797314599590701</v>
+        <v>3.4521101507331808</v>
       </c>
       <c r="AM49" s="275">
         <f t="shared" si="123"/>
-        <v>4.1393477977177309</v>
+        <v>4.0539271901819713</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15466,7 +15477,7 @@
       </c>
       <c r="D50" s="208">
         <f>SUM(D46:D49)</f>
-        <v>5.9773733906447069</v>
+        <v>5.977373390644706</v>
       </c>
       <c r="E50" s="210">
         <f t="shared" ref="E50:I50" si="124">SUM(E46:E49)</f>
@@ -15497,7 +15508,7 @@
       </c>
       <c r="N50" s="208">
         <f>SUM(N46:N49)</f>
-        <v>5.9773733906447069</v>
+        <v>5.977373390644706</v>
       </c>
       <c r="O50" s="210">
         <f t="shared" ref="O50" si="125">SUM(O46:O49)</f>
@@ -15528,7 +15539,7 @@
       </c>
       <c r="X50" s="208">
         <f>N50*(1+N$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>5.9773733906447069</v>
+        <v>5.977373390644706</v>
       </c>
       <c r="Y50" s="208">
         <f>O50*(1+O$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
@@ -15536,19 +15547,19 @@
       </c>
       <c r="Z50" s="208">
         <f>P50*(1+P$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>4.8089509967305304</v>
+        <v>4.7281073144534691</v>
       </c>
       <c r="AA50" s="208">
         <f>Q50*(1+Q$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
       <c r="AB50" s="208">
         <f>R50*(1+R$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>5.8628031621272987</v>
+        <v>5.8162655769903289</v>
       </c>
       <c r="AC50" s="208">
         <f>S50*(1+S$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
       <c r="AE50" s="632"/>
       <c r="AF50" s="189" t="s">
@@ -15559,7 +15570,7 @@
       </c>
       <c r="AH50" s="208">
         <f>SUM(AH46:AH49)</f>
-        <v>5.9773733906447069</v>
+        <v>5.977373390644706</v>
       </c>
       <c r="AI50" s="210">
         <f t="shared" ref="AI50" si="130">SUM(AI46:AI49)</f>
@@ -15567,19 +15578,19 @@
       </c>
       <c r="AJ50" s="208">
         <f t="shared" ref="AJ50" si="131">SUM(AJ46:AJ49)</f>
-        <v>4.8089509967305304</v>
+        <v>4.7281073144534691</v>
       </c>
       <c r="AK50" s="210">
         <f t="shared" ref="AK50" si="132">SUM(AK46:AK49)</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
       <c r="AL50" s="211">
         <f t="shared" ref="AL50" si="133">SUM(AL46:AL49)</f>
-        <v>5.8628031621272996</v>
+        <v>5.8162655769903289</v>
       </c>
       <c r="AM50" s="210">
         <f t="shared" ref="AM50" si="134">SUM(AM46:AM49)</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
@@ -16156,11 +16167,11 @@
       </c>
       <c r="D57" s="270">
         <f>SUMPRODUCT(D53:D56,D36:D39)/D40</f>
-        <v>35.490307374660375</v>
+        <v>36.031577175630936</v>
       </c>
       <c r="E57" s="271">
         <f t="shared" ref="E57" si="153">SUMPRODUCT(E53:E56,E36:E39)/E40</f>
-        <v>34.402706147722959</v>
+        <v>34.784885458751198</v>
       </c>
       <c r="F57" s="270">
         <f t="shared" ref="F57" si="154">SUMPRODUCT(F53:F56,F36:F39)/F40</f>
@@ -16187,11 +16198,11 @@
       </c>
       <c r="N57" s="270">
         <f>SUMPRODUCT(N53:N56,N36:N39)/N40</f>
-        <v>35.490307374660375</v>
+        <v>36.031577175630936</v>
       </c>
       <c r="O57" s="271">
         <f t="shared" ref="O57:S57" si="158">SUMPRODUCT(O53:O56,O36:O39)/O40</f>
-        <v>34.402706147722959</v>
+        <v>34.784885458751198</v>
       </c>
       <c r="P57" s="270">
         <f t="shared" si="158"/>
@@ -16218,11 +16229,11 @@
       </c>
       <c r="X57" s="270">
         <f>SUMPRODUCT(X53:X56,X36:X39)/X40</f>
-        <v>35.490307374660375</v>
+        <v>36.031577175630936</v>
       </c>
       <c r="Y57" s="271">
         <f t="shared" ref="Y57" si="159">SUMPRODUCT(Y53:Y56,Y36:Y39)/Y40</f>
-        <v>34.402706147722959</v>
+        <v>34.784885458751198</v>
       </c>
       <c r="Z57" s="270">
         <f t="shared" ref="Z57" si="160">SUMPRODUCT(Z53:Z56,Z36:Z39)/Z40</f>
@@ -16234,7 +16245,7 @@
       </c>
       <c r="AB57" s="272">
         <f t="shared" ref="AB57" si="162">SUMPRODUCT(AB53:AB56,AB36:AB39)/AB40</f>
-        <v>40.635778928674441</v>
+        <v>40.635778928674434</v>
       </c>
       <c r="AC57" s="271">
         <f t="shared" ref="AC57" si="163">SUMPRODUCT(AC53:AC56,AC36:AC39)/AC40</f>
@@ -16249,19 +16260,19 @@
       </c>
       <c r="AH57" s="270">
         <f>SUMPRODUCT(AH53:AH56,AH36:AH39)/AH40</f>
-        <v>35.490307374660375</v>
+        <v>36.031577175630936</v>
       </c>
       <c r="AI57" s="271">
         <f t="shared" ref="AI57" si="164">SUMPRODUCT(AI53:AI56,AI36:AI39)/AI40</f>
-        <v>34.402706147722967</v>
+        <v>34.784885458751198</v>
       </c>
       <c r="AJ57" s="270">
         <f>SUMPRODUCT(AJ53:AJ56,AJ36:AJ39)/AJ40</f>
-        <v>67.545933608490131</v>
+        <v>67.545933608490145</v>
       </c>
       <c r="AK57" s="271">
         <f t="shared" ref="AK57" si="165">SUMPRODUCT(AK53:AK56,AK36:AK39)/AK40</f>
-        <v>40.766203253780787</v>
+        <v>40.766203253780802</v>
       </c>
       <c r="AL57" s="272">
         <f t="shared" ref="AL57" si="166">SUMPRODUCT(AL53:AL56,AL36:AL39)/AL40</f>
@@ -16269,7 +16280,7 @@
       </c>
       <c r="AM57" s="271">
         <f t="shared" ref="AM57" si="167">SUMPRODUCT(AM53:AM56,AM36:AM39)/AM40</f>
-        <v>40.766203253780787</v>
+        <v>40.766203253780802</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
@@ -16786,11 +16797,11 @@
       </c>
       <c r="D62" s="270">
         <f>SUMPRODUCT(D58:D61,D41:D44)/D45</f>
-        <v>13.285707796139762</v>
+        <v>14.000681315822147</v>
       </c>
       <c r="E62" s="271">
         <f t="shared" ref="E62" si="184">SUMPRODUCT(E58:E61,E41:E44)/E45</f>
-        <v>15.569677211992742</v>
+        <v>18.184705404944555</v>
       </c>
       <c r="F62" s="270">
         <f>SUMPRODUCT(F58:F61,F41:F44)/F45</f>
@@ -16817,11 +16828,11 @@
       </c>
       <c r="N62" s="270">
         <f>SUMPRODUCT(N58:N61,N41:N44)/N45</f>
-        <v>13.285707796139762</v>
+        <v>14.000681315822147</v>
       </c>
       <c r="O62" s="271">
         <f t="shared" ref="O62:S62" si="188">SUMPRODUCT(O58:O61,O41:O44)/O45</f>
-        <v>15.569677211992742</v>
+        <v>18.184705404944555</v>
       </c>
       <c r="P62" s="270">
         <f t="shared" si="188"/>
@@ -16848,19 +16859,19 @@
       </c>
       <c r="X62" s="270">
         <f>SUMPRODUCT(X58:X61,X41:X44)/X45</f>
-        <v>13.285707796139762</v>
+        <v>14.000681315822147</v>
       </c>
       <c r="Y62" s="271">
         <f t="shared" ref="Y62" si="189">SUMPRODUCT(Y58:Y61,Y41:Y44)/Y45</f>
-        <v>15.569677211992742</v>
+        <v>18.184705404944555</v>
       </c>
       <c r="Z62" s="270">
         <f t="shared" ref="Z62" si="190">SUMPRODUCT(Z58:Z61,Z41:Z44)/Z45</f>
-        <v>51.889866545940599</v>
+        <v>51.889866545940606</v>
       </c>
       <c r="AA62" s="271">
         <f t="shared" ref="AA62" si="191">SUMPRODUCT(AA58:AA61,AA41:AA44)/AA45</f>
-        <v>18.184705404944559</v>
+        <v>18.184705404944552</v>
       </c>
       <c r="AB62" s="272">
         <f t="shared" ref="AB62" si="192">SUMPRODUCT(AB58:AB61,AB41:AB44)/AB45</f>
@@ -16868,7 +16879,7 @@
       </c>
       <c r="AC62" s="271">
         <f t="shared" ref="AC62" si="193">SUMPRODUCT(AC58:AC61,AC41:AC44)/AC45</f>
-        <v>18.184705404944559</v>
+        <v>18.184705404944552</v>
       </c>
       <c r="AE62" s="631"/>
       <c r="AF62" s="187" t="s">
@@ -16879,15 +16890,15 @@
       </c>
       <c r="AH62" s="270">
         <f>SUMPRODUCT(AH58:AH61,AH41:AH44)/AH45</f>
-        <v>13.285707796139762</v>
+        <v>14.000681315822147</v>
       </c>
       <c r="AI62" s="271">
         <f t="shared" ref="AI62" si="194">SUMPRODUCT(AI58:AI61,AI41:AI44)/AI45</f>
-        <v>15.569677211992742</v>
+        <v>18.184705404944555</v>
       </c>
       <c r="AJ62" s="270">
         <f>SUMPRODUCT(AJ58:AJ61,AJ41:AJ44)/AJ45</f>
-        <v>51.889866545940592</v>
+        <v>51.889866545940606</v>
       </c>
       <c r="AK62" s="271">
         <f t="shared" ref="AK62" si="195">SUMPRODUCT(AK58:AK61,AK41:AK44)/AK45</f>
@@ -16912,11 +16923,11 @@
       </c>
       <c r="D63" s="274">
         <f>(1-D23)*D$6*D11+D23*D$7*D16+D29</f>
-        <v>17.657589896268043</v>
+        <v>14.564984793705436</v>
       </c>
       <c r="E63" s="274">
         <f t="shared" ref="E63:I63" si="197">(1-E23)*E$6*E11+E23*E$7*E16+E29</f>
-        <v>14.312801569298593</v>
+        <v>12.799402007355193</v>
       </c>
       <c r="F63" s="274">
         <f t="shared" si="197"/>
@@ -16943,11 +16954,11 @@
       </c>
       <c r="N63" s="274">
         <f>(1-N23)*N$6*N11+N23*N$7*N16+N29</f>
-        <v>17.657589896268043</v>
+        <v>14.564984793705436</v>
       </c>
       <c r="O63" s="274">
         <f t="shared" ref="O63:S63" si="198">(1-O23)*O$6*O11+O23*O$7*O16+O29</f>
-        <v>14.312801569298593</v>
+        <v>12.799402007355193</v>
       </c>
       <c r="P63" s="274">
         <f t="shared" si="198"/>
@@ -16974,11 +16985,11 @@
       </c>
       <c r="X63" s="274">
         <f>N63</f>
-        <v>17.657589896268043</v>
+        <v>14.564984793705436</v>
       </c>
       <c r="Y63" s="275">
         <f t="shared" ref="Y63:Y66" si="199">O63</f>
-        <v>14.312801569298593</v>
+        <v>12.799402007355193</v>
       </c>
       <c r="Z63" s="274">
         <f t="shared" ref="Z63:Z66" si="200">P63</f>
@@ -17005,11 +17016,11 @@
       </c>
       <c r="AH63" s="274">
         <f>X63</f>
-        <v>17.657589896268043</v>
+        <v>14.564984793705436</v>
       </c>
       <c r="AI63" s="275">
         <f t="shared" ref="AI63:AI66" si="203">Y63</f>
-        <v>14.312801569298593</v>
+        <v>12.799402007355193</v>
       </c>
       <c r="AJ63" s="274">
         <f>Z63</f>
@@ -17038,11 +17049,11 @@
       </c>
       <c r="D64" s="274">
         <f t="shared" ref="D64:I66" si="206">(1-D24)*D$6*D12+D24*D$7*D17+D30</f>
-        <v>22.723027127643395</v>
+        <v>17.544653753337997</v>
       </c>
       <c r="E64" s="274">
         <f t="shared" si="206"/>
-        <v>16.488211575256283</v>
+        <v>13.615180759589327</v>
       </c>
       <c r="F64" s="274">
         <f t="shared" si="206"/>
@@ -17069,11 +17080,11 @@
       </c>
       <c r="N64" s="274">
         <f t="shared" ref="N64:S66" si="207">(1-N24)*N$6*N12+N24*N$7*N17+N30</f>
-        <v>22.723027127643395</v>
+        <v>17.544653753337997</v>
       </c>
       <c r="O64" s="274">
         <f t="shared" si="207"/>
-        <v>16.488211575256283</v>
+        <v>13.615180759589327</v>
       </c>
       <c r="P64" s="274">
         <f t="shared" si="207"/>
@@ -17100,11 +17111,11 @@
       </c>
       <c r="X64" s="248">
         <f>N64</f>
-        <v>22.723027127643395</v>
+        <v>17.544653753337997</v>
       </c>
       <c r="Y64" s="249">
         <f t="shared" si="199"/>
-        <v>16.488211575256283</v>
+        <v>13.615180759589327</v>
       </c>
       <c r="Z64" s="248">
         <f t="shared" si="200"/>
@@ -17131,11 +17142,11 @@
       </c>
       <c r="AH64" s="248">
         <f>X64</f>
-        <v>22.723027127643395</v>
+        <v>17.544653753337997</v>
       </c>
       <c r="AI64" s="249">
         <f t="shared" si="203"/>
-        <v>16.488211575256283</v>
+        <v>13.615180759589327</v>
       </c>
       <c r="AJ64" s="248">
         <f t="shared" ref="AJ64:AJ66" si="209">Z64</f>
@@ -17164,11 +17175,11 @@
       </c>
       <c r="D65" s="274">
         <f t="shared" si="206"/>
-        <v>30.065612520452046</v>
+        <v>28.470540857875754</v>
       </c>
       <c r="E65" s="274">
         <f t="shared" si="206"/>
-        <v>27.355399544718381</v>
+        <v>25.28112573736648</v>
       </c>
       <c r="F65" s="274">
         <f t="shared" si="206"/>
@@ -17195,11 +17206,11 @@
       </c>
       <c r="N65" s="274">
         <f t="shared" si="207"/>
-        <v>30.065612520452046</v>
+        <v>28.470540857875754</v>
       </c>
       <c r="O65" s="274">
         <f t="shared" si="207"/>
-        <v>27.355399544718381</v>
+        <v>25.28112573736648</v>
       </c>
       <c r="P65" s="274">
         <f t="shared" si="207"/>
@@ -17226,11 +17237,11 @@
       </c>
       <c r="X65" s="248">
         <f>N65</f>
-        <v>30.065612520452046</v>
+        <v>28.470540857875754</v>
       </c>
       <c r="Y65" s="249">
         <f t="shared" si="199"/>
-        <v>27.355399544718381</v>
+        <v>25.28112573736648</v>
       </c>
       <c r="Z65" s="248">
         <f t="shared" si="200"/>
@@ -17257,11 +17268,11 @@
       </c>
       <c r="AH65" s="248">
         <f>X65</f>
-        <v>30.065612520452046</v>
+        <v>28.470540857875754</v>
       </c>
       <c r="AI65" s="249">
         <f t="shared" si="203"/>
-        <v>27.355399544718381</v>
+        <v>25.28112573736648</v>
       </c>
       <c r="AJ65" s="248">
         <f t="shared" si="209"/>
@@ -17290,11 +17301,11 @@
       </c>
       <c r="D66" s="274">
         <f t="shared" si="206"/>
-        <v>39.544644941150075</v>
+        <v>39.117380929001023</v>
       </c>
       <c r="E66" s="274">
         <f t="shared" si="206"/>
-        <v>37.618634851733425</v>
+        <v>34.600991364886717</v>
       </c>
       <c r="F66" s="274">
         <f t="shared" si="206"/>
@@ -17321,11 +17332,11 @@
       </c>
       <c r="N66" s="274">
         <f t="shared" si="207"/>
-        <v>39.544644941150075</v>
+        <v>39.117380929001023</v>
       </c>
       <c r="O66" s="274">
         <f t="shared" si="207"/>
-        <v>37.618634851733425</v>
+        <v>34.600991364886717</v>
       </c>
       <c r="P66" s="274">
         <f t="shared" si="207"/>
@@ -17352,11 +17363,11 @@
       </c>
       <c r="X66" s="274">
         <f t="shared" ref="X66" si="211">N66</f>
-        <v>39.544644941150075</v>
+        <v>39.117380929001023</v>
       </c>
       <c r="Y66" s="275">
         <f t="shared" si="199"/>
-        <v>37.618634851733425</v>
+        <v>34.600991364886717</v>
       </c>
       <c r="Z66" s="274">
         <f t="shared" si="200"/>
@@ -17383,11 +17394,11 @@
       </c>
       <c r="AH66" s="274">
         <f t="shared" ref="AH66" si="212">X66</f>
-        <v>39.544644941150075</v>
+        <v>39.117380929001023</v>
       </c>
       <c r="AI66" s="275">
         <f t="shared" si="203"/>
-        <v>37.618634851733425</v>
+        <v>34.600991364886717</v>
       </c>
       <c r="AJ66" s="274">
         <f t="shared" si="209"/>
@@ -17416,11 +17427,11 @@
       </c>
       <c r="D67" s="198">
         <f t="shared" ref="D67:I67" si="213">SUMPRODUCT(D63:D66,D46:D49)/D50</f>
-        <v>34.937599644545195</v>
+        <v>33.836130558189041</v>
       </c>
       <c r="E67" s="199">
         <f t="shared" si="213"/>
-        <v>32.527570207990898</v>
+        <v>29.881977393881929</v>
       </c>
       <c r="F67" s="198">
         <f t="shared" si="213"/>
@@ -17447,11 +17458,11 @@
       </c>
       <c r="N67" s="198">
         <f t="shared" ref="N67:S67" si="214">SUMPRODUCT(N63:N66,N46:N49)/N50</f>
-        <v>34.937599644545195</v>
+        <v>33.836130558189041</v>
       </c>
       <c r="O67" s="199">
         <f t="shared" si="214"/>
-        <v>32.527570207990898</v>
+        <v>29.881977393881929</v>
       </c>
       <c r="P67" s="198">
         <f t="shared" si="214"/>
@@ -17478,15 +17489,15 @@
       </c>
       <c r="X67" s="198">
         <f>SUMPRODUCT(X63:X66,X46:X49)/X50</f>
-        <v>34.937599644545195</v>
+        <v>33.836130558189041</v>
       </c>
       <c r="Y67" s="199">
         <f t="shared" ref="Y67:AC67" si="215">SUMPRODUCT(Y63:Y66,Y46:Y49)/Y50</f>
-        <v>32.527570207990898</v>
+        <v>29.881977393881929</v>
       </c>
       <c r="Z67" s="198">
         <f t="shared" si="215"/>
-        <v>65.980326902235177</v>
+        <v>65.980326902235191</v>
       </c>
       <c r="AA67" s="199">
         <f t="shared" si="215"/>
@@ -17494,7 +17505,7 @@
       </c>
       <c r="AB67" s="200">
         <f t="shared" si="215"/>
-        <v>37.981509427721029</v>
+        <v>37.981509427721036</v>
       </c>
       <c r="AC67" s="199">
         <f t="shared" si="215"/>
@@ -17509,11 +17520,11 @@
       </c>
       <c r="AH67" s="198">
         <f t="shared" ref="AH67:AM67" si="216">SUMPRODUCT(AH63:AH66,AH46:AH49)/AH50</f>
-        <v>34.937599644545195</v>
+        <v>33.836130558189041</v>
       </c>
       <c r="AI67" s="199">
         <f t="shared" si="216"/>
-        <v>32.527570207990898</v>
+        <v>29.881977393881929</v>
       </c>
       <c r="AJ67" s="198">
         <f>SUMPRODUCT(AJ63:AJ66,AJ46:AJ49)/AJ50</f>
@@ -17521,7 +17532,7 @@
       </c>
       <c r="AK67" s="199">
         <f t="shared" si="216"/>
-        <v>34.096696804993876</v>
+        <v>34.096696804993869</v>
       </c>
       <c r="AL67" s="200">
         <f>SUMPRODUCT(AL63:AL66,AL46:AL49)/AL50</f>
@@ -17529,7 +17540,7 @@
       </c>
       <c r="AM67" s="199">
         <f t="shared" si="216"/>
-        <v>34.096696804993876</v>
+        <v>34.096696804993869</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17575,19 +17586,19 @@
       </c>
       <c r="P68" s="224">
         <f>P67/D67-1</f>
-        <v>0.88851917628910959</v>
+        <v>0.94999622633465042</v>
       </c>
       <c r="Q68" s="225">
         <f>Q67/E67-1</f>
-        <v>4.8239895785929132E-2</v>
+        <v>0.14104553241429318</v>
       </c>
       <c r="R68" s="226">
         <f>R67/D67-1</f>
-        <v>8.7124181802543443E-2</v>
+        <v>0.12251338439550752</v>
       </c>
       <c r="S68" s="225">
         <f>S67/E67-1</f>
-        <v>4.8239895785929132E-2</v>
+        <v>0.14104553241429318</v>
       </c>
       <c r="U68" s="632"/>
       <c r="V68" s="188" t="s">
@@ -17606,19 +17617,19 @@
       </c>
       <c r="Z68" s="224">
         <f>Z67/D67-1</f>
-        <v>0.88851917628910959</v>
+        <v>0.94999622633465086</v>
       </c>
       <c r="AA68" s="225">
         <f>AA67/E67-1</f>
-        <v>4.823989578592891E-2</v>
+        <v>0.14104553241429274</v>
       </c>
       <c r="AB68" s="226">
         <f>AB67/D67-1</f>
-        <v>8.7124181802543443E-2</v>
+        <v>0.12251338439550752</v>
       </c>
       <c r="AC68" s="225">
         <f>AC67/E67-1</f>
-        <v>4.823989578592891E-2</v>
+        <v>0.14104553241429274</v>
       </c>
       <c r="AE68" s="632"/>
       <c r="AF68" s="188" t="s">
@@ -17637,19 +17648,19 @@
       </c>
       <c r="AJ68" s="224">
         <f>AJ67/D67-1</f>
-        <v>0.88851917628910959</v>
+        <v>0.94999622633465042</v>
       </c>
       <c r="AK68" s="225">
         <f>AK67/E67-1</f>
-        <v>4.8239895785929132E-2</v>
+        <v>0.14104553241429274</v>
       </c>
       <c r="AL68" s="226">
         <f>AL67/D67-1</f>
-        <v>8.7124181802543665E-2</v>
+        <v>0.12251338439550752</v>
       </c>
       <c r="AM68" s="225">
         <f>AM67/E67-1</f>
-        <v>4.8239895785929132E-2</v>
+        <v>0.14104553241429274</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
@@ -17706,27 +17717,27 @@
       </c>
       <c r="AH71" s="245">
         <f>(1-Indata!D$11-Indata!D$12)*'Indata - Effektsamband-Faktorer'!$D$11*'Modell - Tunga fordon'!AH$15*'Modell - Tunga fordon'!AH$40/10</f>
-        <v>2.6531104436628112</v>
+        <v>2.487057471273447</v>
       </c>
       <c r="AI71" s="246">
         <f>(1-Indata!E$11-Indata!E$12)*'Indata - Effektsamband-Faktorer'!$E$11*'Modell - Tunga fordon'!AI$15*'Modell - Tunga fordon'!AI$40/10</f>
-        <v>2.3066951315773201</v>
+        <v>1.8251906848381836</v>
       </c>
       <c r="AJ71" s="245">
         <f>(1-Indata!F$11-Indata!F$12)*'Indata - Effektsamband-Faktorer'!$D$11*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>2.3820737793163258</v>
+        <v>2.3420285353730019</v>
       </c>
       <c r="AK71" s="246">
         <f>(1-Indata!G$11-Indata!G$12)*'Indata - Effektsamband-Faktorer'!$E$11*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10</f>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
       <c r="AL71" s="245">
         <f>(1-Indata!H$11-Indata!H$12)*'Indata - Effektsamband-Faktorer'!$D$11*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>1.5784270407993444</v>
+        <v>1.5658978494275091</v>
       </c>
       <c r="AM71" s="246">
         <f>(1-Indata!I$11-Indata!I$12)*'Indata - Effektsamband-Faktorer'!$E$11*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
@@ -17772,27 +17783,27 @@
       </c>
       <c r="AH73" s="221">
         <f>SUM(AH71:AH72)</f>
-        <v>2.6531104436628112</v>
+        <v>2.487057471273447</v>
       </c>
       <c r="AI73" s="222">
         <f t="shared" ref="AI73:AM73" si="220">SUM(AI71:AI72)</f>
-        <v>2.3066951315773201</v>
+        <v>1.8251906848381836</v>
       </c>
       <c r="AJ73" s="221">
         <f t="shared" si="220"/>
-        <v>2.3820737793163258</v>
+        <v>2.3420285353730019</v>
       </c>
       <c r="AK73" s="222">
         <f>SUM(AK71:AK72)</f>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
       <c r="AL73" s="221">
         <f t="shared" si="220"/>
-        <v>1.5784270407993444</v>
+        <v>1.5658978494275091</v>
       </c>
       <c r="AM73" s="222">
         <f t="shared" si="220"/>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
@@ -17807,27 +17818,27 @@
       </c>
       <c r="AH74" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$15*'Modell - Tunga fordon'!AH$40</f>
-        <v>1.9535949121051688</v>
+        <v>1.8038129300640617</v>
       </c>
       <c r="AI74" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$15*'Modell - Tunga fordon'!AI$40</f>
-        <v>1.8174256876650472</v>
+        <v>1.4222525954853262</v>
       </c>
       <c r="AJ74" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$15*'Modell - Tunga fordon'!AJ$40</f>
-        <v>1.450654826905011</v>
+        <v>1.4262677458139938</v>
       </c>
       <c r="AK74" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$15*'Modell - Tunga fordon'!AK$40</f>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
       <c r="AL74" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$15*'Modell - Tunga fordon'!AL$40</f>
-        <v>1.7692386704195922</v>
+        <v>1.7551948601507861</v>
       </c>
       <c r="AM74" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$15*'Modell - Tunga fordon'!AM$40</f>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
@@ -17867,27 +17878,27 @@
       </c>
       <c r="AH76" s="221">
         <f t="shared" ref="AH76:AM76" si="221">SUM(AH74:AH75)</f>
-        <v>1.9535949121051688</v>
+        <v>1.8038129300640617</v>
       </c>
       <c r="AI76" s="222">
         <f t="shared" si="221"/>
-        <v>1.8174256876650472</v>
+        <v>1.4222525954853262</v>
       </c>
       <c r="AJ76" s="221">
         <f t="shared" si="221"/>
-        <v>1.450654826905011</v>
+        <v>1.4262677458139938</v>
       </c>
       <c r="AK76" s="222">
         <f t="shared" si="221"/>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
       <c r="AL76" s="221">
         <f t="shared" si="221"/>
-        <v>1.7692386704195922</v>
+        <v>1.7551948601507861</v>
       </c>
       <c r="AM76" s="222">
         <f t="shared" si="221"/>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
@@ -17902,27 +17913,27 @@
       </c>
       <c r="AH77" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$18*'Modell - Tunga fordon'!AH$40</f>
-        <v>3.1735896971207704E-2</v>
+        <v>2.9302708022595228E-2</v>
       </c>
       <c r="AI77" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$18*'Modell - Tunga fordon'!AI$40</f>
-        <v>2.9309268796168835E-2</v>
+        <v>2.2936389586681587E-2</v>
       </c>
       <c r="AJ77" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$18*'Modell - Tunga fordon'!AJ$40</f>
-        <v>2.3565700259647378E-2</v>
+        <v>2.3169535277778638E-2</v>
       </c>
       <c r="AK77" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$18*'Modell - Tunga fordon'!AK$40</f>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
       <c r="AL77" s="245">
         <f>'Indata - Effektsamband-Faktorer'!$D$18*'Modell - Tunga fordon'!AL$40</f>
-        <v>2.8741053641160391E-2</v>
+        <v>2.8512913757598887E-2</v>
       </c>
       <c r="AM77" s="246">
         <f>'Indata - Effektsamband-Faktorer'!$E$18*'Modell - Tunga fordon'!AM$40</f>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
@@ -17962,27 +17973,27 @@
       </c>
       <c r="AH79" s="221">
         <f t="shared" ref="AH79:AM79" si="222">SUM(AH77:AH78)</f>
-        <v>3.1735896971207704E-2</v>
+        <v>2.9302708022595228E-2</v>
       </c>
       <c r="AI79" s="222">
         <f t="shared" si="222"/>
-        <v>2.9309268796168835E-2</v>
+        <v>2.2936389586681587E-2</v>
       </c>
       <c r="AJ79" s="221">
         <f t="shared" si="222"/>
-        <v>2.3565700259647378E-2</v>
+        <v>2.3169535277778638E-2</v>
       </c>
       <c r="AK79" s="222">
         <f t="shared" si="222"/>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
       <c r="AL79" s="221">
         <f t="shared" si="222"/>
-        <v>2.8741053641160391E-2</v>
+        <v>2.8512913757598887E-2</v>
       </c>
       <c r="AM79" s="222">
         <f t="shared" si="222"/>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
     </row>
     <row r="80" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17997,7 +18008,7 @@
       </c>
       <c r="AH80" s="463">
         <f>'Indata - Effektsamband-Faktorer'!$D$20*'Modell - Tunga fordon'!AH$50</f>
-        <v>1.1954746781289414</v>
+        <v>1.1954746781289411</v>
       </c>
       <c r="AI80" s="464">
         <f>'Indata - Effektsamband-Faktorer'!$E$20*'Modell - Tunga fordon'!AI$50</f>
@@ -18005,19 +18016,19 @@
       </c>
       <c r="AJ80" s="463">
         <f>'Indata - Effektsamband-Faktorer'!$D$20*'Modell - Tunga fordon'!AJ$50</f>
-        <v>0.9617901993461061</v>
+        <v>0.94562146289069382</v>
       </c>
       <c r="AK80" s="464">
         <f>'Indata - Effektsamband-Faktorer'!$E$20*'Modell - Tunga fordon'!AK$50</f>
-        <v>1.3948307009811405</v>
+        <v>1.366046628777053</v>
       </c>
       <c r="AL80" s="463">
         <f>'Indata - Effektsamband-Faktorer'!$D$20*'Modell - Tunga fordon'!AL$50</f>
-        <v>1.17256063242546</v>
+        <v>1.1632531153980659</v>
       </c>
       <c r="AM80" s="464">
         <f>'Indata - Effektsamband-Faktorer'!$E$20*'Modell - Tunga fordon'!AM$50</f>
-        <v>1.3948307009811405</v>
+        <v>1.366046628777053</v>
       </c>
     </row>
     <row r="82" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18045,27 +18056,27 @@
       </c>
       <c r="AH83" s="245">
         <f>(1-Indata!D$11-Indata!D$12)*'Indata - Effektsamband-Faktorer'!$D22*'Modell - Tunga fordon'!AH$15*'Modell - Tunga fordon'!AH$40/10</f>
-        <v>10.236410373187224</v>
+        <v>9.5957335505825903</v>
       </c>
       <c r="AI83" s="246">
         <f>(1-Indata!E$11-Indata!E$12)*'Indata - Effektsamband-Faktorer'!$E22*'Modell - Tunga fordon'!AI$15*'Modell - Tunga fordon'!AI$40/10</f>
-        <v>8.8998473580542274</v>
+        <v>7.0420742958323617</v>
       </c>
       <c r="AJ83" s="245">
         <f>(1-Indata!F$11-Indata!F$12)*'Indata - Effektsamband-Faktorer'!$D22*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>9.1906783611417318</v>
+        <v>9.036173089234417</v>
       </c>
       <c r="AK83" s="246">
         <f>(1-Indata!G$11-Indata!G$12)*'Indata - Effektsamband-Faktorer'!$E22*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10</f>
-        <v>3.0943179059152319</v>
+        <v>3.0304627943496394</v>
       </c>
       <c r="AL83" s="247">
         <f>(1-Indata!H$11-Indata!H$12)*'Indata - Effektsamband-Faktorer'!$D22*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>6.0899940944226678</v>
+        <v>6.0416531198384211</v>
       </c>
       <c r="AM83" s="246">
         <f>(1-Indata!I$11-Indata!I$12)*'Indata - Effektsamband-Faktorer'!$E22*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
-        <v>3.0943179059152319</v>
+        <v>3.0304627943496394</v>
       </c>
     </row>
     <row r="84" spans="31:39" x14ac:dyDescent="0.25">
@@ -18078,27 +18089,27 @@
       </c>
       <c r="AH84" s="248">
         <f>(Indata!D$11*'Indata - Effektsamband-Faktorer'!$D$25+Indata!D$12*'Indata - Effektsamband-Faktorer'!$D$26)*'Modell - Tunga fordon'!AH$15*'Modell - Tunga fordon'!AH$40/10</f>
-        <v>4.6111465034920069</v>
+        <v>4.3225438993838354</v>
       </c>
       <c r="AI84" s="249">
         <f>(Indata!E$11*'Indata - Effektsamband-Faktorer'!$E$25+Indata!E$12*'Indata - Effektsamband-Faktorer'!$E$26)*'Modell - Tunga fordon'!AI$15*'Modell - Tunga fordon'!AI$40/10</f>
-        <v>4.0090713961799205</v>
+        <v>3.1722093080220839</v>
       </c>
       <c r="AJ84" s="248">
         <f>(Indata!F$11*'Indata - Effektsamband-Faktorer'!$D$25+Indata!F$12*'Indata - Effektsamband-Faktorer'!$D$26)*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>1.8263985705091379</v>
+        <v>1.7956948295382067</v>
       </c>
       <c r="AK84" s="249">
         <f>(Indata!G$11*'Indata - Effektsamband-Faktorer'!$E$25+Indata!G$12*'Indata - Effektsamband-Faktorer'!$E$26)*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10</f>
-        <v>6.8692895633877473</v>
+        <v>6.7275332006662678</v>
       </c>
       <c r="AL84" s="250">
         <f>(Indata!H$11*'Indata - Effektsamband-Faktorer'!$D$25+Indata!H$12*'Indata - Effektsamband-Faktorer'!$D$26)*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>7.4394814221640546</v>
+        <v>7.3804285270753436</v>
       </c>
       <c r="AM84" s="249">
         <f>(Indata!I$11*'Indata - Effektsamband-Faktorer'!$E$25+Indata!I$12*'Indata - Effektsamband-Faktorer'!$E$26)*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
-        <v>6.8692895633877473</v>
+        <v>6.7275332006662678</v>
       </c>
     </row>
     <row r="85" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18111,27 +18122,27 @@
       </c>
       <c r="AH85" s="251">
         <f t="shared" ref="AH85:AM85" si="223">AH20*AH45/10</f>
-        <v>0.1650673257837407</v>
+        <v>0.6964079505569517</v>
       </c>
       <c r="AI85" s="252">
         <f t="shared" si="223"/>
-        <v>0.77863859289363913</v>
+        <v>2.6976832379278877</v>
       </c>
       <c r="AJ85" s="251">
         <f t="shared" si="223"/>
-        <v>0.67657604466425869</v>
+        <v>0.66520206750618505</v>
       </c>
       <c r="AK85" s="252">
         <f t="shared" si="223"/>
-        <v>2.669053327110448</v>
+        <v>2.6139740808405838</v>
       </c>
       <c r="AL85" s="253">
         <f t="shared" si="223"/>
-        <v>0.6830596765204785</v>
+        <v>0.67763770566956405</v>
       </c>
       <c r="AM85" s="252">
         <f t="shared" si="223"/>
-        <v>2.669053327110448</v>
+        <v>2.6139740808405838</v>
       </c>
     </row>
     <row r="87" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18159,27 +18170,27 @@
       </c>
       <c r="AH88" s="245">
         <f>(1-Indata!D$11-Indata!D$12)*'Modell - Drivmedelpriser'!E$56*'Modell - Tunga fordon'!AH$15*'Modell - Tunga fordon'!AH$40/10</f>
-        <v>5.8833096119358101</v>
+        <v>5.5150848171925801</v>
       </c>
       <c r="AI88" s="467">
         <f>(1-Indata!E$11-Indata!E$12)*'Modell - Drivmedelpriser'!F$56*'Modell - Tunga fordon'!AI$15*'Modell - Tunga fordon'!AI$40/10</f>
-        <v>6.2353134645035979</v>
+        <v>4.9337408731061823</v>
       </c>
       <c r="AJ88" s="245">
         <f>(1-Indata!F$11-Indata!F$12)*'Modell - Drivmedelpriser'!G$56*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>5.2822820081488961</v>
+        <v>5.1934811181720688</v>
       </c>
       <c r="AK88" s="467">
         <f>(1-Indata!G$11-Indata!G$12)*'Modell - Drivmedelpriser'!H$56*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10</f>
-        <v>2.1679070804227907</v>
+        <v>2.1231696123625103</v>
       </c>
       <c r="AL88" s="245">
         <f>(1-Indata!H$11-Indata!H$12)*'Modell - Drivmedelpriser'!I$56*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>3.5001840963897721</v>
+        <v>3.4724004388327439</v>
       </c>
       <c r="AM88" s="246">
         <f>(1-Indata!I$11-Indata!I$12)*'Modell - Drivmedelpriser'!J$56*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
-        <v>2.1679070804227907</v>
+        <v>2.1231696123625103</v>
       </c>
     </row>
     <row r="89" spans="31:39" x14ac:dyDescent="0.25">
@@ -18192,27 +18203,27 @@
       </c>
       <c r="AH89" s="248">
         <f>(Indata!D$11+Indata!D$12)*'Modell - Drivmedelpriser'!E$56*'Modell - Tunga fordon'!AH$15*'Modell - Tunga fordon'!AH$40/10</f>
-        <v>2.768616287969794</v>
+        <v>2.5953340316200384</v>
       </c>
       <c r="AI89" s="468">
         <f>(Indata!E$11+Indata!E$12)*'Modell - Drivmedelpriser'!F$56*'Modell - Tunga fordon'!AI$15*'Modell - Tunga fordon'!AI$40/10</f>
-        <v>2.9342651597663996</v>
+        <v>2.3217604108734977</v>
       </c>
       <c r="AJ89" s="248">
         <f>(Indata!F$11+Indata!F$12)*'Modell - Drivmedelpriser'!G$56*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>1.102525056448485</v>
+        <v>1.0839904143973147</v>
       </c>
       <c r="AK89" s="468">
         <f>(Indata!G$11+Indata!G$12)*'Modell - Drivmedelpriser'!H$56*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10</f>
-        <v>5.0105931858778403</v>
+        <v>4.9071933424802392</v>
       </c>
       <c r="AL89" s="248">
         <f>(Indata!H$11+Indata!H$12)*'Modell - Drivmedelpriser'!I$56*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>4.4547797590415277</v>
+        <v>4.4194187403325831</v>
       </c>
       <c r="AM89" s="249">
         <f>(Indata!I$11+Indata!I$12)*'Modell - Drivmedelpriser'!J$56*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
-        <v>5.0105931858778403</v>
+        <v>4.9071933424802392</v>
       </c>
     </row>
     <row r="90" spans="31:39" x14ac:dyDescent="0.25">
@@ -18225,27 +18236,27 @@
       </c>
       <c r="AH90" s="248">
         <f>'Modell - Drivmedelpriser'!E82*'Modell - Tunga fordon'!AH$20*'Modell - Tunga fordon'!AH$45/10</f>
-        <v>5.5561661858807121E-2</v>
+        <v>0.23441091615746995</v>
       </c>
       <c r="AI90" s="468">
         <f>'Modell - Drivmedelpriser'!F82*'Modell - Tunga fordon'!AI$20*'Modell - Tunga fordon'!AI$45/10</f>
-        <v>0.26208975036799892</v>
+        <v>0.90804017788652691</v>
       </c>
       <c r="AJ90" s="248">
         <f>'Modell - Drivmedelpriser'!G82*'Modell - Tunga fordon'!AJ$20*'Modell - Tunga fordon'!AJ$45/10</f>
-        <v>0.22773549663398945</v>
+        <v>0.22390701592258186</v>
       </c>
       <c r="AK90" s="468">
         <f>'Modell - Drivmedelpriser'!H82*'Modell - Tunga fordon'!AK$20*'Modell - Tunga fordon'!AK$45/10</f>
-        <v>0.89840334990537651</v>
+        <v>0.87986367561094048</v>
       </c>
       <c r="AL90" s="248">
         <f>'Modell - Drivmedelpriser'!I82*'Modell - Tunga fordon'!AL$20*'Modell - Tunga fordon'!AL$45/10</f>
-        <v>0.22991788711679301</v>
+        <v>0.22809285172837521</v>
       </c>
       <c r="AM90" s="249">
         <f>'Modell - Drivmedelpriser'!J82*'Modell - Tunga fordon'!AM$20*'Modell - Tunga fordon'!AM$45/10</f>
-        <v>0.89840334990537651</v>
+        <v>0.87986367561094048</v>
       </c>
     </row>
     <row r="91" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18258,27 +18269,27 @@
       </c>
       <c r="AH91" s="221">
         <f>SUM(AH88:AH90)</f>
-        <v>8.7074875617644114</v>
+        <v>8.344829764970088</v>
       </c>
       <c r="AI91" s="469">
         <f t="shared" ref="AI91:AM91" si="224">SUM(AI88:AI90)</f>
-        <v>9.4316683746379955</v>
+        <v>8.1635414618662061</v>
       </c>
       <c r="AJ91" s="221">
         <f t="shared" si="224"/>
-        <v>6.6125425612313702</v>
+        <v>6.5013785484919655</v>
       </c>
       <c r="AK91" s="469">
         <f t="shared" si="224"/>
-        <v>8.0769036162060068</v>
+        <v>7.9102266304536899</v>
       </c>
       <c r="AL91" s="221">
         <f t="shared" si="224"/>
-        <v>8.1848817425480931</v>
+        <v>8.1199120308937029</v>
       </c>
       <c r="AM91" s="222">
         <f t="shared" si="224"/>
-        <v>8.0769036162060068</v>
+        <v>7.9102266304536899</v>
       </c>
     </row>
     <row r="92" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -18301,7 +18312,7 @@
       </c>
       <c r="AJ92" s="465">
         <f t="shared" si="225"/>
-        <v>0.62290791330719464</v>
+        <v>0.61243615564829745</v>
       </c>
       <c r="AK92" s="466">
         <f t="shared" si="225"/>
@@ -18334,7 +18345,7 @@
       </c>
       <c r="AJ93" s="205">
         <f t="shared" si="225"/>
-        <v>0.67798002626286269</v>
+        <v>0.66658244665128985</v>
       </c>
       <c r="AK93" s="206">
         <f t="shared" si="225"/>
@@ -18367,7 +18378,7 @@
       </c>
       <c r="AJ94" s="205">
         <f t="shared" si="225"/>
-        <v>5.5487439044867237</v>
+        <v>5.4554635010149308</v>
       </c>
       <c r="AK94" s="206">
         <f t="shared" si="225"/>
@@ -18400,7 +18411,7 @@
       </c>
       <c r="AJ95" s="205">
         <f t="shared" si="225"/>
-        <v>10.001746651271869</v>
+        <v>9.8336064416833722</v>
       </c>
       <c r="AK95" s="206">
         <f t="shared" si="225"/>
@@ -18433,7 +18444,7 @@
       </c>
       <c r="AJ96" s="208">
         <f t="shared" si="226"/>
-        <v>16.85137849532865</v>
+        <v>16.568088544997892</v>
       </c>
       <c r="AK96" s="210">
         <f t="shared" si="226"/>
@@ -18453,6 +18464,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AE88:AE91"/>
+    <mergeCell ref="AE74:AE76"/>
+    <mergeCell ref="AE77:AE79"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="AE71:AE73"/>
+    <mergeCell ref="AE83:AE85"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="K36:K50"/>
+    <mergeCell ref="U36:U50"/>
+    <mergeCell ref="AE36:AE50"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="U11:U20"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AE92:AE96"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -18469,40 +18514,6 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="K23:K26"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE88:AE91"/>
-    <mergeCell ref="AE74:AE76"/>
-    <mergeCell ref="AE77:AE79"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="AE71:AE73"/>
-    <mergeCell ref="AE83:AE85"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="K36:K50"/>
-    <mergeCell ref="U36:U50"/>
-    <mergeCell ref="AE36:AE50"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="U11:U20"/>
-    <mergeCell ref="AE6:AE8"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18517,10 +18528,10 @@
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18570,18 +18581,18 @@
       <c r="A5" s="131"/>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="597" t="s">
+      <c r="D5" s="585" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="598"/>
-      <c r="F5" s="597" t="s">
+      <c r="E5" s="586"/>
+      <c r="F5" s="585" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="598"/>
-      <c r="H5" s="597" t="s">
+      <c r="G5" s="586"/>
+      <c r="H5" s="585" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="598"/>
+      <c r="I5" s="586"/>
       <c r="J5" s="593" t="s">
         <v>15</v>
       </c>
@@ -18601,18 +18612,18 @@
       </c>
       <c r="B6" s="138"/>
       <c r="C6" s="139"/>
-      <c r="D6" s="599" t="s">
+      <c r="D6" s="589" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="600"/>
-      <c r="F6" s="601" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="602"/>
-      <c r="H6" s="601" t="s">
-        <v>383</v>
-      </c>
-      <c r="I6" s="602"/>
+      <c r="E6" s="590"/>
+      <c r="F6" s="591" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="592"/>
+      <c r="H6" s="591" t="s">
+        <v>382</v>
+      </c>
+      <c r="I6" s="592"/>
       <c r="J6" s="65"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -18707,7 +18718,7 @@
       <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="590" t="s">
+      <c r="A9" s="587" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -18735,11 +18746,11 @@
         <v>0.1</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="591"/>
+      <c r="A10" s="588"/>
       <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
@@ -18765,11 +18776,11 @@
         <v>0.628</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="591"/>
+      <c r="A11" s="588"/>
       <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
@@ -18795,11 +18806,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="591"/>
+      <c r="A12" s="588"/>
       <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
@@ -18825,11 +18836,11 @@
         <v>0.628</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="590" t="s">
+      <c r="A13" s="587" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -18861,7 +18872,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="592"/>
+      <c r="A14" s="595"/>
       <c r="B14" s="107" t="s">
         <v>9</v>
       </c>
@@ -18891,7 +18902,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="590" t="s">
+      <c r="A15" s="587" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -18923,7 +18934,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="592"/>
+      <c r="A16" s="595"/>
       <c r="B16" s="107" t="s">
         <v>324</v>
       </c>
@@ -18957,28 +18968,28 @@
         <v>53</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" s="108" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="F17" s="124" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="G17" s="125" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="H17" s="124" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="I17" s="125" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="J17" s="403" t="s">
         <v>332</v>
@@ -19026,7 +19037,7 @@
       <c r="S18" s="127"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="590" t="s">
+      <c r="A19" s="587" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="106" t="s">
@@ -19058,7 +19069,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="592"/>
+      <c r="A20" s="595"/>
       <c r="B20" s="107" t="s">
         <v>324</v>
       </c>
@@ -19088,7 +19099,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="591" t="s">
+      <c r="A21" s="588" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -19120,7 +19131,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="592"/>
+      <c r="A22" s="595"/>
       <c r="B22" s="107" t="s">
         <v>324</v>
       </c>
@@ -19223,7 +19234,7 @@
       <c r="S24" s="127"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="590" t="s">
+      <c r="A25" s="587" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="106" t="s">
@@ -19234,11 +19245,11 @@
       </c>
       <c r="D25" s="45">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C7,'Indata - Fordon och Trafik'!H7)</f>
-        <v>0.39627461007293346</v>
+        <v>0.35761367250484238</v>
       </c>
       <c r="E25" s="46">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!D7,'Indata - Fordon och Trafik'!I7)</f>
-        <v>0.30878176598734658</v>
+        <v>0.17452833971320139</v>
       </c>
       <c r="F25" s="45">
         <f>IF(F$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C7,'Indata - Fordon och Trafik'!H7)</f>
@@ -19270,7 +19281,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="591"/>
+      <c r="A26" s="588"/>
       <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
@@ -19279,11 +19290,11 @@
       </c>
       <c r="D26" s="48">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C8,'Indata - Fordon och Trafik'!H8)</f>
-        <v>0.42372538992706654</v>
+        <v>0.38238632749515761</v>
       </c>
       <c r="E26" s="49">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!D8,'Indata - Fordon och Trafik'!I8)</f>
-        <v>0.31121823401265342</v>
+        <v>0.15547166028679862</v>
       </c>
       <c r="F26" s="48">
         <f>IF(F$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C8,'Indata - Fordon och Trafik'!H8)</f>
@@ -19315,7 +19326,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="592"/>
+      <c r="A27" s="595"/>
       <c r="B27" s="107" t="s">
         <v>7</v>
       </c>
@@ -19324,11 +19335,11 @@
       </c>
       <c r="D27" s="51">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C9,'Indata - Fordon och Trafik'!H9)</f>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="E27" s="52">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!D9,'Indata - Fordon och Trafik'!I9)</f>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="F27" s="51">
         <f>IF(F$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!C9,'Indata - Fordon och Trafik'!H9)</f>
@@ -19361,7 +19372,7 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="145" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>7</v>
@@ -19371,11 +19382,11 @@
       </c>
       <c r="D28" s="72">
         <f t="shared" ref="D28:I28" si="0">D27</f>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="E28" s="73">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="F28" s="72">
         <f>F27</f>
@@ -19407,7 +19418,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="590" t="s">
+      <c r="A29" s="587" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -19454,7 +19465,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="591"/>
+      <c r="A30" s="588"/>
       <c r="B30" s="43" t="s">
         <v>9</v>
       </c>
@@ -19499,7 +19510,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="592"/>
+      <c r="A31" s="595"/>
       <c r="B31" s="107" t="s">
         <v>7</v>
       </c>
@@ -19544,7 +19555,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="585" t="s">
+      <c r="A32" s="596" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="106" t="s">
@@ -19582,7 +19593,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="595"/>
+      <c r="A33" s="601"/>
       <c r="B33" s="43" t="s">
         <v>9</v>
       </c>
@@ -19618,7 +19629,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="595"/>
+      <c r="A34" s="601"/>
       <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
@@ -19654,7 +19665,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="586"/>
+      <c r="A35" s="597"/>
       <c r="B35" s="107" t="s">
         <v>20</v>
       </c>
@@ -19667,7 +19678,7 @@
       </c>
       <c r="E35" s="357">
         <f>SUMPRODUCT(E32:E33,Indata!E25:E26)/SUM(Indata!E25:E26)</f>
-        <v>21.927924171466245</v>
+        <v>21.888963239913203</v>
       </c>
       <c r="F35" s="356">
         <f>SUMPRODUCT(F32:F33,F25:F26)/SUM(Indata!F25:F26)</f>
@@ -19817,7 +19828,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="587" t="s">
+      <c r="A39" s="598" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="106" t="s">
@@ -19850,7 +19861,7 @@
         <v>11648700</v>
       </c>
       <c r="J39" s="416" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
@@ -19863,7 +19874,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="596"/>
+      <c r="A40" s="602"/>
       <c r="B40" s="107" t="s">
         <v>29</v>
       </c>
@@ -19949,7 +19960,7 @@
       <c r="S41" s="127"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="585" t="s">
+      <c r="A42" s="596" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="106" t="s">
@@ -19960,11 +19971,11 @@
       </c>
       <c r="D42" s="547">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$C21,'Indata - Fordon och Trafik'!$H21)</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="540">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$D21,'Indata - Fordon och Trafik'!$I21)</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F42" s="539">
         <f>$D$79</f>
@@ -19983,7 +19994,7 @@
         <v>0.85</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
@@ -19996,7 +20007,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="595"/>
+      <c r="A43" s="601"/>
       <c r="B43" s="43" t="s">
         <v>117</v>
       </c>
@@ -20005,11 +20016,11 @@
       </c>
       <c r="D43" s="548">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$C22,'Indata - Fordon och Trafik'!$H22)</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="542">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$D22,'Indata - Fordon och Trafik'!$I22)</f>
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F43" s="539">
         <f t="shared" ref="F43:F45" si="3">$D$79</f>
@@ -20028,7 +20039,7 @@
         <v>0.85</v>
       </c>
       <c r="J43" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
@@ -20041,7 +20052,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="588"/>
+      <c r="A44" s="599"/>
       <c r="B44" s="43" t="s">
         <v>118</v>
       </c>
@@ -20050,11 +20061,11 @@
       </c>
       <c r="D44" s="549">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$C23,'Indata - Fordon och Trafik'!$H23)</f>
-        <v>4.0427955013328291E-2</v>
+        <v>0.14936945604265053</v>
       </c>
       <c r="E44" s="544">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$D23,'Indata - Fordon och Trafik'!$I23)</f>
-        <v>0.16171182005331317</v>
+        <v>0.36423060055908874</v>
       </c>
       <c r="F44" s="539">
         <f t="shared" si="3"/>
@@ -20073,7 +20084,7 @@
         <v>0.36423060055908874</v>
       </c>
       <c r="J44" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
@@ -20086,7 +20097,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="588"/>
+      <c r="A45" s="599"/>
       <c r="B45" s="43" t="s">
         <v>119</v>
       </c>
@@ -20095,11 +20106,11 @@
       </c>
       <c r="D45" s="550">
         <f>IF(D$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$C24,'Indata - Fordon och Trafik'!$H24)</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E45" s="546">
         <f>IF(E$17='Indata - Fordon och Trafik'!$A$3,'Indata - Fordon och Trafik'!$D24,'Indata - Fordon och Trafik'!$I24)</f>
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="F45" s="539">
         <f t="shared" si="3"/>
@@ -20118,7 +20129,7 @@
         <v>0.185</v>
       </c>
       <c r="J45" s="78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
@@ -20131,8 +20142,8 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="585" t="s">
-        <v>382</v>
+      <c r="A46" s="596" t="s">
+        <v>381</v>
       </c>
       <c r="B46" s="106" t="s">
         <v>116</v>
@@ -20165,7 +20176,7 @@
         <v>1.0975404858629165</v>
       </c>
       <c r="J46" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
@@ -20178,7 +20189,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="595"/>
+      <c r="A47" s="601"/>
       <c r="B47" s="43" t="s">
         <v>117</v>
       </c>
@@ -20210,7 +20221,7 @@
         <v>1.4301687678393367</v>
       </c>
       <c r="J47" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
@@ -20223,7 +20234,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="588"/>
+      <c r="A48" s="599"/>
       <c r="B48" s="43" t="s">
         <v>118</v>
       </c>
@@ -20255,7 +20266,7 @@
         <v>1.7743995375527619</v>
       </c>
       <c r="J48" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
@@ -20268,7 +20279,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="588"/>
+      <c r="A49" s="599"/>
       <c r="B49" s="43" t="s">
         <v>119</v>
       </c>
@@ -20300,7 +20311,7 @@
         <v>2.3008116808806713</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
@@ -20313,8 +20324,8 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="585" t="s">
-        <v>381</v>
+      <c r="A50" s="596" t="s">
+        <v>380</v>
       </c>
       <c r="B50" s="106" t="s">
         <v>116</v>
@@ -20347,7 +20358,7 @@
         <v>8.4732522945626005</v>
       </c>
       <c r="J50" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
@@ -20360,7 +20371,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="595"/>
+      <c r="A51" s="601"/>
       <c r="B51" s="43" t="s">
         <v>117</v>
       </c>
@@ -20392,7 +20403,7 @@
         <v>8.4732522945626005</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
@@ -20405,7 +20416,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="588"/>
+      <c r="A52" s="599"/>
       <c r="B52" s="43" t="s">
         <v>118</v>
       </c>
@@ -20437,7 +20448,7 @@
         <v>13.374188060932356</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
@@ -20450,7 +20461,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="589"/>
+      <c r="A53" s="600"/>
       <c r="B53" s="107" t="s">
         <v>119</v>
       </c>
@@ -20482,7 +20493,7 @@
         <v>15.182448650666799</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K53" s="26"/>
       <c r="L53" s="26"/>
@@ -20495,7 +20506,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="595" t="s">
+      <c r="A54" s="601" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -20533,7 +20544,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="595"/>
+      <c r="A55" s="601"/>
       <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
@@ -20569,7 +20580,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="587" t="s">
+      <c r="A56" s="598" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="342" t="s">
@@ -20607,7 +20618,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="588"/>
+      <c r="A57" s="599"/>
       <c r="B57" s="43" t="s">
         <v>116</v>
       </c>
@@ -20652,7 +20663,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="588"/>
+      <c r="A58" s="599"/>
       <c r="B58" s="43" t="s">
         <v>117</v>
       </c>
@@ -20697,7 +20708,7 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="588"/>
+      <c r="A59" s="599"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -20742,7 +20753,7 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="589"/>
+      <c r="A60" s="600"/>
       <c r="B60" s="107" t="s">
         <v>119</v>
       </c>
@@ -20862,7 +20873,7 @@
       <c r="K62" s="594"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="585" t="s">
+      <c r="A63" s="596" t="s">
         <v>312</v>
       </c>
       <c r="B63" s="106" t="s">
@@ -20900,7 +20911,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="586"/>
+      <c r="A64" s="597"/>
       <c r="B64" s="107" t="s">
         <v>7</v>
       </c>
@@ -20945,86 +20956,86 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D66" s="424">
         <f>Resultat!F38/'Indata - Utsläpp'!B16-1</f>
-        <v>-0.46923489765679016</v>
+        <v>-0.47815763472081063</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D67" s="426">
         <f>Resultat!F41</f>
-        <v>-0.68246137204843715</v>
+        <v>-0.6845806165416275</v>
       </c>
       <c r="E67" s="424"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C68" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D68" s="583">
         <f>Resultat!F33</f>
-        <v>4.8089509967305304</v>
+        <v>4.7281073144534691</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" s="40">
         <f>Resultat!F34</f>
-        <v>53.299630900269264</v>
+        <v>53.218787217992201</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" s="40">
         <f>Resultat!F63</f>
-        <v>35.943432681396565</v>
+        <v>35.746849691360246</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C71" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D71" s="40">
         <f>Resultat!F61</f>
-        <v>9.1781484982047274</v>
+        <v>9.1474447572337958</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D72" s="40">
         <f>Resultat!F60</f>
-        <v>23.147448042304468</v>
+        <v>22.992942770397157</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C73" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D73" s="40">
         <f>Resultat!F62</f>
-        <v>3.6178361408873698</v>
+        <v>3.6064621637292964</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" s="40" t="s">
         <v>396</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>397</v>
       </c>
       <c r="D78" s="40">
         <v>-0.22</v>
@@ -21032,7 +21043,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D79" s="40">
         <v>0.1</v>
@@ -21043,24 +21054,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:I23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="28">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A29:A31"/>
@@ -21071,6 +21064,24 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21104,7 +21115,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
@@ -21190,18 +21201,18 @@
       <c r="C4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="597" t="s">
+      <c r="D4" s="585" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="598"/>
-      <c r="F4" s="597" t="s">
+      <c r="E4" s="586"/>
+      <c r="F4" s="585" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="598"/>
-      <c r="H4" s="597" t="s">
+      <c r="G4" s="586"/>
+      <c r="H4" s="585" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="598"/>
+      <c r="I4" s="586"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -21217,21 +21228,21 @@
       </c>
       <c r="B5" s="290"/>
       <c r="C5" s="291"/>
-      <c r="D5" s="603" t="str">
+      <c r="D5" s="611" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik</v>
       </c>
-      <c r="E5" s="604"/>
-      <c r="F5" s="603" t="str">
+      <c r="E5" s="612"/>
+      <c r="F5" s="611" t="str">
         <f>Indata!F6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="G5" s="604"/>
-      <c r="H5" s="603" t="str">
+      <c r="G5" s="612"/>
+      <c r="H5" s="611" t="str">
         <f>Indata!H6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="I5" s="604"/>
+      <c r="I5" s="612"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -21279,7 +21290,7 @@
       <c r="Q6" s="127"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="605" t="s">
+      <c r="A7" s="606" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="292" t="s">
@@ -21413,7 +21424,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="606"/>
+      <c r="A11" s="608"/>
       <c r="B11" s="294" t="s">
         <v>185</v>
       </c>
@@ -21446,7 +21457,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="605" t="s">
+      <c r="A12" s="606" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="292" t="s">
@@ -21550,38 +21561,38 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="607"/>
       <c r="B15" s="293" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" s="293" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="483">
         <f>'Modell - Tunga fordon'!AH15</f>
-        <v>2.635417410126252</v>
+        <v>2.6756106899982623</v>
       </c>
       <c r="E15" s="476">
         <f>'Modell - Tunga fordon'!AI15</f>
-        <v>2.1041206963133314</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="F15" s="475">
         <f>'Modell - Tunga fordon'!AJ15</f>
-        <v>2.619116556182119</v>
+        <v>2.6191165561821199</v>
       </c>
       <c r="G15" s="477">
         <f>'Modell - Tunga fordon'!AK15</f>
-        <v>2.127495351626326</v>
+        <v>2.1274953516263264</v>
       </c>
       <c r="H15" s="478">
         <f>'Modell - Tunga fordon'!AL15</f>
-        <v>2.6756106899982623</v>
+        <v>2.6756106899982628</v>
       </c>
       <c r="I15" s="477">
         <f>'Modell - Tunga fordon'!AM15</f>
-        <v>2.127495351626326</v>
+        <v>2.1274953516263264</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="606"/>
+      <c r="A16" s="608"/>
       <c r="B16" s="294" t="s">
         <v>323</v>
       </c>
@@ -21614,7 +21625,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="605" t="s">
+      <c r="A17" s="606" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="292" t="s">
@@ -21649,7 +21660,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="606"/>
+      <c r="A18" s="608"/>
       <c r="B18" s="294" t="s">
         <v>324</v>
       </c>
@@ -21717,7 +21728,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="605" t="s">
+      <c r="A20" s="606" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="292" t="s">
@@ -21858,26 +21869,26 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="607"/>
       <c r="B24" s="293" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C24" s="293" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="475">
         <f>'Modell - Tunga fordon'!AH57</f>
-        <v>35.490307374660375</v>
+        <v>36.031577175630936</v>
       </c>
       <c r="E24" s="476">
         <f>'Modell - Tunga fordon'!AI57</f>
-        <v>34.402706147722967</v>
+        <v>34.784885458751198</v>
       </c>
       <c r="F24" s="475">
         <f>'Modell - Tunga fordon'!AJ57</f>
-        <v>67.545933608490131</v>
+        <v>67.545933608490145</v>
       </c>
       <c r="G24" s="477">
         <f>'Modell - Tunga fordon'!AK57</f>
-        <v>40.766203253780787</v>
+        <v>40.766203253780802</v>
       </c>
       <c r="H24" s="478">
         <f>'Modell - Tunga fordon'!AL57</f>
@@ -21885,7 +21896,7 @@
       </c>
       <c r="I24" s="477">
         <f>'Modell - Tunga fordon'!AM57</f>
-        <v>40.766203253780787</v>
+        <v>40.766203253780802</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -21898,15 +21909,15 @@
       </c>
       <c r="D25" s="491">
         <f>'Modell - Tunga fordon'!AH62</f>
-        <v>13.285707796139762</v>
+        <v>14.000681315822147</v>
       </c>
       <c r="E25" s="492">
         <f>'Modell - Tunga fordon'!AI62</f>
-        <v>15.569677211992742</v>
+        <v>18.184705404944555</v>
       </c>
       <c r="F25" s="491">
         <f>'Modell - Tunga fordon'!AJ62</f>
-        <v>51.889866545940592</v>
+        <v>51.889866545940606</v>
       </c>
       <c r="G25" s="493">
         <f>'Modell - Tunga fordon'!AK62</f>
@@ -21922,20 +21933,20 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="606"/>
+      <c r="A26" s="608"/>
       <c r="B26" s="392" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26" s="392" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="495">
         <f>'Modell - Tunga fordon'!AH67</f>
-        <v>34.937599644545195</v>
+        <v>33.836130558189041</v>
       </c>
       <c r="E26" s="496">
         <f>'Modell - Tunga fordon'!AI67</f>
-        <v>32.527570207990898</v>
+        <v>29.881977393881929</v>
       </c>
       <c r="F26" s="495">
         <f>'Modell - Tunga fordon'!AJ67</f>
@@ -21943,7 +21954,7 @@
       </c>
       <c r="G26" s="429">
         <f>'Modell - Tunga fordon'!AK67</f>
-        <v>34.096696804993876</v>
+        <v>34.096696804993869</v>
       </c>
       <c r="H26" s="427">
         <f>'Modell - Tunga fordon'!AL67</f>
@@ -21951,11 +21962,11 @@
       </c>
       <c r="I26" s="429">
         <f>'Modell - Tunga fordon'!AM67</f>
-        <v>34.096696804993876</v>
+        <v>34.096696804993869</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="605" t="s">
+      <c r="A27" s="606" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="292" t="s">
@@ -21966,11 +21977,11 @@
       </c>
       <c r="D27" s="471">
         <f>'Modell - Lätta fordon'!AH34</f>
-        <v>34.972878293330716</v>
+        <v>31.560890167152106</v>
       </c>
       <c r="E27" s="472">
         <f>'Modell - Lätta fordon'!AI34</f>
-        <v>30.959435389109224</v>
+        <v>17.498762725324855</v>
       </c>
       <c r="F27" s="471">
         <f>'Modell - Lätta fordon'!AJ34</f>
@@ -22000,11 +22011,11 @@
       </c>
       <c r="D28" s="567">
         <f>'Modell - Lätta fordon'!AH35</f>
-        <v>37.395523495653713</v>
+        <v>33.747179739980183</v>
       </c>
       <c r="E28" s="568">
         <f>'Modell - Lätta fordon'!AI35</f>
-        <v>31.203723370836126</v>
+        <v>15.588079840452504</v>
       </c>
       <c r="F28" s="567">
         <f>'Modell - Lätta fordon'!AJ35</f>
@@ -22034,11 +22045,11 @@
       </c>
       <c r="D29" s="567">
         <f>'Modell - Lätta fordon'!AH36</f>
-        <v>15.885746734167313</v>
+        <v>22.946078616019452</v>
       </c>
       <c r="E29" s="568">
         <f>'Modell - Lätta fordon'!AI36</f>
-        <v>38.100000530289087</v>
+        <v>67.176316724457081</v>
       </c>
       <c r="F29" s="567">
         <f>'Modell - Lätta fordon'!AJ36</f>
@@ -22072,7 +22083,7 @@
       </c>
       <c r="E30" s="571">
         <f>'Modell - Lätta fordon'!AI37</f>
-        <v>100.26315929023443</v>
+        <v>100.26315929023444</v>
       </c>
       <c r="F30" s="572">
         <f>'Modell - Lätta fordon'!AJ37</f>
@@ -22094,34 +22105,34 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="607"/>
       <c r="B31" s="293" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C31" s="293" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="567">
         <f>'Modell - Tunga fordon'!AH40</f>
-        <v>5.82858707873166</v>
+        <v>5.3817097247100616</v>
       </c>
       <c r="E31" s="568">
         <f>'Modell - Tunga fordon'!AI40</f>
-        <v>6.347123102640456</v>
+        <v>4.9670324172610609</v>
       </c>
       <c r="F31" s="567">
         <f>'Modell - Tunga fordon'!AJ40</f>
-        <v>4.3280558970574772</v>
+        <v>4.2552965830081213</v>
       </c>
       <c r="G31" s="569">
         <f>'Modell - Tunga fordon'!AK40</f>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162624995</v>
       </c>
       <c r="H31" s="570">
         <f>'Modell - Tunga fordon'!AL40</f>
-        <v>5.2785567722879474</v>
+        <v>5.2366568008242034</v>
       </c>
       <c r="I31" s="569">
         <f>'Modell - Tunga fordon'!AM40</f>
-        <v>4.9143184095027799</v>
+        <v>4.8129053162624995</v>
       </c>
       <c r="J31" s="381"/>
     </row>
@@ -22135,41 +22146,41 @@
       </c>
       <c r="D32" s="575">
         <f>'Modell - Tunga fordon'!AH45</f>
-        <v>0.14878631191304731</v>
+        <v>0.59566366593464559</v>
       </c>
       <c r="E32" s="576">
         <f>'Modell - Tunga fordon'!AI45</f>
-        <v>0.70183947065083352</v>
+        <v>2.081930156030229</v>
       </c>
       <c r="F32" s="575">
         <f>'Modell - Tunga fordon'!AJ45</f>
-        <v>0.48089509967305311</v>
+        <v>0.47281073144534691</v>
       </c>
       <c r="G32" s="577">
         <f>'Modell - Tunga fordon'!AK45</f>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227644</v>
       </c>
       <c r="H32" s="578">
         <f>'Modell - Tunga fordon'!AL45</f>
-        <v>0.5842463898393524</v>
+        <v>0.57960877616612616</v>
       </c>
       <c r="I32" s="577">
         <f>'Modell - Tunga fordon'!AM45</f>
-        <v>2.059835095402923</v>
+        <v>2.0173278276227644</v>
       </c>
       <c r="J32" s="381"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="607"/>
       <c r="B33" s="391" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C33" s="391" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="566">
         <f>'Modell - Tunga fordon'!AH50</f>
-        <v>5.9773733906447069</v>
+        <v>5.977373390644706</v>
       </c>
       <c r="E33" s="571">
         <f>'Modell - Tunga fordon'!AI50</f>
@@ -22177,26 +22188,26 @@
       </c>
       <c r="F33" s="566">
         <f>'Modell - Tunga fordon'!AJ50</f>
-        <v>4.8089509967305304</v>
+        <v>4.7281073144534691</v>
       </c>
       <c r="G33" s="573">
         <f>'Modell - Tunga fordon'!AK50</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
       <c r="H33" s="574">
         <f>'Modell - Tunga fordon'!AL50</f>
-        <v>5.8628031621272996</v>
+        <v>5.8162655769903289</v>
       </c>
       <c r="I33" s="573">
         <f>'Modell - Tunga fordon'!AM50</f>
-        <v>6.9741535049057024</v>
+        <v>6.8302331438852644</v>
       </c>
       <c r="J33" s="381"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="606"/>
+      <c r="A34" s="608"/>
       <c r="B34" s="392" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C34" s="392" t="s">
         <v>36</v>
@@ -22207,23 +22218,23 @@
       </c>
       <c r="E34" s="580">
         <f t="shared" ref="E34:I34" si="0">E30+E33</f>
-        <v>107.31212186352572</v>
+        <v>107.31212186352573</v>
       </c>
       <c r="F34" s="579">
         <f t="shared" si="0"/>
-        <v>53.299630900269264</v>
+        <v>53.218787217992201</v>
       </c>
       <c r="G34" s="581">
         <f>G30+G33</f>
-        <v>108.78739718685578</v>
+        <v>108.64347682583535</v>
       </c>
       <c r="H34" s="582">
         <f t="shared" si="0"/>
-        <v>93.939968485215417</v>
+        <v>93.893430900078442</v>
       </c>
       <c r="I34" s="581">
         <f t="shared" si="0"/>
-        <v>108.78739718685578</v>
+        <v>108.64347682583535</v>
       </c>
       <c r="J34" s="381"/>
     </row>
@@ -22239,11 +22250,11 @@
       </c>
       <c r="D35" s="101">
         <f>D29/D30</f>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="E35" s="102">
         <f t="shared" ref="E35:I35" si="1">E29/E30</f>
-        <v>0.38000000000000006</v>
+        <v>0.67</v>
       </c>
       <c r="F35" s="101">
         <f t="shared" si="1"/>
@@ -22263,7 +22274,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="606"/>
+      <c r="A36" s="608"/>
       <c r="B36" s="294" t="s">
         <v>324</v>
       </c>
@@ -22272,31 +22283,31 @@
       </c>
       <c r="D36" s="512">
         <f t="shared" ref="D36:I36" si="2">D32/D33</f>
-        <v>2.4891587356064355E-2</v>
+        <v>9.9653079539405956E-2</v>
       </c>
       <c r="E36" s="513">
         <f>E32/E33</f>
-        <v>9.9566349424257447E-2</v>
+        <v>0.29535270394521868</v>
       </c>
       <c r="F36" s="98">
         <f t="shared" si="2"/>
-        <v>0.10000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="G36" s="99">
         <f t="shared" si="2"/>
-        <v>0.29535270394521868</v>
+        <v>0.29535270394521862</v>
       </c>
       <c r="H36" s="100">
         <f t="shared" si="2"/>
-        <v>9.9653079539405928E-2</v>
+        <v>9.965307953940597E-2</v>
       </c>
       <c r="I36" s="99">
         <f t="shared" si="2"/>
-        <v>0.29535270394521868</v>
+        <v>0.29535270394521862</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="611" t="s">
+      <c r="A37" s="609" t="s">
         <v>279</v>
       </c>
       <c r="B37" s="292" t="s">
@@ -22307,11 +22318,11 @@
       </c>
       <c r="D37" s="498">
         <f>'Modell - Lätta fordon'!AH56</f>
-        <v>8.5592112689865587</v>
+        <v>7.7241662671342111</v>
       </c>
       <c r="E37" s="499">
         <f>'Modell - Lätta fordon'!AI56</f>
-        <v>5.9759870461019826</v>
+        <v>3.203763823518305</v>
       </c>
       <c r="F37" s="498">
         <f>'Modell - Lätta fordon'!AJ56</f>
@@ -22331,7 +22342,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="612"/>
+      <c r="A38" s="610"/>
       <c r="B38" s="293" t="s">
         <v>324</v>
       </c>
@@ -22340,31 +22351,31 @@
       </c>
       <c r="D38" s="500">
         <f>'Modell - Tunga fordon'!AH73</f>
-        <v>2.6531104436628112</v>
+        <v>2.487057471273447</v>
       </c>
       <c r="E38" s="501">
         <f>'Modell - Tunga fordon'!AI73</f>
-        <v>2.3066951315773201</v>
+        <v>1.8251906848381836</v>
       </c>
       <c r="F38" s="500">
         <f>'Modell - Tunga fordon'!AJ73</f>
-        <v>2.3820737793163258</v>
+        <v>2.3420285353730019</v>
       </c>
       <c r="G38" s="501">
         <f>'Modell - Tunga fordon'!AK73</f>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
       <c r="H38" s="500">
         <f>'Modell - Tunga fordon'!AL73</f>
-        <v>1.5784270407993444</v>
+        <v>1.5658978494275091</v>
       </c>
       <c r="I38" s="501">
         <f>'Modell - Tunga fordon'!AM73</f>
-        <v>0.80199668173721306</v>
+        <v>0.78544647935184519</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="612"/>
+      <c r="A39" s="610"/>
       <c r="B39" s="293" t="s">
         <v>315</v>
       </c>
@@ -22391,7 +22402,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="612"/>
+      <c r="A40" s="610"/>
       <c r="B40" s="391" t="s">
         <v>16</v>
       </c>
@@ -22400,64 +22411,64 @@
       </c>
       <c r="D40" s="502">
         <f>SUM(D37:D39)</f>
-        <v>11.21232171264937</v>
+        <v>10.211223738407657</v>
       </c>
       <c r="E40" s="503">
         <f t="shared" ref="E40:I40" si="3">SUM(E37:E39)</f>
-        <v>8.2826821776793018</v>
+        <v>5.0289545083564882</v>
       </c>
       <c r="F40" s="502">
         <f t="shared" si="3"/>
-        <v>6.0002099137727312</v>
+        <v>5.9601646698294068</v>
       </c>
       <c r="G40" s="503">
         <f>SUM(G37:G39)</f>
-        <v>1.9062348715434425</v>
+        <v>1.8896846691580746</v>
       </c>
       <c r="H40" s="502">
         <f t="shared" si="3"/>
-        <v>5.6424832121928095</v>
+        <v>5.629954020820974</v>
       </c>
       <c r="I40" s="503">
         <f t="shared" si="3"/>
-        <v>1.9062348715434425</v>
+        <v>1.8896846691580746</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="612"/>
+      <c r="A41" s="610"/>
       <c r="B41" s="518" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C41" s="518" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="519">
         <f>D40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.40662988396224764</v>
+        <v>-0.45960924331034836</v>
       </c>
       <c r="E41" s="520">
         <f>E40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.56167007950469405</v>
+        <v>-0.7338614252563247</v>
       </c>
       <c r="F41" s="516">
         <f>F40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.68246137204843715</v>
+        <v>-0.6845806165416275</v>
       </c>
       <c r="G41" s="517">
         <f>G40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.89911966175151126</v>
+        <v>-0.89999551920204945</v>
       </c>
       <c r="H41" s="516">
         <f>H40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.70139271739030429</v>
+        <v>-0.70205577789897466</v>
       </c>
       <c r="I41" s="517">
         <f>I40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.89911966175151126</v>
+        <v>-0.89999551920204945</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="605" t="s">
+      <c r="A42" s="606" t="s">
         <v>276</v>
       </c>
       <c r="B42" s="292" t="s">
@@ -22468,11 +22479,11 @@
       </c>
       <c r="D42" s="498">
         <f>'Modell - Lätta fordon'!AH60</f>
-        <v>7.8686899346495895</v>
+        <v>7.1010128678545081</v>
       </c>
       <c r="E42" s="499">
         <f>'Modell - Lätta fordon'!AI60</f>
-        <v>4.5136452357014782</v>
+        <v>2.3423548812471191</v>
       </c>
       <c r="F42" s="498">
         <f>'Modell - Lätta fordon'!AJ60</f>
@@ -22501,27 +22512,27 @@
       </c>
       <c r="D43" s="500">
         <f>'Modell - Tunga fordon'!AH76</f>
-        <v>1.9535949121051688</v>
+        <v>1.8038129300640617</v>
       </c>
       <c r="E43" s="501">
         <f>'Modell - Tunga fordon'!AI76</f>
-        <v>1.8174256876650472</v>
+        <v>1.4222525954853262</v>
       </c>
       <c r="F43" s="500">
         <f>'Modell - Tunga fordon'!AJ76</f>
-        <v>1.450654826905011</v>
+        <v>1.4262677458139938</v>
       </c>
       <c r="G43" s="501">
         <f>'Modell - Tunga fordon'!AK76</f>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
       <c r="H43" s="500">
         <f>'Modell - Tunga fordon'!AL76</f>
-        <v>1.7692386704195922</v>
+        <v>1.7551948601507861</v>
       </c>
       <c r="I43" s="501">
         <f>'Modell - Tunga fordon'!AM76</f>
-        <v>1.4071585457480809</v>
+        <v>1.3781200730826015</v>
       </c>
       <c r="J43" s="381"/>
     </row>
@@ -22535,61 +22546,61 @@
       </c>
       <c r="D44" s="502">
         <f t="shared" ref="D44:I44" si="4">SUM(D42:D43)</f>
-        <v>9.8222848467547585</v>
+        <v>8.9048257979185692</v>
       </c>
       <c r="E44" s="503">
         <f t="shared" si="4"/>
-        <v>6.331070923366525</v>
+        <v>3.7646074767324453</v>
       </c>
       <c r="F44" s="502">
         <f t="shared" si="4"/>
-        <v>5.3353378371329088</v>
+        <v>5.3109507560418923</v>
       </c>
       <c r="G44" s="503">
         <f t="shared" si="4"/>
-        <v>3.6970964182809305</v>
+        <v>3.668057945615451</v>
       </c>
       <c r="H44" s="502">
         <f t="shared" si="4"/>
-        <v>8.7834111868409348</v>
+        <v>8.7693673765721289</v>
       </c>
       <c r="I44" s="503">
         <f t="shared" si="4"/>
-        <v>3.6970964182809305</v>
+        <v>3.668057945615451</v>
       </c>
       <c r="J44" s="381"/>
     </row>
     <row r="45" spans="1:10" s="381" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="430"/>
       <c r="B45" s="388" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C45" s="388" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="516">
         <f>D44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.83589785185198895</v>
+        <v>-0.85122595555706448</v>
       </c>
       <c r="E45" s="517">
         <f>E44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.89422600191185442</v>
+        <v>-0.9371042294634766</v>
       </c>
       <c r="F45" s="516">
         <f>F44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.91086183980317492</v>
+        <v>-0.9112692778337893</v>
       </c>
       <c r="G45" s="517">
         <f>G44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.93823214520696063</v>
+        <v>-0.93871729462155096</v>
       </c>
       <c r="H45" s="516">
         <f>H44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.8532544447329794</v>
+        <v>-0.8534890764372367</v>
       </c>
       <c r="I45" s="517">
         <f>I44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.93823214520696063</v>
+        <v>-0.93871729462155096</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -22604,11 +22615,11 @@
       </c>
       <c r="D46" s="498">
         <f>'Modell - Lätta fordon'!AH64</f>
-        <v>0.12869512966322685</v>
+        <v>0.11613950725705841</v>
       </c>
       <c r="E46" s="499">
         <f>'Modell - Lätta fordon'!AI64</f>
-        <v>0.10441146007308007</v>
+        <v>5.4869272049029541E-2</v>
       </c>
       <c r="F46" s="498">
         <f>'Modell - Lätta fordon'!AJ64</f>
@@ -22638,27 +22649,27 @@
       </c>
       <c r="D47" s="500">
         <f>'Modell - Tunga fordon'!AH79</f>
-        <v>3.1735896971207704E-2</v>
+        <v>2.9302708022595228E-2</v>
       </c>
       <c r="E47" s="501">
         <f>'Modell - Tunga fordon'!AI79</f>
-        <v>2.9309268796168835E-2</v>
+        <v>2.2936389586681587E-2</v>
       </c>
       <c r="F47" s="500">
         <f>'Modell - Tunga fordon'!AJ79</f>
-        <v>2.3565700259647378E-2</v>
+        <v>2.3169535277778638E-2</v>
       </c>
       <c r="G47" s="501">
         <f>'Modell - Tunga fordon'!AK79</f>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
       <c r="H47" s="500">
         <f>'Modell - Tunga fordon'!AL79</f>
-        <v>2.8741053641160391E-2</v>
+        <v>2.8512913757598887E-2</v>
       </c>
       <c r="I47" s="501">
         <f>'Modell - Tunga fordon'!AM79</f>
-        <v>2.269297079714085E-2</v>
+        <v>2.2224673024880251E-2</v>
       </c>
       <c r="J47" s="381"/>
     </row>
@@ -22672,63 +22683,63 @@
       </c>
       <c r="D48" s="502">
         <f t="shared" ref="D48:I48" si="5">SUM(D46:D47)</f>
-        <v>0.16043102663443456</v>
+        <v>0.14544221527965362</v>
       </c>
       <c r="E48" s="503">
         <f t="shared" si="5"/>
-        <v>0.13372072886924891</v>
+        <v>7.7805661635711121E-2</v>
       </c>
       <c r="F48" s="502">
         <f t="shared" si="5"/>
-        <v>8.710102670583772E-2</v>
+        <v>8.6704861723968976E-2</v>
       </c>
       <c r="G48" s="503">
         <f t="shared" si="5"/>
-        <v>7.6334383167790523E-2</v>
+        <v>7.5866085395529914E-2</v>
       </c>
       <c r="H48" s="502">
         <f t="shared" si="5"/>
-        <v>0.14346025708900673</v>
+        <v>0.14323211720544521</v>
       </c>
       <c r="I48" s="503">
         <f t="shared" si="5"/>
-        <v>7.6334383167790523E-2</v>
+        <v>7.5866085395529914E-2</v>
       </c>
       <c r="J48" s="381"/>
     </row>
     <row r="49" spans="1:15" s="381" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="431"/>
       <c r="B49" s="388" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" s="393"/>
       <c r="D49" s="516">
         <f>D48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.88501216554297979</v>
+        <v>-0.89575529294749601</v>
       </c>
       <c r="E49" s="517">
         <f>E48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.90415658767972418</v>
+        <v>-0.94423332738266119</v>
       </c>
       <c r="F49" s="516">
         <f>F48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.93757093842758188</v>
+        <v>-0.93785488695243047</v>
       </c>
       <c r="G49" s="517">
         <f>G48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.94528785610106758</v>
+        <v>-0.94562350530710304</v>
       </c>
       <c r="H49" s="516">
         <f>H48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.89717584784331517</v>
+        <v>-0.89733936553508808</v>
       </c>
       <c r="I49" s="517">
         <f>I48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.94528785610106758</v>
+        <v>-0.94562350530710304</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="605" t="s">
+      <c r="A50" s="606" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="292" t="s">
@@ -22743,7 +22754,7 @@
       </c>
       <c r="E50" s="499">
         <f>'Modell - Lätta fordon'!AI65</f>
-        <v>20.052631858046887</v>
+        <v>20.05263185804689</v>
       </c>
       <c r="F50" s="498">
         <f>'Modell - Lätta fordon'!AJ65</f>
@@ -22773,7 +22784,7 @@
       </c>
       <c r="D51" s="500">
         <f>'Modell - Tunga fordon'!AH80</f>
-        <v>1.1954746781289414</v>
+        <v>1.1954746781289411</v>
       </c>
       <c r="E51" s="501">
         <f>'Modell - Tunga fordon'!AI80</f>
@@ -22781,19 +22792,19 @@
       </c>
       <c r="F51" s="500">
         <f>'Modell - Tunga fordon'!AJ80</f>
-        <v>0.9617901993461061</v>
+        <v>0.94562146289069382</v>
       </c>
       <c r="G51" s="501">
         <f>'Modell - Tunga fordon'!AK80</f>
-        <v>1.3948307009811405</v>
+        <v>1.366046628777053</v>
       </c>
       <c r="H51" s="500">
         <f>'Modell - Tunga fordon'!AL80</f>
-        <v>1.17256063242546</v>
+        <v>1.1632531153980659</v>
       </c>
       <c r="I51" s="501">
         <f>'Modell - Tunga fordon'!AM80</f>
-        <v>1.3948307009811405</v>
+        <v>1.366046628777053</v>
       </c>
       <c r="J51" s="381"/>
     </row>
@@ -22811,29 +22822,29 @@
       </c>
       <c r="E52" s="503">
         <f t="shared" si="6"/>
-        <v>21.462424372705144</v>
+        <v>21.462424372705147</v>
       </c>
       <c r="F52" s="502">
         <f t="shared" si="6"/>
-        <v>10.659926180053853</v>
+        <v>10.643757443598441</v>
       </c>
       <c r="G52" s="503">
         <f t="shared" si="6"/>
-        <v>21.75747943737116</v>
+        <v>21.72869536516707</v>
       </c>
       <c r="H52" s="502">
         <f>SUM(H50:H51)</f>
-        <v>18.787993697043081</v>
+        <v>18.77868618001569</v>
       </c>
       <c r="I52" s="503">
         <f t="shared" si="6"/>
-        <v>21.75747943737116</v>
+        <v>21.72869536516707</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="381" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="431"/>
       <c r="B53" s="518" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C53" s="391"/>
       <c r="D53" s="519">
@@ -22842,27 +22853,27 @@
       </c>
       <c r="E53" s="520">
         <f>E52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.53766527480728654</v>
+        <v>0.53766527480728699</v>
       </c>
       <c r="F53" s="519">
         <f>F52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>-0.23627461490680091</v>
+        <v>-0.23743301640670866</v>
       </c>
       <c r="G53" s="520">
         <f>G52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.55880435579899146</v>
+        <v>0.55674213451740751</v>
       </c>
       <c r="H53" s="519">
         <f>H52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.3460569500238635</v>
+        <v>0.34539011735486191</v>
       </c>
       <c r="I53" s="520">
         <f>I52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.55880435579899146</v>
+        <v>0.55674213451740751</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="608" t="s">
+      <c r="A54" s="603" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="292" t="s">
@@ -22873,11 +22884,11 @@
       </c>
       <c r="D54" s="498">
         <f>'Modell - Lätta fordon'!AH73</f>
-        <v>33.012893657749572</v>
+        <v>29.79212354479839</v>
       </c>
       <c r="E54" s="499">
         <f>'Modell - Lätta fordon'!AI73</f>
-        <v>23.049188807249266</v>
+        <v>12.356587320698686</v>
       </c>
       <c r="F54" s="498">
         <f>'Modell - Lätta fordon'!AJ73</f>
@@ -22898,7 +22909,7 @@
       <c r="J54" s="381"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="609"/>
+      <c r="A55" s="604"/>
       <c r="B55" s="293" t="s">
         <v>320</v>
       </c>
@@ -22907,11 +22918,11 @@
       </c>
       <c r="D55" s="500">
         <f>'Modell - Lätta fordon'!AH74</f>
-        <v>7.7470767782154928</v>
+        <v>6.9912644096091041</v>
       </c>
       <c r="E55" s="501">
         <f>'Modell - Lätta fordon'!AI74</f>
-        <v>5.2745662983133652</v>
+        <v>2.6789256075564563</v>
       </c>
       <c r="F55" s="500">
         <f>'Modell - Lätta fordon'!AJ74</f>
@@ -22933,7 +22944,7 @@
       <c r="K55" s="381"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="609"/>
+      <c r="A56" s="604"/>
       <c r="B56" s="293" t="s">
         <v>104</v>
       </c>
@@ -22942,11 +22953,11 @@
       </c>
       <c r="D56" s="500">
         <f>'Modell - Lätta fordon'!AH75</f>
-        <v>2.5655480975680214</v>
+        <v>3.7057916964871418</v>
       </c>
       <c r="E56" s="501">
         <f>'Modell - Lätta fordon'!AI75</f>
-        <v>6.1531500856416885</v>
+        <v>10.84897515099982</v>
       </c>
       <c r="F56" s="500">
         <f>'Modell - Lätta fordon'!AJ75</f>
@@ -22968,7 +22979,7 @@
       <c r="K56" s="381"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="609"/>
+      <c r="A57" s="604"/>
       <c r="B57" s="293" t="s">
         <v>317</v>
       </c>
@@ -22977,27 +22988,27 @@
       </c>
       <c r="D57" s="500">
         <f>'Modell - Tunga fordon'!AH83</f>
-        <v>10.236410373187224</v>
+        <v>9.5957335505825903</v>
       </c>
       <c r="E57" s="501">
         <f>'Modell - Tunga fordon'!AI83</f>
-        <v>8.8998473580542274</v>
+        <v>7.0420742958323617</v>
       </c>
       <c r="F57" s="500">
         <f>'Modell - Tunga fordon'!AJ83</f>
-        <v>9.1906783611417318</v>
+        <v>9.036173089234417</v>
       </c>
       <c r="G57" s="501">
         <f>'Modell - Tunga fordon'!AK83</f>
-        <v>3.0943179059152319</v>
+        <v>3.0304627943496394</v>
       </c>
       <c r="H57" s="500">
         <f>'Modell - Tunga fordon'!AL83</f>
-        <v>6.0899940944226678</v>
+        <v>6.0416531198384211</v>
       </c>
       <c r="I57" s="501">
         <f>'Modell - Tunga fordon'!AM83</f>
-        <v>3.0943179059152319</v>
+        <v>3.0304627943496394</v>
       </c>
       <c r="J57" s="381"/>
       <c r="K57" s="381"/>
@@ -23007,7 +23018,7 @@
       <c r="O57" s="521"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="609"/>
+      <c r="A58" s="604"/>
       <c r="B58" s="293" t="s">
         <v>318</v>
       </c>
@@ -23016,33 +23027,33 @@
       </c>
       <c r="D58" s="500">
         <f>'Modell - Tunga fordon'!AH84+Indata!D63</f>
-        <v>7.651146503492007</v>
+        <v>7.3625438993838355</v>
       </c>
       <c r="E58" s="501">
         <f>'Modell - Tunga fordon'!AI84+Indata!E63</f>
-        <v>5.8990713961799202</v>
+        <v>5.0622093080220836</v>
       </c>
       <c r="F58" s="500">
         <f>'Modell - Tunga fordon'!AJ84+Indata!F63</f>
-        <v>3.156398570509138</v>
+        <v>3.1256948295382068</v>
       </c>
       <c r="G58" s="501">
         <f>'Modell - Tunga fordon'!AK84+Indata!G63</f>
-        <v>7.8392895633877471</v>
+        <v>7.6975332006662676</v>
       </c>
       <c r="H58" s="500">
         <f>'Modell - Tunga fordon'!AL84+Indata!H63</f>
-        <v>8.7694814221640556</v>
+        <v>8.7104285270753437</v>
       </c>
       <c r="I58" s="501">
         <f>'Modell - Tunga fordon'!AM84+Indata!I63</f>
-        <v>7.8392895633877471</v>
+        <v>7.6975332006662676</v>
       </c>
       <c r="J58" s="381"/>
       <c r="K58" s="381"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="609"/>
+      <c r="A59" s="604"/>
       <c r="B59" s="293" t="s">
         <v>319</v>
       </c>
@@ -23051,34 +23062,34 @@
       </c>
       <c r="D59" s="500">
         <f>'Modell - Tunga fordon'!AH85+Indata!D64</f>
-        <v>0.42506732578374073</v>
+        <v>0.95640795055695171</v>
       </c>
       <c r="E59" s="501">
         <f>'Modell - Tunga fordon'!AI85+Indata!E64</f>
-        <v>1.3386385928936391</v>
+        <v>3.2576832379278877</v>
       </c>
       <c r="F59" s="500">
         <f>'Modell - Tunga fordon'!AJ85+Indata!F64</f>
-        <v>1.5565760446642587</v>
+        <v>1.5452020675061851</v>
       </c>
       <c r="G59" s="501">
         <f>'Modell - Tunga fordon'!AK85+Indata!G64</f>
-        <v>3.7890533271104481</v>
+        <v>3.7339740808405839</v>
       </c>
       <c r="H59" s="500">
         <f>'Modell - Tunga fordon'!AL85+Indata!H64</f>
-        <v>1.5630596765204785</v>
+        <v>1.5576377056695641</v>
       </c>
       <c r="I59" s="501">
         <f>'Modell - Tunga fordon'!AM85+Indata!I64</f>
-        <v>3.7890533271104481</v>
+        <v>3.7339740808405839</v>
       </c>
       <c r="J59" s="381"/>
       <c r="K59" s="381"/>
       <c r="O59" s="381"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="609"/>
+      <c r="A60" s="604"/>
       <c r="B60" s="391" t="s">
         <v>198</v>
       </c>
@@ -23087,27 +23098,27 @@
       </c>
       <c r="D60" s="502">
         <f>D54+D57</f>
-        <v>43.249304030936798</v>
+        <v>39.38785709538098</v>
       </c>
       <c r="E60" s="503">
         <f t="shared" ref="E60:I60" si="7">E54+E57</f>
-        <v>31.949036165303493</v>
+        <v>19.398661616531047</v>
       </c>
       <c r="F60" s="502">
         <f t="shared" si="7"/>
-        <v>23.147448042304468</v>
+        <v>22.992942770397157</v>
       </c>
       <c r="G60" s="503">
         <f>G54+G57</f>
-        <v>7.3535144855838448</v>
+        <v>7.2896593740182523</v>
       </c>
       <c r="H60" s="502">
         <f t="shared" si="7"/>
-        <v>21.765961201264776</v>
+        <v>21.71762022668053</v>
       </c>
       <c r="I60" s="503">
         <f t="shared" si="7"/>
-        <v>7.3535144855838448</v>
+        <v>7.2896593740182523</v>
       </c>
       <c r="J60" s="381"/>
       <c r="K60" s="381"/>
@@ -23117,7 +23128,7 @@
       <c r="O60" s="521"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="609"/>
+      <c r="A61" s="604"/>
       <c r="B61" s="391" t="s">
         <v>199</v>
       </c>
@@ -23126,33 +23137,33 @@
       </c>
       <c r="D61" s="502">
         <f>D55+D58</f>
-        <v>15.3982232817075</v>
+        <v>14.353808308992939</v>
       </c>
       <c r="E61" s="503">
         <f t="shared" ref="E61:I61" si="8">E55+E58</f>
-        <v>11.173637694493285</v>
+        <v>7.7411349155785398</v>
       </c>
       <c r="F61" s="502">
         <f>F55+F58</f>
-        <v>9.1781484982047274</v>
+        <v>9.1474447572337958</v>
       </c>
       <c r="G61" s="503">
         <f>G55+G58</f>
-        <v>17.893222093565395</v>
+        <v>17.751465730843918</v>
       </c>
       <c r="H61" s="502">
         <f t="shared" si="8"/>
-        <v>28.706357928382651</v>
+        <v>28.647305033293939</v>
       </c>
       <c r="I61" s="503">
         <f t="shared" si="8"/>
-        <v>17.893222093565395</v>
+        <v>17.751465730843918</v>
       </c>
       <c r="J61" s="381"/>
       <c r="K61" s="381"/>
     </row>
     <row r="62" spans="1:15" s="381" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="609"/>
+      <c r="A62" s="604"/>
       <c r="B62" s="391" t="s">
         <v>200</v>
       </c>
@@ -23161,66 +23172,66 @@
       </c>
       <c r="D62" s="502">
         <f>D56+D59</f>
-        <v>2.9906154233517621</v>
+        <v>4.6621996470440932</v>
       </c>
       <c r="E62" s="503">
         <f>E56+E59</f>
-        <v>7.4917886785353272</v>
+        <v>14.106658388927707</v>
       </c>
       <c r="F62" s="502">
         <f>F56+F59</f>
-        <v>3.6178361408873698</v>
+        <v>3.6064621637292964</v>
       </c>
       <c r="G62" s="503">
         <f>G56+G59</f>
-        <v>15.007944035117468</v>
+        <v>14.952864788847604</v>
       </c>
       <c r="H62" s="502">
         <f>H56+H59</f>
-        <v>5.3692540139670442</v>
+        <v>5.3638320431161297</v>
       </c>
       <c r="I62" s="503">
         <f>I56+I59</f>
-        <v>15.007944035117468</v>
+        <v>14.952864788847604</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="610"/>
+      <c r="A63" s="605"/>
       <c r="B63" s="392" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C63" s="392" t="s">
         <v>129</v>
       </c>
       <c r="D63" s="504">
         <f>SUM(D60:D62)</f>
-        <v>61.638142735996063</v>
+        <v>58.403865051418009</v>
       </c>
       <c r="E63" s="505">
         <f t="shared" ref="E63:I63" si="9">SUM(E60:E62)</f>
-        <v>50.614462538332106</v>
+        <v>41.246454921037291</v>
       </c>
       <c r="F63" s="504">
         <f t="shared" si="9"/>
-        <v>35.943432681396565</v>
+        <v>35.746849691360246</v>
       </c>
       <c r="G63" s="505">
         <f t="shared" si="9"/>
-        <v>40.254680614266704</v>
+        <v>39.993989893709774</v>
       </c>
       <c r="H63" s="504">
         <f t="shared" si="9"/>
-        <v>55.841573143614475</v>
+        <v>55.728757303090603</v>
       </c>
       <c r="I63" s="505">
         <f t="shared" si="9"/>
-        <v>40.254680614266704</v>
+        <v>39.993989893709774</v>
       </c>
       <c r="J63" s="381"/>
       <c r="K63" s="381"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="609" t="s">
+      <c r="A64" s="604" t="s">
         <v>245</v>
       </c>
       <c r="B64" s="293" t="s">
@@ -23231,11 +23242,11 @@
       </c>
       <c r="D64" s="506">
         <f>'Modell - Lätta fordon'!AH83</f>
-        <v>24.335398812970908</v>
+        <v>21.961213562924964</v>
       </c>
       <c r="E64" s="507">
         <f>'Modell - Lätta fordon'!AI83</f>
-        <v>20.834780440177909</v>
+        <v>11.305913567898964</v>
       </c>
       <c r="F64" s="506">
         <f>'Modell - Lätta fordon'!AJ83</f>
@@ -23255,7 +23266,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="609"/>
+      <c r="A65" s="604"/>
       <c r="B65" s="293" t="s">
         <v>197</v>
       </c>
@@ -23264,11 +23275,11 @@
       </c>
       <c r="D65" s="475">
         <f>'Modell - Lätta fordon'!AH84</f>
-        <v>5.3590207809846397</v>
+        <v>4.8361894852788225</v>
       </c>
       <c r="E65" s="476">
         <f>'Modell - Lätta fordon'!AI84</f>
-        <v>4.4789271363329846</v>
+        <v>2.310273901412117</v>
       </c>
       <c r="F65" s="475">
         <f>'Modell - Lätta fordon'!AJ84</f>
@@ -23288,7 +23299,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="609"/>
+      <c r="A66" s="604"/>
       <c r="B66" s="293" t="s">
         <v>104</v>
       </c>
@@ -23297,11 +23308,11 @@
       </c>
       <c r="D66" s="475">
         <f>'Modell - Lätta fordon'!AH85</f>
-        <v>0.86356348964139595</v>
+        <v>1.2473694850375718</v>
       </c>
       <c r="E66" s="476">
         <f>'Modell - Lätta fordon'!AI85</f>
-        <v>2.0711503188269917</v>
+        <v>3.6517650358265392</v>
       </c>
       <c r="F66" s="475">
         <f>'Modell - Lätta fordon'!AJ85</f>
@@ -23321,7 +23332,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="609"/>
+      <c r="A67" s="604"/>
       <c r="B67" s="293" t="s">
         <v>322</v>
       </c>
@@ -23330,31 +23341,31 @@
       </c>
       <c r="D67" s="475">
         <f>'Modell - Tunga fordon'!AH88</f>
-        <v>5.8833096119358101</v>
+        <v>5.5150848171925801</v>
       </c>
       <c r="E67" s="476">
         <f>'Modell - Tunga fordon'!AI88</f>
-        <v>6.2353134645035979</v>
+        <v>4.9337408731061823</v>
       </c>
       <c r="F67" s="475">
         <f>'Modell - Tunga fordon'!AJ88</f>
-        <v>5.2822820081488961</v>
+        <v>5.1934811181720688</v>
       </c>
       <c r="G67" s="477">
         <f>'Modell - Tunga fordon'!AK88</f>
-        <v>2.1679070804227907</v>
+        <v>2.1231696123625103</v>
       </c>
       <c r="H67" s="478">
         <f>'Modell - Tunga fordon'!AL88</f>
-        <v>3.5001840963897721</v>
+        <v>3.4724004388327439</v>
       </c>
       <c r="I67" s="477">
         <f>'Modell - Tunga fordon'!AM88</f>
-        <v>2.1679070804227907</v>
+        <v>2.1231696123625103</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="609"/>
+      <c r="A68" s="604"/>
       <c r="B68" s="293" t="s">
         <v>321</v>
       </c>
@@ -23363,31 +23374,31 @@
       </c>
       <c r="D68" s="475">
         <f>'Modell - Tunga fordon'!AH89</f>
-        <v>2.768616287969794</v>
+        <v>2.5953340316200384</v>
       </c>
       <c r="E68" s="476">
         <f>'Modell - Tunga fordon'!AI89</f>
-        <v>2.9342651597663996</v>
+        <v>2.3217604108734977</v>
       </c>
       <c r="F68" s="475">
         <f>'Modell - Tunga fordon'!AJ89</f>
-        <v>1.102525056448485</v>
+        <v>1.0839904143973147</v>
       </c>
       <c r="G68" s="477">
         <f>'Modell - Tunga fordon'!AK89</f>
-        <v>5.0105931858778403</v>
+        <v>4.9071933424802392</v>
       </c>
       <c r="H68" s="478">
         <f>'Modell - Tunga fordon'!AL89</f>
-        <v>4.4547797590415277</v>
+        <v>4.4194187403325831</v>
       </c>
       <c r="I68" s="477">
         <f>'Modell - Tunga fordon'!AM89</f>
-        <v>5.0105931858778403</v>
+        <v>4.9071933424802392</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="609"/>
+      <c r="A69" s="604"/>
       <c r="B69" s="293" t="s">
         <v>323</v>
       </c>
@@ -23396,31 +23407,31 @@
       </c>
       <c r="D69" s="475">
         <f>'Modell - Tunga fordon'!AH90</f>
-        <v>5.5561661858807121E-2</v>
+        <v>0.23441091615746995</v>
       </c>
       <c r="E69" s="476">
         <f>'Modell - Tunga fordon'!AI90</f>
-        <v>0.26208975036799892</v>
+        <v>0.90804017788652691</v>
       </c>
       <c r="F69" s="475">
         <f>'Modell - Tunga fordon'!AJ90</f>
-        <v>0.22773549663398945</v>
+        <v>0.22390701592258186</v>
       </c>
       <c r="G69" s="477">
         <f>'Modell - Tunga fordon'!AK90</f>
-        <v>0.89840334990537651</v>
+        <v>0.87986367561094048</v>
       </c>
       <c r="H69" s="478">
         <f>'Modell - Tunga fordon'!AL90</f>
-        <v>0.22991788711679301</v>
+        <v>0.22809285172837521</v>
       </c>
       <c r="I69" s="477">
         <f>'Modell - Tunga fordon'!AM90</f>
-        <v>0.89840334990537651</v>
+        <v>0.87986367561094048</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="609"/>
+      <c r="A70" s="604"/>
       <c r="B70" s="391" t="s">
         <v>198</v>
       </c>
@@ -23429,31 +23440,31 @@
       </c>
       <c r="D70" s="487">
         <f>D64+D67</f>
-        <v>30.218708424906719</v>
+        <v>27.476298380117544</v>
       </c>
       <c r="E70" s="497">
         <f t="shared" ref="E70:I70" si="10">E64+E67</f>
-        <v>27.070093904681507</v>
+        <v>16.239654441005147</v>
       </c>
       <c r="F70" s="487">
         <f t="shared" si="10"/>
-        <v>14.772589781349971</v>
+        <v>14.683788891373144</v>
       </c>
       <c r="G70" s="489">
         <f t="shared" si="10"/>
-        <v>5.9059258150768308</v>
+        <v>5.8611883470165509</v>
       </c>
       <c r="H70" s="490">
         <f t="shared" si="10"/>
-        <v>14.612697519561969</v>
+        <v>14.584913862004942</v>
       </c>
       <c r="I70" s="489">
         <f t="shared" si="10"/>
-        <v>5.9059258150768308</v>
+        <v>5.8611883470165509</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="609"/>
+      <c r="A71" s="604"/>
       <c r="B71" s="391" t="s">
         <v>199</v>
       </c>
@@ -23462,31 +23473,31 @@
       </c>
       <c r="D71" s="487">
         <f>D65+D68</f>
-        <v>8.1276370689544333</v>
+        <v>7.4315235168988609</v>
       </c>
       <c r="E71" s="497">
         <f t="shared" ref="E71:I71" si="11">E65+E68</f>
-        <v>7.4131922960993837</v>
+        <v>4.6320343122856151</v>
       </c>
       <c r="F71" s="487">
         <f t="shared" si="11"/>
-        <v>6.226596185609738</v>
+        <v>6.2080615435585678</v>
       </c>
       <c r="G71" s="489">
         <f t="shared" si="11"/>
-        <v>14.453530487952158</v>
+        <v>14.350130644554557</v>
       </c>
       <c r="H71" s="490">
         <f t="shared" si="11"/>
-        <v>19.618265068130377</v>
+        <v>19.58290404942143</v>
       </c>
       <c r="I71" s="489">
         <f t="shared" si="11"/>
-        <v>14.453530487952158</v>
+        <v>14.350130644554557</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="610"/>
+      <c r="A72" s="605"/>
       <c r="B72" s="392" t="s">
         <v>200</v>
       </c>
@@ -23495,31 +23506,31 @@
       </c>
       <c r="D72" s="508">
         <f>D66+D69</f>
-        <v>0.91912515150020302</v>
+        <v>1.4817804011950417</v>
       </c>
       <c r="E72" s="509">
         <f t="shared" ref="E72:I72" si="12">E66+E69</f>
-        <v>2.3332400691949906</v>
+        <v>4.5598052137130658</v>
       </c>
       <c r="F72" s="508">
         <f>F66+F69</f>
-        <v>0.9215556450226885</v>
+        <v>0.91772716431128087</v>
       </c>
       <c r="G72" s="510">
         <f t="shared" si="12"/>
-        <v>4.6746819622205393</v>
+        <v>4.6561422879261034</v>
       </c>
       <c r="H72" s="511">
         <f t="shared" si="12"/>
-        <v>1.5110829011013069</v>
+        <v>1.509257865712889</v>
       </c>
       <c r="I72" s="510">
         <f t="shared" si="12"/>
-        <v>4.6746819622205393</v>
+        <v>4.6561422879261034</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="608" t="s">
+      <c r="A73" s="603" t="s">
         <v>203</v>
       </c>
       <c r="B73" s="292" t="s">
@@ -23554,7 +23565,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="609"/>
+      <c r="A74" s="604"/>
       <c r="B74" s="293" t="s">
         <v>324</v>
       </c>
@@ -23571,7 +23582,7 @@
       </c>
       <c r="F74" s="475">
         <f>'Modell - Tunga fordon'!AJ96</f>
-        <v>16.85137849532865</v>
+        <v>16.568088544997892</v>
       </c>
       <c r="G74" s="477">
         <f>'Modell - Tunga fordon'!AK96</f>
@@ -23587,7 +23598,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="610"/>
+      <c r="A75" s="605"/>
       <c r="B75" s="392" t="s">
         <v>278</v>
       </c>
@@ -23604,7 +23615,7 @@
       </c>
       <c r="F75" s="495">
         <f t="shared" si="13"/>
-        <v>189.46610850042075</v>
+        <v>189.18281855008999</v>
       </c>
       <c r="G75" s="429">
         <f t="shared" si="13"/>
@@ -23620,7 +23631,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="608" t="s">
+      <c r="A76" s="603" t="s">
         <v>204</v>
       </c>
       <c r="B76" s="292" t="s">
@@ -23631,11 +23642,11 @@
       </c>
       <c r="D76" s="471">
         <f>SUM(D64:D66,D73)</f>
-        <v>30.557983083596945</v>
+        <v>28.044772533241357</v>
       </c>
       <c r="E76" s="472">
         <f t="shared" ref="E76:I76" si="14">SUM(E64:E66,E73)</f>
-        <v>27.384857895337884</v>
+        <v>17.267952505137622</v>
       </c>
       <c r="F76" s="471">
         <f t="shared" si="14"/>
@@ -23655,7 +23666,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="609"/>
+      <c r="A77" s="604"/>
       <c r="B77" s="293" t="s">
         <v>324</v>
       </c>
@@ -23664,31 +23675,31 @@
       </c>
       <c r="D77" s="475">
         <f>SUM(D67:D69,D74)</f>
-        <v>8.7074875617644114</v>
+        <v>8.344829764970088</v>
       </c>
       <c r="E77" s="476">
         <f t="shared" ref="E77:I77" si="15">SUM(E67:E69,E74)</f>
-        <v>9.4316683746379955</v>
+        <v>8.1635414618662061</v>
       </c>
       <c r="F77" s="475">
         <f t="shared" si="15"/>
-        <v>23.463921056560018</v>
+        <v>23.069467093489855</v>
       </c>
       <c r="G77" s="477">
         <f t="shared" si="15"/>
-        <v>8.0769036162060068</v>
+        <v>7.9102266304536899</v>
       </c>
       <c r="H77" s="478">
         <f t="shared" si="15"/>
-        <v>8.1848817425480931</v>
+        <v>8.1199120308937029</v>
       </c>
       <c r="I77" s="477">
         <f t="shared" si="15"/>
-        <v>8.0769036162060068</v>
+        <v>7.9102266304536899</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="610"/>
+      <c r="A78" s="605"/>
       <c r="B78" s="392" t="s">
         <v>278</v>
       </c>
@@ -23697,27 +23708,27 @@
       </c>
       <c r="D78" s="495">
         <f>SUM(D76:D77)</f>
-        <v>39.265470645361354</v>
+        <v>36.389602298211443</v>
       </c>
       <c r="E78" s="496">
         <f t="shared" ref="E78" si="16">SUM(E76:E77)</f>
-        <v>36.816526269975881</v>
+        <v>25.431493967003828</v>
       </c>
       <c r="F78" s="495">
         <f t="shared" ref="F78" si="17">SUM(F76:F77)</f>
-        <v>211.38685011240315</v>
+        <v>210.99239614933299</v>
       </c>
       <c r="G78" s="429">
         <f t="shared" ref="G78" si="18">SUM(G76:G77)</f>
-        <v>25.034138265249528</v>
+        <v>24.86746127949721</v>
       </c>
       <c r="H78" s="427">
         <f t="shared" ref="H78" si="19">SUM(H76:H77)</f>
-        <v>35.74204548879365</v>
+        <v>35.677075777139258</v>
       </c>
       <c r="I78" s="429">
         <f t="shared" ref="I78" si="20">SUM(I76:I77)</f>
-        <v>25.034138265249528</v>
+        <v>24.86746127949721</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -23729,6 +23740,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A27:A34"/>
@@ -23738,17 +23760,6 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23808,24 +23819,24 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="40"/>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="305" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B5" s="305">
         <v>2010</v>
@@ -23857,7 +23868,7 @@
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="436">
         <v>11892</v>
@@ -23889,7 +23900,7 @@
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="436">
         <v>1656</v>
@@ -24017,7 +24028,7 @@
     </row>
     <row r="11" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="436">
         <f>SUM(B6:B10)</f>
@@ -24058,7 +24069,7 @@
     </row>
     <row r="12" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="435">
         <f>B11/1000</f>
@@ -24110,7 +24121,7 @@
     </row>
     <row r="14" spans="1:10" s="40" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="305" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" s="305">
         <v>2010</v>
@@ -24307,18 +24318,18 @@
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:10" s="381" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="381" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="381" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="305" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="305">
         <v>2010</v>
@@ -24350,7 +24361,7 @@
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B24" s="304">
         <f>B31/1000</f>
@@ -24391,7 +24402,7 @@
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" s="304">
         <f>B28/1000-B24</f>
@@ -24432,7 +24443,7 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" s="304">
         <v>59.854699999999994</v>
@@ -24476,7 +24487,7 @@
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B28" s="436">
         <v>15353</v>
@@ -24508,7 +24519,7 @@
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B29" s="436">
         <v>13189.4</v>
@@ -24540,7 +24551,7 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B30" s="436">
         <v>768.4</v>
@@ -24572,7 +24583,7 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B31" s="436">
         <f>B28-B29-B30</f>
@@ -24632,7 +24643,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24663,7 +24674,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="437" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -24734,7 +24745,7 @@
       <c r="H5" s="616"/>
       <c r="I5" s="616"/>
       <c r="K5" s="62" t="s">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="M5" s="367"/>
       <c r="N5" s="367"/>
@@ -24768,7 +24779,7 @@
         <v>2040</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="M6" s="33" t="s">
         <v>309</v>
@@ -25858,7 +25869,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25882,7 +25893,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="437" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="128" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25915,13 +25926,13 @@
       <c r="O3" s="127"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="587" t="s">
+      <c r="A4" s="598" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="620" t="s">
+      <c r="B4" s="619" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="621"/>
+      <c r="C4" s="620"/>
       <c r="D4" s="326">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -25942,11 +25953,11 @@
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="617"/>
-      <c r="B5" s="622" t="s">
+      <c r="A5" s="623"/>
+      <c r="B5" s="621" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="623"/>
+      <c r="C5" s="622"/>
       <c r="D5" s="326">
         <v>-0.05</v>
       </c>
@@ -25967,11 +25978,11 @@
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="617"/>
-      <c r="B6" s="622" t="s">
+      <c r="A6" s="623"/>
+      <c r="B6" s="621" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="623"/>
+      <c r="C6" s="622"/>
       <c r="D6" s="326">
         <v>0</v>
       </c>
@@ -25992,11 +26003,11 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="617"/>
-      <c r="B7" s="622" t="s">
+      <c r="A7" s="623"/>
+      <c r="B7" s="621" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="623"/>
+      <c r="C7" s="622"/>
       <c r="D7" s="326">
         <v>-0.1</v>
       </c>
@@ -26017,11 +26028,11 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="617"/>
-      <c r="B8" s="622" t="s">
+      <c r="A8" s="623"/>
+      <c r="B8" s="621" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="623"/>
+      <c r="C8" s="622"/>
       <c r="D8" s="326">
         <v>-0.2</v>
       </c>
@@ -26042,11 +26053,11 @@
       <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="596"/>
-      <c r="B9" s="618" t="s">
+      <c r="A9" s="602"/>
+      <c r="B9" s="617" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="619"/>
+      <c r="C9" s="618"/>
       <c r="D9" s="328">
         <f>Indata!D78</f>
         <v>-0.22</v>
@@ -26068,7 +26079,7 @@
       <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="590" t="s">
+      <c r="A10" s="587" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26097,7 +26108,7 @@
       <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="591"/>
+      <c r="A11" s="588"/>
       <c r="B11" s="43" t="s">
         <v>9</v>
       </c>
@@ -26124,7 +26135,7 @@
       <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="591" t="s">
+      <c r="A12" s="588" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -26153,7 +26164,7 @@
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="590" t="s">
+      <c r="A13" s="587" t="s">
         <v>266</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -26182,7 +26193,7 @@
       <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="591"/>
+      <c r="A14" s="588"/>
       <c r="B14" s="43" t="s">
         <v>286</v>
       </c>
@@ -26209,7 +26220,7 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="591" t="s">
+      <c r="A15" s="588" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -26238,7 +26249,7 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="590" t="s">
+      <c r="A16" s="587" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -26267,7 +26278,7 @@
       <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="591"/>
+      <c r="A17" s="588"/>
       <c r="B17" s="43" t="s">
         <v>286</v>
       </c>
@@ -26294,7 +26305,7 @@
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="592" t="s">
+      <c r="A18" s="595" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -26323,7 +26334,7 @@
       <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="609" t="s">
+      <c r="A19" s="604" t="s">
         <v>273</v>
       </c>
       <c r="B19" s="293" t="s">
@@ -26352,7 +26363,7 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="609"/>
+      <c r="A20" s="604"/>
       <c r="B20" s="293" t="s">
         <v>296</v>
       </c>
@@ -26379,7 +26390,7 @@
       <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="585" t="s">
+      <c r="A21" s="596" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -26408,7 +26419,7 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="595"/>
+      <c r="A22" s="601"/>
       <c r="B22" s="43" t="s">
         <v>97</v>
       </c>
@@ -26435,7 +26446,7 @@
       <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="595"/>
+      <c r="A23" s="601"/>
       <c r="B23" s="43" t="s">
         <v>134</v>
       </c>
@@ -26462,7 +26473,7 @@
       <c r="O23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="595"/>
+      <c r="A24" s="601"/>
       <c r="B24" s="43" t="s">
         <v>98</v>
       </c>
@@ -26489,7 +26500,7 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="595"/>
+      <c r="A25" s="601"/>
       <c r="B25" s="43" t="s">
         <v>135</v>
       </c>
@@ -26516,7 +26527,7 @@
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="586"/>
+      <c r="A26" s="597"/>
       <c r="B26" s="107" t="s">
         <v>100</v>
       </c>
@@ -26544,6 +26555,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B4:C4"/>
@@ -26551,11 +26567,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26599,25 +26610,25 @@
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="627" t="s">
+      <c r="A2" s="624" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="627"/>
-      <c r="C2" s="627"/>
-      <c r="D2" s="627"/>
-      <c r="E2" s="627"/>
-      <c r="F2" s="627"/>
-      <c r="G2" s="627"/>
-      <c r="H2" s="627"/>
-      <c r="I2" s="627"/>
-      <c r="J2" s="627"/>
+      <c r="B2" s="624"/>
+      <c r="C2" s="624"/>
+      <c r="D2" s="624"/>
+      <c r="E2" s="624"/>
+      <c r="F2" s="624"/>
+      <c r="G2" s="624"/>
+      <c r="H2" s="624"/>
+      <c r="I2" s="624"/>
+      <c r="J2" s="624"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="628" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="629"/>
-      <c r="C3" s="629"/>
+      <c r="A3" s="625" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="626"/>
+      <c r="C3" s="626"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
@@ -26662,18 +26673,18 @@
       <c r="B6" s="194"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
-      <c r="E6" s="624" t="s">
+      <c r="E6" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="625"/>
-      <c r="G6" s="624" t="s">
+      <c r="F6" s="628"/>
+      <c r="G6" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="625"/>
-      <c r="I6" s="626" t="s">
+      <c r="H6" s="628"/>
+      <c r="I6" s="627" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="625"/>
+      <c r="J6" s="628"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="196" t="s">
@@ -27278,18 +27289,18 @@
       <c r="B25" s="194"/>
       <c r="C25" s="194"/>
       <c r="D25" s="194"/>
-      <c r="E25" s="624" t="s">
+      <c r="E25" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="625"/>
-      <c r="G25" s="624" t="s">
+      <c r="F25" s="628"/>
+      <c r="G25" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="625"/>
-      <c r="I25" s="626" t="s">
+      <c r="H25" s="628"/>
+      <c r="I25" s="627" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="625"/>
+      <c r="J25" s="628"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="196" t="s">
@@ -27888,18 +27899,18 @@
       <c r="B44" s="194"/>
       <c r="C44" s="194"/>
       <c r="D44" s="194"/>
-      <c r="E44" s="624" t="s">
+      <c r="E44" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="625"/>
-      <c r="G44" s="624" t="s">
+      <c r="F44" s="628"/>
+      <c r="G44" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="625"/>
-      <c r="I44" s="626" t="s">
+      <c r="H44" s="628"/>
+      <c r="I44" s="627" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="625"/>
+      <c r="J44" s="628"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="196" t="s">
@@ -28490,18 +28501,18 @@
       <c r="B63" s="194"/>
       <c r="C63" s="194"/>
       <c r="D63" s="194"/>
-      <c r="E63" s="624" t="s">
+      <c r="E63" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="625"/>
-      <c r="G63" s="624" t="s">
+      <c r="F63" s="628"/>
+      <c r="G63" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H63" s="625"/>
-      <c r="I63" s="626" t="s">
+      <c r="H63" s="628"/>
+      <c r="I63" s="627" t="s">
         <v>66</v>
       </c>
-      <c r="J63" s="625"/>
+      <c r="J63" s="628"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="196" t="s">
@@ -28891,18 +28902,18 @@
       <c r="B76" s="194"/>
       <c r="C76" s="194"/>
       <c r="D76" s="194"/>
-      <c r="E76" s="624" t="s">
+      <c r="E76" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="625"/>
-      <c r="G76" s="624" t="s">
+      <c r="F76" s="628"/>
+      <c r="G76" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="625"/>
-      <c r="I76" s="626" t="s">
+      <c r="H76" s="628"/>
+      <c r="I76" s="627" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="625"/>
+      <c r="J76" s="628"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="196" t="s">
@@ -29287,11 +29298,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="I76:J76"/>
     <mergeCell ref="E6:F6"/>
@@ -29304,6 +29310,11 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29354,87 +29365,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="638" t="s">
+      <c r="A3" s="633" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="644" t="s">
+      <c r="B3" s="635" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="645"/>
-      <c r="D3" s="638" t="s">
+      <c r="C3" s="636"/>
+      <c r="D3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="637"/>
-      <c r="F3" s="638" t="s">
+      <c r="E3" s="646"/>
+      <c r="F3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="637"/>
-      <c r="H3" s="636" t="s">
+      <c r="G3" s="646"/>
+      <c r="H3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="637"/>
-      <c r="K3" s="638" t="s">
+      <c r="I3" s="646"/>
+      <c r="K3" s="633" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="639" t="s">
         <v>237</v>
       </c>
       <c r="M3" s="640"/>
-      <c r="N3" s="638" t="s">
+      <c r="N3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="637"/>
-      <c r="P3" s="638" t="s">
+      <c r="O3" s="646"/>
+      <c r="P3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="636" t="s">
+      <c r="Q3" s="646"/>
+      <c r="R3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="637"/>
-      <c r="U3" s="638" t="s">
+      <c r="S3" s="646"/>
+      <c r="U3" s="633" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="639" t="s">
         <v>227</v>
       </c>
       <c r="W3" s="640"/>
-      <c r="X3" s="638" t="s">
+      <c r="X3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="637"/>
-      <c r="Z3" s="638" t="s">
+      <c r="Y3" s="646"/>
+      <c r="Z3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="637"/>
-      <c r="AB3" s="636" t="s">
+      <c r="AA3" s="646"/>
+      <c r="AB3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="637"/>
-      <c r="AE3" s="638" t="s">
+      <c r="AC3" s="646"/>
+      <c r="AE3" s="633" t="s">
         <v>67</v>
       </c>
       <c r="AF3" s="639" t="s">
         <v>238</v>
       </c>
       <c r="AG3" s="640"/>
-      <c r="AH3" s="638" t="s">
+      <c r="AH3" s="633" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="637"/>
-      <c r="AJ3" s="638" t="s">
+      <c r="AI3" s="646"/>
+      <c r="AJ3" s="633" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="637"/>
-      <c r="AL3" s="636" t="s">
+      <c r="AK3" s="646"/>
+      <c r="AL3" s="647" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="637"/>
+      <c r="AM3" s="646"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="643"/>
-      <c r="B4" s="646"/>
-      <c r="C4" s="647"/>
+      <c r="A4" s="634"/>
+      <c r="B4" s="637"/>
+      <c r="C4" s="638"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -29453,7 +29464,7 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="643"/>
+      <c r="K4" s="634"/>
       <c r="L4" s="641"/>
       <c r="M4" s="642"/>
       <c r="N4" s="265">
@@ -29474,7 +29485,7 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="643"/>
+      <c r="U4" s="634"/>
       <c r="V4" s="641"/>
       <c r="W4" s="642"/>
       <c r="X4" s="265">
@@ -29495,7 +29506,7 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="643"/>
+      <c r="AE4" s="634"/>
       <c r="AF4" s="641"/>
       <c r="AG4" s="642"/>
       <c r="AH4" s="265">
@@ -29558,7 +29569,7 @@
       <c r="AM5" s="201"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="633" t="s">
+      <c r="A6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -29591,7 +29602,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="633" t="s">
+      <c r="K6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -29624,7 +29635,7 @@
         <f>'Modell - Drivmedelpriser'!J23</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="U6" s="633" t="s">
+      <c r="U6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -29657,7 +29668,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="AE6" s="633" t="s">
+      <c r="AE6" s="643" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -29692,7 +29703,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="634"/>
+      <c r="A7" s="644"/>
       <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29723,7 +29734,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="634"/>
+      <c r="K7" s="644"/>
       <c r="L7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29754,7 +29765,7 @@
         <f>'Modell - Drivmedelpriser'!J42</f>
         <v>24.89327119863777</v>
       </c>
-      <c r="U7" s="634"/>
+      <c r="U7" s="644"/>
       <c r="V7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29785,7 +29796,7 @@
         <f t="shared" si="4"/>
         <v>24.89327119863777</v>
       </c>
-      <c r="AE7" s="634"/>
+      <c r="AE7" s="644"/>
       <c r="AF7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29818,7 +29829,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="634"/>
+      <c r="A8" s="644"/>
       <c r="B8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29849,7 +29860,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="634"/>
+      <c r="K8" s="644"/>
       <c r="L8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29880,7 +29891,7 @@
         <f>'Modell - Drivmedelpriser'!J74</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="634"/>
+      <c r="U8" s="644"/>
       <c r="V8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29911,7 +29922,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="634"/>
+      <c r="AE8" s="644"/>
       <c r="AF8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29944,7 +29955,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="303" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="634"/>
+      <c r="A9" s="644"/>
       <c r="B9" s="187" t="s">
         <v>20</v>
       </c>
@@ -29957,7 +29968,7 @@
       </c>
       <c r="E9" s="199">
         <f>Indata!E35</f>
-        <v>21.927924171466245</v>
+        <v>21.888963239913203</v>
       </c>
       <c r="F9" s="198">
         <f>Indata!F35</f>
@@ -29975,7 +29986,7 @@
         <f>Indata!I35</f>
         <v>21.888963239913203</v>
       </c>
-      <c r="K9" s="634"/>
+      <c r="K9" s="644"/>
       <c r="L9" s="187" t="s">
         <v>20</v>
       </c>
@@ -29988,7 +29999,7 @@
       </c>
       <c r="O9" s="309">
         <f t="shared" ref="O9:S9" si="12">SUMPRODUCT(O6:O7,E18:E19)/SUM(E18:E19)</f>
-        <v>21.927924171466245</v>
+        <v>21.888963239913199</v>
       </c>
       <c r="P9" s="308">
         <f t="shared" si="12"/>
@@ -30006,7 +30017,7 @@
         <f t="shared" si="12"/>
         <v>26.181733806320725</v>
       </c>
-      <c r="U9" s="634"/>
+      <c r="U9" s="644"/>
       <c r="V9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30019,7 +30030,7 @@
       </c>
       <c r="Y9" s="199">
         <f t="shared" ref="Y9:AC9" si="13">SUMPRODUCT(Y6:Y7,Y18:Y19)/SUM(Y18:Y19)</f>
-        <v>21.927924171466245</v>
+        <v>21.888963239913199</v>
       </c>
       <c r="Z9" s="198">
         <f t="shared" si="13"/>
@@ -30037,7 +30048,7 @@
         <f t="shared" si="13"/>
         <v>26.181733806320722</v>
       </c>
-      <c r="AE9" s="634"/>
+      <c r="AE9" s="644"/>
       <c r="AF9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30050,7 +30061,7 @@
       </c>
       <c r="AI9" s="199">
         <f t="shared" ref="AI9:AM9" si="14">SUMPRODUCT(AI6:AI7,AI18:AI19)/SUM(AI18:AI19)</f>
-        <v>21.927924171466245</v>
+        <v>21.888963239913199</v>
       </c>
       <c r="AJ9" s="198">
         <f t="shared" si="14"/>
@@ -30070,7 +30081,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="635"/>
+      <c r="A10" s="645"/>
       <c r="B10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30095,7 +30106,7 @@
       <c r="I10" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="635"/>
+      <c r="K10" s="645"/>
       <c r="L10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30126,7 +30137,7 @@
         <f t="shared" si="15"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="U10" s="635"/>
+      <c r="U10" s="645"/>
       <c r="V10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30157,7 +30168,7 @@
         <f t="shared" si="16"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="AE10" s="635"/>
+      <c r="AE10" s="645"/>
       <c r="AF10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30259,7 +30270,7 @@
       <c r="AM12" s="201"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="633" t="s">
+      <c r="A13" s="643" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="135" t="s">
@@ -30292,7 +30303,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="633" t="s">
+      <c r="K13" s="643" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="135" t="s">
@@ -30325,7 +30336,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="U13" s="633" t="s">
+      <c r="U13" s="643" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="135" t="s">
@@ -30358,7 +30369,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="AE13" s="633" t="s">
+      <c r="AE13" s="643" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="135" t="s">
@@ -30393,7 +30404,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="634"/>
+      <c r="A14" s="644"/>
       <c r="B14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30424,7 +30435,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="634"/>
+      <c r="K14" s="644"/>
       <c r="L14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30455,7 +30466,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.4867802477475246</v>
       </c>
-      <c r="U14" s="634"/>
+      <c r="U14" s="644"/>
       <c r="V14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30486,7 +30497,7 @@
         <f t="shared" si="22"/>
         <v>0.4867802477475246</v>
       </c>
-      <c r="AE14" s="634"/>
+      <c r="AE14" s="644"/>
       <c r="AF14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30519,7 +30530,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="635"/>
+      <c r="A15" s="645"/>
       <c r="B15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30550,7 +30561,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="635"/>
+      <c r="K15" s="645"/>
       <c r="L15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30581,7 +30592,7 @@
         <f>I15*(1-Indata!I$19)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="635"/>
+      <c r="U15" s="645"/>
       <c r="V15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30612,7 +30623,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="635"/>
+      <c r="AE15" s="645"/>
       <c r="AF15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30725,11 +30736,11 @@
       </c>
       <c r="D18" s="233">
         <f>Indata!D25/SUM(Indata!D$25:D$26)*(1-D$20)</f>
-        <v>0.39627461007293346</v>
+        <v>0.35761367250484238</v>
       </c>
       <c r="E18" s="234">
         <f>Indata!E25/SUM(Indata!E$25:E$26)*(1-E$20)</f>
-        <v>0.30878176598734658</v>
+        <v>0.17452833971320134</v>
       </c>
       <c r="F18" s="233">
         <f>Indata!F25/SUM(Indata!F$25:F$26)*(1-F$20)</f>
@@ -30758,11 +30769,11 @@
       </c>
       <c r="N18" s="233">
         <f>D18/SUM(D$18:D$19)*(1-N$20)</f>
-        <v>0.39627461007293346</v>
+        <v>0.35761367250484238</v>
       </c>
       <c r="O18" s="234">
         <f t="shared" ref="N18:S19" si="30">E18/SUM(E$18:E$19)*(1-O$20)</f>
-        <v>0.30878176598734658</v>
+        <v>0.17452833971320134</v>
       </c>
       <c r="P18" s="233">
         <f t="shared" si="30"/>
@@ -30791,11 +30802,11 @@
       </c>
       <c r="X18" s="233">
         <f>N18</f>
-        <v>0.39627461007293346</v>
+        <v>0.35761367250484238</v>
       </c>
       <c r="Y18" s="234">
         <f t="shared" ref="Y18:Y21" si="31">O18</f>
-        <v>0.30878176598734658</v>
+        <v>0.17452833971320134</v>
       </c>
       <c r="Z18" s="233">
         <f t="shared" ref="Z18:Z21" si="32">P18</f>
@@ -30824,11 +30835,11 @@
       </c>
       <c r="AH18" s="233">
         <f>X18</f>
-        <v>0.39627461007293346</v>
+        <v>0.35761367250484238</v>
       </c>
       <c r="AI18" s="234">
         <f t="shared" ref="AI18:AI21" si="36">Y18</f>
-        <v>0.30878176598734658</v>
+        <v>0.17452833971320134</v>
       </c>
       <c r="AJ18" s="233">
         <f t="shared" ref="AJ18:AJ21" si="37">Z18</f>
@@ -30857,11 +30868,11 @@
       </c>
       <c r="D19" s="237">
         <f>Indata!D26/SUM(Indata!D$25:D$26)*(1-D$20)</f>
-        <v>0.42372538992706654</v>
+        <v>0.38238632749515761</v>
       </c>
       <c r="E19" s="238">
         <f>Indata!E26/SUM(Indata!E$25:E$26)*(1-E$20)</f>
-        <v>0.31121823401265342</v>
+        <v>0.1554716602867986</v>
       </c>
       <c r="F19" s="237">
         <f>Indata!F26/SUM(Indata!F$25:F$26)*(1-F$20)</f>
@@ -30888,11 +30899,11 @@
       </c>
       <c r="N19" s="237">
         <f t="shared" si="30"/>
-        <v>0.42372538992706654</v>
+        <v>0.38238632749515761</v>
       </c>
       <c r="O19" s="238">
         <f t="shared" si="30"/>
-        <v>0.31121823401265342</v>
+        <v>0.1554716602867986</v>
       </c>
       <c r="P19" s="237">
         <f t="shared" si="30"/>
@@ -30919,11 +30930,11 @@
       </c>
       <c r="X19" s="237">
         <f t="shared" ref="X19:X21" si="41">N19</f>
-        <v>0.42372538992706654</v>
+        <v>0.38238632749515761</v>
       </c>
       <c r="Y19" s="238">
         <f t="shared" si="31"/>
-        <v>0.31121823401265342</v>
+        <v>0.1554716602867986</v>
       </c>
       <c r="Z19" s="237">
         <f t="shared" si="32"/>
@@ -30950,11 +30961,11 @@
       </c>
       <c r="AH19" s="237">
         <f t="shared" ref="AH19:AH21" si="42">X19</f>
-        <v>0.42372538992706654</v>
+        <v>0.38238632749515761</v>
       </c>
       <c r="AI19" s="238">
         <f t="shared" si="36"/>
-        <v>0.31121823401265342</v>
+        <v>0.1554716602867986</v>
       </c>
       <c r="AJ19" s="237">
         <f t="shared" si="37"/>
@@ -30983,11 +30994,11 @@
       </c>
       <c r="D20" s="237">
         <f>Indata!D28</f>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="E20" s="238">
         <f>Indata!E28</f>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="F20" s="237">
         <f>Indata!F28</f>
@@ -31014,11 +31025,11 @@
       </c>
       <c r="N20" s="237">
         <f>D20+(1-D20)*'Indata - Effektsamband-Faktorer'!$D$4*N$10</f>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="O20" s="238">
         <f>E20+(1-E20)*'Indata - Effektsamband-Faktorer'!$E$4*O$10</f>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="P20" s="237">
         <f>F20+(1-F20)*'Indata - Effektsamband-Faktorer'!$D$4*P$10</f>
@@ -31045,11 +31056,11 @@
       </c>
       <c r="X20" s="237">
         <f t="shared" si="41"/>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="Y20" s="238">
         <f t="shared" si="31"/>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="Z20" s="237">
         <f t="shared" si="32"/>
@@ -31076,11 +31087,11 @@
       </c>
       <c r="AH20" s="237">
         <f t="shared" si="42"/>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="AI20" s="238">
         <f t="shared" si="36"/>
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AJ20" s="237">
         <f t="shared" si="37"/>
@@ -31295,7 +31306,7 @@
       <c r="AM23" s="201"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="633" t="s">
+      <c r="A24" s="643" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="135" t="s">
@@ -31328,7 +31339,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="633" t="s">
+      <c r="K24" s="643" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="135" t="s">
@@ -31361,7 +31372,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="633" t="s">
+      <c r="U24" s="643" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="135" t="s">
@@ -31394,7 +31405,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="633" t="s">
+      <c r="AE24" s="643" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="135" t="s">
@@ -31429,7 +31440,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="634"/>
+      <c r="A25" s="644"/>
       <c r="B25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31460,7 +31471,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="634"/>
+      <c r="K25" s="644"/>
       <c r="L25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31491,7 +31502,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="634"/>
+      <c r="U25" s="644"/>
       <c r="V25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31522,7 +31533,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="634"/>
+      <c r="AE25" s="644"/>
       <c r="AF25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31555,7 +31566,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="635"/>
+      <c r="A26" s="645"/>
       <c r="B26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31586,7 +31597,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="635"/>
+      <c r="K26" s="645"/>
       <c r="L26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31617,7 +31628,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="635"/>
+      <c r="U26" s="645"/>
       <c r="V26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31648,7 +31659,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="635"/>
+      <c r="AE26" s="645"/>
       <c r="AF26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31756,7 +31767,7 @@
       <c r="AM28" s="201"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="633" t="s">
+      <c r="A29" s="643" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -31789,7 +31800,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="633" t="s">
+      <c r="K29" s="643" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -31822,7 +31833,7 @@
         <f t="shared" ref="S29:S31" si="68">I29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="633" t="s">
+      <c r="U29" s="643" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -31855,7 +31866,7 @@
         <f t="shared" ref="AC29:AC31" si="73">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="633" t="s">
+      <c r="AE29" s="643" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -31890,7 +31901,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="634"/>
+      <c r="A30" s="644"/>
       <c r="B30" s="136" t="s">
         <v>9</v>
       </c>
@@ -31921,7 +31932,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="634"/>
+      <c r="K30" s="644"/>
       <c r="L30" s="136" t="s">
         <v>9</v>
       </c>
@@ -31952,7 +31963,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="634"/>
+      <c r="U30" s="644"/>
       <c r="V30" s="136" t="s">
         <v>9</v>
       </c>
@@ -31983,7 +31994,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="634"/>
+      <c r="AE30" s="644"/>
       <c r="AF30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32016,7 +32027,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="635"/>
+      <c r="A31" s="645"/>
       <c r="B31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32047,7 +32058,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="635"/>
+      <c r="K31" s="645"/>
       <c r="L31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32078,7 +32089,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="635"/>
+      <c r="U31" s="645"/>
       <c r="V31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32109,7 +32120,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="635"/>
+      <c r="AE31" s="645"/>
       <c r="AF31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32230,11 +32241,11 @@
       </c>
       <c r="D34" s="245">
         <f>D18*D$37</f>
-        <v>34.972878293330716</v>
+        <v>31.560890167152106</v>
       </c>
       <c r="E34" s="246">
         <f t="shared" ref="D34:I36" si="82">E18*E$37</f>
-        <v>30.959435389109224</v>
+        <v>17.498762725324855</v>
       </c>
       <c r="F34" s="245">
         <f t="shared" si="82"/>
@@ -32263,11 +32274,11 @@
       </c>
       <c r="N34" s="245">
         <f>N18*N$37</f>
-        <v>34.972878293330716</v>
+        <v>31.560890167152106</v>
       </c>
       <c r="O34" s="246">
         <f t="shared" ref="O34:S34" si="83">O18*O$37</f>
-        <v>30.959435389109224</v>
+        <v>17.498762725324855</v>
       </c>
       <c r="P34" s="245">
         <f t="shared" si="83"/>
@@ -32296,11 +32307,11 @@
       </c>
       <c r="X34" s="245">
         <f>N34*(1+N$50)*(1+N$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
-        <v>34.972878293330716</v>
+        <v>31.560890167152106</v>
       </c>
       <c r="Y34" s="246">
         <f>O34*(1+O$50)*(1+O$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
-        <v>30.959435389109224</v>
+        <v>17.498762725324855</v>
       </c>
       <c r="Z34" s="245">
         <f>P34*(1+P$50)*(1+P$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
@@ -32329,11 +32340,11 @@
       </c>
       <c r="AH34" s="245">
         <f>X34*(1-Indata!D$21)</f>
-        <v>34.972878293330716</v>
+        <v>31.560890167152106</v>
       </c>
       <c r="AI34" s="246">
         <f>Y34*(1-Indata!E$21)</f>
-        <v>30.959435389109224</v>
+        <v>17.498762725324855</v>
       </c>
       <c r="AJ34" s="245">
         <f>Z34*(1-Indata!F$21)</f>
@@ -32362,11 +32373,11 @@
       </c>
       <c r="D35" s="248">
         <f t="shared" si="82"/>
-        <v>37.395523495653713</v>
+        <v>33.747179739980183</v>
       </c>
       <c r="E35" s="249">
         <f t="shared" si="82"/>
-        <v>31.203723370836126</v>
+        <v>15.588079840452504</v>
       </c>
       <c r="F35" s="248">
         <f t="shared" si="82"/>
@@ -32393,11 +32404,11 @@
       </c>
       <c r="N35" s="248">
         <f>N19*N$37</f>
-        <v>37.395523495653713</v>
+        <v>33.747179739980183</v>
       </c>
       <c r="O35" s="249">
         <f t="shared" ref="O35:S36" si="84">O19*O$37</f>
-        <v>31.203723370836126</v>
+        <v>15.588079840452504</v>
       </c>
       <c r="P35" s="248">
         <f t="shared" si="84"/>
@@ -32424,11 +32435,11 @@
       </c>
       <c r="X35" s="248">
         <f>N35*(1+N$50)*(1+N$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
-        <v>37.395523495653713</v>
+        <v>33.747179739980183</v>
       </c>
       <c r="Y35" s="249">
         <f>O35*(1+O$50)*(1+O$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
-        <v>31.203723370836126</v>
+        <v>15.588079840452504</v>
       </c>
       <c r="Z35" s="248">
         <f>P35*(1+P$50)*(1+P$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
@@ -32455,11 +32466,11 @@
       </c>
       <c r="AH35" s="248">
         <f>X35*(1-Indata!D$21)</f>
-        <v>37.395523495653713</v>
+        <v>33.747179739980183</v>
       </c>
       <c r="AI35" s="249">
         <f>Y35*(1-Indata!E$21)</f>
-        <v>31.203723370836126</v>
+        <v>15.588079840452504</v>
       </c>
       <c r="AJ35" s="248">
         <f>Z35*(1-Indata!F$21)</f>
@@ -32488,11 +32499,11 @@
       </c>
       <c r="D36" s="248">
         <f t="shared" si="82"/>
-        <v>15.885746734167313</v>
+        <v>22.946078616019452</v>
       </c>
       <c r="E36" s="249">
         <f t="shared" si="82"/>
-        <v>38.100000530289087</v>
+        <v>67.176316724457081</v>
       </c>
       <c r="F36" s="248">
         <f t="shared" si="82"/>
@@ -32519,11 +32530,11 @@
       </c>
       <c r="N36" s="248">
         <f>N20*N$37</f>
-        <v>15.885746734167313</v>
+        <v>22.946078616019452</v>
       </c>
       <c r="O36" s="249">
         <f t="shared" si="84"/>
-        <v>38.100000530289087</v>
+        <v>67.176316724457081</v>
       </c>
       <c r="P36" s="248">
         <f t="shared" si="84"/>
@@ -32550,11 +32561,11 @@
       </c>
       <c r="X36" s="248">
         <f>N36*(1+N$50)*(1+N$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
-        <v>15.885746734167313</v>
+        <v>22.946078616019452</v>
       </c>
       <c r="Y36" s="249">
         <f>O36*(1+O$50)*(1+O$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
-        <v>38.100000530289087</v>
+        <v>67.176316724457081</v>
       </c>
       <c r="Z36" s="248">
         <f>P36*(1+P$50)*(1+P$44*'Indata - Effektsamband-Faktorer'!$D$8)</f>
@@ -32581,11 +32592,11 @@
       </c>
       <c r="AH36" s="248">
         <f>X36*(1-Indata!D$21)</f>
-        <v>15.885746734167313</v>
+        <v>22.946078616019452</v>
       </c>
       <c r="AI36" s="249">
         <f>Y36*(1-Indata!E$21)</f>
-        <v>38.100000530289087</v>
+        <v>67.176316724457081</v>
       </c>
       <c r="AJ36" s="248">
         <f>Z36*(1-Indata!F$21)</f>
@@ -32680,7 +32691,7 @@
       </c>
       <c r="Y37" s="222">
         <f>SUM(Y34:Y36)</f>
-        <v>100.26315929023443</v>
+        <v>100.26315929023444</v>
       </c>
       <c r="Z37" s="221">
         <f>SUM(Z34:Z36)</f>
@@ -32711,7 +32722,7 @@
       </c>
       <c r="AI37" s="222">
         <f t="shared" ref="AI37" si="87">SUM(AI34:AI36)</f>
-        <v>100.26315929023443</v>
+        <v>100.26315929023444</v>
       </c>
       <c r="AJ37" s="221">
         <f>SUM(AJ34:AJ36)</f>
@@ -32800,7 +32811,7 @@
       <c r="AM39" s="201"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="633" t="s">
+      <c r="A40" s="643" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="135" t="s">
@@ -32833,7 +32844,7 @@
         <f t="shared" si="90"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="633" t="s">
+      <c r="K40" s="643" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="135" t="s">
@@ -32866,7 +32877,7 @@
         <f t="shared" si="91"/>
         <v>23.329659844074406</v>
       </c>
-      <c r="U40" s="633" t="s">
+      <c r="U40" s="643" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="135" t="s">
@@ -32899,7 +32910,7 @@
         <f t="shared" ref="AC40:AC42" si="96">S40</f>
         <v>23.329659844074406</v>
       </c>
-      <c r="AE40" s="633" t="s">
+      <c r="AE40" s="643" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="135" t="s">
@@ -32934,7 +32945,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="634"/>
+      <c r="A41" s="644"/>
       <c r="B41" s="136" t="s">
         <v>9</v>
       </c>
@@ -32965,7 +32976,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="634"/>
+      <c r="K41" s="644"/>
       <c r="L41" s="136" t="s">
         <v>9</v>
       </c>
@@ -32996,7 +33007,7 @@
         <f t="shared" si="91"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="U41" s="634"/>
+      <c r="U41" s="644"/>
       <c r="V41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33027,7 +33038,7 @@
         <f t="shared" si="96"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="AE41" s="634"/>
+      <c r="AE41" s="644"/>
       <c r="AF41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33060,7 +33071,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="634"/>
+      <c r="A42" s="644"/>
       <c r="B42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33091,7 +33102,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="634"/>
+      <c r="K42" s="644"/>
       <c r="L42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33122,7 +33133,7 @@
         <f t="shared" si="91"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="634"/>
+      <c r="U42" s="644"/>
       <c r="V42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33153,7 +33164,7 @@
         <f t="shared" si="96"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="634"/>
+      <c r="AE42" s="644"/>
       <c r="AF42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33186,7 +33197,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="634"/>
+      <c r="A43" s="644"/>
       <c r="B43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33215,7 +33226,7 @@
         <f t="shared" si="104"/>
         <v>18.064425082921922</v>
       </c>
-      <c r="K43" s="634"/>
+      <c r="K43" s="644"/>
       <c r="L43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33246,7 +33257,7 @@
         <f t="shared" ref="S43" si="105">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>18.645576333860959</v>
       </c>
-      <c r="U43" s="634"/>
+      <c r="U43" s="644"/>
       <c r="V43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33277,7 +33288,7 @@
         <f t="shared" si="106"/>
         <v>18.645576333860962</v>
       </c>
-      <c r="AE43" s="634"/>
+      <c r="AE43" s="644"/>
       <c r="AF43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33310,7 +33321,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="635"/>
+      <c r="A44" s="645"/>
       <c r="B44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33335,7 +33346,7 @@
       <c r="I44" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="635"/>
+      <c r="K44" s="645"/>
       <c r="L44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33366,7 +33377,7 @@
         <f>S43/E43-1</f>
         <v>-5.1358020489668088E-2</v>
       </c>
-      <c r="U44" s="635"/>
+      <c r="U44" s="645"/>
       <c r="V44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33397,7 +33408,7 @@
         <f>AC43/E43-1</f>
         <v>-5.1358020489667866E-2</v>
       </c>
-      <c r="AE44" s="635"/>
+      <c r="AE44" s="645"/>
       <c r="AF44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33505,7 +33516,7 @@
       <c r="AM46" s="78"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="633" t="s">
+      <c r="A47" s="643" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="135" t="s">
@@ -33538,7 +33549,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="633" t="s">
+      <c r="K47" s="643" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="135" t="s">
@@ -33571,7 +33582,7 @@
         <f t="shared" si="107"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="633" t="s">
+      <c r="U47" s="643" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="135" t="s">
@@ -33604,7 +33615,7 @@
         <f t="shared" ref="AC47:AC49" si="112">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="633" t="s">
+      <c r="AE47" s="643" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="135" t="s">
@@ -33639,7 +33650,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="634"/>
+      <c r="A48" s="644"/>
       <c r="B48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33670,7 +33681,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="634"/>
+      <c r="K48" s="644"/>
       <c r="L48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33701,7 +33712,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$E$7*S44)*'Modell - Lätta fordon'!I48</f>
         <v>0.53200533240081493</v>
       </c>
-      <c r="U48" s="634"/>
+      <c r="U48" s="644"/>
       <c r="V48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33732,7 +33743,7 @@
         <f t="shared" si="112"/>
         <v>0.53200533240081493</v>
       </c>
-      <c r="AE48" s="634"/>
+      <c r="AE48" s="644"/>
       <c r="AF48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33765,7 +33776,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="634"/>
+      <c r="A49" s="644"/>
       <c r="B49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33796,7 +33807,7 @@
         <f t="shared" si="118"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="634"/>
+      <c r="K49" s="644"/>
       <c r="L49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33827,7 +33838,7 @@
         <f t="shared" ref="S49" si="121">S47*S48</f>
         <v>6197170.5155373728</v>
       </c>
-      <c r="U49" s="634"/>
+      <c r="U49" s="644"/>
       <c r="V49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33858,7 +33869,7 @@
         <f t="shared" si="112"/>
         <v>6197170.5155373728</v>
       </c>
-      <c r="AE49" s="634"/>
+      <c r="AE49" s="644"/>
       <c r="AF49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33891,7 +33902,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="635"/>
+      <c r="A50" s="645"/>
       <c r="B50" s="188" t="s">
         <v>234</v>
       </c>
@@ -33916,7 +33927,7 @@
       <c r="I50" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="635"/>
+      <c r="K50" s="645"/>
       <c r="L50" s="188" t="s">
         <v>234</v>
       </c>
@@ -33947,7 +33958,7 @@
         <f>S49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="U50" s="635"/>
+      <c r="U50" s="645"/>
       <c r="V50" s="188" t="s">
         <v>234</v>
       </c>
@@ -33978,7 +33989,7 @@
         <f>AC49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="AE50" s="635"/>
+      <c r="AE50" s="645"/>
       <c r="AF50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34106,11 +34117,11 @@
       </c>
       <c r="AH53" s="440">
         <f>(1-Indata!D9-Indata!D10)*'Indata - Effektsamband-Faktorer'!$D10*'Modell - Lätta fordon'!AH13*'Modell - Lätta fordon'!AH34/10</f>
-        <v>4.6391776505073166</v>
+        <v>4.1865749528968461</v>
       </c>
       <c r="AI53" s="441">
         <f>(1-Indata!E9-Indata!E10)*'Indata - Effektsamband-Faktorer'!$E10*'Modell - Lätta fordon'!AI13*'Modell - Lätta fordon'!AI34/10</f>
-        <v>3.3265011479785707</v>
+        <v>1.8801910810839431</v>
       </c>
       <c r="AJ53" s="440">
         <f>(1-Indata!F9-Indata!F10)*'Indata - Effektsamband-Faktorer'!$D10*'Modell - Lätta fordon'!AJ13*'Modell - Lätta fordon'!AJ34/10</f>
@@ -34157,11 +34168,11 @@
       </c>
       <c r="AH54" s="443">
         <f>(1-Indata!D11-Indata!D12)*'Indata - Effektsamband-Faktorer'!$D11*'Modell - Lätta fordon'!AH14*'Modell - Lätta fordon'!AH35/10</f>
-        <v>3.9200336184792413</v>
+        <v>3.5375913142373649</v>
       </c>
       <c r="AI54" s="444">
         <f>(1-Indata!E11-Indata!E12)*'Indata - Effektsamband-Faktorer'!$E11*'Modell - Lätta fordon'!AI14*'Modell - Lätta fordon'!AI35/10</f>
-        <v>2.6494858981234124</v>
+        <v>1.323572742434362</v>
       </c>
       <c r="AJ54" s="443">
         <f>(1-Indata!F11-Indata!F12)*'Indata - Effektsamband-Faktorer'!$D11*'Modell - Lätta fordon'!AJ14*'Modell - Lätta fordon'!AJ35/10</f>
@@ -34259,11 +34270,11 @@
       </c>
       <c r="AH56" s="449">
         <f>SUM(AH53:AH55)</f>
-        <v>8.5592112689865587</v>
+        <v>7.7241662671342111</v>
       </c>
       <c r="AI56" s="450">
         <f t="shared" ref="AI56:AM56" si="126">SUM(AI53:AI55)</f>
-        <v>5.9759870461019826</v>
+        <v>3.203763823518305</v>
       </c>
       <c r="AJ56" s="449">
         <f t="shared" si="126"/>
@@ -34312,11 +34323,11 @@
       </c>
       <c r="AH57" s="440">
         <f>'Indata - Effektsamband-Faktorer'!$D13*'Modell - Lätta fordon'!AH34</f>
-        <v>1.585801282945035</v>
+        <v>1.4310889626577143</v>
       </c>
       <c r="AI57" s="441">
         <f>'Indata - Effektsamband-Faktorer'!$E13*'Modell - Lätta fordon'!AI34</f>
-        <v>1.3330666785417182</v>
+        <v>0.75347037863113964</v>
       </c>
       <c r="AJ57" s="440">
         <f>'Indata - Effektsamband-Faktorer'!$D13*'Modell - Lätta fordon'!AJ34</f>
@@ -34363,11 +34374,11 @@
       </c>
       <c r="AH58" s="443">
         <f>'Indata - Effektsamband-Faktorer'!$D14*'Modell - Lätta fordon'!AH35</f>
-        <v>6.2828886517045541</v>
+        <v>5.6699239051967938</v>
       </c>
       <c r="AI58" s="444">
         <f>'Indata - Effektsamband-Faktorer'!$E14*'Modell - Lätta fordon'!AI35</f>
-        <v>3.1805785571597602</v>
+        <v>1.5888845026159792</v>
       </c>
       <c r="AJ58" s="443">
         <f>'Indata - Effektsamband-Faktorer'!$D14*'Modell - Lätta fordon'!AJ35</f>
@@ -34459,11 +34470,11 @@
       </c>
       <c r="AH60" s="454">
         <f>SUM(AH57:AH59)</f>
-        <v>7.8686899346495895</v>
+        <v>7.1010128678545081</v>
       </c>
       <c r="AI60" s="455">
         <f t="shared" ref="AI60:AM60" si="127">SUM(AI57:AI59)</f>
-        <v>4.5136452357014782</v>
+        <v>2.3423548812471191</v>
       </c>
       <c r="AJ60" s="454">
         <f t="shared" si="127"/>
@@ -34512,11 +34523,11 @@
       </c>
       <c r="AH61" s="452">
         <f>'Indata - Effektsamband-Faktorer'!$D16*'Modell - Lätta fordon'!AH34</f>
-        <v>4.7710814112216261E-2</v>
+        <v>4.305610054029272E-2</v>
       </c>
       <c r="AI61" s="459">
         <f>'Indata - Effektsamband-Faktorer'!$E16*'Modell - Lätta fordon'!AI34</f>
-        <v>4.12695875281886E-2</v>
+        <v>2.3326223842629858E-2</v>
       </c>
       <c r="AJ61" s="452">
         <f>'Indata - Effektsamband-Faktorer'!$D16*'Modell - Lätta fordon'!AJ34</f>
@@ -34563,11 +34574,11 @@
       </c>
       <c r="AH62" s="446">
         <f>'Indata - Effektsamband-Faktorer'!$D17*'Modell - Lätta fordon'!AH35</f>
-        <v>8.0984315551010599E-2</v>
+        <v>7.3083406716765678E-2</v>
       </c>
       <c r="AI62" s="460">
         <f>'Indata - Effektsamband-Faktorer'!$E17*'Modell - Lätta fordon'!AI35</f>
-        <v>6.3141872544891467E-2</v>
+        <v>3.1543048206399679E-2</v>
       </c>
       <c r="AJ62" s="446">
         <f>'Indata - Effektsamband-Faktorer'!$D17*'Modell - Lätta fordon'!AJ35</f>
@@ -34659,11 +34670,11 @@
       </c>
       <c r="AH64" s="453">
         <f>SUM(AH61:AH63)</f>
-        <v>0.12869512966322685</v>
+        <v>0.11613950725705841</v>
       </c>
       <c r="AI64" s="461">
         <f>SUM(AI61:AI63)</f>
-        <v>0.10441146007308007</v>
+        <v>5.4869272049029541E-2</v>
       </c>
       <c r="AJ64" s="453">
         <f>SUM(AJ61:AJ63)</f>
@@ -34716,7 +34727,7 @@
       </c>
       <c r="AI65" s="456">
         <f>'Indata - Effektsamband-Faktorer'!$D19*'Modell - Lätta fordon'!AI37</f>
-        <v>20.052631858046887</v>
+        <v>20.05263185804689</v>
       </c>
       <c r="AJ65" s="456">
         <f>'Indata - Effektsamband-Faktorer'!$D19*'Modell - Lätta fordon'!AJ37</f>
@@ -34816,11 +34827,11 @@
       </c>
       <c r="AH68" s="245">
         <f>(1-Indata!D$9-Indata!D$10)*'Indata - Effektsamband-Faktorer'!$D21*'Modell - Lätta fordon'!AH$13*'Modell - Lätta fordon'!AH$34/10</f>
-        <v>17.88835449983754</v>
+        <v>16.143149182780213</v>
       </c>
       <c r="AI68" s="246">
         <f>(1-Indata!E$9-Indata!E$10)*'Indata - Effektsamband-Faktorer'!$E21*'Modell - Lätta fordon'!AI$13*'Modell - Lätta fordon'!AI$34/10</f>
-        <v>12.826762901103814</v>
+        <v>7.2498893380779181</v>
       </c>
       <c r="AJ68" s="245">
         <f>(1-Indata!F$9-Indata!F$10)*'Indata - Effektsamband-Faktorer'!$D21*'Modell - Lätta fordon'!AJ$13*'Modell - Lätta fordon'!AJ$34/10</f>
@@ -34867,11 +34878,11 @@
       </c>
       <c r="AH69" s="248">
         <f>(1-Indata!D$11-Indata!D$12)*'Indata - Effektsamband-Faktorer'!$D22*'Modell - Lätta fordon'!AH$14*'Modell - Lätta fordon'!AH$35/10</f>
-        <v>15.124539157912034</v>
+        <v>13.648974362018176</v>
       </c>
       <c r="AI69" s="249">
         <f>(1-Indata!E$11-Indata!E$12)*'Indata - Effektsamband-Faktorer'!$E22*'Modell - Lätta fordon'!AI$14*'Modell - Lätta fordon'!AI$35/10</f>
-        <v>10.22242590614545</v>
+        <v>5.1066979826207675</v>
       </c>
       <c r="AJ69" s="248">
         <f>(1-Indata!F$11-Indata!F$12)*'Indata - Effektsamband-Faktorer'!$D22*'Modell - Lätta fordon'!AJ$14*'Modell - Lätta fordon'!AJ$35/10</f>
@@ -34918,11 +34929,11 @@
       </c>
       <c r="AH70" s="248">
         <f>(Indata!D$9*'Indata - Effektsamband-Faktorer'!$D$23+Indata!D$10*'Indata - Effektsamband-Faktorer'!$D$24)*'Modell - Lätta fordon'!AH$13*'Modell - Lätta fordon'!AH$34/10</f>
-        <v>0.93399843215664957</v>
+        <v>0.84287663389746414</v>
       </c>
       <c r="AI70" s="249">
         <f>(Indata!E$9*'Indata - Effektsamband-Faktorer'!$E$23+Indata!E$10*'Indata - Effektsamband-Faktorer'!$E$24)*'Modell - Lätta fordon'!AI$13*'Modell - Lätta fordon'!AI$34/10</f>
-        <v>0.66971931036948329</v>
+        <v>0.37853595058927758</v>
       </c>
       <c r="AJ70" s="248">
         <f>(Indata!F$9*'Indata - Effektsamband-Faktorer'!$D$23+Indata!F$10*'Indata - Effektsamband-Faktorer'!$D$24)*'Modell - Lätta fordon'!AJ$13*'Modell - Lätta fordon'!AJ$34/10</f>
@@ -34969,11 +34980,11 @@
       </c>
       <c r="AH71" s="248">
         <f>(Indata!D$11*'Indata - Effektsamband-Faktorer'!$D$25+Indata!D$12*'Indata - Effektsamband-Faktorer'!$D$26)*'Modell - Lätta fordon'!AH$14*'Modell - Lätta fordon'!AH$35/10</f>
-        <v>6.8130783460588429</v>
+        <v>6.1483877757116403</v>
       </c>
       <c r="AI71" s="249">
         <f>(Indata!E$11*'Indata - Effektsamband-Faktorer'!$E$25+Indata!E$12*'Indata - Effektsamband-Faktorer'!$E$26)*'Modell - Lätta fordon'!AI$14*'Modell - Lätta fordon'!AI$35/10</f>
-        <v>4.6048469879438816</v>
+        <v>2.3003896569671789</v>
       </c>
       <c r="AJ71" s="248">
         <f>(Indata!F$11*'Indata - Effektsamband-Faktorer'!$D$25+Indata!F$12*'Indata - Effektsamband-Faktorer'!$D$26)*'Modell - Lätta fordon'!AJ$14*'Modell - Lätta fordon'!AJ$35/10</f>
@@ -35002,11 +35013,11 @@
       </c>
       <c r="AH72" s="248">
         <f t="shared" ref="AH72:AM72" si="129">AH15*AH36/10</f>
-        <v>2.5655480975680214</v>
+        <v>3.7057916964871418</v>
       </c>
       <c r="AI72" s="249">
         <f t="shared" si="129"/>
-        <v>6.1531500856416885</v>
+        <v>10.84897515099982</v>
       </c>
       <c r="AJ72" s="248">
         <f t="shared" si="129"/>
@@ -35035,11 +35046,11 @@
       </c>
       <c r="AH73" s="218">
         <f>SUM(AH68:AH69)</f>
-        <v>33.012893657749572</v>
+        <v>29.79212354479839</v>
       </c>
       <c r="AI73" s="219">
         <f t="shared" ref="AI73:AM73" si="130">SUM(AI68:AI69)</f>
-        <v>23.049188807249266</v>
+        <v>12.356587320698686</v>
       </c>
       <c r="AJ73" s="218">
         <f t="shared" si="130"/>
@@ -35068,11 +35079,11 @@
       </c>
       <c r="AH74" s="218">
         <f>SUM(AH70:AH71)</f>
-        <v>7.7470767782154928</v>
+        <v>6.9912644096091041</v>
       </c>
       <c r="AI74" s="219">
         <f t="shared" ref="AI74:AM74" si="131">SUM(AI70:AI71)</f>
-        <v>5.2745662983133652</v>
+        <v>2.6789256075564563</v>
       </c>
       <c r="AJ74" s="218">
         <f t="shared" si="131"/>
@@ -35101,11 +35112,11 @@
       </c>
       <c r="AH75" s="221">
         <f>AH72</f>
-        <v>2.5655480975680214</v>
+        <v>3.7057916964871418</v>
       </c>
       <c r="AI75" s="222">
         <f t="shared" ref="AI75:AM75" si="132">AI72</f>
-        <v>6.1531500856416885</v>
+        <v>10.84897515099982</v>
       </c>
       <c r="AJ75" s="221">
         <f t="shared" si="132"/>
@@ -35149,11 +35160,11 @@
       </c>
       <c r="AH78" s="245">
         <f>(1-Indata!D$9-Indata!D$10)*'Modell - Drivmedelpriser'!E$18*'Modell - Lätta fordon'!AH$13*'Modell - Lätta fordon'!AH$34/10</f>
-        <v>15.642669295510411</v>
+        <v>14.116555217899636</v>
       </c>
       <c r="AI78" s="246">
         <f>(1-Indata!E$9-Indata!E$10)*'Modell - Drivmedelpriser'!F$18*'Modell - Lätta fordon'!AI$13*'Modell - Lätta fordon'!AI$34/10</f>
-        <v>13.672856496078424</v>
+        <v>7.7281148249382525</v>
       </c>
       <c r="AJ78" s="245">
         <f>(1-Indata!F$9-Indata!F$10)*'Modell - Drivmedelpriser'!G$18*'Modell - Lätta fordon'!AJ$13*'Modell - Lätta fordon'!AJ$34/10</f>
@@ -35182,11 +35193,11 @@
       </c>
       <c r="AH79" s="248">
         <f>(1-Indata!D$11-Indata!D$12)*'Modell - Drivmedelpriser'!E$37*'Modell - Lätta fordon'!AH$14*'Modell - Lätta fordon'!AH$35/10</f>
-        <v>8.6927295174604975</v>
+        <v>7.8446583450253282</v>
       </c>
       <c r="AI79" s="249">
         <f>(1-Indata!E$11-Indata!E$12)*'Modell - Drivmedelpriser'!F$37*'Modell - Lätta fordon'!AI$14*'Modell - Lätta fordon'!AI$35/10</f>
-        <v>7.1619239440994846</v>
+        <v>3.5777987429607117</v>
       </c>
       <c r="AJ79" s="248">
         <f>(1-Indata!F$11-Indata!F$12)*'Modell - Drivmedelpriser'!G$37*'Modell - Lätta fordon'!AJ$14*'Modell - Lätta fordon'!AJ$35/10</f>
@@ -35215,11 +35226,11 @@
       </c>
       <c r="AH80" s="248">
         <f>(Indata!D$9+Indata!D$10)*'Modell - Drivmedelpriser'!E$18*'Modell - Lätta fordon'!AH$13*'Modell - Lätta fordon'!AH$34/10</f>
-        <v>1.2683245374738168</v>
+        <v>1.1445855582080786</v>
       </c>
       <c r="AI80" s="249">
         <f>(Indata!E$9+Indata!E$10)*'Modell - Drivmedelpriser'!F$18*'Modell - Lätta fordon'!AI$13*'Modell - Lätta fordon'!AI$34/10</f>
-        <v>1.108609986168521</v>
+        <v>0.62660390472472316</v>
       </c>
       <c r="AJ80" s="248">
         <f>(Indata!F$9+Indata!F$10)*'Modell - Drivmedelpriser'!G$18*'Modell - Lätta fordon'!AJ$13*'Modell - Lätta fordon'!AJ$34/10</f>
@@ -35248,11 +35259,11 @@
       </c>
       <c r="AH81" s="248">
         <f>(Indata!D$11+Indata!D$12)*'Modell - Drivmedelpriser'!E$37*'Modell - Lätta fordon'!AH$14*'Modell - Lätta fordon'!AH$35/10</f>
-        <v>4.0906962435108234</v>
+        <v>3.6916039270707435</v>
       </c>
       <c r="AI81" s="249">
         <f>(Indata!E$11+Indata!E$12)*'Modell - Drivmedelpriser'!F$37*'Modell - Lätta fordon'!AI$14*'Modell - Lätta fordon'!AI$35/10</f>
-        <v>3.370317150164464</v>
+        <v>1.683669996687394</v>
       </c>
       <c r="AJ81" s="248">
         <f>(Indata!F$11+Indata!F$12)*'Modell - Drivmedelpriser'!G$37*'Modell - Lätta fordon'!AJ$14*'Modell - Lätta fordon'!AJ$35/10</f>
@@ -35281,11 +35292,11 @@
       </c>
       <c r="AH82" s="248">
         <f>'Modell - Drivmedelpriser'!E$69*'Modell - Lätta fordon'!AH$15*'Modell - Lätta fordon'!AH$36/10</f>
-        <v>0.86356348964139595</v>
+        <v>1.2473694850375718</v>
       </c>
       <c r="AI82" s="248">
         <f>'Modell - Drivmedelpriser'!F$69*'Modell - Lätta fordon'!AI$15*'Modell - Lätta fordon'!AI$36/10</f>
-        <v>2.0711503188269917</v>
+        <v>3.6517650358265392</v>
       </c>
       <c r="AJ82" s="248">
         <f>'Modell - Drivmedelpriser'!G$69*'Modell - Lätta fordon'!AJ$15*'Modell - Lätta fordon'!AJ$36/10</f>
@@ -35314,11 +35325,11 @@
       </c>
       <c r="AH83" s="218">
         <f>SUM(AH78:AH79)</f>
-        <v>24.335398812970908</v>
+        <v>21.961213562924964</v>
       </c>
       <c r="AI83" s="219">
         <f t="shared" ref="AI83:AM83" si="133">SUM(AI78:AI79)</f>
-        <v>20.834780440177909</v>
+        <v>11.305913567898964</v>
       </c>
       <c r="AJ83" s="218">
         <f t="shared" si="133"/>
@@ -35347,11 +35358,11 @@
       </c>
       <c r="AH84" s="218">
         <f>SUM(AH80:AH81)</f>
-        <v>5.3590207809846397</v>
+        <v>4.8361894852788225</v>
       </c>
       <c r="AI84" s="219">
         <f t="shared" ref="AI84:AM84" si="134">SUM(AI80:AI81)</f>
-        <v>4.4789271363329846</v>
+        <v>2.310273901412117</v>
       </c>
       <c r="AJ84" s="218">
         <f t="shared" si="134"/>
@@ -35380,11 +35391,11 @@
       </c>
       <c r="AH85" s="221">
         <f>AH82</f>
-        <v>0.86356348964139595</v>
+        <v>1.2473694850375718</v>
       </c>
       <c r="AI85" s="222">
         <f t="shared" ref="AI85:AM85" si="135">AI82</f>
-        <v>2.0711503188269917</v>
+        <v>3.6517650358265392</v>
       </c>
       <c r="AJ85" s="221">
         <f>AJ82</f>
@@ -35542,6 +35553,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AE86:AE89"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -35558,48 +35611,6 @@
     <mergeCell ref="AE24:AE26"/>
     <mergeCell ref="AE29:AE31"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/models/trv_scenario2.xlsx
+++ b/models/trv_scenario2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Beskrivning" sheetId="19" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="408">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -2628,6 +2628,9 @@
   </si>
   <si>
     <t>Biofouel cost adjustment (before tax)</t>
+  </si>
+  <si>
+    <t>Förändring i utsläpp bilar</t>
   </si>
 </sst>
 </file>
@@ -5242,6 +5245,39 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5257,44 +5293,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5302,30 +5329,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5338,45 +5341,45 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5386,6 +5389,36 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5395,41 +5428,11 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -5522,6 +5525,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5827,6 +5831,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6017,6 +6022,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6322,6 +6328,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6512,6 +6519,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6817,6 +6825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7007,6 +7016,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7312,6 +7322,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10569,87 +10580,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="639" t="s">
+      <c r="A3" s="634" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="645" t="s">
+      <c r="B3" s="636" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="646"/>
-      <c r="D3" s="639" t="s">
+      <c r="C3" s="637"/>
+      <c r="D3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="638"/>
-      <c r="F3" s="639" t="s">
+      <c r="E3" s="647"/>
+      <c r="F3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="638"/>
-      <c r="H3" s="637" t="s">
+      <c r="G3" s="647"/>
+      <c r="H3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="638"/>
-      <c r="K3" s="639" t="s">
+      <c r="I3" s="647"/>
+      <c r="K3" s="634" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="645" t="s">
+      <c r="L3" s="636" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="646"/>
-      <c r="N3" s="639" t="s">
+      <c r="M3" s="637"/>
+      <c r="N3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="638"/>
-      <c r="P3" s="639" t="s">
+      <c r="O3" s="647"/>
+      <c r="P3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="637" t="s">
+      <c r="Q3" s="647"/>
+      <c r="R3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="638"/>
-      <c r="U3" s="639" t="s">
+      <c r="S3" s="647"/>
+      <c r="U3" s="634" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="645" t="s">
+      <c r="V3" s="636" t="s">
         <v>241</v>
       </c>
-      <c r="W3" s="646"/>
-      <c r="X3" s="639" t="s">
+      <c r="W3" s="637"/>
+      <c r="X3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="638"/>
-      <c r="Z3" s="639" t="s">
+      <c r="Y3" s="647"/>
+      <c r="Z3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="638"/>
-      <c r="AB3" s="637" t="s">
+      <c r="AA3" s="647"/>
+      <c r="AB3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="638"/>
-      <c r="AE3" s="639" t="s">
+      <c r="AC3" s="647"/>
+      <c r="AE3" s="634" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="645" t="s">
+      <c r="AF3" s="636" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="646"/>
-      <c r="AH3" s="639" t="s">
+      <c r="AG3" s="637"/>
+      <c r="AH3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="638"/>
-      <c r="AJ3" s="639" t="s">
+      <c r="AI3" s="647"/>
+      <c r="AJ3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="638"/>
-      <c r="AL3" s="637" t="s">
+      <c r="AK3" s="647"/>
+      <c r="AL3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="638"/>
+      <c r="AM3" s="647"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="644"/>
-      <c r="B4" s="647"/>
-      <c r="C4" s="648"/>
+      <c r="A4" s="635"/>
+      <c r="B4" s="638"/>
+      <c r="C4" s="639"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -10668,9 +10679,9 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="644"/>
-      <c r="L4" s="647"/>
-      <c r="M4" s="648"/>
+      <c r="K4" s="635"/>
+      <c r="L4" s="638"/>
+      <c r="M4" s="639"/>
       <c r="N4" s="265">
         <v>2030</v>
       </c>
@@ -10689,9 +10700,9 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="644"/>
-      <c r="V4" s="647"/>
-      <c r="W4" s="648"/>
+      <c r="U4" s="635"/>
+      <c r="V4" s="638"/>
+      <c r="W4" s="639"/>
       <c r="X4" s="265">
         <v>2030</v>
       </c>
@@ -10710,9 +10721,9 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="644"/>
-      <c r="AF4" s="647"/>
-      <c r="AG4" s="648"/>
+      <c r="AE4" s="635"/>
+      <c r="AF4" s="638"/>
+      <c r="AG4" s="639"/>
       <c r="AH4" s="265">
         <v>2030</v>
       </c>
@@ -10773,7 +10784,7 @@
       <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="634" t="s">
+      <c r="A6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -10806,7 +10817,7 @@
         <f>Indata!I54</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="K6" s="634" t="s">
+      <c r="K6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -10839,7 +10850,7 @@
         <f>'Modell - Drivmedelpriser'!J58</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="U6" s="634" t="s">
+      <c r="U6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -10872,7 +10883,7 @@
         <f t="shared" ref="AC6:AC7" si="4">S6</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="AE6" s="634" t="s">
+      <c r="AE6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -10907,7 +10918,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="635"/>
+      <c r="A7" s="645"/>
       <c r="B7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10938,7 +10949,7 @@
         <f>Indata!I55</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="635"/>
+      <c r="K7" s="645"/>
       <c r="L7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10969,7 +10980,7 @@
         <f>'Modell - Drivmedelpriser'!J84</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="635"/>
+      <c r="U7" s="645"/>
       <c r="V7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11000,7 +11011,7 @@
         <f t="shared" si="4"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="635"/>
+      <c r="AE7" s="645"/>
       <c r="AF7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11033,7 +11044,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="636"/>
+      <c r="A8" s="646"/>
       <c r="B8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11058,7 +11069,7 @@
       <c r="I8" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="636"/>
+      <c r="K8" s="646"/>
       <c r="L8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11089,7 +11100,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="636"/>
+      <c r="U8" s="646"/>
       <c r="V8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11120,7 +11131,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="636"/>
+      <c r="AE8" s="646"/>
       <c r="AF8" s="188" t="s">
         <v>244</v>
       </c>
@@ -13122,7 +13133,7 @@
       <c r="AM28" s="77"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="634" t="s">
+      <c r="A29" s="644" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -13155,7 +13166,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="634" t="s">
+      <c r="K29" s="644" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -13188,7 +13199,7 @@
         <f t="shared" ref="S29:S32" si="65">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="634" t="s">
+      <c r="U29" s="644" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -13221,7 +13232,7 @@
         <f t="shared" ref="AC29:AC32" si="70">S29</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="634" t="s">
+      <c r="AE29" s="644" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -13256,7 +13267,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="635"/>
+      <c r="A30" s="645"/>
       <c r="B30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13287,7 +13298,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="635"/>
+      <c r="K30" s="645"/>
       <c r="L30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13318,7 +13329,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U30" s="635"/>
+      <c r="U30" s="645"/>
       <c r="V30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13349,7 +13360,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="635"/>
+      <c r="AE30" s="645"/>
       <c r="AF30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13382,7 +13393,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="635"/>
+      <c r="A31" s="645"/>
       <c r="B31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13413,7 +13424,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="635"/>
+      <c r="K31" s="645"/>
       <c r="L31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13444,7 +13455,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U31" s="635"/>
+      <c r="U31" s="645"/>
       <c r="V31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13475,7 +13486,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="635"/>
+      <c r="AE31" s="645"/>
       <c r="AF31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13508,7 +13519,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="636"/>
+      <c r="A32" s="646"/>
       <c r="B32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13539,7 +13550,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="636"/>
+      <c r="K32" s="646"/>
       <c r="L32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13570,7 +13581,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U32" s="636"/>
+      <c r="U32" s="646"/>
       <c r="V32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13601,7 +13612,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="636"/>
+      <c r="AE32" s="646"/>
       <c r="AF32" s="137" t="s">
         <v>119</v>
       </c>
@@ -18482,6 +18493,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AE88:AE91"/>
+    <mergeCell ref="AE74:AE76"/>
+    <mergeCell ref="AE77:AE79"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="AE71:AE73"/>
+    <mergeCell ref="AE83:AE85"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="K36:K50"/>
+    <mergeCell ref="U36:U50"/>
+    <mergeCell ref="AE36:AE50"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="U11:U20"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AE92:AE96"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -18498,40 +18543,6 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="K23:K26"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE88:AE91"/>
-    <mergeCell ref="AE74:AE76"/>
-    <mergeCell ref="AE77:AE79"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="AE71:AE73"/>
-    <mergeCell ref="AE83:AE85"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="K36:K50"/>
-    <mergeCell ref="U36:U50"/>
-    <mergeCell ref="AE36:AE50"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="U11:U20"/>
-    <mergeCell ref="AE6:AE8"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18545,11 +18556,11 @@
   </sheetPr>
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18599,18 +18610,18 @@
       <c r="A5" s="131"/>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="598" t="s">
+      <c r="D5" s="586" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="599"/>
-      <c r="F5" s="598" t="s">
+      <c r="E5" s="587"/>
+      <c r="F5" s="586" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="599"/>
-      <c r="H5" s="598" t="s">
+      <c r="G5" s="587"/>
+      <c r="H5" s="586" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="599"/>
+      <c r="I5" s="587"/>
       <c r="J5" s="594" t="s">
         <v>15</v>
       </c>
@@ -18630,18 +18641,18 @@
       </c>
       <c r="B6" s="138"/>
       <c r="C6" s="139"/>
-      <c r="D6" s="600" t="s">
+      <c r="D6" s="590" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="601"/>
-      <c r="F6" s="602" t="s">
+      <c r="E6" s="591"/>
+      <c r="F6" s="592" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="603"/>
-      <c r="H6" s="602" t="s">
+      <c r="G6" s="593"/>
+      <c r="H6" s="592" t="s">
         <v>382</v>
       </c>
-      <c r="I6" s="603"/>
+      <c r="I6" s="593"/>
       <c r="J6" s="65"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -18736,7 +18747,7 @@
       <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="591" t="s">
+      <c r="A9" s="588" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -18768,7 +18779,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="592"/>
+      <c r="A10" s="589"/>
       <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
@@ -18798,7 +18809,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="592"/>
+      <c r="A11" s="589"/>
       <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
@@ -18828,7 +18839,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="592"/>
+      <c r="A12" s="589"/>
       <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
@@ -18858,7 +18869,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="591" t="s">
+      <c r="A13" s="588" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -18890,7 +18901,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="593"/>
+      <c r="A14" s="596"/>
       <c r="B14" s="107" t="s">
         <v>9</v>
       </c>
@@ -18920,7 +18931,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="591" t="s">
+      <c r="A15" s="588" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -18952,7 +18963,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="593"/>
+      <c r="A16" s="596"/>
       <c r="B16" s="107" t="s">
         <v>324</v>
       </c>
@@ -19055,7 +19066,7 @@
       <c r="S18" s="127"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="591" t="s">
+      <c r="A19" s="588" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="106" t="s">
@@ -19087,7 +19098,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="593"/>
+      <c r="A20" s="596"/>
       <c r="B20" s="107" t="s">
         <v>324</v>
       </c>
@@ -19117,7 +19128,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="592" t="s">
+      <c r="A21" s="589" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -19149,7 +19160,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="593"/>
+      <c r="A22" s="596"/>
       <c r="B22" s="107" t="s">
         <v>324</v>
       </c>
@@ -19252,7 +19263,7 @@
       <c r="S24" s="127"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="591" t="s">
+      <c r="A25" s="588" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="106" t="s">
@@ -19299,7 +19310,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="592"/>
+      <c r="A26" s="589"/>
       <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
@@ -19344,7 +19355,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="593"/>
+      <c r="A27" s="596"/>
       <c r="B27" s="107" t="s">
         <v>7</v>
       </c>
@@ -19436,7 +19447,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="591" t="s">
+      <c r="A29" s="588" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -19483,7 +19494,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="592"/>
+      <c r="A30" s="589"/>
       <c r="B30" s="43" t="s">
         <v>9</v>
       </c>
@@ -19528,7 +19539,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="593"/>
+      <c r="A31" s="596"/>
       <c r="B31" s="107" t="s">
         <v>7</v>
       </c>
@@ -19573,7 +19584,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="586" t="s">
+      <c r="A32" s="597" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="106" t="s">
@@ -19611,7 +19622,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="596"/>
+      <c r="A33" s="602"/>
       <c r="B33" s="43" t="s">
         <v>9</v>
       </c>
@@ -19647,7 +19658,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="596"/>
+      <c r="A34" s="602"/>
       <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
@@ -19683,7 +19694,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="587"/>
+      <c r="A35" s="598"/>
       <c r="B35" s="107" t="s">
         <v>20</v>
       </c>
@@ -19846,7 +19857,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="588" t="s">
+      <c r="A39" s="599" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="106" t="s">
@@ -19892,7 +19903,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="597"/>
+      <c r="A40" s="603"/>
       <c r="B40" s="107" t="s">
         <v>29</v>
       </c>
@@ -19978,7 +19989,7 @@
       <c r="S41" s="127"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="586" t="s">
+      <c r="A42" s="597" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="106" t="s">
@@ -20025,7 +20036,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="596"/>
+      <c r="A43" s="602"/>
       <c r="B43" s="43" t="s">
         <v>117</v>
       </c>
@@ -20070,7 +20081,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="589"/>
+      <c r="A44" s="600"/>
       <c r="B44" s="43" t="s">
         <v>118</v>
       </c>
@@ -20115,7 +20126,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="589"/>
+      <c r="A45" s="600"/>
       <c r="B45" s="43" t="s">
         <v>119</v>
       </c>
@@ -20160,7 +20171,7 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="586" t="s">
+      <c r="A46" s="597" t="s">
         <v>381</v>
       </c>
       <c r="B46" s="106" t="s">
@@ -20207,7 +20218,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="596"/>
+      <c r="A47" s="602"/>
       <c r="B47" s="43" t="s">
         <v>117</v>
       </c>
@@ -20252,7 +20263,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="589"/>
+      <c r="A48" s="600"/>
       <c r="B48" s="43" t="s">
         <v>118</v>
       </c>
@@ -20297,7 +20308,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="589"/>
+      <c r="A49" s="600"/>
       <c r="B49" s="43" t="s">
         <v>119</v>
       </c>
@@ -20342,7 +20353,7 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="586" t="s">
+      <c r="A50" s="597" t="s">
         <v>380</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -20389,7 +20400,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="596"/>
+      <c r="A51" s="602"/>
       <c r="B51" s="43" t="s">
         <v>117</v>
       </c>
@@ -20434,7 +20445,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="589"/>
+      <c r="A52" s="600"/>
       <c r="B52" s="43" t="s">
         <v>118</v>
       </c>
@@ -20479,7 +20490,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="590"/>
+      <c r="A53" s="601"/>
       <c r="B53" s="107" t="s">
         <v>119</v>
       </c>
@@ -20524,7 +20535,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="596" t="s">
+      <c r="A54" s="602" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -20562,7 +20573,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="596"/>
+      <c r="A55" s="602"/>
       <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
@@ -20598,7 +20609,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="588" t="s">
+      <c r="A56" s="599" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="342" t="s">
@@ -20636,7 +20647,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="589"/>
+      <c r="A57" s="600"/>
       <c r="B57" s="43" t="s">
         <v>116</v>
       </c>
@@ -20681,7 +20692,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="589"/>
+      <c r="A58" s="600"/>
       <c r="B58" s="43" t="s">
         <v>117</v>
       </c>
@@ -20726,7 +20737,7 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="589"/>
+      <c r="A59" s="600"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -20771,7 +20782,7 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="590"/>
+      <c r="A60" s="601"/>
       <c r="B60" s="107" t="s">
         <v>119</v>
       </c>
@@ -20891,7 +20902,7 @@
       <c r="K62" s="595"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="586" t="s">
+      <c r="A63" s="597" t="s">
         <v>312</v>
       </c>
       <c r="B63" s="106" t="s">
@@ -20929,7 +20940,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="587"/>
+      <c r="A64" s="598"/>
       <c r="B64" s="107" t="s">
         <v>7</v>
       </c>
@@ -21048,6 +21059,15 @@
         <v>4.0914621637292967</v>
       </c>
     </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D74" s="40">
+        <f>Resultat!F37/'Indata - Utsläpp'!B15-1</f>
+        <v>-0.73481851843620594</v>
+      </c>
+    </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="40" t="s">
         <v>395</v>
@@ -21072,24 +21092,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:I23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="28">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A29:A31"/>
@@ -21100,6 +21102,24 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21133,10 +21153,10 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21222,18 +21242,18 @@
       <c r="C4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="598" t="s">
+      <c r="D4" s="586" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="599"/>
-      <c r="F4" s="598" t="s">
+      <c r="E4" s="587"/>
+      <c r="F4" s="586" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="599"/>
-      <c r="H4" s="598" t="s">
+      <c r="G4" s="587"/>
+      <c r="H4" s="586" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="599"/>
+      <c r="I4" s="587"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -21249,21 +21269,21 @@
       </c>
       <c r="B5" s="290"/>
       <c r="C5" s="291"/>
-      <c r="D5" s="604" t="str">
+      <c r="D5" s="612" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik</v>
       </c>
-      <c r="E5" s="605"/>
-      <c r="F5" s="604" t="str">
+      <c r="E5" s="613"/>
+      <c r="F5" s="612" t="str">
         <f>Indata!F6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="G5" s="605"/>
-      <c r="H5" s="604" t="str">
+      <c r="G5" s="613"/>
+      <c r="H5" s="612" t="str">
         <f>Indata!H6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="I5" s="605"/>
+      <c r="I5" s="613"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -21311,7 +21331,7 @@
       <c r="Q6" s="127"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="606" t="s">
+      <c r="A7" s="607" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="292" t="s">
@@ -21445,7 +21465,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="607"/>
+      <c r="A11" s="609"/>
       <c r="B11" s="294" t="s">
         <v>185</v>
       </c>
@@ -21478,7 +21498,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="606" t="s">
+      <c r="A12" s="607" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="292" t="s">
@@ -21613,7 +21633,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="607"/>
+      <c r="A16" s="609"/>
       <c r="B16" s="294" t="s">
         <v>323</v>
       </c>
@@ -21646,7 +21666,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="606" t="s">
+      <c r="A17" s="607" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="292" t="s">
@@ -21681,7 +21701,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="607"/>
+      <c r="A18" s="609"/>
       <c r="B18" s="294" t="s">
         <v>324</v>
       </c>
@@ -21749,7 +21769,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="606" t="s">
+      <c r="A20" s="607" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="292" t="s">
@@ -21954,7 +21974,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="607"/>
+      <c r="A26" s="609"/>
       <c r="B26" s="392" t="s">
         <v>359</v>
       </c>
@@ -21987,7 +22007,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="606" t="s">
+      <c r="A27" s="607" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="292" t="s">
@@ -22226,7 +22246,7 @@
       <c r="J33" s="381"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="607"/>
+      <c r="A34" s="609"/>
       <c r="B34" s="392" t="s">
         <v>338</v>
       </c>
@@ -22295,7 +22315,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="607"/>
+      <c r="A36" s="609"/>
       <c r="B36" s="294" t="s">
         <v>324</v>
       </c>
@@ -22328,7 +22348,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="612" t="s">
+      <c r="A37" s="610" t="s">
         <v>279</v>
       </c>
       <c r="B37" s="292" t="s">
@@ -22363,7 +22383,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="613"/>
+      <c r="A38" s="611"/>
       <c r="B38" s="293" t="s">
         <v>324</v>
       </c>
@@ -22396,7 +22416,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="613"/>
+      <c r="A39" s="611"/>
       <c r="B39" s="293" t="s">
         <v>315</v>
       </c>
@@ -22423,7 +22443,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="613"/>
+      <c r="A40" s="611"/>
       <c r="B40" s="391" t="s">
         <v>16</v>
       </c>
@@ -22456,7 +22476,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="613"/>
+      <c r="A41" s="611"/>
       <c r="B41" s="518" t="s">
         <v>362</v>
       </c>
@@ -22489,7 +22509,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="606" t="s">
+      <c r="A42" s="607" t="s">
         <v>276</v>
       </c>
       <c r="B42" s="292" t="s">
@@ -22760,7 +22780,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="606" t="s">
+      <c r="A50" s="607" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="292" t="s">
@@ -22894,7 +22914,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="609" t="s">
+      <c r="A54" s="604" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="292" t="s">
@@ -22930,7 +22950,7 @@
       <c r="J54" s="381"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="610"/>
+      <c r="A55" s="605"/>
       <c r="B55" s="293" t="s">
         <v>320</v>
       </c>
@@ -22965,7 +22985,7 @@
       <c r="K55" s="381"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="610"/>
+      <c r="A56" s="605"/>
       <c r="B56" s="293" t="s">
         <v>104</v>
       </c>
@@ -23000,7 +23020,7 @@
       <c r="K56" s="381"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="610"/>
+      <c r="A57" s="605"/>
       <c r="B57" s="293" t="s">
         <v>317</v>
       </c>
@@ -23039,7 +23059,7 @@
       <c r="O57" s="521"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="610"/>
+      <c r="A58" s="605"/>
       <c r="B58" s="293" t="s">
         <v>318</v>
       </c>
@@ -23074,7 +23094,7 @@
       <c r="K58" s="381"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="610"/>
+      <c r="A59" s="605"/>
       <c r="B59" s="293" t="s">
         <v>319</v>
       </c>
@@ -23110,7 +23130,7 @@
       <c r="O59" s="381"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="610"/>
+      <c r="A60" s="605"/>
       <c r="B60" s="391" t="s">
         <v>198</v>
       </c>
@@ -23149,7 +23169,7 @@
       <c r="O60" s="521"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="610"/>
+      <c r="A61" s="605"/>
       <c r="B61" s="391" t="s">
         <v>199</v>
       </c>
@@ -23184,7 +23204,7 @@
       <c r="K61" s="381"/>
     </row>
     <row r="62" spans="1:15" s="381" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="610"/>
+      <c r="A62" s="605"/>
       <c r="B62" s="391" t="s">
         <v>200</v>
       </c>
@@ -23217,7 +23237,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="611"/>
+      <c r="A63" s="606"/>
       <c r="B63" s="392" t="s">
         <v>364</v>
       </c>
@@ -23252,7 +23272,7 @@
       <c r="K63" s="381"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="610" t="s">
+      <c r="A64" s="605" t="s">
         <v>245</v>
       </c>
       <c r="B64" s="293" t="s">
@@ -23287,7 +23307,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="610"/>
+      <c r="A65" s="605"/>
       <c r="B65" s="293" t="s">
         <v>197</v>
       </c>
@@ -23320,7 +23340,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="610"/>
+      <c r="A66" s="605"/>
       <c r="B66" s="293" t="s">
         <v>104</v>
       </c>
@@ -23353,7 +23373,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="610"/>
+      <c r="A67" s="605"/>
       <c r="B67" s="293" t="s">
         <v>322</v>
       </c>
@@ -23386,7 +23406,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="610"/>
+      <c r="A68" s="605"/>
       <c r="B68" s="293" t="s">
         <v>321</v>
       </c>
@@ -23419,7 +23439,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="610"/>
+      <c r="A69" s="605"/>
       <c r="B69" s="293" t="s">
         <v>323</v>
       </c>
@@ -23452,7 +23472,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="610"/>
+      <c r="A70" s="605"/>
       <c r="B70" s="391" t="s">
         <v>198</v>
       </c>
@@ -23485,7 +23505,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="610"/>
+      <c r="A71" s="605"/>
       <c r="B71" s="391" t="s">
         <v>199</v>
       </c>
@@ -23518,7 +23538,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="611"/>
+      <c r="A72" s="606"/>
       <c r="B72" s="392" t="s">
         <v>200</v>
       </c>
@@ -23551,7 +23571,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="609" t="s">
+      <c r="A73" s="604" t="s">
         <v>203</v>
       </c>
       <c r="B73" s="292" t="s">
@@ -23586,7 +23606,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="610"/>
+      <c r="A74" s="605"/>
       <c r="B74" s="293" t="s">
         <v>324</v>
       </c>
@@ -23619,7 +23639,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="611"/>
+      <c r="A75" s="606"/>
       <c r="B75" s="392" t="s">
         <v>278</v>
       </c>
@@ -23652,7 +23672,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="609" t="s">
+      <c r="A76" s="604" t="s">
         <v>204</v>
       </c>
       <c r="B76" s="292" t="s">
@@ -23687,7 +23707,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="610"/>
+      <c r="A77" s="605"/>
       <c r="B77" s="293" t="s">
         <v>324</v>
       </c>
@@ -23720,7 +23740,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="611"/>
+      <c r="A78" s="606"/>
       <c r="B78" s="392" t="s">
         <v>278</v>
       </c>
@@ -23761,6 +23781,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A27:A34"/>
@@ -23770,17 +23801,6 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23829,7 +23849,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24664,7 +24684,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25947,13 +25967,13 @@
       <c r="O3" s="127"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="588" t="s">
+      <c r="A4" s="599" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="621" t="s">
+      <c r="B4" s="620" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="622"/>
+      <c r="C4" s="621"/>
       <c r="D4" s="326">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -25974,11 +25994,11 @@
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="618"/>
-      <c r="B5" s="623" t="s">
+      <c r="A5" s="624"/>
+      <c r="B5" s="622" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="624"/>
+      <c r="C5" s="623"/>
       <c r="D5" s="326">
         <v>-0.05</v>
       </c>
@@ -25999,11 +26019,11 @@
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="618"/>
-      <c r="B6" s="623" t="s">
+      <c r="A6" s="624"/>
+      <c r="B6" s="622" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="624"/>
+      <c r="C6" s="623"/>
       <c r="D6" s="326">
         <v>0</v>
       </c>
@@ -26024,11 +26044,11 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="618"/>
-      <c r="B7" s="623" t="s">
+      <c r="A7" s="624"/>
+      <c r="B7" s="622" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="624"/>
+      <c r="C7" s="623"/>
       <c r="D7" s="326">
         <v>-0.1</v>
       </c>
@@ -26049,11 +26069,11 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="618"/>
-      <c r="B8" s="623" t="s">
+      <c r="A8" s="624"/>
+      <c r="B8" s="622" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="624"/>
+      <c r="C8" s="623"/>
       <c r="D8" s="326">
         <v>-0.2</v>
       </c>
@@ -26074,11 +26094,11 @@
       <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="597"/>
-      <c r="B9" s="619" t="s">
+      <c r="A9" s="603"/>
+      <c r="B9" s="618" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="620"/>
+      <c r="C9" s="619"/>
       <c r="D9" s="328">
         <f>Indata!D78</f>
         <v>-0.22</v>
@@ -26100,7 +26120,7 @@
       <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="591" t="s">
+      <c r="A10" s="588" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26129,7 +26149,7 @@
       <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="592"/>
+      <c r="A11" s="589"/>
       <c r="B11" s="43" t="s">
         <v>9</v>
       </c>
@@ -26156,7 +26176,7 @@
       <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="592" t="s">
+      <c r="A12" s="589" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -26185,7 +26205,7 @@
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="591" t="s">
+      <c r="A13" s="588" t="s">
         <v>266</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -26214,7 +26234,7 @@
       <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="592"/>
+      <c r="A14" s="589"/>
       <c r="B14" s="43" t="s">
         <v>286</v>
       </c>
@@ -26241,7 +26261,7 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="592" t="s">
+      <c r="A15" s="589" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -26270,7 +26290,7 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="591" t="s">
+      <c r="A16" s="588" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -26299,7 +26319,7 @@
       <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="592"/>
+      <c r="A17" s="589"/>
       <c r="B17" s="43" t="s">
         <v>286</v>
       </c>
@@ -26326,7 +26346,7 @@
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="593" t="s">
+      <c r="A18" s="596" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -26355,7 +26375,7 @@
       <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="610" t="s">
+      <c r="A19" s="605" t="s">
         <v>273</v>
       </c>
       <c r="B19" s="293" t="s">
@@ -26384,7 +26404,7 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="610"/>
+      <c r="A20" s="605"/>
       <c r="B20" s="293" t="s">
         <v>296</v>
       </c>
@@ -26411,7 +26431,7 @@
       <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="586" t="s">
+      <c r="A21" s="597" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -26440,7 +26460,7 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="596"/>
+      <c r="A22" s="602"/>
       <c r="B22" s="43" t="s">
         <v>97</v>
       </c>
@@ -26467,7 +26487,7 @@
       <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="596"/>
+      <c r="A23" s="602"/>
       <c r="B23" s="43" t="s">
         <v>134</v>
       </c>
@@ -26494,7 +26514,7 @@
       <c r="O23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="596"/>
+      <c r="A24" s="602"/>
       <c r="B24" s="43" t="s">
         <v>98</v>
       </c>
@@ -26521,7 +26541,7 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="596"/>
+      <c r="A25" s="602"/>
       <c r="B25" s="43" t="s">
         <v>135</v>
       </c>
@@ -26548,7 +26568,7 @@
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="587"/>
+      <c r="A26" s="598"/>
       <c r="B26" s="107" t="s">
         <v>100</v>
       </c>
@@ -26576,6 +26596,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B4:C4"/>
@@ -26583,11 +26608,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26601,7 +26621,7 @@
   </sheetPr>
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -26631,25 +26651,25 @@
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="628" t="s">
+      <c r="A2" s="625" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="628"/>
-      <c r="C2" s="628"/>
-      <c r="D2" s="628"/>
-      <c r="E2" s="628"/>
-      <c r="F2" s="628"/>
-      <c r="G2" s="628"/>
-      <c r="H2" s="628"/>
-      <c r="I2" s="628"/>
-      <c r="J2" s="628"/>
+      <c r="B2" s="625"/>
+      <c r="C2" s="625"/>
+      <c r="D2" s="625"/>
+      <c r="E2" s="625"/>
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="625"/>
+      <c r="I2" s="625"/>
+      <c r="J2" s="625"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="629" t="s">
+      <c r="A3" s="626" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="630"/>
-      <c r="C3" s="630"/>
+      <c r="B3" s="627"/>
+      <c r="C3" s="627"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
@@ -26726,18 +26746,18 @@
       <c r="B7" s="194"/>
       <c r="C7" s="194"/>
       <c r="D7" s="194"/>
-      <c r="E7" s="625" t="s">
+      <c r="E7" s="630" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="626"/>
-      <c r="G7" s="625" t="s">
+      <c r="F7" s="629"/>
+      <c r="G7" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="626"/>
-      <c r="I7" s="627" t="s">
+      <c r="H7" s="629"/>
+      <c r="I7" s="628" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="626"/>
+      <c r="J7" s="629"/>
       <c r="L7" s="26" t="s">
         <v>403</v>
       </c>
@@ -27353,18 +27373,18 @@
       <c r="B26" s="194"/>
       <c r="C26" s="194"/>
       <c r="D26" s="194"/>
-      <c r="E26" s="625" t="s">
+      <c r="E26" s="630" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="626"/>
-      <c r="G26" s="625" t="s">
+      <c r="F26" s="629"/>
+      <c r="G26" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="626"/>
-      <c r="I26" s="627" t="s">
+      <c r="H26" s="629"/>
+      <c r="I26" s="628" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="626"/>
+      <c r="J26" s="629"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="196" t="s">
@@ -27963,18 +27983,18 @@
       <c r="B45" s="194"/>
       <c r="C45" s="194"/>
       <c r="D45" s="194"/>
-      <c r="E45" s="625" t="s">
+      <c r="E45" s="630" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="626"/>
-      <c r="G45" s="625" t="s">
+      <c r="F45" s="629"/>
+      <c r="G45" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="626"/>
-      <c r="I45" s="627" t="s">
+      <c r="H45" s="629"/>
+      <c r="I45" s="628" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="626"/>
+      <c r="J45" s="629"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="196" t="s">
@@ -28565,18 +28585,18 @@
       <c r="B64" s="194"/>
       <c r="C64" s="194"/>
       <c r="D64" s="194"/>
-      <c r="E64" s="625" t="s">
+      <c r="E64" s="630" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="626"/>
-      <c r="G64" s="625" t="s">
+      <c r="F64" s="629"/>
+      <c r="G64" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="626"/>
-      <c r="I64" s="627" t="s">
+      <c r="H64" s="629"/>
+      <c r="I64" s="628" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="626"/>
+      <c r="J64" s="629"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="196" t="s">
@@ -28966,18 +28986,18 @@
       <c r="B77" s="194"/>
       <c r="C77" s="194"/>
       <c r="D77" s="194"/>
-      <c r="E77" s="625" t="s">
+      <c r="E77" s="630" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="626"/>
-      <c r="G77" s="625" t="s">
+      <c r="F77" s="629"/>
+      <c r="G77" s="630" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="626"/>
-      <c r="I77" s="627" t="s">
+      <c r="H77" s="629"/>
+      <c r="I77" s="628" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="626"/>
+      <c r="J77" s="629"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="196" t="s">
@@ -29362,11 +29382,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="E7:F7"/>
@@ -29379,6 +29394,11 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29393,9 +29413,9 @@
   </sheetPr>
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ55" sqref="AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29429,87 +29449,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="639" t="s">
+      <c r="A3" s="634" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="645" t="s">
+      <c r="B3" s="636" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="646"/>
-      <c r="D3" s="639" t="s">
+      <c r="C3" s="637"/>
+      <c r="D3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="638"/>
-      <c r="F3" s="639" t="s">
+      <c r="E3" s="647"/>
+      <c r="F3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="638"/>
-      <c r="H3" s="637" t="s">
+      <c r="G3" s="647"/>
+      <c r="H3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="638"/>
-      <c r="K3" s="639" t="s">
+      <c r="I3" s="647"/>
+      <c r="K3" s="634" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="640" t="s">
         <v>237</v>
       </c>
       <c r="M3" s="641"/>
-      <c r="N3" s="639" t="s">
+      <c r="N3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="638"/>
-      <c r="P3" s="639" t="s">
+      <c r="O3" s="647"/>
+      <c r="P3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="637" t="s">
+      <c r="Q3" s="647"/>
+      <c r="R3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="638"/>
-      <c r="U3" s="639" t="s">
+      <c r="S3" s="647"/>
+      <c r="U3" s="634" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="640" t="s">
         <v>227</v>
       </c>
       <c r="W3" s="641"/>
-      <c r="X3" s="639" t="s">
+      <c r="X3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="638"/>
-      <c r="Z3" s="639" t="s">
+      <c r="Y3" s="647"/>
+      <c r="Z3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="638"/>
-      <c r="AB3" s="637" t="s">
+      <c r="AA3" s="647"/>
+      <c r="AB3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="638"/>
-      <c r="AE3" s="639" t="s">
+      <c r="AC3" s="647"/>
+      <c r="AE3" s="634" t="s">
         <v>67</v>
       </c>
       <c r="AF3" s="640" t="s">
         <v>238</v>
       </c>
       <c r="AG3" s="641"/>
-      <c r="AH3" s="639" t="s">
+      <c r="AH3" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="638"/>
-      <c r="AJ3" s="639" t="s">
+      <c r="AI3" s="647"/>
+      <c r="AJ3" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="638"/>
-      <c r="AL3" s="637" t="s">
+      <c r="AK3" s="647"/>
+      <c r="AL3" s="648" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="638"/>
+      <c r="AM3" s="647"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="644"/>
-      <c r="B4" s="647"/>
-      <c r="C4" s="648"/>
+      <c r="A4" s="635"/>
+      <c r="B4" s="638"/>
+      <c r="C4" s="639"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -29528,7 +29548,7 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="644"/>
+      <c r="K4" s="635"/>
       <c r="L4" s="642"/>
       <c r="M4" s="643"/>
       <c r="N4" s="265">
@@ -29549,7 +29569,7 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="644"/>
+      <c r="U4" s="635"/>
       <c r="V4" s="642"/>
       <c r="W4" s="643"/>
       <c r="X4" s="265">
@@ -29570,7 +29590,7 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="644"/>
+      <c r="AE4" s="635"/>
       <c r="AF4" s="642"/>
       <c r="AG4" s="643"/>
       <c r="AH4" s="265">
@@ -29633,7 +29653,7 @@
       <c r="AM5" s="201"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="634" t="s">
+      <c r="A6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -29666,7 +29686,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="634" t="s">
+      <c r="K6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -29699,7 +29719,7 @@
         <f>'Modell - Drivmedelpriser'!J24</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="U6" s="634" t="s">
+      <c r="U6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -29732,7 +29752,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="AE6" s="634" t="s">
+      <c r="AE6" s="644" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -29767,7 +29787,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="635"/>
+      <c r="A7" s="645"/>
       <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29798,7 +29818,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="635"/>
+      <c r="K7" s="645"/>
       <c r="L7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29829,7 +29849,7 @@
         <f>'Modell - Drivmedelpriser'!J43</f>
         <v>24.89327119863777</v>
       </c>
-      <c r="U7" s="635"/>
+      <c r="U7" s="645"/>
       <c r="V7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29860,7 +29880,7 @@
         <f t="shared" si="4"/>
         <v>24.89327119863777</v>
       </c>
-      <c r="AE7" s="635"/>
+      <c r="AE7" s="645"/>
       <c r="AF7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29893,7 +29913,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="635"/>
+      <c r="A8" s="645"/>
       <c r="B8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29924,7 +29944,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="635"/>
+      <c r="K8" s="645"/>
       <c r="L8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29955,7 +29975,7 @@
         <f>'Modell - Drivmedelpriser'!J75</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="635"/>
+      <c r="U8" s="645"/>
       <c r="V8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29986,7 +30006,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="635"/>
+      <c r="AE8" s="645"/>
       <c r="AF8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30019,7 +30039,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="303" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="635"/>
+      <c r="A9" s="645"/>
       <c r="B9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30050,7 +30070,7 @@
         <f>Indata!I35</f>
         <v>21.888963239913203</v>
       </c>
-      <c r="K9" s="635"/>
+      <c r="K9" s="645"/>
       <c r="L9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30081,7 +30101,7 @@
         <f t="shared" si="12"/>
         <v>26.181733806320725</v>
       </c>
-      <c r="U9" s="635"/>
+      <c r="U9" s="645"/>
       <c r="V9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30112,7 +30132,7 @@
         <f t="shared" si="13"/>
         <v>26.181733806320722</v>
       </c>
-      <c r="AE9" s="635"/>
+      <c r="AE9" s="645"/>
       <c r="AF9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30145,7 +30165,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="636"/>
+      <c r="A10" s="646"/>
       <c r="B10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30170,7 +30190,7 @@
       <c r="I10" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="636"/>
+      <c r="K10" s="646"/>
       <c r="L10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30201,7 +30221,7 @@
         <f t="shared" si="15"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="U10" s="636"/>
+      <c r="U10" s="646"/>
       <c r="V10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30232,7 +30252,7 @@
         <f t="shared" si="16"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="AE10" s="636"/>
+      <c r="AE10" s="646"/>
       <c r="AF10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30334,7 +30354,7 @@
       <c r="AM12" s="201"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="634" t="s">
+      <c r="A13" s="644" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="135" t="s">
@@ -30367,7 +30387,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="634" t="s">
+      <c r="K13" s="644" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="135" t="s">
@@ -30400,7 +30420,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="U13" s="634" t="s">
+      <c r="U13" s="644" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="135" t="s">
@@ -30433,7 +30453,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="AE13" s="634" t="s">
+      <c r="AE13" s="644" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="135" t="s">
@@ -30468,7 +30488,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="635"/>
+      <c r="A14" s="645"/>
       <c r="B14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30499,7 +30519,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="635"/>
+      <c r="K14" s="645"/>
       <c r="L14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30530,7 +30550,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.4867802477475246</v>
       </c>
-      <c r="U14" s="635"/>
+      <c r="U14" s="645"/>
       <c r="V14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30561,7 +30581,7 @@
         <f t="shared" si="22"/>
         <v>0.4867802477475246</v>
       </c>
-      <c r="AE14" s="635"/>
+      <c r="AE14" s="645"/>
       <c r="AF14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30594,7 +30614,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="636"/>
+      <c r="A15" s="646"/>
       <c r="B15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30625,7 +30645,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="636"/>
+      <c r="K15" s="646"/>
       <c r="L15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30656,7 +30676,7 @@
         <f>I15*(1-Indata!I$19)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="636"/>
+      <c r="U15" s="646"/>
       <c r="V15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30687,7 +30707,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="636"/>
+      <c r="AE15" s="646"/>
       <c r="AF15" s="137" t="s">
         <v>7</v>
       </c>
@@ -31370,7 +31390,7 @@
       <c r="AM23" s="201"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="634" t="s">
+      <c r="A24" s="644" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="135" t="s">
@@ -31403,7 +31423,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="634" t="s">
+      <c r="K24" s="644" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="135" t="s">
@@ -31436,7 +31456,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="634" t="s">
+      <c r="U24" s="644" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="135" t="s">
@@ -31469,7 +31489,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="634" t="s">
+      <c r="AE24" s="644" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="135" t="s">
@@ -31504,7 +31524,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="635"/>
+      <c r="A25" s="645"/>
       <c r="B25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31535,7 +31555,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="635"/>
+      <c r="K25" s="645"/>
       <c r="L25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31566,7 +31586,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="635"/>
+      <c r="U25" s="645"/>
       <c r="V25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31597,7 +31617,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="635"/>
+      <c r="AE25" s="645"/>
       <c r="AF25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31630,7 +31650,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="636"/>
+      <c r="A26" s="646"/>
       <c r="B26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31661,7 +31681,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="636"/>
+      <c r="K26" s="646"/>
       <c r="L26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31692,7 +31712,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="636"/>
+      <c r="U26" s="646"/>
       <c r="V26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31723,7 +31743,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="636"/>
+      <c r="AE26" s="646"/>
       <c r="AF26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31831,7 +31851,7 @@
       <c r="AM28" s="201"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="634" t="s">
+      <c r="A29" s="644" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -31864,7 +31884,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="634" t="s">
+      <c r="K29" s="644" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -31897,7 +31917,7 @@
         <f t="shared" ref="S29:S31" si="68">I29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="634" t="s">
+      <c r="U29" s="644" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -31930,7 +31950,7 @@
         <f t="shared" ref="AC29:AC31" si="73">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="634" t="s">
+      <c r="AE29" s="644" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -31965,7 +31985,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="635"/>
+      <c r="A30" s="645"/>
       <c r="B30" s="136" t="s">
         <v>9</v>
       </c>
@@ -31996,7 +32016,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="635"/>
+      <c r="K30" s="645"/>
       <c r="L30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32027,7 +32047,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="635"/>
+      <c r="U30" s="645"/>
       <c r="V30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32058,7 +32078,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="635"/>
+      <c r="AE30" s="645"/>
       <c r="AF30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32091,7 +32111,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="636"/>
+      <c r="A31" s="646"/>
       <c r="B31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32122,7 +32142,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="636"/>
+      <c r="K31" s="646"/>
       <c r="L31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32153,7 +32173,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="636"/>
+      <c r="U31" s="646"/>
       <c r="V31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32184,7 +32204,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="636"/>
+      <c r="AE31" s="646"/>
       <c r="AF31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32875,7 +32895,7 @@
       <c r="AM39" s="201"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="634" t="s">
+      <c r="A40" s="644" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="135" t="s">
@@ -32908,7 +32928,7 @@
         <f t="shared" si="90"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="634" t="s">
+      <c r="K40" s="644" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="135" t="s">
@@ -32941,7 +32961,7 @@
         <f t="shared" si="91"/>
         <v>23.329659844074406</v>
       </c>
-      <c r="U40" s="634" t="s">
+      <c r="U40" s="644" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="135" t="s">
@@ -32974,7 +32994,7 @@
         <f t="shared" ref="AC40:AC42" si="96">S40</f>
         <v>23.329659844074406</v>
       </c>
-      <c r="AE40" s="634" t="s">
+      <c r="AE40" s="644" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="135" t="s">
@@ -33009,7 +33029,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="635"/>
+      <c r="A41" s="645"/>
       <c r="B41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33040,7 +33060,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="635"/>
+      <c r="K41" s="645"/>
       <c r="L41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33071,7 +33091,7 @@
         <f t="shared" si="91"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="U41" s="635"/>
+      <c r="U41" s="645"/>
       <c r="V41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33102,7 +33122,7 @@
         <f t="shared" si="96"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="AE41" s="635"/>
+      <c r="AE41" s="645"/>
       <c r="AF41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33135,7 +33155,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="635"/>
+      <c r="A42" s="645"/>
       <c r="B42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33166,7 +33186,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="635"/>
+      <c r="K42" s="645"/>
       <c r="L42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33197,7 +33217,7 @@
         <f t="shared" si="91"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="635"/>
+      <c r="U42" s="645"/>
       <c r="V42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33228,7 +33248,7 @@
         <f t="shared" si="96"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="635"/>
+      <c r="AE42" s="645"/>
       <c r="AF42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33261,7 +33281,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="635"/>
+      <c r="A43" s="645"/>
       <c r="B43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33290,7 +33310,7 @@
         <f t="shared" si="104"/>
         <v>18.064425082921922</v>
       </c>
-      <c r="K43" s="635"/>
+      <c r="K43" s="645"/>
       <c r="L43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33321,7 +33341,7 @@
         <f t="shared" ref="S43" si="105">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>18.645576333860959</v>
       </c>
-      <c r="U43" s="635"/>
+      <c r="U43" s="645"/>
       <c r="V43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33352,7 +33372,7 @@
         <f t="shared" si="106"/>
         <v>18.645576333860962</v>
       </c>
-      <c r="AE43" s="635"/>
+      <c r="AE43" s="645"/>
       <c r="AF43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33385,7 +33405,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="636"/>
+      <c r="A44" s="646"/>
       <c r="B44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33410,7 +33430,7 @@
       <c r="I44" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="636"/>
+      <c r="K44" s="646"/>
       <c r="L44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33441,7 +33461,7 @@
         <f>S43/E43-1</f>
         <v>-5.1358020489668088E-2</v>
       </c>
-      <c r="U44" s="636"/>
+      <c r="U44" s="646"/>
       <c r="V44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33472,7 +33492,7 @@
         <f>AC43/E43-1</f>
         <v>-5.1358020489667866E-2</v>
       </c>
-      <c r="AE44" s="636"/>
+      <c r="AE44" s="646"/>
       <c r="AF44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33580,7 +33600,7 @@
       <c r="AM46" s="78"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="634" t="s">
+      <c r="A47" s="644" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="135" t="s">
@@ -33613,7 +33633,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="634" t="s">
+      <c r="K47" s="644" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="135" t="s">
@@ -33646,7 +33666,7 @@
         <f t="shared" si="107"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="634" t="s">
+      <c r="U47" s="644" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="135" t="s">
@@ -33679,7 +33699,7 @@
         <f t="shared" ref="AC47:AC49" si="112">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="634" t="s">
+      <c r="AE47" s="644" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="135" t="s">
@@ -33714,7 +33734,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="635"/>
+      <c r="A48" s="645"/>
       <c r="B48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33745,7 +33765,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="635"/>
+      <c r="K48" s="645"/>
       <c r="L48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33776,7 +33796,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$E$7*S44)*'Modell - Lätta fordon'!I48</f>
         <v>0.53200533240081493</v>
       </c>
-      <c r="U48" s="635"/>
+      <c r="U48" s="645"/>
       <c r="V48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33807,7 +33827,7 @@
         <f t="shared" si="112"/>
         <v>0.53200533240081493</v>
       </c>
-      <c r="AE48" s="635"/>
+      <c r="AE48" s="645"/>
       <c r="AF48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33840,7 +33860,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="635"/>
+      <c r="A49" s="645"/>
       <c r="B49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33871,7 +33891,7 @@
         <f t="shared" si="118"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="635"/>
+      <c r="K49" s="645"/>
       <c r="L49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33902,7 +33922,7 @@
         <f t="shared" ref="S49" si="121">S47*S48</f>
         <v>6197170.5155373728</v>
       </c>
-      <c r="U49" s="635"/>
+      <c r="U49" s="645"/>
       <c r="V49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33933,7 +33953,7 @@
         <f t="shared" si="112"/>
         <v>6197170.5155373728</v>
       </c>
-      <c r="AE49" s="635"/>
+      <c r="AE49" s="645"/>
       <c r="AF49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33966,7 +33986,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="636"/>
+      <c r="A50" s="646"/>
       <c r="B50" s="188" t="s">
         <v>234</v>
       </c>
@@ -33991,7 +34011,7 @@
       <c r="I50" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="636"/>
+      <c r="K50" s="646"/>
       <c r="L50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34022,7 +34042,7 @@
         <f>S49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="U50" s="636"/>
+      <c r="U50" s="646"/>
       <c r="V50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34053,7 +34073,7 @@
         <f>AC49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="AE50" s="636"/>
+      <c r="AE50" s="646"/>
       <c r="AF50" s="188" t="s">
         <v>234</v>
       </c>
@@ -35617,6 +35637,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AE86:AE89"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -35633,48 +35695,6 @@
     <mergeCell ref="AE24:AE26"/>
     <mergeCell ref="AE29:AE31"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/models/trv_scenario2.xlsx
+++ b/models/trv_scenario2.xlsx
@@ -45,7 +45,7 @@
     <definedName name="kr_till_öre">'[1]Koefficienter &amp; omvandlingstal'!$A$20</definedName>
     <definedName name="m3_till_liter">'[1]Koefficienter &amp; omvandlingstal'!$A$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="autoNoTable" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="407">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -2595,9 +2595,6 @@
   </si>
   <si>
     <t>Inputs</t>
-  </si>
-  <si>
-    <t>Cost elasticitiy truck traffic</t>
   </si>
   <si>
     <t>Global truck electrification share 2030</t>
@@ -3912,7 +3909,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5242,21 +5239,63 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5269,35 +5308,20 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5308,27 +5332,12 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5341,6 +5350,9 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5359,8 +5371,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -5371,15 +5389,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5389,9 +5398,36 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5406,33 +5442,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -5525,7 +5534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5831,7 +5839,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6022,7 +6029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6328,7 +6334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6519,7 +6524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6825,7 +6829,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7016,7 +7019,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7322,7 +7324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10373,17 +10374,17 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="585" t="s">
+      <c r="A3" s="589" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="585"/>
-      <c r="C3" s="585"/>
-      <c r="D3" s="585"/>
-      <c r="E3" s="585"/>
-      <c r="F3" s="585"/>
-      <c r="G3" s="585"/>
-      <c r="H3" s="585"/>
-      <c r="I3" s="585"/>
+      <c r="B3" s="589"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="589"/>
+      <c r="F3" s="589"/>
+      <c r="G3" s="589"/>
+      <c r="H3" s="589"/>
+      <c r="I3" s="589"/>
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10580,87 +10581,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="634" t="s">
+      <c r="A3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="636" t="s">
+      <c r="B3" s="649" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="637"/>
-      <c r="D3" s="634" t="s">
+      <c r="C3" s="650"/>
+      <c r="D3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="647"/>
-      <c r="F3" s="634" t="s">
+      <c r="E3" s="642"/>
+      <c r="F3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="647"/>
-      <c r="H3" s="648" t="s">
+      <c r="G3" s="642"/>
+      <c r="H3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="647"/>
-      <c r="K3" s="634" t="s">
+      <c r="I3" s="642"/>
+      <c r="K3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="636" t="s">
+      <c r="L3" s="649" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="637"/>
-      <c r="N3" s="634" t="s">
+      <c r="M3" s="650"/>
+      <c r="N3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="647"/>
-      <c r="P3" s="634" t="s">
+      <c r="O3" s="642"/>
+      <c r="P3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="647"/>
-      <c r="R3" s="648" t="s">
+      <c r="Q3" s="642"/>
+      <c r="R3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="647"/>
-      <c r="U3" s="634" t="s">
+      <c r="S3" s="642"/>
+      <c r="U3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="636" t="s">
+      <c r="V3" s="649" t="s">
         <v>241</v>
       </c>
-      <c r="W3" s="637"/>
-      <c r="X3" s="634" t="s">
+      <c r="W3" s="650"/>
+      <c r="X3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="647"/>
-      <c r="Z3" s="634" t="s">
+      <c r="Y3" s="642"/>
+      <c r="Z3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="647"/>
-      <c r="AB3" s="648" t="s">
+      <c r="AA3" s="642"/>
+      <c r="AB3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="647"/>
-      <c r="AE3" s="634" t="s">
+      <c r="AC3" s="642"/>
+      <c r="AE3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="636" t="s">
+      <c r="AF3" s="649" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="637"/>
-      <c r="AH3" s="634" t="s">
+      <c r="AG3" s="650"/>
+      <c r="AH3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="647"/>
-      <c r="AJ3" s="634" t="s">
+      <c r="AI3" s="642"/>
+      <c r="AJ3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="647"/>
-      <c r="AL3" s="648" t="s">
+      <c r="AK3" s="642"/>
+      <c r="AL3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="647"/>
+      <c r="AM3" s="642"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="635"/>
-      <c r="B4" s="638"/>
-      <c r="C4" s="639"/>
+      <c r="A4" s="648"/>
+      <c r="B4" s="651"/>
+      <c r="C4" s="652"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -10679,9 +10680,9 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="635"/>
-      <c r="L4" s="638"/>
-      <c r="M4" s="639"/>
+      <c r="K4" s="648"/>
+      <c r="L4" s="651"/>
+      <c r="M4" s="652"/>
       <c r="N4" s="265">
         <v>2030</v>
       </c>
@@ -10700,9 +10701,9 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="635"/>
-      <c r="V4" s="638"/>
-      <c r="W4" s="639"/>
+      <c r="U4" s="648"/>
+      <c r="V4" s="651"/>
+      <c r="W4" s="652"/>
       <c r="X4" s="265">
         <v>2030</v>
       </c>
@@ -10721,9 +10722,9 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="635"/>
-      <c r="AF4" s="638"/>
-      <c r="AG4" s="639"/>
+      <c r="AE4" s="648"/>
+      <c r="AF4" s="651"/>
+      <c r="AG4" s="652"/>
       <c r="AH4" s="265">
         <v>2030</v>
       </c>
@@ -10784,7 +10785,7 @@
       <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="644" t="s">
+      <c r="A6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -10817,7 +10818,7 @@
         <f>Indata!I54</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="K6" s="644" t="s">
+      <c r="K6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -10850,7 +10851,7 @@
         <f>'Modell - Drivmedelpriser'!J58</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="U6" s="644" t="s">
+      <c r="U6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -10883,7 +10884,7 @@
         <f t="shared" ref="AC6:AC7" si="4">S6</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="AE6" s="644" t="s">
+      <c r="AE6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -10918,7 +10919,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="645"/>
+      <c r="A7" s="639"/>
       <c r="B7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10949,7 +10950,7 @@
         <f>Indata!I55</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="645"/>
+      <c r="K7" s="639"/>
       <c r="L7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10980,7 +10981,7 @@
         <f>'Modell - Drivmedelpriser'!J84</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="645"/>
+      <c r="U7" s="639"/>
       <c r="V7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11011,7 +11012,7 @@
         <f t="shared" si="4"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="645"/>
+      <c r="AE7" s="639"/>
       <c r="AF7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11045,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="646"/>
+      <c r="A8" s="640"/>
       <c r="B8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11069,7 +11070,7 @@
       <c r="I8" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="646"/>
+      <c r="K8" s="640"/>
       <c r="L8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11100,7 +11101,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="646"/>
+      <c r="U8" s="640"/>
       <c r="V8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11131,7 +11132,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="646"/>
+      <c r="AE8" s="640"/>
       <c r="AF8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11215,7 +11216,7 @@
       <c r="AM10" s="77"/>
     </row>
     <row r="11" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="631" t="s">
+      <c r="A11" s="635" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="135" t="s">
@@ -11248,7 +11249,7 @@
         <f>Indata!I46</f>
         <v>1.0975404858629165</v>
       </c>
-      <c r="K11" s="631" t="s">
+      <c r="K11" s="635" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="135" t="s">
@@ -11281,7 +11282,7 @@
         <f>I11*(100%+S8*'Indata - Effektsamband-Faktorer'!$E$6)*(1-Indata!I$20)</f>
         <v>1.0975404858629165</v>
       </c>
-      <c r="U11" s="631" t="s">
+      <c r="U11" s="635" t="s">
         <v>38</v>
       </c>
       <c r="V11" s="135" t="s">
@@ -11314,7 +11315,7 @@
         <f t="shared" ref="AC11:AC14" si="19">S11</f>
         <v>1.0975404858629165</v>
       </c>
-      <c r="AE11" s="631" t="s">
+      <c r="AE11" s="635" t="s">
         <v>38</v>
       </c>
       <c r="AF11" s="135" t="s">
@@ -11349,7 +11350,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="632"/>
+      <c r="A12" s="636"/>
       <c r="B12" s="136" t="s">
         <v>138</v>
       </c>
@@ -11380,7 +11381,7 @@
         <f>Indata!I47</f>
         <v>1.4301687678393367</v>
       </c>
-      <c r="K12" s="632"/>
+      <c r="K12" s="636"/>
       <c r="L12" s="136" t="s">
         <v>138</v>
       </c>
@@ -11411,7 +11412,7 @@
         <f>I12*(100%+S9*'Indata - Effektsamband-Faktorer'!$E$6)*(1-Indata!I$20)</f>
         <v>1.4301687678393367</v>
       </c>
-      <c r="U12" s="632"/>
+      <c r="U12" s="636"/>
       <c r="V12" s="136" t="s">
         <v>138</v>
       </c>
@@ -11442,7 +11443,7 @@
         <f t="shared" si="19"/>
         <v>1.4301687678393367</v>
       </c>
-      <c r="AE12" s="632"/>
+      <c r="AE12" s="636"/>
       <c r="AF12" s="136" t="s">
         <v>138</v>
       </c>
@@ -11475,7 +11476,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="632"/>
+      <c r="A13" s="636"/>
       <c r="B13" s="136" t="s">
         <v>139</v>
       </c>
@@ -11506,7 +11507,7 @@
         <f>Indata!I48</f>
         <v>1.7743995375527619</v>
       </c>
-      <c r="K13" s="632"/>
+      <c r="K13" s="636"/>
       <c r="L13" s="136" t="s">
         <v>139</v>
       </c>
@@ -11537,7 +11538,7 @@
         <f>I13*(100%+S10*'Indata - Effektsamband-Faktorer'!$E$6)*(1-Indata!I$20)</f>
         <v>1.7743995375527619</v>
       </c>
-      <c r="U13" s="632"/>
+      <c r="U13" s="636"/>
       <c r="V13" s="136" t="s">
         <v>139</v>
       </c>
@@ -11568,7 +11569,7 @@
         <f t="shared" si="19"/>
         <v>1.7743995375527619</v>
       </c>
-      <c r="AE13" s="632"/>
+      <c r="AE13" s="636"/>
       <c r="AF13" s="136" t="s">
         <v>139</v>
       </c>
@@ -11601,7 +11602,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="632"/>
+      <c r="A14" s="636"/>
       <c r="B14" s="136" t="s">
         <v>140</v>
       </c>
@@ -11632,7 +11633,7 @@
         <f>Indata!I49</f>
         <v>2.3008116808806713</v>
       </c>
-      <c r="K14" s="632"/>
+      <c r="K14" s="636"/>
       <c r="L14" s="136" t="s">
         <v>140</v>
       </c>
@@ -11663,7 +11664,7 @@
         <f>I14*(100%+S11*'Indata - Effektsamband-Faktorer'!$E$6)*(1-Indata!I$20)</f>
         <v>2.3008116808806713</v>
       </c>
-      <c r="U14" s="632"/>
+      <c r="U14" s="636"/>
       <c r="V14" s="136" t="s">
         <v>140</v>
       </c>
@@ -11694,7 +11695,7 @@
         <f t="shared" si="19"/>
         <v>2.3008116808806713</v>
       </c>
-      <c r="AE14" s="632"/>
+      <c r="AE14" s="636"/>
       <c r="AF14" s="136" t="s">
         <v>140</v>
       </c>
@@ -11727,7 +11728,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="632"/>
+      <c r="A15" s="636"/>
       <c r="B15" s="187" t="s">
         <v>141</v>
       </c>
@@ -11758,7 +11759,7 @@
         <f t="shared" si="27"/>
         <v>2.1274953516263264</v>
       </c>
-      <c r="K15" s="632"/>
+      <c r="K15" s="636"/>
       <c r="L15" s="187" t="s">
         <v>141</v>
       </c>
@@ -11789,7 +11790,7 @@
         <f t="shared" si="28"/>
         <v>2.1274953516263264</v>
       </c>
-      <c r="U15" s="632"/>
+      <c r="U15" s="636"/>
       <c r="V15" s="187" t="s">
         <v>141</v>
       </c>
@@ -11820,7 +11821,7 @@
         <f t="shared" si="29"/>
         <v>2.127495351626326</v>
       </c>
-      <c r="AE15" s="632"/>
+      <c r="AE15" s="636"/>
       <c r="AF15" s="187" t="s">
         <v>141</v>
       </c>
@@ -11853,7 +11854,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="632"/>
+      <c r="A16" s="636"/>
       <c r="B16" s="136" t="s">
         <v>142</v>
       </c>
@@ -11884,7 +11885,7 @@
         <f>Indata!I50</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="K16" s="632"/>
+      <c r="K16" s="636"/>
       <c r="L16" s="136" t="s">
         <v>142</v>
       </c>
@@ -11915,7 +11916,7 @@
         <f>I16*(1-Indata!I$20)</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="U16" s="632"/>
+      <c r="U16" s="636"/>
       <c r="V16" s="136" t="s">
         <v>142</v>
       </c>
@@ -11946,7 +11947,7 @@
         <f t="shared" ref="AC16:AC19" si="36">S16</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="AE16" s="632"/>
+      <c r="AE16" s="636"/>
       <c r="AF16" s="136" t="s">
         <v>142</v>
       </c>
@@ -11979,7 +11980,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="632"/>
+      <c r="A17" s="636"/>
       <c r="B17" s="136" t="s">
         <v>143</v>
       </c>
@@ -12010,7 +12011,7 @@
         <f>Indata!I51</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="K17" s="632"/>
+      <c r="K17" s="636"/>
       <c r="L17" s="136" t="s">
         <v>143</v>
       </c>
@@ -12041,7 +12042,7 @@
         <f>I17*(1-Indata!I$20)</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="U17" s="632"/>
+      <c r="U17" s="636"/>
       <c r="V17" s="136" t="s">
         <v>143</v>
       </c>
@@ -12072,7 +12073,7 @@
         <f t="shared" si="36"/>
         <v>8.4732522945626005</v>
       </c>
-      <c r="AE17" s="632"/>
+      <c r="AE17" s="636"/>
       <c r="AF17" s="136" t="s">
         <v>143</v>
       </c>
@@ -12105,7 +12106,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="632"/>
+      <c r="A18" s="636"/>
       <c r="B18" s="136" t="s">
         <v>144</v>
       </c>
@@ -12136,7 +12137,7 @@
         <f>Indata!I52</f>
         <v>13.374188060932356</v>
       </c>
-      <c r="K18" s="632"/>
+      <c r="K18" s="636"/>
       <c r="L18" s="136" t="s">
         <v>144</v>
       </c>
@@ -12167,7 +12168,7 @@
         <f>I18*(1-Indata!I$20)</f>
         <v>13.374188060932356</v>
       </c>
-      <c r="U18" s="632"/>
+      <c r="U18" s="636"/>
       <c r="V18" s="136" t="s">
         <v>144</v>
       </c>
@@ -12198,7 +12199,7 @@
         <f t="shared" si="36"/>
         <v>13.374188060932356</v>
       </c>
-      <c r="AE18" s="632"/>
+      <c r="AE18" s="636"/>
       <c r="AF18" s="136" t="s">
         <v>144</v>
       </c>
@@ -12231,7 +12232,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="632"/>
+      <c r="A19" s="636"/>
       <c r="B19" s="136" t="s">
         <v>145</v>
       </c>
@@ -12262,7 +12263,7 @@
         <f>Indata!I53</f>
         <v>15.182448650666799</v>
       </c>
-      <c r="K19" s="632"/>
+      <c r="K19" s="636"/>
       <c r="L19" s="136" t="s">
         <v>145</v>
       </c>
@@ -12293,7 +12294,7 @@
         <f>I19*(1-Indata!I$20)</f>
         <v>15.182448650666799</v>
       </c>
-      <c r="U19" s="632"/>
+      <c r="U19" s="636"/>
       <c r="V19" s="136" t="s">
         <v>145</v>
       </c>
@@ -12324,7 +12325,7 @@
         <f t="shared" si="36"/>
         <v>15.182448650666799</v>
       </c>
-      <c r="AE19" s="632"/>
+      <c r="AE19" s="636"/>
       <c r="AF19" s="136" t="s">
         <v>145</v>
       </c>
@@ -12357,7 +12358,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="633"/>
+      <c r="A20" s="637"/>
       <c r="B20" s="189" t="s">
         <v>146</v>
       </c>
@@ -12388,7 +12389,7 @@
         <f t="shared" si="43"/>
         <v>12.957606815551204</v>
       </c>
-      <c r="K20" s="633"/>
+      <c r="K20" s="637"/>
       <c r="L20" s="189" t="s">
         <v>146</v>
       </c>
@@ -12419,7 +12420,7 @@
         <f t="shared" si="44"/>
         <v>12.957606815551204</v>
       </c>
-      <c r="U20" s="633"/>
+      <c r="U20" s="637"/>
       <c r="V20" s="189" t="s">
         <v>146</v>
       </c>
@@ -12450,7 +12451,7 @@
         <f t="shared" si="45"/>
         <v>12.957606815551202</v>
       </c>
-      <c r="AE20" s="633"/>
+      <c r="AE20" s="637"/>
       <c r="AF20" s="189" t="s">
         <v>146</v>
       </c>
@@ -12552,7 +12553,7 @@
       <c r="AM22" s="66"/>
     </row>
     <row r="23" spans="1:39" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="631" t="s">
+      <c r="A23" s="635" t="s">
         <v>149</v>
       </c>
       <c r="B23" s="135" t="s">
@@ -12585,7 +12586,7 @@
         <f>Indata!I42</f>
         <v>0.85</v>
       </c>
-      <c r="K23" s="631" t="s">
+      <c r="K23" s="635" t="s">
         <v>149</v>
       </c>
       <c r="L23" s="135" t="s">
@@ -12618,7 +12619,7 @@
         <f t="shared" ref="S23:S26" si="51">I23</f>
         <v>0.85</v>
       </c>
-      <c r="U23" s="631" t="s">
+      <c r="U23" s="635" t="s">
         <v>149</v>
       </c>
       <c r="V23" s="135" t="s">
@@ -12651,7 +12652,7 @@
         <f t="shared" si="52"/>
         <v>0.85</v>
       </c>
-      <c r="AE23" s="631" t="s">
+      <c r="AE23" s="635" t="s">
         <v>149</v>
       </c>
       <c r="AF23" s="135" t="s">
@@ -12686,7 +12687,7 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="632"/>
+      <c r="A24" s="636"/>
       <c r="B24" s="136" t="s">
         <v>117</v>
       </c>
@@ -12717,7 +12718,7 @@
         <f>Indata!I43</f>
         <v>0.85</v>
       </c>
-      <c r="K24" s="632"/>
+      <c r="K24" s="636"/>
       <c r="L24" s="136" t="s">
         <v>117</v>
       </c>
@@ -12748,7 +12749,7 @@
         <f t="shared" si="51"/>
         <v>0.85</v>
       </c>
-      <c r="U24" s="632"/>
+      <c r="U24" s="636"/>
       <c r="V24" s="136" t="s">
         <v>117</v>
       </c>
@@ -12779,7 +12780,7 @@
         <f t="shared" si="52"/>
         <v>0.85</v>
       </c>
-      <c r="AE24" s="632"/>
+      <c r="AE24" s="636"/>
       <c r="AF24" s="136" t="s">
         <v>117</v>
       </c>
@@ -12812,7 +12813,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="632"/>
+      <c r="A25" s="636"/>
       <c r="B25" s="136" t="s">
         <v>118</v>
       </c>
@@ -12843,7 +12844,7 @@
         <f>Indata!I44</f>
         <v>0.36423060055908874</v>
       </c>
-      <c r="K25" s="632"/>
+      <c r="K25" s="636"/>
       <c r="L25" s="136" t="s">
         <v>118</v>
       </c>
@@ -12874,7 +12875,7 @@
         <f t="shared" si="51"/>
         <v>0.36423060055908874</v>
       </c>
-      <c r="U25" s="632"/>
+      <c r="U25" s="636"/>
       <c r="V25" s="136" t="s">
         <v>118</v>
       </c>
@@ -12905,7 +12906,7 @@
         <f t="shared" si="52"/>
         <v>0.36423060055908874</v>
       </c>
-      <c r="AE25" s="632"/>
+      <c r="AE25" s="636"/>
       <c r="AF25" s="136" t="s">
         <v>118</v>
       </c>
@@ -12938,7 +12939,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="633"/>
+      <c r="A26" s="637"/>
       <c r="B26" s="137" t="s">
         <v>119</v>
       </c>
@@ -12969,7 +12970,7 @@
         <f>Indata!I45</f>
         <v>0.185</v>
       </c>
-      <c r="K26" s="633"/>
+      <c r="K26" s="637"/>
       <c r="L26" s="137" t="s">
         <v>119</v>
       </c>
@@ -13000,7 +13001,7 @@
         <f t="shared" si="51"/>
         <v>0.185</v>
       </c>
-      <c r="U26" s="633"/>
+      <c r="U26" s="637"/>
       <c r="V26" s="137" t="s">
         <v>119</v>
       </c>
@@ -13031,7 +13032,7 @@
         <f t="shared" si="52"/>
         <v>0.185</v>
       </c>
-      <c r="AE26" s="633"/>
+      <c r="AE26" s="637"/>
       <c r="AF26" s="137" t="s">
         <v>119</v>
       </c>
@@ -13133,7 +13134,7 @@
       <c r="AM28" s="77"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="644" t="s">
+      <c r="A29" s="638" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -13166,7 +13167,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="644" t="s">
+      <c r="K29" s="638" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -13199,7 +13200,7 @@
         <f t="shared" ref="S29:S32" si="65">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="644" t="s">
+      <c r="U29" s="638" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -13232,7 +13233,7 @@
         <f t="shared" ref="AC29:AC32" si="70">S29</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="644" t="s">
+      <c r="AE29" s="638" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -13267,7 +13268,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="645"/>
+      <c r="A30" s="639"/>
       <c r="B30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13298,7 +13299,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="645"/>
+      <c r="K30" s="639"/>
       <c r="L30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13329,7 +13330,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U30" s="645"/>
+      <c r="U30" s="639"/>
       <c r="V30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13360,7 +13361,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="645"/>
+      <c r="AE30" s="639"/>
       <c r="AF30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13393,7 +13394,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="645"/>
+      <c r="A31" s="639"/>
       <c r="B31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13424,7 +13425,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="645"/>
+      <c r="K31" s="639"/>
       <c r="L31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13455,7 +13456,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U31" s="645"/>
+      <c r="U31" s="639"/>
       <c r="V31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13486,7 +13487,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="645"/>
+      <c r="AE31" s="639"/>
       <c r="AF31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13519,7 +13520,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="646"/>
+      <c r="A32" s="640"/>
       <c r="B32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13550,7 +13551,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="646"/>
+      <c r="K32" s="640"/>
       <c r="L32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13581,7 +13582,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U32" s="646"/>
+      <c r="U32" s="640"/>
       <c r="V32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13612,7 +13613,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="646"/>
+      <c r="AE32" s="640"/>
       <c r="AF32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13725,7 +13726,7 @@
       <c r="AM35" s="40"/>
     </row>
     <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="631" t="s">
+      <c r="A36" s="635" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="135" t="s">
@@ -13758,7 +13759,7 @@
         <f>Indata!I57*(1+Indata!I$61)*(1-I23)</f>
         <v>3.908452862233118E-2</v>
       </c>
-      <c r="K36" s="631" t="s">
+      <c r="K36" s="635" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="135" t="s">
@@ -13791,7 +13792,7 @@
         <f t="shared" ref="S36:S39" si="83">I36</f>
         <v>3.908452862233118E-2</v>
       </c>
-      <c r="U36" s="631" t="s">
+      <c r="U36" s="635" t="s">
         <v>17</v>
       </c>
       <c r="V36" s="135" t="s">
@@ -13824,7 +13825,7 @@
         <f t="shared" si="84"/>
         <v>3.7871735029617534E-2</v>
       </c>
-      <c r="AE36" s="631" t="s">
+      <c r="AE36" s="635" t="s">
         <v>17</v>
       </c>
       <c r="AF36" s="135" t="s">
@@ -13859,7 +13860,7 @@
       </c>
     </row>
     <row r="37" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="632"/>
+      <c r="A37" s="636"/>
       <c r="B37" s="136" t="s">
         <v>138</v>
       </c>
@@ -13890,7 +13891,7 @@
         <f>Indata!I58*(1+Indata!I$61)*(1-I24)</f>
         <v>4.2540043521283093E-2</v>
       </c>
-      <c r="K37" s="632"/>
+      <c r="K37" s="636"/>
       <c r="L37" s="136" t="s">
         <v>138</v>
       </c>
@@ -13921,7 +13922,7 @@
         <f t="shared" si="83"/>
         <v>4.2540043521283093E-2</v>
       </c>
-      <c r="U37" s="632"/>
+      <c r="U37" s="636"/>
       <c r="V37" s="136" t="s">
         <v>138</v>
       </c>
@@ -13952,7 +13953,7 @@
         <f t="shared" si="84"/>
         <v>4.1220025242058048E-2</v>
       </c>
-      <c r="AE37" s="632"/>
+      <c r="AE37" s="636"/>
       <c r="AF37" s="136" t="s">
         <v>138</v>
       </c>
@@ -13985,7 +13986,7 @@
       </c>
     </row>
     <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="632"/>
+      <c r="A38" s="636"/>
       <c r="B38" s="136" t="s">
         <v>139</v>
       </c>
@@ -14016,7 +14017,7 @@
         <f>Indata!I59*(1+Indata!I$61)*(1-I25)</f>
         <v>1.4756524157323059</v>
       </c>
-      <c r="K38" s="632"/>
+      <c r="K38" s="636"/>
       <c r="L38" s="136" t="s">
         <v>139</v>
       </c>
@@ -14047,7 +14048,7 @@
         <f t="shared" si="83"/>
         <v>1.4756524157323059</v>
       </c>
-      <c r="U38" s="632"/>
+      <c r="U38" s="636"/>
       <c r="V38" s="136" t="s">
         <v>139</v>
       </c>
@@ -14078,7 +14079,7 @@
         <f t="shared" si="84"/>
         <v>1.4298628959925177</v>
       </c>
-      <c r="AE38" s="632"/>
+      <c r="AE38" s="636"/>
       <c r="AF38" s="136" t="s">
         <v>139</v>
       </c>
@@ -14111,7 +14112,7 @@
       </c>
     </row>
     <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="632"/>
+      <c r="A39" s="636"/>
       <c r="B39" s="136" t="s">
         <v>140</v>
       </c>
@@ -14142,7 +14143,7 @@
         <f>Indata!I60*(1+Indata!I$61)*(1-I26)</f>
         <v>3.4097554293851404</v>
       </c>
-      <c r="K39" s="632"/>
+      <c r="K39" s="636"/>
       <c r="L39" s="136" t="s">
         <v>140</v>
       </c>
@@ -14173,7 +14174,7 @@
         <f t="shared" si="83"/>
         <v>3.4097554293851404</v>
       </c>
-      <c r="U39" s="632"/>
+      <c r="U39" s="636"/>
       <c r="V39" s="136" t="s">
         <v>140</v>
       </c>
@@ -14204,7 +14205,7 @@
         <f t="shared" si="84"/>
         <v>3.3039506599983066</v>
       </c>
-      <c r="AE39" s="632"/>
+      <c r="AE39" s="636"/>
       <c r="AF39" s="136" t="s">
         <v>140</v>
       </c>
@@ -14237,7 +14238,7 @@
       </c>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="632"/>
+      <c r="A40" s="636"/>
       <c r="B40" s="187" t="s">
         <v>163</v>
       </c>
@@ -14268,7 +14269,7 @@
         <f t="shared" si="87"/>
         <v>4.9670324172610609</v>
       </c>
-      <c r="K40" s="632"/>
+      <c r="K40" s="636"/>
       <c r="L40" s="187" t="s">
         <v>163</v>
       </c>
@@ -14299,7 +14300,7 @@
         <f t="shared" ref="S40" si="92">SUM(S36:S39)</f>
         <v>4.9670324172610609</v>
       </c>
-      <c r="U40" s="632"/>
+      <c r="U40" s="636"/>
       <c r="V40" s="187" t="s">
         <v>163</v>
       </c>
@@ -14330,7 +14331,7 @@
         <f t="shared" si="84"/>
         <v>4.8129053162625004</v>
       </c>
-      <c r="AE40" s="632"/>
+      <c r="AE40" s="636"/>
       <c r="AF40" s="187" t="s">
         <v>163</v>
       </c>
@@ -14363,7 +14364,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="632"/>
+      <c r="A41" s="636"/>
       <c r="B41" s="136" t="s">
         <v>142</v>
       </c>
@@ -14394,7 +14395,7 @@
         <f>Indata!I57*(1+Indata!I$61)*(I23)</f>
         <v>0.22147899552654332</v>
       </c>
-      <c r="K41" s="632"/>
+      <c r="K41" s="636"/>
       <c r="L41" s="136" t="s">
         <v>142</v>
       </c>
@@ -14425,7 +14426,7 @@
         <f t="shared" ref="S41:S44" si="100">I41</f>
         <v>0.22147899552654332</v>
       </c>
-      <c r="U41" s="632"/>
+      <c r="U41" s="636"/>
       <c r="V41" s="136" t="s">
         <v>142</v>
       </c>
@@ -14456,7 +14457,7 @@
         <f t="shared" si="84"/>
         <v>0.21460649850116598</v>
       </c>
-      <c r="AE41" s="632"/>
+      <c r="AE41" s="636"/>
       <c r="AF41" s="136" t="s">
         <v>142</v>
       </c>
@@ -14489,7 +14490,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="632"/>
+      <c r="A42" s="636"/>
       <c r="B42" s="136" t="s">
         <v>143</v>
       </c>
@@ -14520,7 +14521,7 @@
         <f>Indata!I58*(1+Indata!I$61)*(I24)</f>
         <v>0.24106024662060416</v>
       </c>
-      <c r="K42" s="632"/>
+      <c r="K42" s="636"/>
       <c r="L42" s="136" t="s">
         <v>143</v>
       </c>
@@ -14551,7 +14552,7 @@
         <f t="shared" si="100"/>
         <v>0.24106024662060416</v>
       </c>
-      <c r="U42" s="632"/>
+      <c r="U42" s="636"/>
       <c r="V42" s="136" t="s">
         <v>143</v>
       </c>
@@ -14582,7 +14583,7 @@
         <f t="shared" si="84"/>
         <v>0.23358014303832889</v>
       </c>
-      <c r="AE42" s="632"/>
+      <c r="AE42" s="636"/>
       <c r="AF42" s="136" t="s">
         <v>143</v>
       </c>
@@ -14615,7 +14616,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="632"/>
+      <c r="A43" s="636"/>
       <c r="B43" s="136" t="s">
         <v>144</v>
       </c>
@@ -14646,7 +14647,7 @@
         <f>Indata!I59*(1+Indata!I$61)*(I25)</f>
         <v>0.84539735015762008</v>
       </c>
-      <c r="K43" s="632"/>
+      <c r="K43" s="636"/>
       <c r="L43" s="136" t="s">
         <v>144</v>
       </c>
@@ -14677,7 +14678,7 @@
         <f t="shared" si="100"/>
         <v>0.84539735015762008</v>
       </c>
-      <c r="U43" s="632"/>
+      <c r="U43" s="636"/>
       <c r="V43" s="136" t="s">
         <v>144</v>
       </c>
@@ -14708,7 +14709,7 @@
         <f t="shared" si="84"/>
         <v>0.81916465589960497</v>
       </c>
-      <c r="AE43" s="632"/>
+      <c r="AE43" s="636"/>
       <c r="AF43" s="136" t="s">
         <v>144</v>
       </c>
@@ -14741,7 +14742,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="632"/>
+      <c r="A44" s="636"/>
       <c r="B44" s="136" t="s">
         <v>145</v>
       </c>
@@ -14772,7 +14773,7 @@
         <f>Indata!I60*(1+Indata!I$61)*(I26)</f>
         <v>0.77399356372546135</v>
       </c>
-      <c r="K44" s="632"/>
+      <c r="K44" s="636"/>
       <c r="L44" s="136" t="s">
         <v>145</v>
       </c>
@@ -14803,7 +14804,7 @@
         <f t="shared" si="100"/>
         <v>0.77399356372546135</v>
       </c>
-      <c r="U44" s="632"/>
+      <c r="U44" s="636"/>
       <c r="V44" s="136" t="s">
         <v>145</v>
       </c>
@@ -14834,7 +14835,7 @@
         <f t="shared" si="84"/>
         <v>0.74997653018366472</v>
       </c>
-      <c r="AE44" s="632"/>
+      <c r="AE44" s="636"/>
       <c r="AF44" s="136" t="s">
         <v>145</v>
       </c>
@@ -14867,7 +14868,7 @@
       </c>
     </row>
     <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="632"/>
+      <c r="A45" s="636"/>
       <c r="B45" s="187" t="s">
         <v>164</v>
       </c>
@@ -14898,7 +14899,7 @@
         <f t="shared" si="102"/>
         <v>2.081930156030229</v>
       </c>
-      <c r="K45" s="632"/>
+      <c r="K45" s="636"/>
       <c r="L45" s="187" t="s">
         <v>164</v>
       </c>
@@ -14929,7 +14930,7 @@
         <f t="shared" ref="S45" si="107">SUM(S41:S44)</f>
         <v>2.081930156030229</v>
       </c>
-      <c r="U45" s="632"/>
+      <c r="U45" s="636"/>
       <c r="V45" s="187" t="s">
         <v>164</v>
       </c>
@@ -14960,7 +14961,7 @@
         <f t="shared" si="84"/>
         <v>2.0173278276227649</v>
       </c>
-      <c r="AE45" s="632"/>
+      <c r="AE45" s="636"/>
       <c r="AF45" s="187" t="s">
         <v>164</v>
       </c>
@@ -14993,7 +14994,7 @@
       </c>
     </row>
     <row r="46" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="632"/>
+      <c r="A46" s="636"/>
       <c r="B46" s="136" t="s">
         <v>165</v>
       </c>
@@ -15024,7 +15025,7 @@
         <f t="shared" si="112"/>
         <v>0.26056352414887451</v>
       </c>
-      <c r="K46" s="632"/>
+      <c r="K46" s="636"/>
       <c r="L46" s="136" t="s">
         <v>165</v>
       </c>
@@ -15055,7 +15056,7 @@
         <f t="shared" si="113"/>
         <v>0.26056352414887451</v>
       </c>
-      <c r="U46" s="632"/>
+      <c r="U46" s="636"/>
       <c r="V46" s="136" t="s">
         <v>165</v>
       </c>
@@ -15086,7 +15087,7 @@
         <f t="shared" si="84"/>
         <v>0.25247823353078352</v>
       </c>
-      <c r="AE46" s="632"/>
+      <c r="AE46" s="636"/>
       <c r="AF46" s="136" t="s">
         <v>165</v>
       </c>
@@ -15119,7 +15120,7 @@
       </c>
     </row>
     <row r="47" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="632"/>
+      <c r="A47" s="636"/>
       <c r="B47" s="136" t="s">
         <v>166</v>
       </c>
@@ -15150,7 +15151,7 @@
         <f t="shared" si="115"/>
         <v>0.28360029014188726</v>
       </c>
-      <c r="K47" s="632"/>
+      <c r="K47" s="636"/>
       <c r="L47" s="136" t="s">
         <v>166</v>
       </c>
@@ -15181,7 +15182,7 @@
         <f t="shared" si="116"/>
         <v>0.28360029014188726</v>
       </c>
-      <c r="U47" s="632"/>
+      <c r="U47" s="636"/>
       <c r="V47" s="136" t="s">
         <v>166</v>
       </c>
@@ -15212,7 +15213,7 @@
         <f t="shared" si="84"/>
         <v>0.27480016828038695</v>
       </c>
-      <c r="AE47" s="632"/>
+      <c r="AE47" s="636"/>
       <c r="AF47" s="136" t="s">
         <v>166</v>
       </c>
@@ -15245,7 +15246,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="632"/>
+      <c r="A48" s="636"/>
       <c r="B48" s="136" t="s">
         <v>167</v>
       </c>
@@ -15276,7 +15277,7 @@
         <f t="shared" si="118"/>
         <v>2.3210497658899261</v>
       </c>
-      <c r="K48" s="632"/>
+      <c r="K48" s="636"/>
       <c r="L48" s="136" t="s">
         <v>167</v>
       </c>
@@ -15307,7 +15308,7 @@
         <f t="shared" si="119"/>
         <v>2.3210497658899261</v>
       </c>
-      <c r="U48" s="632"/>
+      <c r="U48" s="636"/>
       <c r="V48" s="136" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15339,7 @@
         <f t="shared" si="84"/>
         <v>2.249027551892123</v>
       </c>
-      <c r="AE48" s="632"/>
+      <c r="AE48" s="636"/>
       <c r="AF48" s="136" t="s">
         <v>167</v>
       </c>
@@ -15371,7 +15372,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="632"/>
+      <c r="A49" s="636"/>
       <c r="B49" s="136" t="s">
         <v>168</v>
       </c>
@@ -15402,7 +15403,7 @@
         <f t="shared" si="121"/>
         <v>4.1837489931106013</v>
       </c>
-      <c r="K49" s="632"/>
+      <c r="K49" s="636"/>
       <c r="L49" s="136" t="s">
         <v>168</v>
       </c>
@@ -15433,7 +15434,7 @@
         <f t="shared" si="122"/>
         <v>4.1837489931106013</v>
       </c>
-      <c r="U49" s="632"/>
+      <c r="U49" s="636"/>
       <c r="V49" s="136" t="s">
         <v>168</v>
       </c>
@@ -15464,7 +15465,7 @@
         <f t="shared" si="84"/>
         <v>4.0539271901819705</v>
       </c>
-      <c r="AE49" s="632"/>
+      <c r="AE49" s="636"/>
       <c r="AF49" s="136" t="s">
         <v>168</v>
       </c>
@@ -15497,7 +15498,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="633"/>
+      <c r="A50" s="637"/>
       <c r="B50" s="189" t="s">
         <v>169</v>
       </c>
@@ -15528,7 +15529,7 @@
         <f t="shared" si="124"/>
         <v>7.0489625732912895</v>
       </c>
-      <c r="K50" s="633"/>
+      <c r="K50" s="637"/>
       <c r="L50" s="189" t="s">
         <v>169</v>
       </c>
@@ -15559,7 +15560,7 @@
         <f t="shared" ref="S50" si="129">SUM(S46:S49)</f>
         <v>7.0489625732912895</v>
       </c>
-      <c r="U50" s="633"/>
+      <c r="U50" s="637"/>
       <c r="V50" s="189" t="s">
         <v>169</v>
       </c>
@@ -15590,7 +15591,7 @@
         <f>S50*(1+S$68*'Indata - Effektsamband-Faktorer'!$D$9)</f>
         <v>6.8302331438852644</v>
       </c>
-      <c r="AE50" s="633"/>
+      <c r="AE50" s="637"/>
       <c r="AF50" s="189" t="s">
         <v>169</v>
       </c>
@@ -15675,7 +15676,7 @@
       <c r="AM52" s="76"/>
     </row>
     <row r="53" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="631" t="s">
+      <c r="A53" s="635" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="135" t="s">
@@ -15708,7 +15709,7 @@
         <f t="shared" si="135"/>
         <v>21.030625750480873</v>
       </c>
-      <c r="K53" s="631" t="s">
+      <c r="K53" s="635" t="s">
         <v>77</v>
       </c>
       <c r="L53" s="135" t="s">
@@ -15741,7 +15742,7 @@
         <f t="shared" si="136"/>
         <v>21.030625750480873</v>
       </c>
-      <c r="U53" s="631" t="s">
+      <c r="U53" s="635" t="s">
         <v>77</v>
       </c>
       <c r="V53" s="135" t="s">
@@ -15774,7 +15775,7 @@
         <f t="shared" ref="AC53:AC56" si="141">S53</f>
         <v>21.030625750480873</v>
       </c>
-      <c r="AE53" s="631" t="s">
+      <c r="AE53" s="635" t="s">
         <v>77</v>
       </c>
       <c r="AF53" s="135" t="s">
@@ -15809,7 +15810,7 @@
       </c>
     </row>
     <row r="54" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="632"/>
+      <c r="A54" s="636"/>
       <c r="B54" s="136" t="s">
         <v>138</v>
       </c>
@@ -15840,7 +15841,7 @@
         <f t="shared" si="146"/>
         <v>27.404314012897501</v>
       </c>
-      <c r="K54" s="632"/>
+      <c r="K54" s="636"/>
       <c r="L54" s="136" t="s">
         <v>138</v>
       </c>
@@ -15871,7 +15872,7 @@
         <f t="shared" si="147"/>
         <v>27.404314012897501</v>
       </c>
-      <c r="U54" s="632"/>
+      <c r="U54" s="636"/>
       <c r="V54" s="136" t="s">
         <v>138</v>
       </c>
@@ -15902,7 +15903,7 @@
         <f t="shared" si="141"/>
         <v>27.404314012897501</v>
       </c>
-      <c r="AE54" s="632"/>
+      <c r="AE54" s="636"/>
       <c r="AF54" s="136" t="s">
         <v>138</v>
       </c>
@@ -15935,7 +15936,7 @@
       </c>
     </row>
     <row r="55" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="632"/>
+      <c r="A55" s="636"/>
       <c r="B55" s="136" t="s">
         <v>139</v>
       </c>
@@ -15966,7 +15967,7 @@
         <f t="shared" si="149"/>
         <v>34.000324440659725</v>
       </c>
-      <c r="K55" s="632"/>
+      <c r="K55" s="636"/>
       <c r="L55" s="136" t="s">
         <v>139</v>
       </c>
@@ -15997,7 +15998,7 @@
         <f t="shared" si="147"/>
         <v>34.000324440659725</v>
       </c>
-      <c r="U55" s="632"/>
+      <c r="U55" s="636"/>
       <c r="V55" s="136" t="s">
         <v>139</v>
       </c>
@@ -16028,7 +16029,7 @@
         <f t="shared" si="141"/>
         <v>34.000324440659725</v>
       </c>
-      <c r="AE55" s="632"/>
+      <c r="AE55" s="636"/>
       <c r="AF55" s="136" t="s">
         <v>139</v>
       </c>
@@ -16061,7 +16062,7 @@
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="632"/>
+      <c r="A56" s="636"/>
       <c r="B56" s="136" t="s">
         <v>140</v>
       </c>
@@ -16092,7 +16093,7 @@
         <f t="shared" si="150"/>
         <v>44.087220477240656</v>
       </c>
-      <c r="K56" s="632"/>
+      <c r="K56" s="636"/>
       <c r="L56" s="136" t="s">
         <v>140</v>
       </c>
@@ -16123,7 +16124,7 @@
         <f t="shared" si="147"/>
         <v>44.087220477240656</v>
       </c>
-      <c r="U56" s="632"/>
+      <c r="U56" s="636"/>
       <c r="V56" s="136" t="s">
         <v>140</v>
       </c>
@@ -16154,7 +16155,7 @@
         <f t="shared" si="141"/>
         <v>44.087220477240656</v>
       </c>
-      <c r="AE56" s="632"/>
+      <c r="AE56" s="636"/>
       <c r="AF56" s="136" t="s">
         <v>140</v>
       </c>
@@ -16187,7 +16188,7 @@
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A57" s="632"/>
+      <c r="A57" s="636"/>
       <c r="B57" s="187" t="s">
         <v>188</v>
       </c>
@@ -16218,7 +16219,7 @@
         <f t="shared" ref="I57" si="157">SUMPRODUCT(I53:I56,I36:I39)/I40</f>
         <v>40.766203253780795</v>
       </c>
-      <c r="K57" s="632"/>
+      <c r="K57" s="636"/>
       <c r="L57" s="187" t="s">
         <v>188</v>
       </c>
@@ -16249,7 +16250,7 @@
         <f t="shared" si="158"/>
         <v>40.766203253780795</v>
       </c>
-      <c r="U57" s="632"/>
+      <c r="U57" s="636"/>
       <c r="V57" s="187" t="s">
         <v>188</v>
       </c>
@@ -16280,7 +16281,7 @@
         <f t="shared" ref="AC57" si="163">SUMPRODUCT(AC53:AC56,AC36:AC39)/AC40</f>
         <v>40.766203253780787</v>
       </c>
-      <c r="AE57" s="632"/>
+      <c r="AE57" s="636"/>
       <c r="AF57" s="187" t="s">
         <v>188</v>
       </c>
@@ -16313,7 +16314,7 @@
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A58" s="632"/>
+      <c r="A58" s="636"/>
       <c r="B58" s="136" t="s">
         <v>142</v>
       </c>
@@ -16344,7 +16345,7 @@
         <f t="shared" si="168"/>
         <v>11.891362270189154</v>
       </c>
-      <c r="K58" s="632"/>
+      <c r="K58" s="636"/>
       <c r="L58" s="136" t="s">
         <v>142</v>
       </c>
@@ -16375,7 +16376,7 @@
         <f t="shared" si="169"/>
         <v>11.891362270189154</v>
       </c>
-      <c r="U58" s="632"/>
+      <c r="U58" s="636"/>
       <c r="V58" s="136" t="s">
         <v>142</v>
       </c>
@@ -16406,7 +16407,7 @@
         <f t="shared" ref="AC58:AC61" si="174">S58</f>
         <v>11.891362270189154</v>
       </c>
-      <c r="AE58" s="632"/>
+      <c r="AE58" s="636"/>
       <c r="AF58" s="136" t="s">
         <v>142</v>
       </c>
@@ -16439,7 +16440,7 @@
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="632"/>
+      <c r="A59" s="636"/>
       <c r="B59" s="136" t="s">
         <v>143</v>
       </c>
@@ -16470,7 +16471,7 @@
         <f t="shared" si="178"/>
         <v>11.891362270189154</v>
       </c>
-      <c r="K59" s="632"/>
+      <c r="K59" s="636"/>
       <c r="L59" s="136" t="s">
         <v>143</v>
       </c>
@@ -16501,7 +16502,7 @@
         <f t="shared" si="179"/>
         <v>11.891362270189154</v>
       </c>
-      <c r="U59" s="632"/>
+      <c r="U59" s="636"/>
       <c r="V59" s="136" t="s">
         <v>143</v>
       </c>
@@ -16532,7 +16533,7 @@
         <f t="shared" si="174"/>
         <v>11.891362270189154</v>
       </c>
-      <c r="AE59" s="632"/>
+      <c r="AE59" s="636"/>
       <c r="AF59" s="136" t="s">
         <v>143</v>
       </c>
@@ -16565,7 +16566,7 @@
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="632"/>
+      <c r="A60" s="636"/>
       <c r="B60" s="136" t="s">
         <v>144</v>
       </c>
@@ -16596,7 +16597,7 @@
         <f t="shared" si="178"/>
         <v>18.769335524712467</v>
       </c>
-      <c r="K60" s="632"/>
+      <c r="K60" s="636"/>
       <c r="L60" s="136" t="s">
         <v>144</v>
       </c>
@@ -16627,7 +16628,7 @@
         <f t="shared" si="179"/>
         <v>18.769335524712467</v>
       </c>
-      <c r="U60" s="632"/>
+      <c r="U60" s="636"/>
       <c r="V60" s="136" t="s">
         <v>144</v>
       </c>
@@ -16658,7 +16659,7 @@
         <f t="shared" si="174"/>
         <v>18.769335524712467</v>
       </c>
-      <c r="AE60" s="632"/>
+      <c r="AE60" s="636"/>
       <c r="AF60" s="136" t="s">
         <v>144</v>
       </c>
@@ -16691,7 +16692,7 @@
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="632"/>
+      <c r="A61" s="636"/>
       <c r="B61" s="136" t="s">
         <v>145</v>
       </c>
@@ -16722,7 +16723,7 @@
         <f t="shared" si="178"/>
         <v>21.307048436345784</v>
       </c>
-      <c r="K61" s="632"/>
+      <c r="K61" s="636"/>
       <c r="L61" s="136" t="s">
         <v>145</v>
       </c>
@@ -16753,7 +16754,7 @@
         <f t="shared" si="179"/>
         <v>21.307048436345784</v>
       </c>
-      <c r="U61" s="632"/>
+      <c r="U61" s="636"/>
       <c r="V61" s="136" t="s">
         <v>145</v>
       </c>
@@ -16784,7 +16785,7 @@
         <f t="shared" si="174"/>
         <v>21.307048436345784</v>
       </c>
-      <c r="AE61" s="632"/>
+      <c r="AE61" s="636"/>
       <c r="AF61" s="136" t="s">
         <v>145</v>
       </c>
@@ -16817,7 +16818,7 @@
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="632"/>
+      <c r="A62" s="636"/>
       <c r="B62" s="187" t="s">
         <v>189</v>
       </c>
@@ -16848,7 +16849,7 @@
         <f t="shared" ref="I62" si="187">SUMPRODUCT(I58:I61,I41:I44)/I45</f>
         <v>18.184705404944555</v>
       </c>
-      <c r="K62" s="632"/>
+      <c r="K62" s="636"/>
       <c r="L62" s="187" t="s">
         <v>189</v>
       </c>
@@ -16879,7 +16880,7 @@
         <f t="shared" si="188"/>
         <v>18.184705404944555</v>
       </c>
-      <c r="U62" s="632"/>
+      <c r="U62" s="636"/>
       <c r="V62" s="187" t="s">
         <v>189</v>
       </c>
@@ -16910,7 +16911,7 @@
         <f t="shared" ref="AC62" si="193">SUMPRODUCT(AC58:AC61,AC41:AC44)/AC45</f>
         <v>18.184705404944552</v>
       </c>
-      <c r="AE62" s="632"/>
+      <c r="AE62" s="636"/>
       <c r="AF62" s="187" t="s">
         <v>189</v>
       </c>
@@ -16943,7 +16944,7 @@
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="632"/>
+      <c r="A63" s="636"/>
       <c r="B63" s="136" t="s">
         <v>165</v>
       </c>
@@ -16974,7 +16975,7 @@
         <f t="shared" si="197"/>
         <v>13.262251792232911</v>
       </c>
-      <c r="K63" s="632"/>
+      <c r="K63" s="636"/>
       <c r="L63" s="136" t="s">
         <v>165</v>
       </c>
@@ -17005,7 +17006,7 @@
         <f t="shared" si="198"/>
         <v>13.262251792232911</v>
       </c>
-      <c r="U63" s="632"/>
+      <c r="U63" s="636"/>
       <c r="V63" s="136" t="s">
         <v>165</v>
       </c>
@@ -17036,7 +17037,7 @@
         <f t="shared" ref="AC63:AC66" si="202">S63</f>
         <v>13.262251792232911</v>
       </c>
-      <c r="AE63" s="632"/>
+      <c r="AE63" s="636"/>
       <c r="AF63" s="136" t="s">
         <v>165</v>
       </c>
@@ -17069,7 +17070,7 @@
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="632"/>
+      <c r="A64" s="636"/>
       <c r="B64" s="136" t="s">
         <v>166</v>
       </c>
@@ -17100,7 +17101,7 @@
         <f t="shared" si="206"/>
         <v>14.218305031595406</v>
       </c>
-      <c r="K64" s="632"/>
+      <c r="K64" s="636"/>
       <c r="L64" s="136" t="s">
         <v>166</v>
       </c>
@@ -17131,7 +17132,7 @@
         <f t="shared" si="207"/>
         <v>14.218305031595406</v>
       </c>
-      <c r="U64" s="632"/>
+      <c r="U64" s="636"/>
       <c r="V64" s="136" t="s">
         <v>166</v>
       </c>
@@ -17162,7 +17163,7 @@
         <f t="shared" si="202"/>
         <v>14.218305031595406</v>
       </c>
-      <c r="AE64" s="632"/>
+      <c r="AE64" s="636"/>
       <c r="AF64" s="136" t="s">
         <v>166</v>
       </c>
@@ -17195,7 +17196,7 @@
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="632"/>
+      <c r="A65" s="636"/>
       <c r="B65" s="136" t="s">
         <v>167</v>
       </c>
@@ -17226,7 +17227,7 @@
         <f t="shared" si="206"/>
         <v>28.452732200695429</v>
       </c>
-      <c r="K65" s="632"/>
+      <c r="K65" s="636"/>
       <c r="L65" s="136" t="s">
         <v>167</v>
       </c>
@@ -17257,7 +17258,7 @@
         <f t="shared" si="207"/>
         <v>28.452732200695429</v>
       </c>
-      <c r="U65" s="632"/>
+      <c r="U65" s="636"/>
       <c r="V65" s="136" t="s">
         <v>167</v>
       </c>
@@ -17288,7 +17289,7 @@
         <f t="shared" si="202"/>
         <v>28.452732200695429</v>
       </c>
-      <c r="AE65" s="632"/>
+      <c r="AE65" s="636"/>
       <c r="AF65" s="136" t="s">
         <v>167</v>
       </c>
@@ -17321,7 +17322,7 @@
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="632"/>
+      <c r="A66" s="636"/>
       <c r="B66" s="136" t="s">
         <v>168</v>
       </c>
@@ -17352,7 +17353,7 @@
         <f t="shared" si="206"/>
         <v>39.872888649675104</v>
       </c>
-      <c r="K66" s="632"/>
+      <c r="K66" s="636"/>
       <c r="L66" s="136" t="s">
         <v>168</v>
       </c>
@@ -17383,7 +17384,7 @@
         <f t="shared" si="207"/>
         <v>39.872888649675104</v>
       </c>
-      <c r="U66" s="632"/>
+      <c r="U66" s="636"/>
       <c r="V66" s="136" t="s">
         <v>168</v>
       </c>
@@ -17414,7 +17415,7 @@
         <f t="shared" si="202"/>
         <v>39.872888649675104</v>
       </c>
-      <c r="AE66" s="632"/>
+      <c r="AE66" s="636"/>
       <c r="AF66" s="136" t="s">
         <v>168</v>
       </c>
@@ -17447,7 +17448,7 @@
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="632"/>
+      <c r="A67" s="636"/>
       <c r="B67" s="187" t="s">
         <v>190</v>
       </c>
@@ -17478,7 +17479,7 @@
         <f t="shared" si="213"/>
         <v>34.096696804993876</v>
       </c>
-      <c r="K67" s="632"/>
+      <c r="K67" s="636"/>
       <c r="L67" s="187" t="s">
         <v>190</v>
       </c>
@@ -17509,7 +17510,7 @@
         <f t="shared" si="214"/>
         <v>34.096696804993876</v>
       </c>
-      <c r="U67" s="632"/>
+      <c r="U67" s="636"/>
       <c r="V67" s="187" t="s">
         <v>190</v>
       </c>
@@ -17540,7 +17541,7 @@
         <f t="shared" si="215"/>
         <v>34.096696804993869</v>
       </c>
-      <c r="AE67" s="632"/>
+      <c r="AE67" s="636"/>
       <c r="AF67" s="187" t="s">
         <v>190</v>
       </c>
@@ -17573,7 +17574,7 @@
       </c>
     </row>
     <row r="68" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="633"/>
+      <c r="A68" s="637"/>
       <c r="B68" s="188" t="s">
         <v>234</v>
       </c>
@@ -17598,7 +17599,7 @@
       <c r="I68" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="633"/>
+      <c r="K68" s="637"/>
       <c r="L68" s="188" t="s">
         <v>234</v>
       </c>
@@ -17629,7 +17630,7 @@
         <f>S67/E67-1</f>
         <v>0.14104553241429318</v>
       </c>
-      <c r="U68" s="633"/>
+      <c r="U68" s="637"/>
       <c r="V68" s="188" t="s">
         <v>234</v>
       </c>
@@ -17660,7 +17661,7 @@
         <f>AC67/E67-1</f>
         <v>0.14104553241429274</v>
       </c>
-      <c r="AE68" s="633"/>
+      <c r="AE68" s="637"/>
       <c r="AF68" s="188" t="s">
         <v>234</v>
       </c>
@@ -17735,7 +17736,7 @@
       <c r="AM70" s="40"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE71" s="631" t="s">
+      <c r="AE71" s="635" t="s">
         <v>265</v>
       </c>
       <c r="AF71" s="135" t="s">
@@ -17770,7 +17771,7 @@
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE72" s="632"/>
+      <c r="AE72" s="636"/>
       <c r="AF72" s="136" t="s">
         <v>7</v>
       </c>
@@ -17803,7 +17804,7 @@
       </c>
     </row>
     <row r="73" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE73" s="633"/>
+      <c r="AE73" s="637"/>
       <c r="AF73" s="189" t="s">
         <v>16</v>
       </c>
@@ -17836,7 +17837,7 @@
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE74" s="631" t="s">
+      <c r="AE74" s="635" t="s">
         <v>276</v>
       </c>
       <c r="AF74" s="135" t="s">
@@ -17871,7 +17872,7 @@
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE75" s="632"/>
+      <c r="AE75" s="636"/>
       <c r="AF75" s="136" t="s">
         <v>7</v>
       </c>
@@ -17898,7 +17899,7 @@
       </c>
     </row>
     <row r="76" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE76" s="633"/>
+      <c r="AE76" s="637"/>
       <c r="AF76" s="189" t="s">
         <v>16</v>
       </c>
@@ -17931,7 +17932,7 @@
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE77" s="631" t="s">
+      <c r="AE77" s="635" t="s">
         <v>270</v>
       </c>
       <c r="AF77" s="135" t="s">
@@ -17966,7 +17967,7 @@
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE78" s="632"/>
+      <c r="AE78" s="636"/>
       <c r="AF78" s="136" t="s">
         <v>7</v>
       </c>
@@ -17993,7 +17994,7 @@
       </c>
     </row>
     <row r="79" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE79" s="633"/>
+      <c r="AE79" s="637"/>
       <c r="AF79" s="189" t="s">
         <v>16</v>
       </c>
@@ -18074,7 +18075,7 @@
       <c r="AM82" s="40"/>
     </row>
     <row r="83" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE83" s="631" t="s">
+      <c r="AE83" s="635" t="s">
         <v>130</v>
       </c>
       <c r="AF83" s="135" t="s">
@@ -18109,7 +18110,7 @@
       </c>
     </row>
     <row r="84" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE84" s="632"/>
+      <c r="AE84" s="636"/>
       <c r="AF84" s="136" t="s">
         <v>100</v>
       </c>
@@ -18142,7 +18143,7 @@
       </c>
     </row>
     <row r="85" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE85" s="633"/>
+      <c r="AE85" s="637"/>
       <c r="AF85" s="137" t="s">
         <v>7</v>
       </c>
@@ -18188,7 +18189,7 @@
       <c r="AM87" s="40"/>
     </row>
     <row r="88" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE88" s="631" t="s">
+      <c r="AE88" s="635" t="s">
         <v>243</v>
       </c>
       <c r="AF88" s="135" t="s">
@@ -18223,7 +18224,7 @@
       </c>
     </row>
     <row r="89" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE89" s="632"/>
+      <c r="AE89" s="636"/>
       <c r="AF89" s="136" t="s">
         <v>100</v>
       </c>
@@ -18256,7 +18257,7 @@
       </c>
     </row>
     <row r="90" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE90" s="632"/>
+      <c r="AE90" s="636"/>
       <c r="AF90" s="136" t="s">
         <v>7</v>
       </c>
@@ -18289,7 +18290,7 @@
       </c>
     </row>
     <row r="91" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE91" s="632"/>
+      <c r="AE91" s="636"/>
       <c r="AF91" s="187" t="s">
         <v>16</v>
       </c>
@@ -18322,7 +18323,7 @@
       </c>
     </row>
     <row r="92" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE92" s="631" t="s">
+      <c r="AE92" s="635" t="s">
         <v>201</v>
       </c>
       <c r="AF92" s="135" t="s">
@@ -18357,7 +18358,7 @@
       </c>
     </row>
     <row r="93" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE93" s="632"/>
+      <c r="AE93" s="636"/>
       <c r="AF93" s="136" t="s">
         <v>117</v>
       </c>
@@ -18390,7 +18391,7 @@
       </c>
     </row>
     <row r="94" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE94" s="632"/>
+      <c r="AE94" s="636"/>
       <c r="AF94" s="136" t="s">
         <v>118</v>
       </c>
@@ -18423,7 +18424,7 @@
       </c>
     </row>
     <row r="95" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE95" s="632"/>
+      <c r="AE95" s="636"/>
       <c r="AF95" s="136" t="s">
         <v>119</v>
       </c>
@@ -18456,7 +18457,7 @@
       </c>
     </row>
     <row r="96" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE96" s="633"/>
+      <c r="AE96" s="637"/>
       <c r="AF96" s="189" t="s">
         <v>16</v>
       </c>
@@ -18493,40 +18494,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AE6:AE8"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="AE88:AE91"/>
-    <mergeCell ref="AE74:AE76"/>
-    <mergeCell ref="AE77:AE79"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="AE71:AE73"/>
-    <mergeCell ref="AE83:AE85"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="K36:K50"/>
-    <mergeCell ref="U36:U50"/>
-    <mergeCell ref="AE36:AE50"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="U11:U20"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AE92:AE96"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -18543,6 +18510,40 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="K23:K26"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE88:AE91"/>
+    <mergeCell ref="AE74:AE76"/>
+    <mergeCell ref="AE77:AE79"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="AE71:AE73"/>
+    <mergeCell ref="AE83:AE85"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="K36:K50"/>
+    <mergeCell ref="U36:U50"/>
+    <mergeCell ref="AE36:AE50"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="U11:U20"/>
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18554,13 +18555,13 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18610,22 +18611,22 @@
       <c r="A5" s="131"/>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="586" t="s">
+      <c r="D5" s="602" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="587"/>
-      <c r="F5" s="586" t="s">
+      <c r="E5" s="603"/>
+      <c r="F5" s="602" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="587"/>
-      <c r="H5" s="586" t="s">
+      <c r="G5" s="603"/>
+      <c r="H5" s="602" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="587"/>
-      <c r="J5" s="594" t="s">
+      <c r="I5" s="603"/>
+      <c r="J5" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="595"/>
+      <c r="K5" s="599"/>
       <c r="L5" s="127"/>
       <c r="M5" s="127"/>
       <c r="N5" s="127"/>
@@ -18641,18 +18642,18 @@
       </c>
       <c r="B6" s="138"/>
       <c r="C6" s="139"/>
-      <c r="D6" s="590" t="s">
+      <c r="D6" s="604" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="592" t="s">
+      <c r="E6" s="605"/>
+      <c r="F6" s="606" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="593"/>
-      <c r="H6" s="592" t="s">
+      <c r="G6" s="607"/>
+      <c r="H6" s="606" t="s">
         <v>382</v>
       </c>
-      <c r="I6" s="593"/>
+      <c r="I6" s="607"/>
       <c r="J6" s="65"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -18692,10 +18693,10 @@
       <c r="I7" s="134">
         <v>2040</v>
       </c>
-      <c r="J7" s="594" t="s">
+      <c r="J7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="595"/>
+      <c r="K7" s="599"/>
       <c r="L7" s="127"/>
       <c r="M7" s="127"/>
       <c r="N7" s="127"/>
@@ -18733,10 +18734,10 @@
       <c r="I8" s="134">
         <v>2040</v>
       </c>
-      <c r="J8" s="594" t="s">
+      <c r="J8" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="595"/>
+      <c r="K8" s="599"/>
       <c r="L8" s="127"/>
       <c r="M8" s="127"/>
       <c r="N8" s="127"/>
@@ -18747,7 +18748,7 @@
       <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="588" t="s">
+      <c r="A9" s="595" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -18779,7 +18780,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="589"/>
+      <c r="A10" s="596"/>
       <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
@@ -18809,7 +18810,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="589"/>
+      <c r="A11" s="596"/>
       <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
@@ -18839,7 +18840,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="589"/>
+      <c r="A12" s="596"/>
       <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
@@ -18869,7 +18870,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="588" t="s">
+      <c r="A13" s="595" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -18901,7 +18902,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="596"/>
+      <c r="A14" s="597"/>
       <c r="B14" s="107" t="s">
         <v>9</v>
       </c>
@@ -18931,7 +18932,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="588" t="s">
+      <c r="A15" s="595" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -18963,7 +18964,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="596"/>
+      <c r="A16" s="597"/>
       <c r="B16" s="107" t="s">
         <v>324</v>
       </c>
@@ -19003,22 +19004,22 @@
         <v>73</v>
       </c>
       <c r="D17" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="124" t="s">
         <v>398</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="G17" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="124" t="s">
-        <v>399</v>
-      </c>
-      <c r="G17" s="125" t="s">
-        <v>399</v>
-      </c>
       <c r="H17" s="124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I17" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J17" s="403" t="s">
         <v>332</v>
@@ -19052,10 +19053,10 @@
       <c r="I18" s="134">
         <v>2040</v>
       </c>
-      <c r="J18" s="594" t="s">
+      <c r="J18" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="595"/>
+      <c r="K18" s="599"/>
       <c r="L18" s="127"/>
       <c r="M18" s="127"/>
       <c r="N18" s="127"/>
@@ -19066,7 +19067,7 @@
       <c r="S18" s="127"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="588" t="s">
+      <c r="A19" s="595" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="106" t="s">
@@ -19098,7 +19099,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="596"/>
+      <c r="A20" s="597"/>
       <c r="B20" s="107" t="s">
         <v>324</v>
       </c>
@@ -19128,7 +19129,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="589" t="s">
+      <c r="A21" s="596" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -19160,7 +19161,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="596"/>
+      <c r="A22" s="597"/>
       <c r="B22" s="107" t="s">
         <v>324</v>
       </c>
@@ -19212,7 +19213,7 @@
         <v>336</v>
       </c>
       <c r="H23" s="124" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I23" s="125" t="s">
         <v>336</v>
@@ -19249,10 +19250,10 @@
       <c r="I24" s="134">
         <v>2040</v>
       </c>
-      <c r="J24" s="594" t="s">
+      <c r="J24" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="595"/>
+      <c r="K24" s="599"/>
       <c r="L24" s="127"/>
       <c r="M24" s="127"/>
       <c r="N24" s="127"/>
@@ -19263,7 +19264,7 @@
       <c r="S24" s="127"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="588" t="s">
+      <c r="A25" s="595" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="106" t="s">
@@ -19310,7 +19311,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="589"/>
+      <c r="A26" s="596"/>
       <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
@@ -19355,7 +19356,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="596"/>
+      <c r="A27" s="597"/>
       <c r="B27" s="107" t="s">
         <v>7</v>
       </c>
@@ -19447,7 +19448,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="588" t="s">
+      <c r="A29" s="595" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -19494,7 +19495,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="589"/>
+      <c r="A30" s="596"/>
       <c r="B30" s="43" t="s">
         <v>9</v>
       </c>
@@ -19539,7 +19540,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="596"/>
+      <c r="A31" s="597"/>
       <c r="B31" s="107" t="s">
         <v>7</v>
       </c>
@@ -19584,7 +19585,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="597" t="s">
+      <c r="A32" s="590" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="106" t="s">
@@ -19622,7 +19623,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="602"/>
+      <c r="A33" s="600"/>
       <c r="B33" s="43" t="s">
         <v>9</v>
       </c>
@@ -19658,7 +19659,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="602"/>
+      <c r="A34" s="600"/>
       <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
@@ -19694,7 +19695,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="598"/>
+      <c r="A35" s="591"/>
       <c r="B35" s="107" t="s">
         <v>20</v>
       </c>
@@ -19857,7 +19858,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="599" t="s">
+      <c r="A39" s="592" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="106" t="s">
@@ -19903,7 +19904,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="603"/>
+      <c r="A40" s="601"/>
       <c r="B40" s="107" t="s">
         <v>29</v>
       </c>
@@ -19975,10 +19976,10 @@
       <c r="I41" s="134">
         <v>2040</v>
       </c>
-      <c r="J41" s="594" t="s">
+      <c r="J41" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="595"/>
+      <c r="K41" s="599"/>
       <c r="L41" s="127"/>
       <c r="M41" s="127"/>
       <c r="N41" s="127"/>
@@ -19989,7 +19990,7 @@
       <c r="S41" s="127"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="597" t="s">
+      <c r="A42" s="590" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="106" t="s">
@@ -20036,7 +20037,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="602"/>
+      <c r="A43" s="600"/>
       <c r="B43" s="43" t="s">
         <v>117</v>
       </c>
@@ -20081,7 +20082,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="600"/>
+      <c r="A44" s="593"/>
       <c r="B44" s="43" t="s">
         <v>118</v>
       </c>
@@ -20126,7 +20127,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="600"/>
+      <c r="A45" s="593"/>
       <c r="B45" s="43" t="s">
         <v>119</v>
       </c>
@@ -20171,7 +20172,7 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="597" t="s">
+      <c r="A46" s="590" t="s">
         <v>381</v>
       </c>
       <c r="B46" s="106" t="s">
@@ -20218,7 +20219,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="602"/>
+      <c r="A47" s="600"/>
       <c r="B47" s="43" t="s">
         <v>117</v>
       </c>
@@ -20263,7 +20264,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="600"/>
+      <c r="A48" s="593"/>
       <c r="B48" s="43" t="s">
         <v>118</v>
       </c>
@@ -20308,7 +20309,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="600"/>
+      <c r="A49" s="593"/>
       <c r="B49" s="43" t="s">
         <v>119</v>
       </c>
@@ -20353,7 +20354,7 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="597" t="s">
+      <c r="A50" s="590" t="s">
         <v>380</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -20400,7 +20401,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="602"/>
+      <c r="A51" s="600"/>
       <c r="B51" s="43" t="s">
         <v>117</v>
       </c>
@@ -20445,7 +20446,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="600"/>
+      <c r="A52" s="593"/>
       <c r="B52" s="43" t="s">
         <v>118</v>
       </c>
@@ -20490,7 +20491,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="601"/>
+      <c r="A53" s="594"/>
       <c r="B53" s="107" t="s">
         <v>119</v>
       </c>
@@ -20535,7 +20536,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="602" t="s">
+      <c r="A54" s="600" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -20573,7 +20574,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="602"/>
+      <c r="A55" s="600"/>
       <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
@@ -20609,7 +20610,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="599" t="s">
+      <c r="A56" s="592" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="342" t="s">
@@ -20647,7 +20648,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="600"/>
+      <c r="A57" s="593"/>
       <c r="B57" s="43" t="s">
         <v>116</v>
       </c>
@@ -20692,7 +20693,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="600"/>
+      <c r="A58" s="593"/>
       <c r="B58" s="43" t="s">
         <v>117</v>
       </c>
@@ -20737,7 +20738,7 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="600"/>
+      <c r="A59" s="593"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -20782,7 +20783,7 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="601"/>
+      <c r="A60" s="594"/>
       <c r="B60" s="107" t="s">
         <v>119</v>
       </c>
@@ -20896,13 +20897,13 @@
       <c r="I62" s="434">
         <v>2040</v>
       </c>
-      <c r="J62" s="594" t="s">
+      <c r="J62" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="595"/>
+      <c r="K62" s="599"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="597" t="s">
+      <c r="A63" s="590" t="s">
         <v>312</v>
       </c>
       <c r="B63" s="106" t="s">
@@ -20940,7 +20941,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="598"/>
+      <c r="A64" s="591"/>
       <c r="B64" s="107" t="s">
         <v>7</v>
       </c>
@@ -21061,19 +21062,19 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D74" s="40">
         <f>Resultat!F37/'Indata - Utsläpp'!B15-1</f>
         <v>-0.73481851843620594</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C78" s="40" t="s">
-        <v>396</v>
+      <c r="C78" s="585" t="s">
+        <v>179</v>
       </c>
       <c r="D78" s="40">
         <v>-0.22</v>
@@ -21081,17 +21082,46 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D79" s="40">
         <v>0.1</v>
       </c>
+    </row>
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="587" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="588">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="586"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:I23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="28">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A29:A31"/>
@@ -21102,24 +21132,6 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21242,18 +21254,18 @@
       <c r="C4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="586" t="s">
+      <c r="D4" s="602" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="587"/>
-      <c r="F4" s="586" t="s">
+      <c r="E4" s="603"/>
+      <c r="F4" s="602" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="587"/>
-      <c r="H4" s="586" t="s">
+      <c r="G4" s="603"/>
+      <c r="H4" s="602" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="587"/>
+      <c r="I4" s="603"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -21269,21 +21281,21 @@
       </c>
       <c r="B5" s="290"/>
       <c r="C5" s="291"/>
-      <c r="D5" s="612" t="str">
+      <c r="D5" s="608" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik</v>
       </c>
-      <c r="E5" s="613"/>
-      <c r="F5" s="612" t="str">
+      <c r="E5" s="609"/>
+      <c r="F5" s="608" t="str">
         <f>Indata!F6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="G5" s="613"/>
-      <c r="H5" s="612" t="str">
+      <c r="G5" s="609"/>
+      <c r="H5" s="608" t="str">
         <f>Indata!H6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="I5" s="613"/>
+      <c r="I5" s="609"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -21331,7 +21343,7 @@
       <c r="Q6" s="127"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="607" t="s">
+      <c r="A7" s="610" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="292" t="s">
@@ -21366,7 +21378,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="608"/>
+      <c r="A8" s="612"/>
       <c r="B8" s="293" t="s">
         <v>103</v>
       </c>
@@ -21399,7 +21411,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="608"/>
+      <c r="A9" s="612"/>
       <c r="B9" s="293" t="s">
         <v>104</v>
       </c>
@@ -21432,7 +21444,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="608"/>
+      <c r="A10" s="612"/>
       <c r="B10" s="293" t="s">
         <v>184</v>
       </c>
@@ -21465,7 +21477,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="609"/>
+      <c r="A11" s="611"/>
       <c r="B11" s="294" t="s">
         <v>185</v>
       </c>
@@ -21498,7 +21510,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="607" t="s">
+      <c r="A12" s="610" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="292" t="s">
@@ -21533,7 +21545,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="608"/>
+      <c r="A13" s="612"/>
       <c r="B13" s="293" t="s">
         <v>103</v>
       </c>
@@ -21567,7 +21579,7 @@
       <c r="J13" s="381"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="608"/>
+      <c r="A14" s="612"/>
       <c r="B14" s="293" t="s">
         <v>104</v>
       </c>
@@ -21600,7 +21612,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="608"/>
+      <c r="A15" s="612"/>
       <c r="B15" s="293" t="s">
         <v>358</v>
       </c>
@@ -21633,7 +21645,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="609"/>
+      <c r="A16" s="611"/>
       <c r="B16" s="294" t="s">
         <v>323</v>
       </c>
@@ -21666,7 +21678,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="607" t="s">
+      <c r="A17" s="610" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="292" t="s">
@@ -21701,7 +21713,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="609"/>
+      <c r="A18" s="611"/>
       <c r="B18" s="294" t="s">
         <v>324</v>
       </c>
@@ -21769,7 +21781,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="607" t="s">
+      <c r="A20" s="610" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="292" t="s">
@@ -21809,7 +21821,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="608"/>
+      <c r="A21" s="612"/>
       <c r="B21" s="293" t="s">
         <v>103</v>
       </c>
@@ -21842,7 +21854,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="608"/>
+      <c r="A22" s="612"/>
       <c r="B22" s="293" t="s">
         <v>104</v>
       </c>
@@ -21875,7 +21887,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="608"/>
+      <c r="A23" s="612"/>
       <c r="B23" s="391" t="s">
         <v>183</v>
       </c>
@@ -21908,7 +21920,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="608"/>
+      <c r="A24" s="612"/>
       <c r="B24" s="293" t="s">
         <v>358</v>
       </c>
@@ -21941,7 +21953,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="608"/>
+      <c r="A25" s="612"/>
       <c r="B25" s="293" t="s">
         <v>323</v>
       </c>
@@ -21974,7 +21986,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="609"/>
+      <c r="A26" s="611"/>
       <c r="B26" s="392" t="s">
         <v>359</v>
       </c>
@@ -22007,7 +22019,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="607" t="s">
+      <c r="A27" s="610" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="292" t="s">
@@ -22043,7 +22055,7 @@
       <c r="J27" s="381"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="608"/>
+      <c r="A28" s="612"/>
       <c r="B28" s="293" t="s">
         <v>103</v>
       </c>
@@ -22077,7 +22089,7 @@
       <c r="J28" s="381"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="608"/>
+      <c r="A29" s="612"/>
       <c r="B29" s="293" t="s">
         <v>104</v>
       </c>
@@ -22111,7 +22123,7 @@
       <c r="J29" s="381"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="608"/>
+      <c r="A30" s="612"/>
       <c r="B30" s="391" t="s">
         <v>105</v>
       </c>
@@ -22144,7 +22156,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="608"/>
+      <c r="A31" s="612"/>
       <c r="B31" s="293" t="s">
         <v>360</v>
       </c>
@@ -22178,7 +22190,7 @@
       <c r="J31" s="381"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="608"/>
+      <c r="A32" s="612"/>
       <c r="B32" s="293" t="s">
         <v>323</v>
       </c>
@@ -22212,7 +22224,7 @@
       <c r="J32" s="381"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="608"/>
+      <c r="A33" s="612"/>
       <c r="B33" s="391" t="s">
         <v>361</v>
       </c>
@@ -22246,7 +22258,7 @@
       <c r="J33" s="381"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="609"/>
+      <c r="A34" s="611"/>
       <c r="B34" s="392" t="s">
         <v>338</v>
       </c>
@@ -22280,7 +22292,7 @@
       <c r="J34" s="381"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="608" t="s">
+      <c r="A35" s="612" t="s">
         <v>290</v>
       </c>
       <c r="B35" s="293" t="s">
@@ -22315,7 +22327,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="609"/>
+      <c r="A36" s="611"/>
       <c r="B36" s="294" t="s">
         <v>324</v>
       </c>
@@ -22348,7 +22360,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="610" t="s">
+      <c r="A37" s="616" t="s">
         <v>279</v>
       </c>
       <c r="B37" s="292" t="s">
@@ -22383,7 +22395,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="611"/>
+      <c r="A38" s="617"/>
       <c r="B38" s="293" t="s">
         <v>324</v>
       </c>
@@ -22416,7 +22428,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="611"/>
+      <c r="A39" s="617"/>
       <c r="B39" s="293" t="s">
         <v>315</v>
       </c>
@@ -22443,7 +22455,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="611"/>
+      <c r="A40" s="617"/>
       <c r="B40" s="391" t="s">
         <v>16</v>
       </c>
@@ -22476,7 +22488,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="611"/>
+      <c r="A41" s="617"/>
       <c r="B41" s="518" t="s">
         <v>362</v>
       </c>
@@ -22509,7 +22521,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="607" t="s">
+      <c r="A42" s="610" t="s">
         <v>276</v>
       </c>
       <c r="B42" s="292" t="s">
@@ -22544,7 +22556,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="608"/>
+      <c r="A43" s="612"/>
       <c r="B43" s="293" t="s">
         <v>324</v>
       </c>
@@ -22578,7 +22590,7 @@
       <c r="J43" s="381"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="608"/>
+      <c r="A44" s="612"/>
       <c r="B44" s="391" t="s">
         <v>16</v>
       </c>
@@ -22645,7 +22657,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="608" t="s">
+      <c r="A46" s="612" t="s">
         <v>270</v>
       </c>
       <c r="B46" s="293" t="s">
@@ -22681,7 +22693,7 @@
       <c r="J46" s="381"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="608"/>
+      <c r="A47" s="612"/>
       <c r="B47" s="293" t="s">
         <v>324</v>
       </c>
@@ -22715,7 +22727,7 @@
       <c r="J47" s="381"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="608"/>
+      <c r="A48" s="612"/>
       <c r="B48" s="391" t="s">
         <v>16</v>
       </c>
@@ -22780,7 +22792,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="607" t="s">
+      <c r="A50" s="610" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="292" t="s">
@@ -22816,7 +22828,7 @@
       <c r="J50" s="381"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="608"/>
+      <c r="A51" s="612"/>
       <c r="B51" s="293" t="s">
         <v>324</v>
       </c>
@@ -22850,7 +22862,7 @@
       <c r="J51" s="381"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="608"/>
+      <c r="A52" s="612"/>
       <c r="B52" s="391" t="s">
         <v>16</v>
       </c>
@@ -22914,7 +22926,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="604" t="s">
+      <c r="A54" s="613" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="292" t="s">
@@ -22950,7 +22962,7 @@
       <c r="J54" s="381"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="605"/>
+      <c r="A55" s="614"/>
       <c r="B55" s="293" t="s">
         <v>320</v>
       </c>
@@ -22985,7 +22997,7 @@
       <c r="K55" s="381"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="605"/>
+      <c r="A56" s="614"/>
       <c r="B56" s="293" t="s">
         <v>104</v>
       </c>
@@ -23020,7 +23032,7 @@
       <c r="K56" s="381"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="605"/>
+      <c r="A57" s="614"/>
       <c r="B57" s="293" t="s">
         <v>317</v>
       </c>
@@ -23059,7 +23071,7 @@
       <c r="O57" s="521"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="605"/>
+      <c r="A58" s="614"/>
       <c r="B58" s="293" t="s">
         <v>318</v>
       </c>
@@ -23094,7 +23106,7 @@
       <c r="K58" s="381"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="605"/>
+      <c r="A59" s="614"/>
       <c r="B59" s="293" t="s">
         <v>319</v>
       </c>
@@ -23130,7 +23142,7 @@
       <c r="O59" s="381"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="605"/>
+      <c r="A60" s="614"/>
       <c r="B60" s="391" t="s">
         <v>198</v>
       </c>
@@ -23169,7 +23181,7 @@
       <c r="O60" s="521"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="605"/>
+      <c r="A61" s="614"/>
       <c r="B61" s="391" t="s">
         <v>199</v>
       </c>
@@ -23204,7 +23216,7 @@
       <c r="K61" s="381"/>
     </row>
     <row r="62" spans="1:15" s="381" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="605"/>
+      <c r="A62" s="614"/>
       <c r="B62" s="391" t="s">
         <v>200</v>
       </c>
@@ -23237,7 +23249,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="606"/>
+      <c r="A63" s="615"/>
       <c r="B63" s="392" t="s">
         <v>364</v>
       </c>
@@ -23272,7 +23284,7 @@
       <c r="K63" s="381"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="605" t="s">
+      <c r="A64" s="614" t="s">
         <v>245</v>
       </c>
       <c r="B64" s="293" t="s">
@@ -23307,7 +23319,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="605"/>
+      <c r="A65" s="614"/>
       <c r="B65" s="293" t="s">
         <v>197</v>
       </c>
@@ -23340,7 +23352,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="605"/>
+      <c r="A66" s="614"/>
       <c r="B66" s="293" t="s">
         <v>104</v>
       </c>
@@ -23373,7 +23385,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="605"/>
+      <c r="A67" s="614"/>
       <c r="B67" s="293" t="s">
         <v>322</v>
       </c>
@@ -23406,7 +23418,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="605"/>
+      <c r="A68" s="614"/>
       <c r="B68" s="293" t="s">
         <v>321</v>
       </c>
@@ -23439,7 +23451,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="605"/>
+      <c r="A69" s="614"/>
       <c r="B69" s="293" t="s">
         <v>323</v>
       </c>
@@ -23472,7 +23484,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="605"/>
+      <c r="A70" s="614"/>
       <c r="B70" s="391" t="s">
         <v>198</v>
       </c>
@@ -23505,7 +23517,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="605"/>
+      <c r="A71" s="614"/>
       <c r="B71" s="391" t="s">
         <v>199</v>
       </c>
@@ -23538,7 +23550,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="606"/>
+      <c r="A72" s="615"/>
       <c r="B72" s="392" t="s">
         <v>200</v>
       </c>
@@ -23571,7 +23583,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="604" t="s">
+      <c r="A73" s="613" t="s">
         <v>203</v>
       </c>
       <c r="B73" s="292" t="s">
@@ -23606,7 +23618,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="605"/>
+      <c r="A74" s="614"/>
       <c r="B74" s="293" t="s">
         <v>324</v>
       </c>
@@ -23639,7 +23651,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="606"/>
+      <c r="A75" s="615"/>
       <c r="B75" s="392" t="s">
         <v>278</v>
       </c>
@@ -23672,7 +23684,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="604" t="s">
+      <c r="A76" s="613" t="s">
         <v>204</v>
       </c>
       <c r="B76" s="292" t="s">
@@ -23707,7 +23719,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="605"/>
+      <c r="A77" s="614"/>
       <c r="B77" s="293" t="s">
         <v>324</v>
       </c>
@@ -23740,7 +23752,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="606"/>
+      <c r="A78" s="615"/>
       <c r="B78" s="392" t="s">
         <v>278</v>
       </c>
@@ -23781,17 +23793,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A27:A34"/>
@@ -23801,6 +23802,17 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24727,40 +24739,40 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="614" t="s">
+      <c r="A3" s="618" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="614"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="614"/>
+      <c r="B3" s="618"/>
+      <c r="C3" s="618"/>
+      <c r="D3" s="618"/>
       <c r="E3" s="83"/>
-      <c r="F3" s="614" t="s">
+      <c r="F3" s="618" t="s">
         <v>258</v>
       </c>
-      <c r="G3" s="614"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="614"/>
-      <c r="M3" s="614" t="s">
+      <c r="G3" s="618"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="618"/>
+      <c r="M3" s="618" t="s">
         <v>310</v>
       </c>
-      <c r="N3" s="615"/>
-      <c r="O3" s="615"/>
-      <c r="P3" s="615"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="619"/>
+      <c r="P3" s="619"/>
     </row>
     <row r="4" spans="1:16" s="41" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="616" t="s">
+      <c r="A4" s="620" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="616"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="620"/>
+      <c r="C4" s="620"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="183"/>
-      <c r="F4" s="616" t="s">
+      <c r="F4" s="620" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="616"/>
-      <c r="H4" s="616"/>
-      <c r="I4" s="616"/>
+      <c r="G4" s="620"/>
+      <c r="H4" s="620"/>
+      <c r="I4" s="620"/>
       <c r="K4" s="64" t="s">
         <v>63</v>
       </c>
@@ -24772,21 +24784,21 @@
       <c r="P4" s="366"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="617" t="s">
+      <c r="A5" s="621" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="617"/>
-      <c r="C5" s="617"/>
-      <c r="D5" s="617"/>
+      <c r="B5" s="621"/>
+      <c r="C5" s="621"/>
+      <c r="D5" s="621"/>
       <c r="E5" s="44"/>
-      <c r="F5" s="617" t="s">
+      <c r="F5" s="621" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="617"/>
-      <c r="H5" s="617"/>
-      <c r="I5" s="617"/>
+      <c r="G5" s="621"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="621"/>
       <c r="K5" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M5" s="367"/>
       <c r="N5" s="367"/>
@@ -24820,7 +24832,7 @@
         <v>2040</v>
       </c>
       <c r="K6" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M6" s="33" t="s">
         <v>309</v>
@@ -24986,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24999,14 +25011,14 @@
       <c r="H11" s="168"/>
       <c r="I11" s="168"/>
       <c r="K11" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="M11" s="614" t="s">
+        <v>400</v>
+      </c>
+      <c r="M11" s="618" t="s">
         <v>335</v>
       </c>
-      <c r="N11" s="615"/>
-      <c r="O11" s="615"/>
-      <c r="P11" s="615"/>
+      <c r="N11" s="619"/>
+      <c r="O11" s="619"/>
+      <c r="P11" s="619"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -25254,12 +25266,12 @@
       <c r="G19" s="186"/>
       <c r="H19" s="186"/>
       <c r="I19" s="186"/>
-      <c r="M19" s="614" t="s">
+      <c r="M19" s="618" t="s">
         <v>334</v>
       </c>
-      <c r="N19" s="615"/>
-      <c r="O19" s="615"/>
-      <c r="P19" s="615"/>
+      <c r="N19" s="619"/>
+      <c r="O19" s="619"/>
+      <c r="P19" s="619"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -25910,7 +25922,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B9" activeCellId="1" sqref="B8:C8 B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25967,13 +25979,13 @@
       <c r="O3" s="127"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="599" t="s">
+      <c r="A4" s="592" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="620" t="s">
+      <c r="B4" s="625" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="621"/>
+      <c r="C4" s="626"/>
       <c r="D4" s="326">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -25994,11 +26006,11 @@
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="624"/>
-      <c r="B5" s="622" t="s">
+      <c r="A5" s="622"/>
+      <c r="B5" s="627" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="623"/>
+      <c r="C5" s="628"/>
       <c r="D5" s="326">
         <v>-0.05</v>
       </c>
@@ -26019,11 +26031,11 @@
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="624"/>
-      <c r="B6" s="622" t="s">
+      <c r="A6" s="622"/>
+      <c r="B6" s="627" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="623"/>
+      <c r="C6" s="628"/>
       <c r="D6" s="326">
         <v>0</v>
       </c>
@@ -26044,11 +26056,11 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="624"/>
-      <c r="B7" s="622" t="s">
+      <c r="A7" s="622"/>
+      <c r="B7" s="627" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="623"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="326">
         <v>-0.1</v>
       </c>
@@ -26069,12 +26081,13 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="624"/>
-      <c r="B8" s="622" t="s">
+      <c r="A8" s="622"/>
+      <c r="B8" s="627" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="623"/>
+      <c r="C8" s="628"/>
       <c r="D8" s="326">
+        <f>Indata!D80</f>
         <v>-0.2</v>
       </c>
       <c r="E8" s="327">
@@ -26094,11 +26107,11 @@
       <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="603"/>
-      <c r="B9" s="618" t="s">
+      <c r="A9" s="601"/>
+      <c r="B9" s="623" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="619"/>
+      <c r="C9" s="624"/>
       <c r="D9" s="328">
         <f>Indata!D78</f>
         <v>-0.22</v>
@@ -26120,7 +26133,7 @@
       <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="588" t="s">
+      <c r="A10" s="595" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26149,7 +26162,7 @@
       <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="589"/>
+      <c r="A11" s="596"/>
       <c r="B11" s="43" t="s">
         <v>9</v>
       </c>
@@ -26176,7 +26189,7 @@
       <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="589" t="s">
+      <c r="A12" s="596" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -26205,7 +26218,7 @@
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="588" t="s">
+      <c r="A13" s="595" t="s">
         <v>266</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -26234,7 +26247,7 @@
       <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="589"/>
+      <c r="A14" s="596"/>
       <c r="B14" s="43" t="s">
         <v>286</v>
       </c>
@@ -26261,7 +26274,7 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="589" t="s">
+      <c r="A15" s="596" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -26290,7 +26303,7 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="588" t="s">
+      <c r="A16" s="595" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -26319,7 +26332,7 @@
       <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="589"/>
+      <c r="A17" s="596"/>
       <c r="B17" s="43" t="s">
         <v>286</v>
       </c>
@@ -26346,7 +26359,7 @@
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="596" t="s">
+      <c r="A18" s="597" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -26375,7 +26388,7 @@
       <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="605" t="s">
+      <c r="A19" s="614" t="s">
         <v>273</v>
       </c>
       <c r="B19" s="293" t="s">
@@ -26404,7 +26417,7 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="605"/>
+      <c r="A20" s="614"/>
       <c r="B20" s="293" t="s">
         <v>296</v>
       </c>
@@ -26431,7 +26444,7 @@
       <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="597" t="s">
+      <c r="A21" s="590" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -26460,7 +26473,7 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="602"/>
+      <c r="A22" s="600"/>
       <c r="B22" s="43" t="s">
         <v>97</v>
       </c>
@@ -26487,7 +26500,7 @@
       <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="602"/>
+      <c r="A23" s="600"/>
       <c r="B23" s="43" t="s">
         <v>134</v>
       </c>
@@ -26514,7 +26527,7 @@
       <c r="O23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="602"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="43" t="s">
         <v>98</v>
       </c>
@@ -26541,7 +26554,7 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="602"/>
+      <c r="A25" s="600"/>
       <c r="B25" s="43" t="s">
         <v>135</v>
       </c>
@@ -26568,7 +26581,7 @@
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="598"/>
+      <c r="A26" s="591"/>
       <c r="B26" s="107" t="s">
         <v>100</v>
       </c>
@@ -26596,11 +26609,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A4:A9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B4:C4"/>
@@ -26608,6 +26616,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26651,25 +26664,25 @@
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="625" t="s">
+      <c r="A2" s="632" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="625"/>
-      <c r="C2" s="625"/>
-      <c r="D2" s="625"/>
-      <c r="E2" s="625"/>
-      <c r="F2" s="625"/>
-      <c r="G2" s="625"/>
-      <c r="H2" s="625"/>
-      <c r="I2" s="625"/>
-      <c r="J2" s="625"/>
+      <c r="B2" s="632"/>
+      <c r="C2" s="632"/>
+      <c r="D2" s="632"/>
+      <c r="E2" s="632"/>
+      <c r="F2" s="632"/>
+      <c r="G2" s="632"/>
+      <c r="H2" s="632"/>
+      <c r="I2" s="632"/>
+      <c r="J2" s="632"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="626" t="s">
+      <c r="A3" s="633" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="627"/>
-      <c r="C3" s="627"/>
+      <c r="B3" s="634"/>
+      <c r="C3" s="634"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
@@ -26680,7 +26693,7 @@
     </row>
     <row r="4" spans="1:14" s="381" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="584"/>
       <c r="C4" s="584"/>
@@ -26696,7 +26709,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -26718,7 +26731,7 @@
     </row>
     <row r="6" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="126" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -26746,20 +26759,20 @@
       <c r="B7" s="194"/>
       <c r="C7" s="194"/>
       <c r="D7" s="194"/>
-      <c r="E7" s="630" t="s">
+      <c r="E7" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="629"/>
-      <c r="G7" s="630" t="s">
+      <c r="F7" s="630"/>
+      <c r="G7" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="629"/>
-      <c r="I7" s="628" t="s">
+      <c r="H7" s="630"/>
+      <c r="I7" s="631" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="629"/>
+      <c r="J7" s="630"/>
       <c r="L7" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26969,7 +26982,7 @@
         <v>1.0005993243979514</v>
       </c>
       <c r="L13" s="364" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -27373,18 +27386,18 @@
       <c r="B26" s="194"/>
       <c r="C26" s="194"/>
       <c r="D26" s="194"/>
-      <c r="E26" s="630" t="s">
+      <c r="E26" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="629"/>
-      <c r="G26" s="630" t="s">
+      <c r="F26" s="630"/>
+      <c r="G26" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="629"/>
-      <c r="I26" s="628" t="s">
+      <c r="H26" s="630"/>
+      <c r="I26" s="631" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="629"/>
+      <c r="J26" s="630"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="196" t="s">
@@ -27983,18 +27996,18 @@
       <c r="B45" s="194"/>
       <c r="C45" s="194"/>
       <c r="D45" s="194"/>
-      <c r="E45" s="630" t="s">
+      <c r="E45" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="629"/>
-      <c r="G45" s="630" t="s">
+      <c r="F45" s="630"/>
+      <c r="G45" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="629"/>
-      <c r="I45" s="628" t="s">
+      <c r="H45" s="630"/>
+      <c r="I45" s="631" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="629"/>
+      <c r="J45" s="630"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="196" t="s">
@@ -28585,18 +28598,18 @@
       <c r="B64" s="194"/>
       <c r="C64" s="194"/>
       <c r="D64" s="194"/>
-      <c r="E64" s="630" t="s">
+      <c r="E64" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="629"/>
-      <c r="G64" s="630" t="s">
+      <c r="F64" s="630"/>
+      <c r="G64" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="629"/>
-      <c r="I64" s="628" t="s">
+      <c r="H64" s="630"/>
+      <c r="I64" s="631" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="629"/>
+      <c r="J64" s="630"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="196" t="s">
@@ -28986,18 +28999,18 @@
       <c r="B77" s="194"/>
       <c r="C77" s="194"/>
       <c r="D77" s="194"/>
-      <c r="E77" s="630" t="s">
+      <c r="E77" s="629" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="629"/>
-      <c r="G77" s="630" t="s">
+      <c r="F77" s="630"/>
+      <c r="G77" s="629" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="629"/>
-      <c r="I77" s="628" t="s">
+      <c r="H77" s="630"/>
+      <c r="I77" s="631" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="629"/>
+      <c r="J77" s="630"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="196" t="s">
@@ -29382,6 +29395,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="E7:F7"/>
@@ -29394,11 +29412,6 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29449,87 +29462,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="634" t="s">
+      <c r="A3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="636" t="s">
+      <c r="B3" s="649" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="637"/>
-      <c r="D3" s="634" t="s">
+      <c r="C3" s="650"/>
+      <c r="D3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="647"/>
-      <c r="F3" s="634" t="s">
+      <c r="E3" s="642"/>
+      <c r="F3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="647"/>
-      <c r="H3" s="648" t="s">
+      <c r="G3" s="642"/>
+      <c r="H3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="647"/>
-      <c r="K3" s="634" t="s">
+      <c r="I3" s="642"/>
+      <c r="K3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="640" t="s">
+      <c r="L3" s="644" t="s">
         <v>237</v>
       </c>
-      <c r="M3" s="641"/>
-      <c r="N3" s="634" t="s">
+      <c r="M3" s="645"/>
+      <c r="N3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="647"/>
-      <c r="P3" s="634" t="s">
+      <c r="O3" s="642"/>
+      <c r="P3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="647"/>
-      <c r="R3" s="648" t="s">
+      <c r="Q3" s="642"/>
+      <c r="R3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="647"/>
-      <c r="U3" s="634" t="s">
+      <c r="S3" s="642"/>
+      <c r="U3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="640" t="s">
+      <c r="V3" s="644" t="s">
         <v>227</v>
       </c>
-      <c r="W3" s="641"/>
-      <c r="X3" s="634" t="s">
+      <c r="W3" s="645"/>
+      <c r="X3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="647"/>
-      <c r="Z3" s="634" t="s">
+      <c r="Y3" s="642"/>
+      <c r="Z3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="647"/>
-      <c r="AB3" s="648" t="s">
+      <c r="AA3" s="642"/>
+      <c r="AB3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="647"/>
-      <c r="AE3" s="634" t="s">
+      <c r="AC3" s="642"/>
+      <c r="AE3" s="643" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="640" t="s">
+      <c r="AF3" s="644" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="641"/>
-      <c r="AH3" s="634" t="s">
+      <c r="AG3" s="645"/>
+      <c r="AH3" s="643" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="647"/>
-      <c r="AJ3" s="634" t="s">
+      <c r="AI3" s="642"/>
+      <c r="AJ3" s="643" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="647"/>
-      <c r="AL3" s="648" t="s">
+      <c r="AK3" s="642"/>
+      <c r="AL3" s="641" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="647"/>
+      <c r="AM3" s="642"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="635"/>
-      <c r="B4" s="638"/>
-      <c r="C4" s="639"/>
+      <c r="A4" s="648"/>
+      <c r="B4" s="651"/>
+      <c r="C4" s="652"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -29548,9 +29561,9 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="635"/>
-      <c r="L4" s="642"/>
-      <c r="M4" s="643"/>
+      <c r="K4" s="648"/>
+      <c r="L4" s="646"/>
+      <c r="M4" s="647"/>
       <c r="N4" s="265">
         <v>2030</v>
       </c>
@@ -29569,9 +29582,9 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="635"/>
-      <c r="V4" s="642"/>
-      <c r="W4" s="643"/>
+      <c r="U4" s="648"/>
+      <c r="V4" s="646"/>
+      <c r="W4" s="647"/>
       <c r="X4" s="265">
         <v>2030</v>
       </c>
@@ -29590,9 +29603,9 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="635"/>
-      <c r="AF4" s="642"/>
-      <c r="AG4" s="643"/>
+      <c r="AE4" s="648"/>
+      <c r="AF4" s="646"/>
+      <c r="AG4" s="647"/>
       <c r="AH4" s="265">
         <v>2030</v>
       </c>
@@ -29653,7 +29666,7 @@
       <c r="AM5" s="201"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="644" t="s">
+      <c r="A6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -29686,7 +29699,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="644" t="s">
+      <c r="K6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -29719,7 +29732,7 @@
         <f>'Modell - Drivmedelpriser'!J24</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="U6" s="644" t="s">
+      <c r="U6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -29752,7 +29765,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="AE6" s="644" t="s">
+      <c r="AE6" s="638" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -29787,7 +29800,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="645"/>
+      <c r="A7" s="639"/>
       <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29818,7 +29831,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="645"/>
+      <c r="K7" s="639"/>
       <c r="L7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29849,7 +29862,7 @@
         <f>'Modell - Drivmedelpriser'!J43</f>
         <v>24.89327119863777</v>
       </c>
-      <c r="U7" s="645"/>
+      <c r="U7" s="639"/>
       <c r="V7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29880,7 +29893,7 @@
         <f t="shared" si="4"/>
         <v>24.89327119863777</v>
       </c>
-      <c r="AE7" s="645"/>
+      <c r="AE7" s="639"/>
       <c r="AF7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29913,7 +29926,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="645"/>
+      <c r="A8" s="639"/>
       <c r="B8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29944,7 +29957,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="645"/>
+      <c r="K8" s="639"/>
       <c r="L8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29975,7 +29988,7 @@
         <f>'Modell - Drivmedelpriser'!J75</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="645"/>
+      <c r="U8" s="639"/>
       <c r="V8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30006,7 +30019,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="645"/>
+      <c r="AE8" s="639"/>
       <c r="AF8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30039,7 +30052,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="303" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="645"/>
+      <c r="A9" s="639"/>
       <c r="B9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30070,7 +30083,7 @@
         <f>Indata!I35</f>
         <v>21.888963239913203</v>
       </c>
-      <c r="K9" s="645"/>
+      <c r="K9" s="639"/>
       <c r="L9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30101,7 +30114,7 @@
         <f t="shared" si="12"/>
         <v>26.181733806320725</v>
       </c>
-      <c r="U9" s="645"/>
+      <c r="U9" s="639"/>
       <c r="V9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30132,7 +30145,7 @@
         <f t="shared" si="13"/>
         <v>26.181733806320722</v>
       </c>
-      <c r="AE9" s="645"/>
+      <c r="AE9" s="639"/>
       <c r="AF9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30165,7 +30178,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="646"/>
+      <c r="A10" s="640"/>
       <c r="B10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30190,7 +30203,7 @@
       <c r="I10" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="646"/>
+      <c r="K10" s="640"/>
       <c r="L10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30221,7 +30234,7 @@
         <f t="shared" si="15"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="U10" s="646"/>
+      <c r="U10" s="640"/>
       <c r="V10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30252,7 +30265,7 @@
         <f t="shared" si="16"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="AE10" s="646"/>
+      <c r="AE10" s="640"/>
       <c r="AF10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30354,7 +30367,7 @@
       <c r="AM12" s="201"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="644" t="s">
+      <c r="A13" s="638" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="135" t="s">
@@ -30387,7 +30400,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="644" t="s">
+      <c r="K13" s="638" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="135" t="s">
@@ -30420,7 +30433,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="U13" s="644" t="s">
+      <c r="U13" s="638" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="135" t="s">
@@ -30453,7 +30466,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="AE13" s="644" t="s">
+      <c r="AE13" s="638" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="135" t="s">
@@ -30488,7 +30501,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="645"/>
+      <c r="A14" s="639"/>
       <c r="B14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30519,7 +30532,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="645"/>
+      <c r="K14" s="639"/>
       <c r="L14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30550,7 +30563,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.4867802477475246</v>
       </c>
-      <c r="U14" s="645"/>
+      <c r="U14" s="639"/>
       <c r="V14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30581,7 +30594,7 @@
         <f t="shared" si="22"/>
         <v>0.4867802477475246</v>
       </c>
-      <c r="AE14" s="645"/>
+      <c r="AE14" s="639"/>
       <c r="AF14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30614,7 +30627,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="646"/>
+      <c r="A15" s="640"/>
       <c r="B15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30645,7 +30658,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="646"/>
+      <c r="K15" s="640"/>
       <c r="L15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30676,7 +30689,7 @@
         <f>I15*(1-Indata!I$19)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="646"/>
+      <c r="U15" s="640"/>
       <c r="V15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30707,7 +30720,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="646"/>
+      <c r="AE15" s="640"/>
       <c r="AF15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30809,7 +30822,7 @@
       <c r="AM17" s="212"/>
     </row>
     <row r="18" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="631" t="s">
+      <c r="A18" s="635" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="135" t="s">
@@ -30842,7 +30855,7 @@
         <f>Indata!I25/SUM(Indata!I$25:I$26)*(1-I$20)</f>
         <v>0.17452833971320134</v>
       </c>
-      <c r="K18" s="631" t="s">
+      <c r="K18" s="635" t="s">
         <v>150</v>
       </c>
       <c r="L18" s="135" t="s">
@@ -30875,7 +30888,7 @@
         <f t="shared" si="30"/>
         <v>0.16802506584008586</v>
       </c>
-      <c r="U18" s="631" t="s">
+      <c r="U18" s="635" t="s">
         <v>150</v>
       </c>
       <c r="V18" s="135" t="s">
@@ -30908,7 +30921,7 @@
         <f t="shared" ref="AC18:AC21" si="35">S18</f>
         <v>0.16802506584008586</v>
       </c>
-      <c r="AE18" s="631" t="s">
+      <c r="AE18" s="635" t="s">
         <v>150</v>
       </c>
       <c r="AF18" s="135" t="s">
@@ -30943,7 +30956,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="632"/>
+      <c r="A19" s="636"/>
       <c r="B19" s="136" t="s">
         <v>9</v>
       </c>
@@ -30974,7 +30987,7 @@
         <f>Indata!I26/SUM(Indata!I$25:I$26)*(1-I$20)</f>
         <v>0.1554716602867986</v>
       </c>
-      <c r="K19" s="632"/>
+      <c r="K19" s="636"/>
       <c r="L19" s="136" t="s">
         <v>9</v>
       </c>
@@ -31005,7 +31018,7 @@
         <f t="shared" si="30"/>
         <v>0.14967847628003786</v>
       </c>
-      <c r="U19" s="632"/>
+      <c r="U19" s="636"/>
       <c r="V19" s="136" t="s">
         <v>9</v>
       </c>
@@ -31036,7 +31049,7 @@
         <f t="shared" si="35"/>
         <v>0.14967847628003786</v>
       </c>
-      <c r="AE19" s="632"/>
+      <c r="AE19" s="636"/>
       <c r="AF19" s="136" t="s">
         <v>9</v>
       </c>
@@ -31069,7 +31082,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="632"/>
+      <c r="A20" s="636"/>
       <c r="B20" s="136" t="s">
         <v>7</v>
       </c>
@@ -31100,7 +31113,7 @@
         <f>Indata!I28</f>
         <v>0.67</v>
       </c>
-      <c r="K20" s="632"/>
+      <c r="K20" s="636"/>
       <c r="L20" s="136" t="s">
         <v>7</v>
       </c>
@@ -31131,7 +31144,7 @@
         <f>I20+(1-I20)*'Indata - Effektsamband-Faktorer'!$E$4*S$10</f>
         <v>0.68229645787987625</v>
       </c>
-      <c r="U20" s="632"/>
+      <c r="U20" s="636"/>
       <c r="V20" s="136" t="s">
         <v>7</v>
       </c>
@@ -31162,7 +31175,7 @@
         <f t="shared" si="35"/>
         <v>0.68229645787987625</v>
       </c>
-      <c r="AE20" s="632"/>
+      <c r="AE20" s="636"/>
       <c r="AF20" s="136" t="s">
         <v>7</v>
       </c>
@@ -31195,7 +31208,7 @@
       </c>
     </row>
     <row r="21" spans="1:39" s="303" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="633"/>
+      <c r="A21" s="637"/>
       <c r="B21" s="189" t="s">
         <v>16</v>
       </c>
@@ -31226,7 +31239,7 @@
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
-      <c r="K21" s="633"/>
+      <c r="K21" s="637"/>
       <c r="L21" s="189" t="s">
         <v>16</v>
       </c>
@@ -31257,7 +31270,7 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="U21" s="633"/>
+      <c r="U21" s="637"/>
       <c r="V21" s="189" t="s">
         <v>16</v>
       </c>
@@ -31288,7 +31301,7 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AE21" s="633"/>
+      <c r="AE21" s="637"/>
       <c r="AF21" s="189" t="s">
         <v>16</v>
       </c>
@@ -31390,7 +31403,7 @@
       <c r="AM23" s="201"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="644" t="s">
+      <c r="A24" s="638" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="135" t="s">
@@ -31423,7 +31436,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="644" t="s">
+      <c r="K24" s="638" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="135" t="s">
@@ -31456,7 +31469,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="644" t="s">
+      <c r="U24" s="638" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="135" t="s">
@@ -31489,7 +31502,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="644" t="s">
+      <c r="AE24" s="638" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="135" t="s">
@@ -31524,7 +31537,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="645"/>
+      <c r="A25" s="639"/>
       <c r="B25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31555,7 +31568,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="645"/>
+      <c r="K25" s="639"/>
       <c r="L25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31586,7 +31599,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="645"/>
+      <c r="U25" s="639"/>
       <c r="V25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31617,7 +31630,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="645"/>
+      <c r="AE25" s="639"/>
       <c r="AF25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31650,7 +31663,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="646"/>
+      <c r="A26" s="640"/>
       <c r="B26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31681,7 +31694,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="646"/>
+      <c r="K26" s="640"/>
       <c r="L26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31712,7 +31725,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="646"/>
+      <c r="U26" s="640"/>
       <c r="V26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31743,7 +31756,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="646"/>
+      <c r="AE26" s="640"/>
       <c r="AF26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31851,7 +31864,7 @@
       <c r="AM28" s="201"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="644" t="s">
+      <c r="A29" s="638" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -31884,7 +31897,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="644" t="s">
+      <c r="K29" s="638" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -31917,7 +31930,7 @@
         <f t="shared" ref="S29:S31" si="68">I29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="644" t="s">
+      <c r="U29" s="638" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -31950,7 +31963,7 @@
         <f t="shared" ref="AC29:AC31" si="73">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="644" t="s">
+      <c r="AE29" s="638" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -31985,7 +31998,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="645"/>
+      <c r="A30" s="639"/>
       <c r="B30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32016,7 +32029,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="645"/>
+      <c r="K30" s="639"/>
       <c r="L30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32047,7 +32060,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="645"/>
+      <c r="U30" s="639"/>
       <c r="V30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32078,7 +32091,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="645"/>
+      <c r="AE30" s="639"/>
       <c r="AF30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32111,7 +32124,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="646"/>
+      <c r="A31" s="640"/>
       <c r="B31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32142,7 +32155,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="646"/>
+      <c r="K31" s="640"/>
       <c r="L31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32173,7 +32186,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="646"/>
+      <c r="U31" s="640"/>
       <c r="V31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32204,7 +32217,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="646"/>
+      <c r="AE31" s="640"/>
       <c r="AF31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32314,7 +32327,7 @@
       <c r="AM33" s="78"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="631" t="s">
+      <c r="A34" s="635" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="135" t="s">
@@ -32347,7 +32360,7 @@
         <f t="shared" si="82"/>
         <v>17.498762725324855</v>
       </c>
-      <c r="K34" s="631" t="s">
+      <c r="K34" s="635" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="135" t="s">
@@ -32380,7 +32393,7 @@
         <f t="shared" si="83"/>
         <v>16.846723941076657</v>
       </c>
-      <c r="U34" s="631" t="s">
+      <c r="U34" s="635" t="s">
         <v>17</v>
       </c>
       <c r="V34" s="135" t="s">
@@ -32413,7 +32426,7 @@
         <f>S34*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>17.107176973052372</v>
       </c>
-      <c r="AE34" s="631" t="s">
+      <c r="AE34" s="635" t="s">
         <v>17</v>
       </c>
       <c r="AF34" s="135" t="s">
@@ -32448,7 +32461,7 @@
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="632"/>
+      <c r="A35" s="636"/>
       <c r="B35" s="136" t="s">
         <v>9</v>
       </c>
@@ -32479,7 +32492,7 @@
         <f t="shared" si="82"/>
         <v>15.588079840452504</v>
       </c>
-      <c r="K35" s="632"/>
+      <c r="K35" s="636"/>
       <c r="L35" s="136" t="s">
         <v>9</v>
       </c>
@@ -32510,7 +32523,7 @@
         <f t="shared" si="84"/>
         <v>15.007236909585012</v>
       </c>
-      <c r="U35" s="632"/>
+      <c r="U35" s="636"/>
       <c r="V35" s="136" t="s">
         <v>9</v>
       </c>
@@ -32541,7 +32554,7 @@
         <f>S35*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>15.23925117944248</v>
       </c>
-      <c r="AE35" s="632"/>
+      <c r="AE35" s="636"/>
       <c r="AF35" s="136" t="s">
         <v>9</v>
       </c>
@@ -32574,7 +32587,7 @@
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="632"/>
+      <c r="A36" s="636"/>
       <c r="B36" s="136" t="s">
         <v>7</v>
       </c>
@@ -32605,7 +32618,7 @@
         <f t="shared" si="82"/>
         <v>67.176316724457081</v>
       </c>
-      <c r="K36" s="632"/>
+      <c r="K36" s="636"/>
       <c r="L36" s="136" t="s">
         <v>7</v>
       </c>
@@ -32636,7 +32649,7 @@
         <f t="shared" si="84"/>
         <v>68.409198439572762</v>
       </c>
-      <c r="U36" s="632"/>
+      <c r="U36" s="636"/>
       <c r="V36" s="136" t="s">
         <v>7</v>
       </c>
@@ -32667,7 +32680,7 @@
         <f>S36*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>69.466815529455232</v>
       </c>
-      <c r="AE36" s="632"/>
+      <c r="AE36" s="636"/>
       <c r="AF36" s="136" t="s">
         <v>7</v>
       </c>
@@ -32700,7 +32713,7 @@
       </c>
     </row>
     <row r="37" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="633"/>
+      <c r="A37" s="637"/>
       <c r="B37" s="189" t="s">
         <v>16</v>
       </c>
@@ -32731,7 +32744,7 @@
         <f>Indata!I37*(1+Indata!I38)</f>
         <v>100.26315929023444</v>
       </c>
-      <c r="K37" s="633"/>
+      <c r="K37" s="637"/>
       <c r="L37" s="189" t="s">
         <v>16</v>
       </c>
@@ -32762,7 +32775,7 @@
         <f t="shared" si="85"/>
         <v>100.26315929023444</v>
       </c>
-      <c r="U37" s="633"/>
+      <c r="U37" s="637"/>
       <c r="V37" s="189" t="s">
         <v>16</v>
       </c>
@@ -32793,7 +32806,7 @@
         <f t="shared" ref="AC37" si="86">SUM(AC34:AC36)</f>
         <v>101.81324368195008</v>
       </c>
-      <c r="AE37" s="633"/>
+      <c r="AE37" s="637"/>
       <c r="AF37" s="189" t="s">
         <v>16</v>
       </c>
@@ -32895,7 +32908,7 @@
       <c r="AM39" s="201"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="644" t="s">
+      <c r="A40" s="638" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="135" t="s">
@@ -32928,7 +32941,7 @@
         <f t="shared" si="90"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="644" t="s">
+      <c r="K40" s="638" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="135" t="s">
@@ -32961,7 +32974,7 @@
         <f t="shared" si="91"/>
         <v>23.329659844074406</v>
       </c>
-      <c r="U40" s="644" t="s">
+      <c r="U40" s="638" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="135" t="s">
@@ -32994,7 +33007,7 @@
         <f t="shared" ref="AC40:AC42" si="96">S40</f>
         <v>23.329659844074406</v>
       </c>
-      <c r="AE40" s="644" t="s">
+      <c r="AE40" s="638" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="135" t="s">
@@ -33029,7 +33042,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="645"/>
+      <c r="A41" s="639"/>
       <c r="B41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33060,7 +33073,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="645"/>
+      <c r="K41" s="639"/>
       <c r="L41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33091,7 +33104,7 @@
         <f t="shared" si="91"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="U41" s="645"/>
+      <c r="U41" s="639"/>
       <c r="V41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33122,7 +33135,7 @@
         <f t="shared" si="96"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="AE41" s="645"/>
+      <c r="AE41" s="639"/>
       <c r="AF41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33155,7 +33168,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="645"/>
+      <c r="A42" s="639"/>
       <c r="B42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33186,7 +33199,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="645"/>
+      <c r="K42" s="639"/>
       <c r="L42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33217,7 +33230,7 @@
         <f t="shared" si="91"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="645"/>
+      <c r="U42" s="639"/>
       <c r="V42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33248,7 +33261,7 @@
         <f t="shared" si="96"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="645"/>
+      <c r="AE42" s="639"/>
       <c r="AF42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33281,7 +33294,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="645"/>
+      <c r="A43" s="639"/>
       <c r="B43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33310,7 +33323,7 @@
         <f t="shared" si="104"/>
         <v>18.064425082921922</v>
       </c>
-      <c r="K43" s="645"/>
+      <c r="K43" s="639"/>
       <c r="L43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33341,7 +33354,7 @@
         <f t="shared" ref="S43" si="105">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>18.645576333860959</v>
       </c>
-      <c r="U43" s="645"/>
+      <c r="U43" s="639"/>
       <c r="V43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33372,7 +33385,7 @@
         <f t="shared" si="106"/>
         <v>18.645576333860962</v>
       </c>
-      <c r="AE43" s="645"/>
+      <c r="AE43" s="639"/>
       <c r="AF43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33405,7 +33418,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="646"/>
+      <c r="A44" s="640"/>
       <c r="B44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33430,7 +33443,7 @@
       <c r="I44" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="646"/>
+      <c r="K44" s="640"/>
       <c r="L44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33461,7 +33474,7 @@
         <f>S43/E43-1</f>
         <v>-5.1358020489668088E-2</v>
       </c>
-      <c r="U44" s="646"/>
+      <c r="U44" s="640"/>
       <c r="V44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33492,7 +33505,7 @@
         <f>AC43/E43-1</f>
         <v>-5.1358020489667866E-2</v>
       </c>
-      <c r="AE44" s="646"/>
+      <c r="AE44" s="640"/>
       <c r="AF44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33600,7 +33613,7 @@
       <c r="AM46" s="78"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="644" t="s">
+      <c r="A47" s="638" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="135" t="s">
@@ -33633,7 +33646,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="644" t="s">
+      <c r="K47" s="638" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="135" t="s">
@@ -33666,7 +33679,7 @@
         <f t="shared" si="107"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="644" t="s">
+      <c r="U47" s="638" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="135" t="s">
@@ -33699,7 +33712,7 @@
         <f t="shared" ref="AC47:AC49" si="112">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="644" t="s">
+      <c r="AE47" s="638" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="135" t="s">
@@ -33734,7 +33747,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="645"/>
+      <c r="A48" s="639"/>
       <c r="B48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33765,7 +33778,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="645"/>
+      <c r="K48" s="639"/>
       <c r="L48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33796,7 +33809,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$E$7*S44)*'Modell - Lätta fordon'!I48</f>
         <v>0.53200533240081493</v>
       </c>
-      <c r="U48" s="645"/>
+      <c r="U48" s="639"/>
       <c r="V48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33827,7 +33840,7 @@
         <f t="shared" si="112"/>
         <v>0.53200533240081493</v>
       </c>
-      <c r="AE48" s="645"/>
+      <c r="AE48" s="639"/>
       <c r="AF48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33860,7 +33873,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="645"/>
+      <c r="A49" s="639"/>
       <c r="B49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33891,7 +33904,7 @@
         <f t="shared" si="118"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="645"/>
+      <c r="K49" s="639"/>
       <c r="L49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33922,7 +33935,7 @@
         <f t="shared" ref="S49" si="121">S47*S48</f>
         <v>6197170.5155373728</v>
       </c>
-      <c r="U49" s="645"/>
+      <c r="U49" s="639"/>
       <c r="V49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33953,7 +33966,7 @@
         <f t="shared" si="112"/>
         <v>6197170.5155373728</v>
       </c>
-      <c r="AE49" s="645"/>
+      <c r="AE49" s="639"/>
       <c r="AF49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33986,7 +33999,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="646"/>
+      <c r="A50" s="640"/>
       <c r="B50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34011,7 +34024,7 @@
       <c r="I50" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="646"/>
+      <c r="K50" s="640"/>
       <c r="L50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34042,7 +34055,7 @@
         <f>S49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="U50" s="646"/>
+      <c r="U50" s="640"/>
       <c r="V50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34073,7 +34086,7 @@
         <f>AC49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="AE50" s="646"/>
+      <c r="AE50" s="640"/>
       <c r="AF50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34190,7 +34203,7 @@
       <c r="AA53" s="78"/>
       <c r="AB53" s="78"/>
       <c r="AC53" s="78"/>
-      <c r="AE53" s="631" t="s">
+      <c r="AE53" s="635" t="s">
         <v>269</v>
       </c>
       <c r="AF53" s="135" t="s">
@@ -34243,7 +34256,7 @@
       <c r="AA54" s="78"/>
       <c r="AB54" s="78"/>
       <c r="AC54" s="78"/>
-      <c r="AE54" s="632"/>
+      <c r="AE54" s="636"/>
       <c r="AF54" s="136" t="s">
         <v>9</v>
       </c>
@@ -34294,7 +34307,7 @@
       <c r="AA55" s="78"/>
       <c r="AB55" s="78"/>
       <c r="AC55" s="78"/>
-      <c r="AE55" s="632"/>
+      <c r="AE55" s="636"/>
       <c r="AF55" s="136" t="s">
         <v>7</v>
       </c>
@@ -34345,7 +34358,7 @@
       <c r="AA56" s="78"/>
       <c r="AB56" s="78"/>
       <c r="AC56" s="78"/>
-      <c r="AE56" s="633"/>
+      <c r="AE56" s="637"/>
       <c r="AF56" s="189" t="s">
         <v>16</v>
       </c>
@@ -34396,7 +34409,7 @@
       <c r="AA57" s="78"/>
       <c r="AB57" s="78"/>
       <c r="AC57" s="78"/>
-      <c r="AE57" s="631" t="s">
+      <c r="AE57" s="635" t="s">
         <v>276</v>
       </c>
       <c r="AF57" s="135" t="s">
@@ -34449,7 +34462,7 @@
       <c r="AA58" s="78"/>
       <c r="AB58" s="78"/>
       <c r="AC58" s="78"/>
-      <c r="AE58" s="632"/>
+      <c r="AE58" s="636"/>
       <c r="AF58" s="136" t="s">
         <v>9</v>
       </c>
@@ -34500,7 +34513,7 @@
       <c r="AA59" s="78"/>
       <c r="AB59" s="78"/>
       <c r="AC59" s="78"/>
-      <c r="AE59" s="632"/>
+      <c r="AE59" s="636"/>
       <c r="AF59" s="136" t="s">
         <v>7</v>
       </c>
@@ -34545,7 +34558,7 @@
       <c r="AA60" s="78"/>
       <c r="AB60" s="78"/>
       <c r="AC60" s="78"/>
-      <c r="AE60" s="633"/>
+      <c r="AE60" s="637"/>
       <c r="AF60" s="189" t="s">
         <v>16</v>
       </c>
@@ -34596,7 +34609,7 @@
       <c r="AA61" s="78"/>
       <c r="AB61" s="78"/>
       <c r="AC61" s="78"/>
-      <c r="AE61" s="631" t="s">
+      <c r="AE61" s="635" t="s">
         <v>270</v>
       </c>
       <c r="AF61" s="135" t="s">
@@ -34649,7 +34662,7 @@
       <c r="AA62" s="78"/>
       <c r="AB62" s="78"/>
       <c r="AC62" s="78"/>
-      <c r="AE62" s="632"/>
+      <c r="AE62" s="636"/>
       <c r="AF62" s="136" t="s">
         <v>9</v>
       </c>
@@ -34700,7 +34713,7 @@
       <c r="AA63" s="78"/>
       <c r="AB63" s="78"/>
       <c r="AC63" s="78"/>
-      <c r="AE63" s="632"/>
+      <c r="AE63" s="636"/>
       <c r="AF63" s="136" t="s">
         <v>7</v>
       </c>
@@ -34745,7 +34758,7 @@
       <c r="AA64" s="78"/>
       <c r="AB64" s="78"/>
       <c r="AC64" s="78"/>
-      <c r="AE64" s="633"/>
+      <c r="AE64" s="637"/>
       <c r="AF64" s="189" t="s">
         <v>16</v>
       </c>
@@ -34900,7 +34913,7 @@
       <c r="AA68" s="78"/>
       <c r="AB68" s="78"/>
       <c r="AC68" s="78"/>
-      <c r="AE68" s="631" t="s">
+      <c r="AE68" s="635" t="s">
         <v>130</v>
       </c>
       <c r="AF68" s="135" t="s">
@@ -34953,7 +34966,7 @@
       <c r="AA69" s="78"/>
       <c r="AB69" s="78"/>
       <c r="AC69" s="78"/>
-      <c r="AE69" s="632"/>
+      <c r="AE69" s="636"/>
       <c r="AF69" s="136" t="s">
         <v>97</v>
       </c>
@@ -35004,7 +35017,7 @@
       <c r="AA70" s="78"/>
       <c r="AB70" s="78"/>
       <c r="AC70" s="78"/>
-      <c r="AE70" s="632"/>
+      <c r="AE70" s="636"/>
       <c r="AF70" s="136" t="s">
         <v>98</v>
       </c>
@@ -35055,7 +35068,7 @@
       <c r="AA71" s="78"/>
       <c r="AB71" s="78"/>
       <c r="AC71" s="78"/>
-      <c r="AE71" s="632"/>
+      <c r="AE71" s="636"/>
       <c r="AF71" s="136" t="s">
         <v>100</v>
       </c>
@@ -35088,7 +35101,7 @@
       </c>
     </row>
     <row r="72" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE72" s="632"/>
+      <c r="AE72" s="636"/>
       <c r="AF72" s="136" t="s">
         <v>7</v>
       </c>
@@ -35121,7 +35134,7 @@
       </c>
     </row>
     <row r="73" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE73" s="632"/>
+      <c r="AE73" s="636"/>
       <c r="AF73" s="187" t="s">
         <v>131</v>
       </c>
@@ -35154,7 +35167,7 @@
       </c>
     </row>
     <row r="74" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE74" s="632"/>
+      <c r="AE74" s="636"/>
       <c r="AF74" s="187" t="s">
         <v>132</v>
       </c>
@@ -35187,7 +35200,7 @@
       </c>
     </row>
     <row r="75" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE75" s="633"/>
+      <c r="AE75" s="637"/>
       <c r="AF75" s="189" t="s">
         <v>133</v>
       </c>
@@ -35233,7 +35246,7 @@
       <c r="AM77" s="40"/>
     </row>
     <row r="78" spans="4:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE78" s="631" t="s">
+      <c r="AE78" s="635" t="s">
         <v>236</v>
       </c>
       <c r="AF78" s="135" t="s">
@@ -35268,7 +35281,7 @@
       </c>
     </row>
     <row r="79" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE79" s="632"/>
+      <c r="AE79" s="636"/>
       <c r="AF79" s="136" t="s">
         <v>97</v>
       </c>
@@ -35301,7 +35314,7 @@
       </c>
     </row>
     <row r="80" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE80" s="632"/>
+      <c r="AE80" s="636"/>
       <c r="AF80" s="136" t="s">
         <v>98</v>
       </c>
@@ -35334,7 +35347,7 @@
       </c>
     </row>
     <row r="81" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE81" s="632"/>
+      <c r="AE81" s="636"/>
       <c r="AF81" s="136" t="s">
         <v>100</v>
       </c>
@@ -35367,7 +35380,7 @@
       </c>
     </row>
     <row r="82" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE82" s="632"/>
+      <c r="AE82" s="636"/>
       <c r="AF82" s="136" t="s">
         <v>7</v>
       </c>
@@ -35400,7 +35413,7 @@
       </c>
     </row>
     <row r="83" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE83" s="632"/>
+      <c r="AE83" s="636"/>
       <c r="AF83" s="187" t="s">
         <v>131</v>
       </c>
@@ -35433,7 +35446,7 @@
       </c>
     </row>
     <row r="84" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE84" s="632"/>
+      <c r="AE84" s="636"/>
       <c r="AF84" s="187" t="s">
         <v>132</v>
       </c>
@@ -35466,7 +35479,7 @@
       </c>
     </row>
     <row r="85" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE85" s="633"/>
+      <c r="AE85" s="637"/>
       <c r="AF85" s="189" t="s">
         <v>133</v>
       </c>
@@ -35499,7 +35512,7 @@
       </c>
     </row>
     <row r="86" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE86" s="631" t="s">
+      <c r="AE86" s="635" t="s">
         <v>202</v>
       </c>
       <c r="AF86" s="135" t="s">
@@ -35534,7 +35547,7 @@
       </c>
     </row>
     <row r="87" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE87" s="632"/>
+      <c r="AE87" s="636"/>
       <c r="AF87" s="136" t="s">
         <v>9</v>
       </c>
@@ -35567,7 +35580,7 @@
       </c>
     </row>
     <row r="88" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE88" s="632"/>
+      <c r="AE88" s="636"/>
       <c r="AF88" s="136" t="s">
         <v>7</v>
       </c>
@@ -35600,7 +35613,7 @@
       </c>
     </row>
     <row r="89" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE89" s="633"/>
+      <c r="AE89" s="637"/>
       <c r="AF89" s="189" t="s">
         <v>16</v>
       </c>
@@ -35637,19 +35650,35 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="AE86:AE89"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AE53:AE56"/>
+    <mergeCell ref="AE68:AE75"/>
+    <mergeCell ref="AE78:AE85"/>
+    <mergeCell ref="AE47:AE50"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AE24:AE26"/>
+    <mergeCell ref="AE29:AE31"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="K47:K50"/>
     <mergeCell ref="H3:I3"/>
@@ -35666,35 +35695,19 @@
     <mergeCell ref="K24:K26"/>
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="K13:K15"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AE86:AE89"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AE53:AE56"/>
-    <mergeCell ref="AE68:AE75"/>
-    <mergeCell ref="AE78:AE85"/>
-    <mergeCell ref="AE47:AE50"/>
-    <mergeCell ref="AE18:AE21"/>
-    <mergeCell ref="AE24:AE26"/>
-    <mergeCell ref="AE29:AE31"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/models/trv_scenario2.xlsx
+++ b/models/trv_scenario2.xlsx
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="410">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -2628,6 +2628,15 @@
   </si>
   <si>
     <t>Förändring i utsläpp bilar</t>
+  </si>
+  <si>
+    <t>Andel elenergi</t>
+  </si>
+  <si>
+    <t>Driving cost light veh comp. Reference</t>
+  </si>
+  <si>
+    <t>Driving cost truck comp. Reference</t>
   </si>
 </sst>
 </file>
@@ -18558,10 +18567,10 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21067,6 +21076,33 @@
       <c r="D74" s="40">
         <f>Resultat!F37/'Indata - Utsläpp'!B15-1</f>
         <v>-0.73481851843620594</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D75" s="40">
+        <f>D73/D70</f>
+        <v>0.11067922200266737</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D76" s="40">
+        <f>Resultat!F23/Resultat!D23</f>
+        <v>2.6929197009211712</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="40">
+        <f>Resultat!F26/Resultat!D26</f>
+        <v>1.9499962263346504</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21165,7 +21201,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F37" sqref="F37"/>

--- a/models/trv_scenario2.xlsx
+++ b/models/trv_scenario2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beskrivning" sheetId="19" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="kr_till_öre">'[1]Koefficienter &amp; omvandlingstal'!$A$20</definedName>
     <definedName name="m3_till_liter">'[1]Koefficienter &amp; omvandlingstal'!$A$21</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="autoNoTable" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="411">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -2637,6 +2637,9 @@
   </si>
   <si>
     <t>Driving cost truck comp. Reference</t>
+  </si>
+  <si>
+    <t>Konsumentöverskott (delta) beräknat m.h.a "rule of half"</t>
   </si>
 </sst>
 </file>
@@ -5263,6 +5266,39 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5278,44 +5314,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5323,30 +5350,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5359,45 +5362,45 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5407,6 +5410,36 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5416,41 +5449,11 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -10590,87 +10593,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="643" t="s">
+      <c r="A3" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="649" t="s">
+      <c r="B3" s="640" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="650"/>
-      <c r="D3" s="643" t="s">
+      <c r="C3" s="641"/>
+      <c r="D3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="642"/>
-      <c r="F3" s="643" t="s">
+      <c r="E3" s="651"/>
+      <c r="F3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="642"/>
-      <c r="H3" s="641" t="s">
+      <c r="G3" s="651"/>
+      <c r="H3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="642"/>
-      <c r="K3" s="643" t="s">
+      <c r="I3" s="651"/>
+      <c r="K3" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="649" t="s">
+      <c r="L3" s="640" t="s">
         <v>240</v>
       </c>
-      <c r="M3" s="650"/>
-      <c r="N3" s="643" t="s">
+      <c r="M3" s="641"/>
+      <c r="N3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="642"/>
-      <c r="P3" s="643" t="s">
+      <c r="O3" s="651"/>
+      <c r="P3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="642"/>
-      <c r="R3" s="641" t="s">
+      <c r="Q3" s="651"/>
+      <c r="R3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="642"/>
-      <c r="U3" s="643" t="s">
+      <c r="S3" s="651"/>
+      <c r="U3" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="649" t="s">
+      <c r="V3" s="640" t="s">
         <v>241</v>
       </c>
-      <c r="W3" s="650"/>
-      <c r="X3" s="643" t="s">
+      <c r="W3" s="641"/>
+      <c r="X3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="642"/>
-      <c r="Z3" s="643" t="s">
+      <c r="Y3" s="651"/>
+      <c r="Z3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="642"/>
-      <c r="AB3" s="641" t="s">
+      <c r="AA3" s="651"/>
+      <c r="AB3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="642"/>
-      <c r="AE3" s="643" t="s">
+      <c r="AC3" s="651"/>
+      <c r="AE3" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="649" t="s">
+      <c r="AF3" s="640" t="s">
         <v>238</v>
       </c>
-      <c r="AG3" s="650"/>
-      <c r="AH3" s="643" t="s">
+      <c r="AG3" s="641"/>
+      <c r="AH3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="642"/>
-      <c r="AJ3" s="643" t="s">
+      <c r="AI3" s="651"/>
+      <c r="AJ3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="642"/>
-      <c r="AL3" s="641" t="s">
+      <c r="AK3" s="651"/>
+      <c r="AL3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="642"/>
+      <c r="AM3" s="651"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="648"/>
-      <c r="B4" s="651"/>
-      <c r="C4" s="652"/>
+      <c r="A4" s="639"/>
+      <c r="B4" s="642"/>
+      <c r="C4" s="643"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -10689,9 +10692,9 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="648"/>
-      <c r="L4" s="651"/>
-      <c r="M4" s="652"/>
+      <c r="K4" s="639"/>
+      <c r="L4" s="642"/>
+      <c r="M4" s="643"/>
       <c r="N4" s="265">
         <v>2030</v>
       </c>
@@ -10710,9 +10713,9 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="648"/>
-      <c r="V4" s="651"/>
-      <c r="W4" s="652"/>
+      <c r="U4" s="639"/>
+      <c r="V4" s="642"/>
+      <c r="W4" s="643"/>
       <c r="X4" s="265">
         <v>2030</v>
       </c>
@@ -10731,9 +10734,9 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="648"/>
-      <c r="AF4" s="651"/>
-      <c r="AG4" s="652"/>
+      <c r="AE4" s="639"/>
+      <c r="AF4" s="642"/>
+      <c r="AG4" s="643"/>
       <c r="AH4" s="265">
         <v>2030</v>
       </c>
@@ -10794,7 +10797,7 @@
       <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="638" t="s">
+      <c r="A6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -10827,7 +10830,7 @@
         <f>Indata!I54</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="K6" s="638" t="s">
+      <c r="K6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -10860,7 +10863,7 @@
         <f>'Modell - Drivmedelpriser'!J58</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="U6" s="638" t="s">
+      <c r="U6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -10893,7 +10896,7 @@
         <f t="shared" ref="AC6:AC7" si="4">S6</f>
         <v>19.161594511883557</v>
       </c>
-      <c r="AE6" s="638" t="s">
+      <c r="AE6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -10928,7 +10931,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="639"/>
+      <c r="A7" s="649"/>
       <c r="B7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10959,7 +10962,7 @@
         <f>Indata!I55</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="639"/>
+      <c r="K7" s="649"/>
       <c r="L7" s="136" t="s">
         <v>7</v>
       </c>
@@ -10990,7 +10993,7 @@
         <f>'Modell - Drivmedelpriser'!J84</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="639"/>
+      <c r="U7" s="649"/>
       <c r="V7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11021,7 +11024,7 @@
         <f t="shared" si="4"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="639"/>
+      <c r="AE7" s="649"/>
       <c r="AF7" s="136" t="s">
         <v>7</v>
       </c>
@@ -11054,7 +11057,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="640"/>
+      <c r="A8" s="650"/>
       <c r="B8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11079,7 +11082,7 @@
       <c r="I8" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="640"/>
+      <c r="K8" s="650"/>
       <c r="L8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11110,7 +11113,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="640"/>
+      <c r="U8" s="650"/>
       <c r="V8" s="188" t="s">
         <v>244</v>
       </c>
@@ -11141,7 +11144,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="640"/>
+      <c r="AE8" s="650"/>
       <c r="AF8" s="188" t="s">
         <v>244</v>
       </c>
@@ -13143,7 +13146,7 @@
       <c r="AM28" s="77"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="638" t="s">
+      <c r="A29" s="648" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -13176,7 +13179,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="638" t="s">
+      <c r="K29" s="648" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -13209,7 +13212,7 @@
         <f t="shared" ref="S29:S32" si="65">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="638" t="s">
+      <c r="U29" s="648" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -13242,7 +13245,7 @@
         <f t="shared" ref="AC29:AC32" si="70">S29</f>
         <v>0</v>
       </c>
-      <c r="AE29" s="638" t="s">
+      <c r="AE29" s="648" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -13277,7 +13280,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="639"/>
+      <c r="A30" s="649"/>
       <c r="B30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13308,7 +13311,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="639"/>
+      <c r="K30" s="649"/>
       <c r="L30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13339,7 +13342,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U30" s="639"/>
+      <c r="U30" s="649"/>
       <c r="V30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13370,7 +13373,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="639"/>
+      <c r="AE30" s="649"/>
       <c r="AF30" s="136" t="s">
         <v>117</v>
       </c>
@@ -13403,7 +13406,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="639"/>
+      <c r="A31" s="649"/>
       <c r="B31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13434,7 +13437,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="639"/>
+      <c r="K31" s="649"/>
       <c r="L31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13465,7 +13468,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U31" s="639"/>
+      <c r="U31" s="649"/>
       <c r="V31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13496,7 +13499,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="639"/>
+      <c r="AE31" s="649"/>
       <c r="AF31" s="136" t="s">
         <v>118</v>
       </c>
@@ -13529,7 +13532,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="640"/>
+      <c r="A32" s="650"/>
       <c r="B32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13560,7 +13563,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="640"/>
+      <c r="K32" s="650"/>
       <c r="L32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13591,7 +13594,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="U32" s="640"/>
+      <c r="U32" s="650"/>
       <c r="V32" s="137" t="s">
         <v>119</v>
       </c>
@@ -13622,7 +13625,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="640"/>
+      <c r="AE32" s="650"/>
       <c r="AF32" s="137" t="s">
         <v>119</v>
       </c>
@@ -18503,6 +18506,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AE88:AE91"/>
+    <mergeCell ref="AE74:AE76"/>
+    <mergeCell ref="AE77:AE79"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="AE71:AE73"/>
+    <mergeCell ref="AE83:AE85"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="K36:K50"/>
+    <mergeCell ref="U36:U50"/>
+    <mergeCell ref="AE36:AE50"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="U11:U20"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AE92:AE96"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -18519,40 +18556,6 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="K23:K26"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE88:AE91"/>
-    <mergeCell ref="AE74:AE76"/>
-    <mergeCell ref="AE77:AE79"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="AE71:AE73"/>
-    <mergeCell ref="AE83:AE85"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="K36:K50"/>
-    <mergeCell ref="U36:U50"/>
-    <mergeCell ref="AE36:AE50"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="U11:U20"/>
-    <mergeCell ref="AE6:AE8"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18566,8 +18569,8 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D62" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
@@ -18620,18 +18623,18 @@
       <c r="A5" s="131"/>
       <c r="B5" s="132"/>
       <c r="C5" s="132"/>
-      <c r="D5" s="602" t="s">
+      <c r="D5" s="590" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="603"/>
-      <c r="F5" s="602" t="s">
+      <c r="E5" s="591"/>
+      <c r="F5" s="590" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="603"/>
-      <c r="H5" s="602" t="s">
+      <c r="G5" s="591"/>
+      <c r="H5" s="590" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="603"/>
+      <c r="I5" s="591"/>
       <c r="J5" s="598" t="s">
         <v>15</v>
       </c>
@@ -18651,18 +18654,18 @@
       </c>
       <c r="B6" s="138"/>
       <c r="C6" s="139"/>
-      <c r="D6" s="604" t="s">
+      <c r="D6" s="594" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="605"/>
-      <c r="F6" s="606" t="s">
+      <c r="E6" s="595"/>
+      <c r="F6" s="596" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="607"/>
-      <c r="H6" s="606" t="s">
+      <c r="G6" s="597"/>
+      <c r="H6" s="596" t="s">
         <v>382</v>
       </c>
-      <c r="I6" s="607"/>
+      <c r="I6" s="597"/>
       <c r="J6" s="65"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -18757,7 +18760,7 @@
       <c r="S8" s="127"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="595" t="s">
+      <c r="A9" s="592" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -18789,7 +18792,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="596"/>
+      <c r="A10" s="593"/>
       <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
@@ -18819,7 +18822,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="596"/>
+      <c r="A11" s="593"/>
       <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
@@ -18849,7 +18852,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="596"/>
+      <c r="A12" s="593"/>
       <c r="B12" s="43" t="s">
         <v>37</v>
       </c>
@@ -18879,7 +18882,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="595" t="s">
+      <c r="A13" s="592" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -18911,7 +18914,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="597"/>
+      <c r="A14" s="600"/>
       <c r="B14" s="107" t="s">
         <v>9</v>
       </c>
@@ -18941,7 +18944,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="595" t="s">
+      <c r="A15" s="592" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -18973,7 +18976,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="597"/>
+      <c r="A16" s="600"/>
       <c r="B16" s="107" t="s">
         <v>324</v>
       </c>
@@ -19076,7 +19079,7 @@
       <c r="S18" s="127"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="595" t="s">
+      <c r="A19" s="592" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="106" t="s">
@@ -19108,7 +19111,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="597"/>
+      <c r="A20" s="600"/>
       <c r="B20" s="107" t="s">
         <v>324</v>
       </c>
@@ -19138,7 +19141,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="596" t="s">
+      <c r="A21" s="593" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -19170,7 +19173,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="597"/>
+      <c r="A22" s="600"/>
       <c r="B22" s="107" t="s">
         <v>324</v>
       </c>
@@ -19273,7 +19276,7 @@
       <c r="S24" s="127"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="595" t="s">
+      <c r="A25" s="592" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="106" t="s">
@@ -19320,7 +19323,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="596"/>
+      <c r="A26" s="593"/>
       <c r="B26" s="43" t="s">
         <v>9</v>
       </c>
@@ -19365,7 +19368,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="597"/>
+      <c r="A27" s="600"/>
       <c r="B27" s="107" t="s">
         <v>7</v>
       </c>
@@ -19457,7 +19460,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="595" t="s">
+      <c r="A29" s="592" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -19504,7 +19507,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="596"/>
+      <c r="A30" s="593"/>
       <c r="B30" s="43" t="s">
         <v>9</v>
       </c>
@@ -19549,7 +19552,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="597"/>
+      <c r="A31" s="600"/>
       <c r="B31" s="107" t="s">
         <v>7</v>
       </c>
@@ -19594,7 +19597,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="590" t="s">
+      <c r="A32" s="601" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="106" t="s">
@@ -19632,7 +19635,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="600"/>
+      <c r="A33" s="606"/>
       <c r="B33" s="43" t="s">
         <v>9</v>
       </c>
@@ -19668,7 +19671,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="600"/>
+      <c r="A34" s="606"/>
       <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
@@ -19704,7 +19707,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="591"/>
+      <c r="A35" s="602"/>
       <c r="B35" s="107" t="s">
         <v>20</v>
       </c>
@@ -19867,7 +19870,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="592" t="s">
+      <c r="A39" s="603" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="106" t="s">
@@ -19913,7 +19916,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="601"/>
+      <c r="A40" s="607"/>
       <c r="B40" s="107" t="s">
         <v>29</v>
       </c>
@@ -19999,7 +20002,7 @@
       <c r="S41" s="127"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="590" t="s">
+      <c r="A42" s="601" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="106" t="s">
@@ -20046,7 +20049,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="600"/>
+      <c r="A43" s="606"/>
       <c r="B43" s="43" t="s">
         <v>117</v>
       </c>
@@ -20091,7 +20094,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="593"/>
+      <c r="A44" s="604"/>
       <c r="B44" s="43" t="s">
         <v>118</v>
       </c>
@@ -20136,7 +20139,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="593"/>
+      <c r="A45" s="604"/>
       <c r="B45" s="43" t="s">
         <v>119</v>
       </c>
@@ -20181,7 +20184,7 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="590" t="s">
+      <c r="A46" s="601" t="s">
         <v>381</v>
       </c>
       <c r="B46" s="106" t="s">
@@ -20228,7 +20231,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="600"/>
+      <c r="A47" s="606"/>
       <c r="B47" s="43" t="s">
         <v>117</v>
       </c>
@@ -20273,7 +20276,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="593"/>
+      <c r="A48" s="604"/>
       <c r="B48" s="43" t="s">
         <v>118</v>
       </c>
@@ -20318,7 +20321,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="593"/>
+      <c r="A49" s="604"/>
       <c r="B49" s="43" t="s">
         <v>119</v>
       </c>
@@ -20363,7 +20366,7 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="590" t="s">
+      <c r="A50" s="601" t="s">
         <v>380</v>
       </c>
       <c r="B50" s="106" t="s">
@@ -20410,7 +20413,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="600"/>
+      <c r="A51" s="606"/>
       <c r="B51" s="43" t="s">
         <v>117</v>
       </c>
@@ -20455,7 +20458,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="593"/>
+      <c r="A52" s="604"/>
       <c r="B52" s="43" t="s">
         <v>118</v>
       </c>
@@ -20500,7 +20503,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="594"/>
+      <c r="A53" s="605"/>
       <c r="B53" s="107" t="s">
         <v>119</v>
       </c>
@@ -20545,7 +20548,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="600" t="s">
+      <c r="A54" s="606" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -20583,7 +20586,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="600"/>
+      <c r="A55" s="606"/>
       <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
@@ -20619,7 +20622,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="592" t="s">
+      <c r="A56" s="603" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="342" t="s">
@@ -20657,7 +20660,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="593"/>
+      <c r="A57" s="604"/>
       <c r="B57" s="43" t="s">
         <v>116</v>
       </c>
@@ -20702,7 +20705,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="593"/>
+      <c r="A58" s="604"/>
       <c r="B58" s="43" t="s">
         <v>117</v>
       </c>
@@ -20747,7 +20750,7 @@
       <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="593"/>
+      <c r="A59" s="604"/>
       <c r="B59" s="43" t="s">
         <v>118</v>
       </c>
@@ -20792,7 +20795,7 @@
       <c r="S59" s="26"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="594"/>
+      <c r="A60" s="605"/>
       <c r="B60" s="107" t="s">
         <v>119</v>
       </c>
@@ -20912,7 +20915,7 @@
       <c r="K62" s="599"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="590" t="s">
+      <c r="A63" s="601" t="s">
         <v>312</v>
       </c>
       <c r="B63" s="106" t="s">
@@ -20950,7 +20953,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="591"/>
+      <c r="A64" s="602"/>
       <c r="B64" s="107" t="s">
         <v>7</v>
       </c>
@@ -21140,24 +21143,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:I23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="28">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A29:A31"/>
@@ -21168,6 +21153,24 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21200,11 +21203,11 @@
   </sheetPr>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21290,18 +21293,18 @@
       <c r="C4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="602" t="s">
+      <c r="D4" s="590" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="603"/>
-      <c r="F4" s="602" t="s">
+      <c r="E4" s="591"/>
+      <c r="F4" s="590" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="603"/>
-      <c r="H4" s="602" t="s">
+      <c r="G4" s="591"/>
+      <c r="H4" s="590" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="603"/>
+      <c r="I4" s="591"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -21317,21 +21320,21 @@
       </c>
       <c r="B5" s="290"/>
       <c r="C5" s="291"/>
-      <c r="D5" s="608" t="str">
+      <c r="D5" s="616" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik</v>
       </c>
-      <c r="E5" s="609"/>
-      <c r="F5" s="608" t="str">
+      <c r="E5" s="617"/>
+      <c r="F5" s="616" t="str">
         <f>Indata!F6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="G5" s="609"/>
-      <c r="H5" s="608" t="str">
+      <c r="G5" s="617"/>
+      <c r="H5" s="616" t="str">
         <f>Indata!H6</f>
         <v>Här kan användaren beskriva sitt scenario, t.ex. "Biodrivmedelsscenario"</v>
       </c>
-      <c r="I5" s="609"/>
+      <c r="I5" s="617"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -21379,7 +21382,7 @@
       <c r="Q6" s="127"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="610" t="s">
+      <c r="A7" s="611" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="292" t="s">
@@ -21513,7 +21516,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="611"/>
+      <c r="A11" s="613"/>
       <c r="B11" s="294" t="s">
         <v>185</v>
       </c>
@@ -21546,7 +21549,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="610" t="s">
+      <c r="A12" s="611" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="292" t="s">
@@ -21681,7 +21684,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="611"/>
+      <c r="A16" s="613"/>
       <c r="B16" s="294" t="s">
         <v>323</v>
       </c>
@@ -21714,7 +21717,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="610" t="s">
+      <c r="A17" s="611" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="292" t="s">
@@ -21749,7 +21752,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="611"/>
+      <c r="A18" s="613"/>
       <c r="B18" s="294" t="s">
         <v>324</v>
       </c>
@@ -21817,7 +21820,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="610" t="s">
+      <c r="A20" s="611" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="292" t="s">
@@ -22022,7 +22025,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="611"/>
+      <c r="A26" s="613"/>
       <c r="B26" s="392" t="s">
         <v>359</v>
       </c>
@@ -22055,7 +22058,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="610" t="s">
+      <c r="A27" s="611" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="292" t="s">
@@ -22294,7 +22297,7 @@
       <c r="J33" s="381"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="611"/>
+      <c r="A34" s="613"/>
       <c r="B34" s="392" t="s">
         <v>338</v>
       </c>
@@ -22363,7 +22366,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="611"/>
+      <c r="A36" s="613"/>
       <c r="B36" s="294" t="s">
         <v>324</v>
       </c>
@@ -22396,7 +22399,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="616" t="s">
+      <c r="A37" s="614" t="s">
         <v>279</v>
       </c>
       <c r="B37" s="292" t="s">
@@ -22431,7 +22434,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="617"/>
+      <c r="A38" s="615"/>
       <c r="B38" s="293" t="s">
         <v>324</v>
       </c>
@@ -22464,7 +22467,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="617"/>
+      <c r="A39" s="615"/>
       <c r="B39" s="293" t="s">
         <v>315</v>
       </c>
@@ -22491,7 +22494,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="617"/>
+      <c r="A40" s="615"/>
       <c r="B40" s="391" t="s">
         <v>16</v>
       </c>
@@ -22524,7 +22527,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="617"/>
+      <c r="A41" s="615"/>
       <c r="B41" s="518" t="s">
         <v>362</v>
       </c>
@@ -22557,7 +22560,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="610" t="s">
+      <c r="A42" s="611" t="s">
         <v>276</v>
       </c>
       <c r="B42" s="292" t="s">
@@ -22828,7 +22831,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="610" t="s">
+      <c r="A50" s="611" t="s">
         <v>271</v>
       </c>
       <c r="B50" s="292" t="s">
@@ -22962,7 +22965,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="613" t="s">
+      <c r="A54" s="608" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="292" t="s">
@@ -22998,7 +23001,7 @@
       <c r="J54" s="381"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="614"/>
+      <c r="A55" s="609"/>
       <c r="B55" s="293" t="s">
         <v>320</v>
       </c>
@@ -23033,7 +23036,7 @@
       <c r="K55" s="381"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="614"/>
+      <c r="A56" s="609"/>
       <c r="B56" s="293" t="s">
         <v>104</v>
       </c>
@@ -23068,7 +23071,7 @@
       <c r="K56" s="381"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="614"/>
+      <c r="A57" s="609"/>
       <c r="B57" s="293" t="s">
         <v>317</v>
       </c>
@@ -23107,7 +23110,7 @@
       <c r="O57" s="521"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="614"/>
+      <c r="A58" s="609"/>
       <c r="B58" s="293" t="s">
         <v>318</v>
       </c>
@@ -23142,7 +23145,7 @@
       <c r="K58" s="381"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="614"/>
+      <c r="A59" s="609"/>
       <c r="B59" s="293" t="s">
         <v>319</v>
       </c>
@@ -23178,7 +23181,7 @@
       <c r="O59" s="381"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="614"/>
+      <c r="A60" s="609"/>
       <c r="B60" s="391" t="s">
         <v>198</v>
       </c>
@@ -23217,7 +23220,7 @@
       <c r="O60" s="521"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="614"/>
+      <c r="A61" s="609"/>
       <c r="B61" s="391" t="s">
         <v>199</v>
       </c>
@@ -23252,7 +23255,7 @@
       <c r="K61" s="381"/>
     </row>
     <row r="62" spans="1:15" s="381" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="614"/>
+      <c r="A62" s="609"/>
       <c r="B62" s="391" t="s">
         <v>200</v>
       </c>
@@ -23285,7 +23288,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="615"/>
+      <c r="A63" s="610"/>
       <c r="B63" s="392" t="s">
         <v>364</v>
       </c>
@@ -23320,7 +23323,7 @@
       <c r="K63" s="381"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="614" t="s">
+      <c r="A64" s="609" t="s">
         <v>245</v>
       </c>
       <c r="B64" s="293" t="s">
@@ -23355,7 +23358,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="614"/>
+      <c r="A65" s="609"/>
       <c r="B65" s="293" t="s">
         <v>197</v>
       </c>
@@ -23388,7 +23391,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="614"/>
+      <c r="A66" s="609"/>
       <c r="B66" s="293" t="s">
         <v>104</v>
       </c>
@@ -23421,7 +23424,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="614"/>
+      <c r="A67" s="609"/>
       <c r="B67" s="293" t="s">
         <v>322</v>
       </c>
@@ -23454,7 +23457,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="614"/>
+      <c r="A68" s="609"/>
       <c r="B68" s="293" t="s">
         <v>321</v>
       </c>
@@ -23487,7 +23490,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="614"/>
+      <c r="A69" s="609"/>
       <c r="B69" s="293" t="s">
         <v>323</v>
       </c>
@@ -23520,7 +23523,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="614"/>
+      <c r="A70" s="609"/>
       <c r="B70" s="391" t="s">
         <v>198</v>
       </c>
@@ -23553,7 +23556,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="614"/>
+      <c r="A71" s="609"/>
       <c r="B71" s="391" t="s">
         <v>199</v>
       </c>
@@ -23586,7 +23589,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="615"/>
+      <c r="A72" s="610"/>
       <c r="B72" s="392" t="s">
         <v>200</v>
       </c>
@@ -23619,7 +23622,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="613" t="s">
+      <c r="A73" s="608" t="s">
         <v>203</v>
       </c>
       <c r="B73" s="292" t="s">
@@ -23654,7 +23657,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="614"/>
+      <c r="A74" s="609"/>
       <c r="B74" s="293" t="s">
         <v>324</v>
       </c>
@@ -23687,7 +23690,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="615"/>
+      <c r="A75" s="610"/>
       <c r="B75" s="392" t="s">
         <v>278</v>
       </c>
@@ -23720,7 +23723,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="613" t="s">
+      <c r="A76" s="608" t="s">
         <v>204</v>
       </c>
       <c r="B76" s="292" t="s">
@@ -23755,7 +23758,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="614"/>
+      <c r="A77" s="609"/>
       <c r="B77" s="293" t="s">
         <v>324</v>
       </c>
@@ -23788,7 +23791,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="615"/>
+      <c r="A78" s="610"/>
       <c r="B78" s="392" t="s">
         <v>278</v>
       </c>
@@ -23820,15 +23823,57 @@
         <v>24.86746127949721</v>
       </c>
     </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" s="292" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="292" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="26">
+        <f>D30*(D23-F23)+(F30-D30)*(F23-D23)/2</f>
+        <v>-3796.7756996424387</v>
+      </c>
+      <c r="G79" s="381">
+        <f>E30*(E23-G23)+(G30-E30)*(G23-E23)/2</f>
+        <v>100.42757139416648</v>
+      </c>
+    </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="293" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="296" t="s">
+        <v>136</v>
+      </c>
       <c r="E80" s="395"/>
       <c r="F80" s="395"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="392" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="392" t="s">
+        <v>136</v>
+      </c>
       <c r="D81" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A27:A34"/>
@@ -23838,17 +23883,6 @@
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26015,13 +26049,13 @@
       <c r="O3" s="127"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="592" t="s">
+      <c r="A4" s="603" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="625" t="s">
+      <c r="B4" s="624" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="626"/>
+      <c r="C4" s="625"/>
       <c r="D4" s="326">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -26042,11 +26076,11 @@
       <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="622"/>
-      <c r="B5" s="627" t="s">
+      <c r="A5" s="628"/>
+      <c r="B5" s="626" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="628"/>
+      <c r="C5" s="627"/>
       <c r="D5" s="326">
         <v>-0.05</v>
       </c>
@@ -26067,11 +26101,11 @@
       <c r="O5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="622"/>
-      <c r="B6" s="627" t="s">
+      <c r="A6" s="628"/>
+      <c r="B6" s="626" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="628"/>
+      <c r="C6" s="627"/>
       <c r="D6" s="326">
         <v>0</v>
       </c>
@@ -26092,11 +26126,11 @@
       <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="622"/>
-      <c r="B7" s="627" t="s">
+      <c r="A7" s="628"/>
+      <c r="B7" s="626" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="628"/>
+      <c r="C7" s="627"/>
       <c r="D7" s="326">
         <v>-0.1</v>
       </c>
@@ -26117,11 +26151,11 @@
       <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="622"/>
-      <c r="B8" s="627" t="s">
+      <c r="A8" s="628"/>
+      <c r="B8" s="626" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="628"/>
+      <c r="C8" s="627"/>
       <c r="D8" s="326">
         <f>Indata!D80</f>
         <v>-0.2</v>
@@ -26143,11 +26177,11 @@
       <c r="O8" s="40"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="601"/>
-      <c r="B9" s="623" t="s">
+      <c r="A9" s="607"/>
+      <c r="B9" s="622" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="624"/>
+      <c r="C9" s="623"/>
       <c r="D9" s="328">
         <f>Indata!D78</f>
         <v>-0.22</v>
@@ -26169,7 +26203,7 @@
       <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="595" t="s">
+      <c r="A10" s="592" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26198,7 +26232,7 @@
       <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="596"/>
+      <c r="A11" s="593"/>
       <c r="B11" s="43" t="s">
         <v>9</v>
       </c>
@@ -26225,7 +26259,7 @@
       <c r="O11" s="40"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="596" t="s">
+      <c r="A12" s="593" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -26254,7 +26288,7 @@
       <c r="O12" s="40"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="595" t="s">
+      <c r="A13" s="592" t="s">
         <v>266</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -26283,7 +26317,7 @@
       <c r="O13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="596"/>
+      <c r="A14" s="593"/>
       <c r="B14" s="43" t="s">
         <v>286</v>
       </c>
@@ -26310,7 +26344,7 @@
       <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="596" t="s">
+      <c r="A15" s="593" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -26339,7 +26373,7 @@
       <c r="O15" s="40"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="595" t="s">
+      <c r="A16" s="592" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -26368,7 +26402,7 @@
       <c r="O16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="596"/>
+      <c r="A17" s="593"/>
       <c r="B17" s="43" t="s">
         <v>286</v>
       </c>
@@ -26395,7 +26429,7 @@
       <c r="O17" s="40"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="597" t="s">
+      <c r="A18" s="600" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="107" t="s">
@@ -26424,7 +26458,7 @@
       <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="614" t="s">
+      <c r="A19" s="609" t="s">
         <v>273</v>
       </c>
       <c r="B19" s="293" t="s">
@@ -26453,7 +26487,7 @@
       <c r="O19" s="40"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="614"/>
+      <c r="A20" s="609"/>
       <c r="B20" s="293" t="s">
         <v>296</v>
       </c>
@@ -26480,7 +26514,7 @@
       <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="590" t="s">
+      <c r="A21" s="601" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="106" t="s">
@@ -26509,7 +26543,7 @@
       <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="600"/>
+      <c r="A22" s="606"/>
       <c r="B22" s="43" t="s">
         <v>97</v>
       </c>
@@ -26536,7 +26570,7 @@
       <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="600"/>
+      <c r="A23" s="606"/>
       <c r="B23" s="43" t="s">
         <v>134</v>
       </c>
@@ -26563,7 +26597,7 @@
       <c r="O23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="600"/>
+      <c r="A24" s="606"/>
       <c r="B24" s="43" t="s">
         <v>98</v>
       </c>
@@ -26590,7 +26624,7 @@
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="600"/>
+      <c r="A25" s="606"/>
       <c r="B25" s="43" t="s">
         <v>135</v>
       </c>
@@ -26617,7 +26651,7 @@
       <c r="O25" s="40"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="591"/>
+      <c r="A26" s="602"/>
       <c r="B26" s="107" t="s">
         <v>100</v>
       </c>
@@ -26645,6 +26679,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B4:C4"/>
@@ -26652,11 +26691,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26700,25 +26734,25 @@
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="632" t="s">
+      <c r="A2" s="629" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="632"/>
-      <c r="C2" s="632"/>
-      <c r="D2" s="632"/>
-      <c r="E2" s="632"/>
-      <c r="F2" s="632"/>
-      <c r="G2" s="632"/>
-      <c r="H2" s="632"/>
-      <c r="I2" s="632"/>
-      <c r="J2" s="632"/>
+      <c r="B2" s="629"/>
+      <c r="C2" s="629"/>
+      <c r="D2" s="629"/>
+      <c r="E2" s="629"/>
+      <c r="F2" s="629"/>
+      <c r="G2" s="629"/>
+      <c r="H2" s="629"/>
+      <c r="I2" s="629"/>
+      <c r="J2" s="629"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="633" t="s">
+      <c r="A3" s="630" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="634"/>
-      <c r="C3" s="634"/>
+      <c r="B3" s="631"/>
+      <c r="C3" s="631"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
       <c r="F3" s="197"/>
@@ -26795,18 +26829,18 @@
       <c r="B7" s="194"/>
       <c r="C7" s="194"/>
       <c r="D7" s="194"/>
-      <c r="E7" s="629" t="s">
+      <c r="E7" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="630"/>
-      <c r="G7" s="629" t="s">
+      <c r="F7" s="633"/>
+      <c r="G7" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="630"/>
-      <c r="I7" s="631" t="s">
+      <c r="H7" s="633"/>
+      <c r="I7" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="630"/>
+      <c r="J7" s="633"/>
       <c r="L7" s="26" t="s">
         <v>402</v>
       </c>
@@ -27422,18 +27456,18 @@
       <c r="B26" s="194"/>
       <c r="C26" s="194"/>
       <c r="D26" s="194"/>
-      <c r="E26" s="629" t="s">
+      <c r="E26" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="630"/>
-      <c r="G26" s="629" t="s">
+      <c r="F26" s="633"/>
+      <c r="G26" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="630"/>
-      <c r="I26" s="631" t="s">
+      <c r="H26" s="633"/>
+      <c r="I26" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="630"/>
+      <c r="J26" s="633"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="196" t="s">
@@ -28032,18 +28066,18 @@
       <c r="B45" s="194"/>
       <c r="C45" s="194"/>
       <c r="D45" s="194"/>
-      <c r="E45" s="629" t="s">
+      <c r="E45" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="630"/>
-      <c r="G45" s="629" t="s">
+      <c r="F45" s="633"/>
+      <c r="G45" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="630"/>
-      <c r="I45" s="631" t="s">
+      <c r="H45" s="633"/>
+      <c r="I45" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="630"/>
+      <c r="J45" s="633"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="196" t="s">
@@ -28634,18 +28668,18 @@
       <c r="B64" s="194"/>
       <c r="C64" s="194"/>
       <c r="D64" s="194"/>
-      <c r="E64" s="629" t="s">
+      <c r="E64" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="630"/>
-      <c r="G64" s="629" t="s">
+      <c r="F64" s="633"/>
+      <c r="G64" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="630"/>
-      <c r="I64" s="631" t="s">
+      <c r="H64" s="633"/>
+      <c r="I64" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="630"/>
+      <c r="J64" s="633"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="196" t="s">
@@ -29035,18 +29069,18 @@
       <c r="B77" s="194"/>
       <c r="C77" s="194"/>
       <c r="D77" s="194"/>
-      <c r="E77" s="629" t="s">
+      <c r="E77" s="634" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="630"/>
-      <c r="G77" s="629" t="s">
+      <c r="F77" s="633"/>
+      <c r="G77" s="634" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="630"/>
-      <c r="I77" s="631" t="s">
+      <c r="H77" s="633"/>
+      <c r="I77" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="630"/>
+      <c r="J77" s="633"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="196" t="s">
@@ -29431,11 +29465,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="E7:F7"/>
@@ -29448,6 +29477,11 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29498,87 +29532,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="325" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="643" t="s">
+      <c r="A3" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="649" t="s">
+      <c r="B3" s="640" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="650"/>
-      <c r="D3" s="643" t="s">
+      <c r="C3" s="641"/>
+      <c r="D3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="642"/>
-      <c r="F3" s="643" t="s">
+      <c r="E3" s="651"/>
+      <c r="F3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="642"/>
-      <c r="H3" s="641" t="s">
+      <c r="G3" s="651"/>
+      <c r="H3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="642"/>
-      <c r="K3" s="643" t="s">
+      <c r="I3" s="651"/>
+      <c r="K3" s="638" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="644" t="s">
         <v>237</v>
       </c>
       <c r="M3" s="645"/>
-      <c r="N3" s="643" t="s">
+      <c r="N3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="642"/>
-      <c r="P3" s="643" t="s">
+      <c r="O3" s="651"/>
+      <c r="P3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="642"/>
-      <c r="R3" s="641" t="s">
+      <c r="Q3" s="651"/>
+      <c r="R3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="642"/>
-      <c r="U3" s="643" t="s">
+      <c r="S3" s="651"/>
+      <c r="U3" s="638" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="644" t="s">
         <v>227</v>
       </c>
       <c r="W3" s="645"/>
-      <c r="X3" s="643" t="s">
+      <c r="X3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="642"/>
-      <c r="Z3" s="643" t="s">
+      <c r="Y3" s="651"/>
+      <c r="Z3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="642"/>
-      <c r="AB3" s="641" t="s">
+      <c r="AA3" s="651"/>
+      <c r="AB3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="642"/>
-      <c r="AE3" s="643" t="s">
+      <c r="AC3" s="651"/>
+      <c r="AE3" s="638" t="s">
         <v>67</v>
       </c>
       <c r="AF3" s="644" t="s">
         <v>238</v>
       </c>
       <c r="AG3" s="645"/>
-      <c r="AH3" s="643" t="s">
+      <c r="AH3" s="638" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="642"/>
-      <c r="AJ3" s="643" t="s">
+      <c r="AI3" s="651"/>
+      <c r="AJ3" s="638" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="642"/>
-      <c r="AL3" s="641" t="s">
+      <c r="AK3" s="651"/>
+      <c r="AL3" s="652" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="642"/>
+      <c r="AM3" s="651"/>
     </row>
     <row r="4" spans="1:39" s="127" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="648"/>
-      <c r="B4" s="651"/>
-      <c r="C4" s="652"/>
+      <c r="A4" s="639"/>
+      <c r="B4" s="642"/>
+      <c r="C4" s="643"/>
       <c r="D4" s="265">
         <v>2030</v>
       </c>
@@ -29597,7 +29631,7 @@
       <c r="I4" s="266">
         <v>2040</v>
       </c>
-      <c r="K4" s="648"/>
+      <c r="K4" s="639"/>
       <c r="L4" s="646"/>
       <c r="M4" s="647"/>
       <c r="N4" s="265">
@@ -29618,7 +29652,7 @@
       <c r="S4" s="266">
         <v>2040</v>
       </c>
-      <c r="U4" s="648"/>
+      <c r="U4" s="639"/>
       <c r="V4" s="646"/>
       <c r="W4" s="647"/>
       <c r="X4" s="265">
@@ -29639,7 +29673,7 @@
       <c r="AC4" s="266">
         <v>2040</v>
       </c>
-      <c r="AE4" s="648"/>
+      <c r="AE4" s="639"/>
       <c r="AF4" s="646"/>
       <c r="AG4" s="647"/>
       <c r="AH4" s="265">
@@ -29702,7 +29736,7 @@
       <c r="AM5" s="201"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="638" t="s">
+      <c r="A6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -29735,7 +29769,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="638" t="s">
+      <c r="K6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="135" t="s">
@@ -29768,7 +29802,7 @@
         <f>'Modell - Drivmedelpriser'!J24</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="U6" s="638" t="s">
+      <c r="U6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="135" t="s">
@@ -29801,7 +29835,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>27.329509698551796</v>
       </c>
-      <c r="AE6" s="638" t="s">
+      <c r="AE6" s="648" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="135" t="s">
@@ -29836,7 +29870,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="639"/>
+      <c r="A7" s="649"/>
       <c r="B7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29867,7 +29901,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="639"/>
+      <c r="K7" s="649"/>
       <c r="L7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29898,7 +29932,7 @@
         <f>'Modell - Drivmedelpriser'!J43</f>
         <v>24.89327119863777</v>
       </c>
-      <c r="U7" s="639"/>
+      <c r="U7" s="649"/>
       <c r="V7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29929,7 +29963,7 @@
         <f t="shared" si="4"/>
         <v>24.89327119863777</v>
       </c>
-      <c r="AE7" s="639"/>
+      <c r="AE7" s="649"/>
       <c r="AF7" s="136" t="s">
         <v>9</v>
       </c>
@@ -29962,7 +29996,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="639"/>
+      <c r="A8" s="649"/>
       <c r="B8" s="136" t="s">
         <v>7</v>
       </c>
@@ -29993,7 +30027,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="639"/>
+      <c r="K8" s="649"/>
       <c r="L8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30024,7 +30058,7 @@
         <f>'Modell - Drivmedelpriser'!J75</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="639"/>
+      <c r="U8" s="649"/>
       <c r="V8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30055,7 +30089,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="639"/>
+      <c r="AE8" s="649"/>
       <c r="AF8" s="136" t="s">
         <v>7</v>
       </c>
@@ -30088,7 +30122,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="303" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="639"/>
+      <c r="A9" s="649"/>
       <c r="B9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30119,7 +30153,7 @@
         <f>Indata!I35</f>
         <v>21.888963239913203</v>
       </c>
-      <c r="K9" s="639"/>
+      <c r="K9" s="649"/>
       <c r="L9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30150,7 +30184,7 @@
         <f t="shared" si="12"/>
         <v>26.181733806320725</v>
       </c>
-      <c r="U9" s="639"/>
+      <c r="U9" s="649"/>
       <c r="V9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30181,7 +30215,7 @@
         <f t="shared" si="13"/>
         <v>26.181733806320722</v>
       </c>
-      <c r="AE9" s="639"/>
+      <c r="AE9" s="649"/>
       <c r="AF9" s="187" t="s">
         <v>20</v>
       </c>
@@ -30214,7 +30248,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="640"/>
+      <c r="A10" s="650"/>
       <c r="B10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30239,7 +30273,7 @@
       <c r="I10" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="640"/>
+      <c r="K10" s="650"/>
       <c r="L10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30270,7 +30304,7 @@
         <f t="shared" si="15"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="U10" s="640"/>
+      <c r="U10" s="650"/>
       <c r="V10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30301,7 +30335,7 @@
         <f t="shared" si="16"/>
         <v>0.1961157556599078</v>
       </c>
-      <c r="AE10" s="640"/>
+      <c r="AE10" s="650"/>
       <c r="AF10" s="188" t="s">
         <v>234</v>
       </c>
@@ -30403,7 +30437,7 @@
       <c r="AM12" s="201"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="638" t="s">
+      <c r="A13" s="648" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="135" t="s">
@@ -30436,7 +30470,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="638" t="s">
+      <c r="K13" s="648" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="135" t="s">
@@ -30469,7 +30503,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="U13" s="638" t="s">
+      <c r="U13" s="648" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="135" t="s">
@@ -30502,7 +30536,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.48737280657399518</v>
       </c>
-      <c r="AE13" s="638" t="s">
+      <c r="AE13" s="648" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="135" t="s">
@@ -30537,7 +30571,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="639"/>
+      <c r="A14" s="649"/>
       <c r="B14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30568,7 +30602,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="639"/>
+      <c r="K14" s="649"/>
       <c r="L14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30599,7 +30633,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)</f>
         <v>0.4867802477475246</v>
       </c>
-      <c r="U14" s="639"/>
+      <c r="U14" s="649"/>
       <c r="V14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30630,7 +30664,7 @@
         <f t="shared" si="22"/>
         <v>0.4867802477475246</v>
       </c>
-      <c r="AE14" s="639"/>
+      <c r="AE14" s="649"/>
       <c r="AF14" s="136" t="s">
         <v>9</v>
       </c>
@@ -30663,7 +30697,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="640"/>
+      <c r="A15" s="650"/>
       <c r="B15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30694,7 +30728,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="640"/>
+      <c r="K15" s="650"/>
       <c r="L15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30725,7 +30759,7 @@
         <f>I15*(1-Indata!I$19)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="640"/>
+      <c r="U15" s="650"/>
       <c r="V15" s="137" t="s">
         <v>7</v>
       </c>
@@ -30756,7 +30790,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="640"/>
+      <c r="AE15" s="650"/>
       <c r="AF15" s="137" t="s">
         <v>7</v>
       </c>
@@ -31439,7 +31473,7 @@
       <c r="AM23" s="201"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="638" t="s">
+      <c r="A24" s="648" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="135" t="s">
@@ -31472,7 +31506,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="638" t="s">
+      <c r="K24" s="648" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="135" t="s">
@@ -31505,7 +31539,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="638" t="s">
+      <c r="U24" s="648" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="135" t="s">
@@ -31538,7 +31572,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="638" t="s">
+      <c r="AE24" s="648" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="135" t="s">
@@ -31573,7 +31607,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="639"/>
+      <c r="A25" s="649"/>
       <c r="B25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31604,7 +31638,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="639"/>
+      <c r="K25" s="649"/>
       <c r="L25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31635,7 +31669,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="639"/>
+      <c r="U25" s="649"/>
       <c r="V25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31666,7 +31700,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="639"/>
+      <c r="AE25" s="649"/>
       <c r="AF25" s="136" t="s">
         <v>9</v>
       </c>
@@ -31699,7 +31733,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="640"/>
+      <c r="A26" s="650"/>
       <c r="B26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31730,7 +31764,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="640"/>
+      <c r="K26" s="650"/>
       <c r="L26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31761,7 +31795,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="640"/>
+      <c r="U26" s="650"/>
       <c r="V26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31792,7 +31826,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="640"/>
+      <c r="AE26" s="650"/>
       <c r="AF26" s="137" t="s">
         <v>7</v>
       </c>
@@ -31900,7 +31934,7 @@
       <c r="AM28" s="201"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="638" t="s">
+      <c r="A29" s="648" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="135" t="s">
@@ -31933,7 +31967,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="638" t="s">
+      <c r="K29" s="648" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="135" t="s">
@@ -31966,7 +32000,7 @@
         <f t="shared" ref="S29:S31" si="68">I29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="638" t="s">
+      <c r="U29" s="648" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="135" t="s">
@@ -31999,7 +32033,7 @@
         <f t="shared" ref="AC29:AC31" si="73">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="638" t="s">
+      <c r="AE29" s="648" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="135" t="s">
@@ -32034,7 +32068,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="639"/>
+      <c r="A30" s="649"/>
       <c r="B30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32065,7 +32099,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="639"/>
+      <c r="K30" s="649"/>
       <c r="L30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32096,7 +32130,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="639"/>
+      <c r="U30" s="649"/>
       <c r="V30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32127,7 +32161,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="639"/>
+      <c r="AE30" s="649"/>
       <c r="AF30" s="136" t="s">
         <v>9</v>
       </c>
@@ -32160,7 +32194,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="640"/>
+      <c r="A31" s="650"/>
       <c r="B31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32191,7 +32225,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="640"/>
+      <c r="K31" s="650"/>
       <c r="L31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32222,7 +32256,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="640"/>
+      <c r="U31" s="650"/>
       <c r="V31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32253,7 +32287,7 @@
         <f t="shared" si="73"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="640"/>
+      <c r="AE31" s="650"/>
       <c r="AF31" s="137" t="s">
         <v>7</v>
       </c>
@@ -32944,7 +32978,7 @@
       <c r="AM39" s="201"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="638" t="s">
+      <c r="A40" s="648" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="135" t="s">
@@ -32977,7 +33011,7 @@
         <f t="shared" si="90"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="638" t="s">
+      <c r="K40" s="648" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="135" t="s">
@@ -33010,7 +33044,7 @@
         <f t="shared" si="91"/>
         <v>23.329659844074406</v>
       </c>
-      <c r="U40" s="638" t="s">
+      <c r="U40" s="648" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="135" t="s">
@@ -33043,7 +33077,7 @@
         <f t="shared" ref="AC40:AC42" si="96">S40</f>
         <v>23.329659844074406</v>
       </c>
-      <c r="AE40" s="638" t="s">
+      <c r="AE40" s="648" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="135" t="s">
@@ -33078,7 +33112,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="639"/>
+      <c r="A41" s="649"/>
       <c r="B41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33109,7 +33143,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="639"/>
+      <c r="K41" s="649"/>
       <c r="L41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33140,7 +33174,7 @@
         <f t="shared" si="91"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="U41" s="639"/>
+      <c r="U41" s="649"/>
       <c r="V41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33171,7 +33205,7 @@
         <f t="shared" si="96"/>
         <v>22.127552721319212</v>
       </c>
-      <c r="AE41" s="639"/>
+      <c r="AE41" s="649"/>
       <c r="AF41" s="136" t="s">
         <v>9</v>
       </c>
@@ -33204,7 +33238,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="639"/>
+      <c r="A42" s="649"/>
       <c r="B42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33235,7 +33269,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="639"/>
+      <c r="K42" s="649"/>
       <c r="L42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33266,7 +33300,7 @@
         <f t="shared" si="91"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="639"/>
+      <c r="U42" s="649"/>
       <c r="V42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33297,7 +33331,7 @@
         <f t="shared" si="96"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="639"/>
+      <c r="AE42" s="649"/>
       <c r="AF42" s="136" t="s">
         <v>7</v>
       </c>
@@ -33330,7 +33364,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="639"/>
+      <c r="A43" s="649"/>
       <c r="B43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33359,7 +33393,7 @@
         <f t="shared" si="104"/>
         <v>18.064425082921922</v>
       </c>
-      <c r="K43" s="639"/>
+      <c r="K43" s="649"/>
       <c r="L43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33390,7 +33424,7 @@
         <f t="shared" ref="S43" si="105">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>18.645576333860959</v>
       </c>
-      <c r="U43" s="639"/>
+      <c r="U43" s="649"/>
       <c r="V43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33421,7 +33455,7 @@
         <f t="shared" si="106"/>
         <v>18.645576333860962</v>
       </c>
-      <c r="AE43" s="639"/>
+      <c r="AE43" s="649"/>
       <c r="AF43" s="187" t="s">
         <v>76</v>
       </c>
@@ -33454,7 +33488,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="640"/>
+      <c r="A44" s="650"/>
       <c r="B44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33479,7 +33513,7 @@
       <c r="I44" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="640"/>
+      <c r="K44" s="650"/>
       <c r="L44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33510,7 +33544,7 @@
         <f>S43/E43-1</f>
         <v>-5.1358020489668088E-2</v>
       </c>
-      <c r="U44" s="640"/>
+      <c r="U44" s="650"/>
       <c r="V44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33541,7 +33575,7 @@
         <f>AC43/E43-1</f>
         <v>-5.1358020489667866E-2</v>
       </c>
-      <c r="AE44" s="640"/>
+      <c r="AE44" s="650"/>
       <c r="AF44" s="188" t="s">
         <v>234</v>
       </c>
@@ -33649,7 +33683,7 @@
       <c r="AM46" s="78"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="638" t="s">
+      <c r="A47" s="648" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="135" t="s">
@@ -33682,7 +33716,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="638" t="s">
+      <c r="K47" s="648" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="135" t="s">
@@ -33715,7 +33749,7 @@
         <f t="shared" si="107"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="638" t="s">
+      <c r="U47" s="648" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="135" t="s">
@@ -33748,7 +33782,7 @@
         <f t="shared" ref="AC47:AC49" si="112">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="638" t="s">
+      <c r="AE47" s="648" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="135" t="s">
@@ -33783,7 +33817,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="639"/>
+      <c r="A48" s="649"/>
       <c r="B48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33814,7 +33848,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="639"/>
+      <c r="K48" s="649"/>
       <c r="L48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33845,7 +33879,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$E$7*S44)*'Modell - Lätta fordon'!I48</f>
         <v>0.53200533240081493</v>
       </c>
-      <c r="U48" s="639"/>
+      <c r="U48" s="649"/>
       <c r="V48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33876,7 +33910,7 @@
         <f t="shared" si="112"/>
         <v>0.53200533240081493</v>
       </c>
-      <c r="AE48" s="639"/>
+      <c r="AE48" s="649"/>
       <c r="AF48" s="136" t="s">
         <v>29</v>
       </c>
@@ -33909,7 +33943,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="639"/>
+      <c r="A49" s="649"/>
       <c r="B49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33940,7 +33974,7 @@
         <f t="shared" si="118"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="639"/>
+      <c r="K49" s="649"/>
       <c r="L49" s="136" t="s">
         <v>34</v>
       </c>
@@ -33971,7 +34005,7 @@
         <f t="shared" ref="S49" si="121">S47*S48</f>
         <v>6197170.5155373728</v>
       </c>
-      <c r="U49" s="639"/>
+      <c r="U49" s="649"/>
       <c r="V49" s="136" t="s">
         <v>34</v>
       </c>
@@ -34002,7 +34036,7 @@
         <f t="shared" si="112"/>
         <v>6197170.5155373728</v>
       </c>
-      <c r="AE49" s="639"/>
+      <c r="AE49" s="649"/>
       <c r="AF49" s="136" t="s">
         <v>34</v>
       </c>
@@ -34035,7 +34069,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="640"/>
+      <c r="A50" s="650"/>
       <c r="B50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34060,7 +34094,7 @@
       <c r="I50" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="640"/>
+      <c r="K50" s="650"/>
       <c r="L50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34091,7 +34125,7 @@
         <f>S49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="U50" s="640"/>
+      <c r="U50" s="650"/>
       <c r="V50" s="188" t="s">
         <v>234</v>
       </c>
@@ -34122,7 +34156,7 @@
         <f>AC49/E49-1</f>
         <v>5.1358020489669087E-3</v>
       </c>
-      <c r="AE50" s="640"/>
+      <c r="AE50" s="650"/>
       <c r="AF50" s="188" t="s">
         <v>234</v>
       </c>
@@ -35686,6 +35720,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AE86:AE89"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -35702,48 +35778,6 @@
     <mergeCell ref="AE24:AE26"/>
     <mergeCell ref="AE29:AE31"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
